--- a/UFLP/data.xlsx
+++ b/UFLP/data.xlsx
@@ -454,1102 +454,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-60.61706174648423</v>
+        <v>6.004181489414917</v>
       </c>
       <c r="B2" t="n">
-        <v>18.72529906648529</v>
+        <v>-77.55989014051541</v>
       </c>
       <c r="C2" t="n">
-        <v>79.77281074466148</v>
+        <v>61.70869122362482</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>61.17522178878774</v>
+        <v>-65.54181913111989</v>
       </c>
       <c r="B3" t="n">
-        <v>-79.45764176745807</v>
+        <v>-15.25759363010957</v>
       </c>
       <c r="C3" t="n">
-        <v>79.4742039055857</v>
+        <v>93.06230104822509</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-88.45046737279426</v>
+        <v>38.9448752310293</v>
       </c>
       <c r="B4" t="n">
-        <v>31.83818059207125</v>
+        <v>-40.71319748528468</v>
       </c>
       <c r="C4" t="n">
-        <v>93.42155958194486</v>
+        <v>98.6192596408163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-48.95435402104086</v>
+        <v>-23.16528642730783</v>
       </c>
       <c r="B5" t="n">
-        <v>-38.63775961195692</v>
+        <v>5.71639718331981</v>
       </c>
       <c r="C5" t="n">
-        <v>78.13917401516836</v>
+        <v>66.5000053848746</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-18.11955428531633</v>
+        <v>-8.428241551550242</v>
       </c>
       <c r="B6" t="n">
-        <v>-54.31561844524482</v>
+        <v>17.53948126035696</v>
       </c>
       <c r="C6" t="n">
-        <v>95.02229986192425</v>
+        <v>57.54077885347471</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-61.0563773991923</v>
+        <v>5.569403373419368</v>
       </c>
       <c r="B7" t="n">
-        <v>-24.16276159712859</v>
+        <v>96.94475178269943</v>
       </c>
       <c r="C7" t="n">
-        <v>74.46638066644273</v>
+        <v>63.4346774991405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-32.14904249129705</v>
+        <v>-4.849296766295497</v>
       </c>
       <c r="B8" t="n">
-        <v>20.04864361220553</v>
+        <v>8.569604129408981</v>
       </c>
       <c r="C8" t="n">
-        <v>63.77745305759412</v>
+        <v>90.65510063375673</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-18.22738174103978</v>
+        <v>74.50873533597206</v>
       </c>
       <c r="B9" t="n">
-        <v>98.98586281513381</v>
+        <v>-7.46659478221301</v>
       </c>
       <c r="C9" t="n">
-        <v>72.07490774665783</v>
+        <v>60.52963155416197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>27.26573296633144</v>
+        <v>75.62669958308513</v>
       </c>
       <c r="B10" t="n">
-        <v>18.20236856934066</v>
+        <v>51.77721804432925</v>
       </c>
       <c r="C10" t="n">
-        <v>61.00324919542034</v>
+        <v>87.31796406897202</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-68.73080769199224</v>
+        <v>-30.66838507390486</v>
       </c>
       <c r="B11" t="n">
-        <v>36.72550383128465</v>
+        <v>54.34305844780081</v>
       </c>
       <c r="C11" t="n">
-        <v>57.96784678423666</v>
+        <v>82.32804859733443</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-26.6630065037207</v>
+        <v>-50.88985066739627</v>
       </c>
       <c r="B12" t="n">
-        <v>-27.5639988045902</v>
+        <v>-84.33031060031709</v>
       </c>
       <c r="C12" t="n">
-        <v>87.95418328251957</v>
+        <v>58.34616933536324</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>21.0439371604725</v>
+        <v>-35.32665996003915</v>
       </c>
       <c r="B13" t="n">
-        <v>-37.79783556392934</v>
+        <v>-23.99518559783334</v>
       </c>
       <c r="C13" t="n">
-        <v>57.0267825445821</v>
+        <v>55.54172730569051</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-60.9871567974844</v>
+        <v>-26.6728643614071</v>
       </c>
       <c r="B14" t="n">
-        <v>-34.2976182788993</v>
+        <v>70.35150597632975</v>
       </c>
       <c r="C14" t="n">
-        <v>86.70083640790895</v>
+        <v>89.05262739765188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>76.41948638888775</v>
+        <v>3.548438817601018</v>
       </c>
       <c r="B15" t="n">
-        <v>11.3464471070159</v>
+        <v>-48.24146480599547</v>
       </c>
       <c r="C15" t="n">
-        <v>54.38725014102252</v>
+        <v>65.67460607345339</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-64.01468883690744</v>
+        <v>-93.50006246468874</v>
       </c>
       <c r="B16" t="n">
-        <v>88.78433640538042</v>
+        <v>91.3989210556315</v>
       </c>
       <c r="C16" t="n">
-        <v>90.76981832389846</v>
+        <v>94.53623541097606</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>30.61055100633673</v>
+        <v>-58.34001943959897</v>
       </c>
       <c r="B17" t="n">
-        <v>-43.064227091689</v>
+        <v>26.91733888001412</v>
       </c>
       <c r="C17" t="n">
-        <v>70.71436998316682</v>
+        <v>61.15995125480689</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-12.56665369899529</v>
+        <v>33.61542509344397</v>
       </c>
       <c r="B18" t="n">
-        <v>-92.8989256764845</v>
+        <v>-25.31987448274225</v>
       </c>
       <c r="C18" t="n">
-        <v>89.11317835652437</v>
+        <v>55.02518340412856</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-19.71102936985759</v>
+        <v>54.38724663833086</v>
       </c>
       <c r="B19" t="n">
-        <v>82.78126911862449</v>
+        <v>-69.20342827268981</v>
       </c>
       <c r="C19" t="n">
-        <v>87.51976040062888</v>
+        <v>52.31220647782979</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-27.92323877630654</v>
+        <v>89.49841782897859</v>
       </c>
       <c r="B20" t="n">
-        <v>11.31406892775582</v>
+        <v>-1.886099704402877</v>
       </c>
       <c r="C20" t="n">
-        <v>95.50534099931338</v>
+        <v>85.23163659165425</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>5.611123993476996</v>
+        <v>-39.60225501269099</v>
       </c>
       <c r="B21" t="n">
-        <v>-87.04785927567619</v>
+        <v>-10.37180298860278</v>
       </c>
       <c r="C21" t="n">
-        <v>51.59388003160291</v>
+        <v>56.78179569557282</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>42.40456844134201</v>
+        <v>-60.01597290223022</v>
       </c>
       <c r="B22" t="n">
-        <v>-74.88588681555075</v>
+        <v>-37.55441449550958</v>
       </c>
       <c r="C22" t="n">
-        <v>52.04799456600958</v>
+        <v>55.54994777261153</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>78.77280031281627</v>
+        <v>97.90437005858358</v>
       </c>
       <c r="B23" t="n">
-        <v>28.0933385055143</v>
+        <v>23.91811033784942</v>
       </c>
       <c r="C23" t="n">
-        <v>99.43352635905953</v>
+        <v>52.84613024769257</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>96.76628931592596</v>
+        <v>61.10807853817695</v>
       </c>
       <c r="B24" t="n">
-        <v>-86.29065943804197</v>
+        <v>-39.52799112719744</v>
       </c>
       <c r="C24" t="n">
-        <v>83.94717100346718</v>
+        <v>68.69538993922238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-41.35058908877365</v>
+        <v>-39.79392068379736</v>
       </c>
       <c r="B25" t="n">
-        <v>-52.29283951676227</v>
+        <v>-67.79402541600824</v>
       </c>
       <c r="C25" t="n">
-        <v>58.68260211640632</v>
+        <v>51.72050517562096</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-97.28636733190709</v>
+        <v>31.38722109227574</v>
       </c>
       <c r="B26" t="n">
-        <v>59.13553537247055</v>
+        <v>-64.16520482925091</v>
       </c>
       <c r="C26" t="n">
-        <v>50.45727830940125</v>
+        <v>72.03357880974329</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>15.53110466976918</v>
+        <v>76.66809598560128</v>
       </c>
       <c r="B27" t="n">
-        <v>-88.56436134969447</v>
+        <v>-30.1177512255117</v>
       </c>
       <c r="C27" t="n">
-        <v>93.27812515770765</v>
+        <v>60.97185627857981</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14.66763057597715</v>
+        <v>-79.38579489115573</v>
       </c>
       <c r="B28" t="n">
-        <v>22.304464169843</v>
+        <v>93.44940883620428</v>
       </c>
       <c r="C28" t="n">
-        <v>60.16370706731028</v>
+        <v>75.49689497181215</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5.927430712930059</v>
+        <v>-55.65716753398397</v>
       </c>
       <c r="B29" t="n">
-        <v>-41.88358676245493</v>
+        <v>-64.98017642037286</v>
       </c>
       <c r="C29" t="n">
-        <v>60.73730438000695</v>
+        <v>86.05853062068907</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-88.13668646095795</v>
+        <v>-49.1911463234329</v>
       </c>
       <c r="B30" t="n">
-        <v>60.36778405805633</v>
+        <v>-93.13683028143956</v>
       </c>
       <c r="C30" t="n">
-        <v>98.6449298742742</v>
+        <v>50.63105718465274</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-27.78291680833371</v>
+        <v>40.55171991268084</v>
       </c>
       <c r="B31" t="n">
-        <v>-40.69316067680258</v>
+        <v>57.52367044230666</v>
       </c>
       <c r="C31" t="n">
-        <v>75.235932608083</v>
+        <v>72.87140072586408</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-24.61492379063446</v>
+        <v>64.30787384097422</v>
       </c>
       <c r="B32" t="n">
-        <v>95.18361279805427</v>
+        <v>-87.04242328365339</v>
       </c>
       <c r="C32" t="n">
-        <v>89.08205847000181</v>
+        <v>94.64927608920631</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>51.64358905201677</v>
+        <v>-30.10897190440214</v>
       </c>
       <c r="B33" t="n">
-        <v>83.99594295482527</v>
+        <v>-64.17224720204953</v>
       </c>
       <c r="C33" t="n">
-        <v>78.33443764491624</v>
+        <v>61.66756194401467</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>41.53659613452955</v>
+        <v>-73.8185045197304</v>
       </c>
       <c r="B34" t="n">
-        <v>91.00666702035927</v>
+        <v>54.23121209231704</v>
       </c>
       <c r="C34" t="n">
-        <v>82.12783892134853</v>
+        <v>74.12245637956619</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>78.42133103192204</v>
+        <v>54.7020102808255</v>
       </c>
       <c r="B35" t="n">
-        <v>69.82021770945458</v>
+        <v>16.82480484981811</v>
       </c>
       <c r="C35" t="n">
-        <v>93.46152263761503</v>
+        <v>67.58958513365744</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-38.57315423724379</v>
+        <v>-94.73582681738517</v>
       </c>
       <c r="B36" t="n">
-        <v>27.57055968905395</v>
+        <v>-25.19761107524031</v>
       </c>
       <c r="C36" t="n">
-        <v>89.24082522222433</v>
+        <v>57.99585782104892</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.478141207518288</v>
+        <v>73.52662183204963</v>
       </c>
       <c r="B37" t="n">
-        <v>-81.06381343659764</v>
+        <v>98.14843792906164</v>
       </c>
       <c r="C37" t="n">
-        <v>89.35456738933304</v>
+        <v>97.87435054319363</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>69.84306318036923</v>
+        <v>-36.32306946086376</v>
       </c>
       <c r="B38" t="n">
-        <v>-5.184178617032398</v>
+        <v>-77.54377633448965</v>
       </c>
       <c r="C38" t="n">
-        <v>50.84912772022815</v>
+        <v>62.31339442091384</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-71.4184246078637</v>
+        <v>69.78671470998987</v>
       </c>
       <c r="B39" t="n">
-        <v>-14.72019251515002</v>
+        <v>-22.87869393493345</v>
       </c>
       <c r="C39" t="n">
-        <v>52.35809017920116</v>
+        <v>77.21122311811901</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>62.13388513511207</v>
+        <v>10.03665124317699</v>
       </c>
       <c r="B40" t="n">
-        <v>-49.66655952378862</v>
+        <v>28.72600380363235</v>
       </c>
       <c r="C40" t="n">
-        <v>94.253333703005</v>
+        <v>82.38565869627055</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>91.65882855714506</v>
+        <v>26.75399907975757</v>
       </c>
       <c r="B41" t="n">
-        <v>82.99639047968415</v>
+        <v>-55.89403219535127</v>
       </c>
       <c r="C41" t="n">
-        <v>50.12630385835919</v>
+        <v>57.24276202006936</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-79.98235955308168</v>
+        <v>80.79438493422518</v>
       </c>
       <c r="B42" t="n">
-        <v>-51.39346784225867</v>
+        <v>-78.81140807526931</v>
       </c>
       <c r="C42" t="n">
-        <v>62.68805804399896</v>
+        <v>80.71223487763498</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>44.16782167519872</v>
+        <v>55.59284415506417</v>
       </c>
       <c r="B43" t="n">
-        <v>30.57254939568567</v>
+        <v>85.05133943250296</v>
       </c>
       <c r="C43" t="n">
-        <v>66.19969156438997</v>
+        <v>76.41536130452006</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-23.09888649921912</v>
+        <v>68.88797560011503</v>
       </c>
       <c r="B44" t="n">
-        <v>96.47090803041753</v>
+        <v>-3.06633159077484</v>
       </c>
       <c r="C44" t="n">
-        <v>59.33479917513063</v>
+        <v>71.36295315809294</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>62.28430278786284</v>
+        <v>-57.97702518292742</v>
       </c>
       <c r="B45" t="n">
-        <v>-67.20185538117886</v>
+        <v>-41.54428695880033</v>
       </c>
       <c r="C45" t="n">
-        <v>60.57357703967963</v>
+        <v>86.09783860015425</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-15.05630764136628</v>
+        <v>6.872745225472365</v>
       </c>
       <c r="B46" t="n">
-        <v>-31.60849913699678</v>
+        <v>-14.43545183232076</v>
       </c>
       <c r="C46" t="n">
-        <v>78.29214872894394</v>
+        <v>76.9832242804349</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23.81491108857606</v>
+        <v>-5.972381755013656</v>
       </c>
       <c r="B47" t="n">
-        <v>11.90475767215668</v>
+        <v>51.10108765280702</v>
       </c>
       <c r="C47" t="n">
-        <v>67.37822066076698</v>
+        <v>50.08699318091514</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>12.30056143910974</v>
+        <v>95.77916316477008</v>
       </c>
       <c r="B48" t="n">
-        <v>31.69568717895162</v>
+        <v>-75.10298991367503</v>
       </c>
       <c r="C48" t="n">
-        <v>90.69533948678379</v>
+        <v>68.69656326245283</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-58.38529043224361</v>
+        <v>-33.9004939044137</v>
       </c>
       <c r="B49" t="n">
-        <v>83.90750536715808</v>
+        <v>-92.60723037783951</v>
       </c>
       <c r="C49" t="n">
-        <v>81.9391439179484</v>
+        <v>91.16856349670223</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-38.25169050954261</v>
+        <v>-22.66633004856895</v>
       </c>
       <c r="B50" t="n">
-        <v>47.35428265750068</v>
+        <v>-84.97029328781436</v>
       </c>
       <c r="C50" t="n">
-        <v>59.6450753440017</v>
+        <v>82.78926609352133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-9.724928212463379</v>
+        <v>21.37082543981408</v>
       </c>
       <c r="B51" t="n">
-        <v>87.89406122096374</v>
+        <v>47.39634473162716</v>
       </c>
       <c r="C51" t="n">
-        <v>73.87994086248021</v>
+        <v>83.03240187376116</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-29.24660473408143</v>
+        <v>81.27174963230327</v>
       </c>
       <c r="B52" t="n">
-        <v>20.933138526874</v>
+        <v>-13.26655759295595</v>
       </c>
       <c r="C52" t="n">
-        <v>51.69853544565967</v>
+        <v>93.0665122014845</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-32.6203524925704</v>
+        <v>-48.86058903989596</v>
       </c>
       <c r="B53" t="n">
-        <v>-5.803940327004398</v>
+        <v>-91.88225133528786</v>
       </c>
       <c r="C53" t="n">
-        <v>54.04195983485427</v>
+        <v>77.76632323976528</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>57.26726338370748</v>
+        <v>-51.85871467627642</v>
       </c>
       <c r="B54" t="n">
-        <v>95.76154947989814</v>
+        <v>8.589513423784146</v>
       </c>
       <c r="C54" t="n">
-        <v>80.03329744196979</v>
+        <v>86.35930816193158</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-24.39308748417689</v>
+        <v>20.06672063309142</v>
       </c>
       <c r="B55" t="n">
-        <v>-45.24321092301881</v>
+        <v>-74.80583397518477</v>
       </c>
       <c r="C55" t="n">
-        <v>58.43957583018088</v>
+        <v>85.68228603036978</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>22.35086916935677</v>
+        <v>44.00152106087069</v>
       </c>
       <c r="B56" t="n">
-        <v>-65.98172085189115</v>
+        <v>-64.34445355136393</v>
       </c>
       <c r="C56" t="n">
-        <v>64.76858842798781</v>
+        <v>60.95193887870203</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-39.23297201248344</v>
+        <v>-93.76233834979901</v>
       </c>
       <c r="B57" t="n">
-        <v>9.813624513563269</v>
+        <v>-68.61387469173363</v>
       </c>
       <c r="C57" t="n">
-        <v>74.41042970189204</v>
+        <v>83.86727724402547</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-76.24543254049769</v>
+        <v>-64.04326098338127</v>
       </c>
       <c r="B58" t="n">
-        <v>68.18131156248489</v>
+        <v>-93.69560526738489</v>
       </c>
       <c r="C58" t="n">
-        <v>68.53580189610987</v>
+        <v>69.06526524704348</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>35.28759390166908</v>
+        <v>2.386108010096488</v>
       </c>
       <c r="B59" t="n">
-        <v>-26.79874264722973</v>
+        <v>98.02872015853139</v>
       </c>
       <c r="C59" t="n">
-        <v>59.20462147843175</v>
+        <v>76.24500254569971</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>91.8704646235559</v>
+        <v>-98.27053401506843</v>
       </c>
       <c r="B60" t="n">
-        <v>-80.26405982391776</v>
+        <v>37.10913027849821</v>
       </c>
       <c r="C60" t="n">
-        <v>53.19920831968017</v>
+        <v>59.11346234992827</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>94.38721176911784</v>
+        <v>59.82082029656044</v>
       </c>
       <c r="B61" t="n">
-        <v>17.81059352888645</v>
+        <v>77.21514749941664</v>
       </c>
       <c r="C61" t="n">
-        <v>60.5052847515994</v>
+        <v>64.92941255625676</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-24.73338510507424</v>
+        <v>-34.05549756464598</v>
       </c>
       <c r="B62" t="n">
-        <v>-87.38605204707682</v>
+        <v>61.06312679713039</v>
       </c>
       <c r="C62" t="n">
-        <v>82.91312068633856</v>
+        <v>59.0090316898643</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>16.4569747379633</v>
+        <v>-33.79525082879461</v>
       </c>
       <c r="B63" t="n">
-        <v>-59.09324763122448</v>
+        <v>-73.51995418954267</v>
       </c>
       <c r="C63" t="n">
-        <v>72.88634222461636</v>
+        <v>83.75131430855045</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-25.76551314345048</v>
+        <v>30.39853527268993</v>
       </c>
       <c r="B64" t="n">
-        <v>-65.7830159984326</v>
+        <v>-61.94794714566703</v>
       </c>
       <c r="C64" t="n">
-        <v>99.94365387961463</v>
+        <v>81.90361574332675</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>74.98229255014316</v>
+        <v>19.64062876058576</v>
       </c>
       <c r="B65" t="n">
-        <v>-35.02134741135367</v>
+        <v>-76.81084029947563</v>
       </c>
       <c r="C65" t="n">
-        <v>92.57727994144614</v>
+        <v>63.04528050397866</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>3.727570649718837</v>
+        <v>-96.55402944839325</v>
       </c>
       <c r="B66" t="n">
-        <v>44.38716908436142</v>
+        <v>83.18756826432545</v>
       </c>
       <c r="C66" t="n">
-        <v>82.86586577842598</v>
+        <v>98.86046507242781</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-11.53233918564609</v>
+        <v>-25.81159382831799</v>
       </c>
       <c r="B67" t="n">
-        <v>-67.09585654864235</v>
+        <v>12.77816733342726</v>
       </c>
       <c r="C67" t="n">
-        <v>68.38001463456024</v>
+        <v>79.05073834558651</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-59.7249831210997</v>
+        <v>-23.78969718421071</v>
       </c>
       <c r="B68" t="n">
-        <v>17.31906808826373</v>
+        <v>4.850822608440463</v>
       </c>
       <c r="C68" t="n">
-        <v>51.75862768330086</v>
+        <v>74.8909221943033</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-20.9709924348512</v>
+        <v>-94.61359740979282</v>
       </c>
       <c r="B69" t="n">
-        <v>23.20737000944784</v>
+        <v>-11.23583010906052</v>
       </c>
       <c r="C69" t="n">
-        <v>84.23036426402119</v>
+        <v>79.03148794860491</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-7.608749118176084</v>
+        <v>27.64480384741869</v>
       </c>
       <c r="B70" t="n">
-        <v>-2.448598741074248</v>
+        <v>35.89447335009265</v>
       </c>
       <c r="C70" t="n">
-        <v>55.30678779540297</v>
+        <v>73.77660236965581</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-18.95027597323521</v>
+        <v>30.98420868862874</v>
       </c>
       <c r="B71" t="n">
-        <v>27.86598266617578</v>
+        <v>71.03080650226505</v>
       </c>
       <c r="C71" t="n">
-        <v>91.64740763752968</v>
+        <v>85.15951941998973</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>13.90952901784445</v>
+        <v>64.48541016943916</v>
       </c>
       <c r="B72" t="n">
-        <v>-58.86859441841759</v>
+        <v>-14.85088103141494</v>
       </c>
       <c r="C72" t="n">
-        <v>74.97321605694282</v>
+        <v>71.72745679732304</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-99.46693570026144</v>
+        <v>-93.45787920295669</v>
       </c>
       <c r="B73" t="n">
-        <v>-59.88396616813279</v>
+        <v>29.74221495139922</v>
       </c>
       <c r="C73" t="n">
-        <v>96.51457959479463</v>
+        <v>72.9099324048854</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>72.02726888305288</v>
+        <v>-49.69605492514621</v>
       </c>
       <c r="B74" t="n">
-        <v>-52.8272223324543</v>
+        <v>50.91161755688978</v>
       </c>
       <c r="C74" t="n">
-        <v>77.36949787553471</v>
+        <v>53.9203924242379</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-15.91187951929093</v>
+        <v>32.02739523786376</v>
       </c>
       <c r="B75" t="n">
-        <v>50.39930525838518</v>
+        <v>31.47209175720701</v>
       </c>
       <c r="C75" t="n">
-        <v>80.60951404197553</v>
+        <v>61.1668574585473</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>40.3529191021448</v>
+        <v>-7.376988078545699</v>
       </c>
       <c r="B76" t="n">
-        <v>-99.38043053834853</v>
+        <v>-22.17634385124472</v>
       </c>
       <c r="C76" t="n">
-        <v>71.08477284177273</v>
+        <v>52.70536888085807</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>17.91966330845984</v>
+        <v>-77.11027627530061</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.6037214108066791</v>
+        <v>-66.37458482359952</v>
       </c>
       <c r="C77" t="n">
-        <v>76.86608319398727</v>
+        <v>54.79871700156595</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>37.6519452349777</v>
+        <v>65.97380193240097</v>
       </c>
       <c r="B78" t="n">
-        <v>10.74927368891593</v>
+        <v>-91.51756408711165</v>
       </c>
       <c r="C78" t="n">
-        <v>91.22005688653466</v>
+        <v>53.13375874090931</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>91.08805592616623</v>
+        <v>57.41806986902501</v>
       </c>
       <c r="B79" t="n">
-        <v>34.63063546432047</v>
+        <v>-95.48274923415691</v>
       </c>
       <c r="C79" t="n">
-        <v>95.52602949042394</v>
+        <v>93.83055716189997</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-14.35821159545478</v>
+        <v>9.369743441473188</v>
       </c>
       <c r="B80" t="n">
-        <v>33.15217438268627</v>
+        <v>72.27584752651954</v>
       </c>
       <c r="C80" t="n">
-        <v>81.21128750865427</v>
+        <v>94.66834833992783</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>47.60663642190147</v>
+        <v>-72.7951605754149</v>
       </c>
       <c r="B81" t="n">
-        <v>-41.69061404826988</v>
+        <v>19.65182941657321</v>
       </c>
       <c r="C81" t="n">
-        <v>58.01278028509366</v>
+        <v>81.62611666952323</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-74.91339716598762</v>
+        <v>-47.17359897174978</v>
       </c>
       <c r="B82" t="n">
-        <v>-89.4174547379895</v>
+        <v>-95.83944890314845</v>
       </c>
       <c r="C82" t="n">
-        <v>57.19213928929687</v>
+        <v>78.21408334809583</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-10.96724579495324</v>
+        <v>-76.38275155278058</v>
       </c>
       <c r="B83" t="n">
-        <v>20.95859518426773</v>
+        <v>93.58442416668068</v>
       </c>
       <c r="C83" t="n">
-        <v>70.91455055400152</v>
+        <v>51.39052624556184</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>44.43616143294322</v>
+        <v>-30.72202628181008</v>
       </c>
       <c r="B84" t="n">
-        <v>-19.99434233333536</v>
+        <v>-84.82995709199706</v>
       </c>
       <c r="C84" t="n">
-        <v>67.84000115505269</v>
+        <v>61.68073100998964</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-5.199293601913046</v>
+        <v>-89.21004021573935</v>
       </c>
       <c r="B85" t="n">
-        <v>-58.69155864011893</v>
+        <v>42.46233397555831</v>
       </c>
       <c r="C85" t="n">
-        <v>88.56779051992743</v>
+        <v>92.27798044146142</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-73.94847615588638</v>
+        <v>-18.92628636083529</v>
       </c>
       <c r="B86" t="n">
-        <v>91.43830157770856</v>
+        <v>-78.68721021014507</v>
       </c>
       <c r="C86" t="n">
-        <v>56.07338863067261</v>
+        <v>81.49831878365522</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-82.92581033718201</v>
+        <v>25.77739930840687</v>
       </c>
       <c r="B87" t="n">
-        <v>97.62480285234021</v>
+        <v>24.74612491528246</v>
       </c>
       <c r="C87" t="n">
-        <v>67.49355381406109</v>
+        <v>89.72541622250425</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-94.38462008404319</v>
+        <v>-10.21764645244649</v>
       </c>
       <c r="B88" t="n">
-        <v>78.96651550678638</v>
+        <v>-2.315677446725828</v>
       </c>
       <c r="C88" t="n">
-        <v>57.32258557758174</v>
+        <v>84.66359706591926</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>-53.11912849255761</v>
+        <v>94.97699230622473</v>
       </c>
       <c r="B89" t="n">
-        <v>84.39930291072557</v>
+        <v>-76.51279036060559</v>
       </c>
       <c r="C89" t="n">
-        <v>83.89500447649414</v>
+        <v>68.43272973263568</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-19.76986658162951</v>
+        <v>-59.85208416664559</v>
       </c>
       <c r="B90" t="n">
-        <v>-30.87966601684957</v>
+        <v>-40.63536271224131</v>
       </c>
       <c r="C90" t="n">
-        <v>91.09095998028738</v>
+        <v>91.49178492221472</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-46.42948470486582</v>
+        <v>54.31009308308425</v>
       </c>
       <c r="B91" t="n">
-        <v>19.22708212236339</v>
+        <v>-66.53162811665435</v>
       </c>
       <c r="C91" t="n">
-        <v>55.19923527953306</v>
+        <v>73.10512130673823</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>95.66471505619714</v>
+        <v>89.24214539409532</v>
       </c>
       <c r="B92" t="n">
-        <v>-23.00160294370432</v>
+        <v>-66.04314682698462</v>
       </c>
       <c r="C92" t="n">
-        <v>90.4917308914938</v>
+        <v>55.27927381995885</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>18.98444734031063</v>
+        <v>22.45997939466492</v>
       </c>
       <c r="B93" t="n">
-        <v>63.11002115600338</v>
+        <v>21.07094597375976</v>
       </c>
       <c r="C93" t="n">
-        <v>95.6646882093367</v>
+        <v>89.07154676571052</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>39.39312213565515</v>
+        <v>89.14619177677965</v>
       </c>
       <c r="B94" t="n">
-        <v>88.53606194663625</v>
+        <v>-35.26454590968041</v>
       </c>
       <c r="C94" t="n">
-        <v>58.81030512917658</v>
+        <v>74.40189281058547</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>-23.60516749027686</v>
+        <v>48.64537499893402</v>
       </c>
       <c r="B95" t="n">
-        <v>8.815701932972109</v>
+        <v>82.27498486028122</v>
       </c>
       <c r="C95" t="n">
-        <v>94.8646328807514</v>
+        <v>57.58354980466319</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>93.27358981920601</v>
+        <v>15.81184924423635</v>
       </c>
       <c r="B96" t="n">
-        <v>34.68632551022438</v>
+        <v>-23.77995998121247</v>
       </c>
       <c r="C96" t="n">
-        <v>69.82845488307267</v>
+        <v>57.78571690523516</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-8.208803728175351</v>
+        <v>-81.98537735381447</v>
       </c>
       <c r="B97" t="n">
-        <v>-99.58527715021458</v>
+        <v>-89.51876179568266</v>
       </c>
       <c r="C97" t="n">
-        <v>75.06792644328638</v>
+        <v>67.03169871039142</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-57.56217175192019</v>
+        <v>42.66809494998189</v>
       </c>
       <c r="B98" t="n">
-        <v>13.97042000640972</v>
+        <v>-16.50793897595862</v>
       </c>
       <c r="C98" t="n">
-        <v>70.44118963399424</v>
+        <v>66.10709252608082</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>21.0831372209642</v>
+        <v>12.11738184259479</v>
       </c>
       <c r="B99" t="n">
-        <v>-66.78300418011133</v>
+        <v>-41.6879088744154</v>
       </c>
       <c r="C99" t="n">
-        <v>76.60345647585976</v>
+        <v>89.27888592025302</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-78.81415078886957</v>
+        <v>-31.43862872112272</v>
       </c>
       <c r="B100" t="n">
-        <v>-34.23257456628858</v>
+        <v>83.43278815414907</v>
       </c>
       <c r="C100" t="n">
-        <v>76.66807669283365</v>
+        <v>54.54326957172271</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-84.09891018058609</v>
+        <v>-54.24555344691574</v>
       </c>
       <c r="B101" t="n">
-        <v>-29.96688737612049</v>
+        <v>88.69925257925381</v>
       </c>
       <c r="C101" t="n">
-        <v>95.28280159743817</v>
+        <v>53.87869458110882</v>
       </c>
     </row>
   </sheetData>
@@ -1590,222 +1590,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-61.80266698088644</v>
+        <v>-25.825358468904</v>
       </c>
       <c r="B2" t="n">
-        <v>-90.04042946503</v>
+        <v>-6.192532637826787</v>
       </c>
       <c r="C2" t="n">
-        <v>6355.290599128062</v>
+        <v>5070.774901036546</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-7.66370026942087</v>
+        <v>-28.08440942668219</v>
       </c>
       <c r="B3" t="n">
-        <v>77.47182324785035</v>
+        <v>-98.78548700081684</v>
       </c>
       <c r="C3" t="n">
-        <v>7745.56632552168</v>
+        <v>5900.186730621417</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3.231645463544808</v>
+        <v>28.89109794470118</v>
       </c>
       <c r="B4" t="n">
-        <v>23.30829512842143</v>
+        <v>-89.83097173371858</v>
       </c>
       <c r="C4" t="n">
-        <v>7713.803786351698</v>
+        <v>5560.290251043627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>78.56328657349304</v>
+        <v>-85.29570961988429</v>
       </c>
       <c r="B5" t="n">
-        <v>24.2858283679563</v>
+        <v>-90.02094099698675</v>
       </c>
       <c r="C5" t="n">
-        <v>5216.426382000362</v>
+        <v>8762.93760298819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-76.11401267037624</v>
+        <v>-67.44276143097593</v>
       </c>
       <c r="B6" t="n">
-        <v>-17.75539400704125</v>
+        <v>-70.75362282233422</v>
       </c>
       <c r="C6" t="n">
-        <v>6147.471892383007</v>
+        <v>8488.51917570333</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-46.41546999752204</v>
+        <v>5.726040710557134</v>
       </c>
       <c r="B7" t="n">
-        <v>-89.63805523285004</v>
+        <v>88.78099865219852</v>
       </c>
       <c r="C7" t="n">
-        <v>8279.369940177059</v>
+        <v>7895.501696325226</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>81.45157963700026</v>
+        <v>-38.41755601052547</v>
       </c>
       <c r="B8" t="n">
-        <v>-63.42940482930229</v>
+        <v>19.18493300180273</v>
       </c>
       <c r="C8" t="n">
-        <v>8385.168539172166</v>
+        <v>8288.068570316926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.721613204471588</v>
+        <v>-11.75123033593833</v>
       </c>
       <c r="B9" t="n">
-        <v>52.66788399462025</v>
+        <v>66.09347176126722</v>
       </c>
       <c r="C9" t="n">
-        <v>5018.01961269054</v>
+        <v>9082.907380038798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.39467392475684</v>
+        <v>-87.68197264715147</v>
       </c>
       <c r="B10" t="n">
-        <v>-53.36510320470205</v>
+        <v>-4.061576346649098</v>
       </c>
       <c r="C10" t="n">
-        <v>7074.519263687455</v>
+        <v>9657.944063075249</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-70.46045030417972</v>
+        <v>-54.7151572775759</v>
       </c>
       <c r="B11" t="n">
-        <v>-52.10650472937758</v>
+        <v>36.11910094142511</v>
       </c>
       <c r="C11" t="n">
-        <v>8126.522562135349</v>
+        <v>9169.773666556035</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-59.12166239546301</v>
+        <v>63.43650219806134</v>
       </c>
       <c r="B12" t="n">
-        <v>-76.62747597373716</v>
+        <v>-0.2963205665354907</v>
       </c>
       <c r="C12" t="n">
-        <v>8449.572546711805</v>
+        <v>6542.627035793411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-66.81425022801719</v>
+        <v>-70.24108818948915</v>
       </c>
       <c r="B13" t="n">
-        <v>13.76570048383206</v>
+        <v>-79.05360271139962</v>
       </c>
       <c r="C13" t="n">
-        <v>9248.121400076627</v>
+        <v>9792.709703227199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-55.42033696274006</v>
+        <v>36.99782812712428</v>
       </c>
       <c r="B14" t="n">
-        <v>5.766730097742889</v>
+        <v>88.81794762260186</v>
       </c>
       <c r="C14" t="n">
-        <v>5494.101415343991</v>
+        <v>9315.867481091187</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>48.90692407841656</v>
+        <v>70.2025914080822</v>
       </c>
       <c r="B15" t="n">
-        <v>13.72124728232799</v>
+        <v>-11.78990552123022</v>
       </c>
       <c r="C15" t="n">
-        <v>5762.948452559026</v>
+        <v>9933.901449779738</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-44.05902696664143</v>
+        <v>55.62173884195607</v>
       </c>
       <c r="B16" t="n">
-        <v>-71.62142784</v>
+        <v>-52.7430684387321</v>
       </c>
       <c r="C16" t="n">
-        <v>9958.235766576432</v>
+        <v>6413.663872271125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>14.94109045710176</v>
+        <v>42.07041463649547</v>
       </c>
       <c r="B17" t="n">
-        <v>-56.37298562947889</v>
+        <v>0.2845268974313808</v>
       </c>
       <c r="C17" t="n">
-        <v>5828.091200176341</v>
+        <v>7553.08027342332</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>37.92961214230747</v>
+        <v>-26.96719336629425</v>
       </c>
       <c r="B18" t="n">
-        <v>10.23505218996947</v>
+        <v>75.9135148577932</v>
       </c>
       <c r="C18" t="n">
-        <v>5987.610659621582</v>
+        <v>9266.562857734318</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-3.546243008085559</v>
+        <v>28.76682794213906</v>
       </c>
       <c r="B19" t="n">
-        <v>-44.2024131774318</v>
+        <v>81.44203166437482</v>
       </c>
       <c r="C19" t="n">
-        <v>7104.406845198544</v>
+        <v>5037.528056544078</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>28.84887936466082</v>
+        <v>23.48172712990698</v>
       </c>
       <c r="B20" t="n">
-        <v>40.70649238757505</v>
+        <v>40.74226207798527</v>
       </c>
       <c r="C20" t="n">
-        <v>8379.772114834474</v>
+        <v>5280.845411233684</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-54.29313753170718</v>
+        <v>-1.902322564544634</v>
       </c>
       <c r="B21" t="n">
-        <v>45.57953323652951</v>
+        <v>-27.1726682266038</v>
       </c>
       <c r="C21" t="n">
-        <v>8287.901687618923</v>
+        <v>7873.84143630482</v>
       </c>
     </row>
   </sheetData>
@@ -1891,6202 +1891,6202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>84.21746522833816</v>
+        <v>85.83939606897022</v>
       </c>
       <c r="B2" t="n">
-        <v>116.3755454721278</v>
+        <v>109.460478884006</v>
       </c>
       <c r="C2" t="n">
-        <v>81.84303318634782</v>
+        <v>145.182243735588</v>
       </c>
       <c r="D2" t="n">
-        <v>96.13143444591488</v>
+        <v>83.69756196532417</v>
       </c>
       <c r="E2" t="n">
-        <v>98.49334287995302</v>
+        <v>83.62963512131877</v>
       </c>
       <c r="F2" t="n">
-        <v>90.35154726843716</v>
+        <v>117.8179956800316</v>
       </c>
       <c r="G2" t="n">
-        <v>165.183866885663</v>
+        <v>101.4938461572302</v>
       </c>
       <c r="H2" t="n">
-        <v>98.51164196448151</v>
+        <v>114.2048672867089</v>
       </c>
       <c r="I2" t="n">
-        <v>96.4045818965232</v>
+        <v>118.2172776916521</v>
       </c>
       <c r="J2" t="n">
-        <v>81.43756834249314</v>
+        <v>123.4253480188259</v>
       </c>
       <c r="K2" t="n">
-        <v>81.2506229416903</v>
+        <v>105.0943707575037</v>
       </c>
       <c r="L2" t="n">
-        <v>113.0855369890398</v>
+        <v>84.02746265103457</v>
       </c>
       <c r="M2" t="n">
-        <v>100.1951465632916</v>
+        <v>98.32740641295132</v>
       </c>
       <c r="N2" t="n">
-        <v>86.79425137055014</v>
+        <v>117.0714466472309</v>
       </c>
       <c r="O2" t="n">
-        <v>83.99342927443287</v>
+        <v>136.8425574313518</v>
       </c>
       <c r="P2" t="n">
-        <v>106.6813370157032</v>
+        <v>93.42919501694206</v>
       </c>
       <c r="Q2" t="n">
-        <v>84.0368899372715</v>
+        <v>132.5420468834775</v>
       </c>
       <c r="R2" t="n">
-        <v>89.1523100778341</v>
+        <v>98.78072258569061</v>
       </c>
       <c r="S2" t="n">
-        <v>80.22352027913401</v>
+        <v>85.32807354010728</v>
       </c>
       <c r="T2" t="n">
-        <v>127.55297168532</v>
+        <v>87.30145724586778</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>143.4397906514805</v>
+        <v>53.98102615132348</v>
       </c>
       <c r="B3" t="n">
-        <v>164.394828618754</v>
+        <v>86.75912461741568</v>
       </c>
       <c r="C3" t="n">
-        <v>142.0586997469562</v>
+        <v>128.9318935056955</v>
       </c>
       <c r="D3" t="n">
-        <v>150.7436392730501</v>
+        <v>50.50575359108714</v>
       </c>
       <c r="E3" t="n">
-        <v>152.2607325751528</v>
+        <v>50.39310605022521</v>
       </c>
       <c r="F3" t="n">
-        <v>147.1250970652351</v>
+        <v>97.09083052958337</v>
       </c>
       <c r="G3" t="n">
-        <v>201.9111239430722</v>
+        <v>76.46273651035416</v>
       </c>
       <c r="H3" t="n">
-        <v>152.2725703966161</v>
+        <v>92.67308659389271</v>
       </c>
       <c r="I3" t="n">
-        <v>150.9179760773966</v>
+        <v>97.57496611164939</v>
       </c>
       <c r="J3" t="n">
-        <v>141.8254900580021</v>
+        <v>103.8237246511249</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7182268484437</v>
+        <v>81.18113100825813</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0824813752359</v>
+        <v>51.05059986361904</v>
       </c>
       <c r="M3" t="n">
-        <v>153.3670743265766</v>
+        <v>72.20684260346822</v>
       </c>
       <c r="N3" t="n">
-        <v>144.9677004150527</v>
+        <v>96.18353750481296</v>
       </c>
       <c r="O3" t="n">
-        <v>143.3083677038203</v>
+        <v>119.4631105873991</v>
       </c>
       <c r="P3" t="n">
-        <v>157.6810063391031</v>
+        <v>65.38014796846305</v>
       </c>
       <c r="Q3" t="n">
-        <v>143.3338444436041</v>
+        <v>114.5117612253269</v>
       </c>
       <c r="R3" t="n">
-        <v>146.3916885785135</v>
+        <v>72.82293884083158</v>
       </c>
       <c r="S3" t="n">
-        <v>141.1318720156111</v>
+        <v>53.16417403600181</v>
       </c>
       <c r="T3" t="n">
-        <v>172.4881232966788</v>
+        <v>56.27693758651416</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>123.5586098146392</v>
+        <v>82.04179665872134</v>
       </c>
       <c r="B4" t="n">
-        <v>147.3683011837186</v>
+        <v>106.508454683285</v>
       </c>
       <c r="C4" t="n">
-        <v>121.9525755815823</v>
+        <v>142.969711399321</v>
       </c>
       <c r="D4" t="n">
-        <v>131.9674251414687</v>
+        <v>79.79809747384157</v>
       </c>
       <c r="E4" t="n">
-        <v>133.697745685961</v>
+        <v>79.72684837638042</v>
       </c>
       <c r="F4" t="n">
-        <v>127.8184286542459</v>
+        <v>115.0805569484498</v>
       </c>
       <c r="G4" t="n">
-        <v>188.3078821747522</v>
+        <v>98.30287528497301</v>
       </c>
       <c r="H4" t="n">
-        <v>133.7112269496399</v>
+        <v>111.3786613022452</v>
       </c>
       <c r="I4" t="n">
-        <v>132.1665313931003</v>
+        <v>115.4893035147872</v>
       </c>
       <c r="J4" t="n">
-        <v>121.6808372233613</v>
+        <v>120.8150281011171</v>
       </c>
       <c r="K4" t="n">
-        <v>121.5557992785726</v>
+        <v>102.0160832732814</v>
       </c>
       <c r="L4" t="n">
-        <v>144.7842784487991</v>
+        <v>80.14405131434553</v>
       </c>
       <c r="M4" t="n">
-        <v>134.9563485156567</v>
+        <v>95.03017064807968</v>
       </c>
       <c r="N4" t="n">
-        <v>125.32912941856</v>
+        <v>114.3161322892831</v>
       </c>
       <c r="O4" t="n">
-        <v>123.4060159437905</v>
+        <v>134.4928994626046</v>
       </c>
       <c r="P4" t="n">
-        <v>139.8393945828498</v>
+        <v>89.95259286434846</v>
       </c>
       <c r="Q4" t="n">
-        <v>123.4356005379687</v>
+        <v>130.1147519444563</v>
       </c>
       <c r="R4" t="n">
-        <v>126.9735523723511</v>
+        <v>95.49913945191656</v>
       </c>
       <c r="S4" t="n">
-        <v>120.8716749938402</v>
+        <v>81.50665381164532</v>
       </c>
       <c r="T4" t="n">
-        <v>156.345480253175</v>
+        <v>83.57032319404729</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>30.06332234322161</v>
+        <v>34.92276475735863</v>
       </c>
       <c r="B5" t="n">
-        <v>85.75832020720429</v>
+        <v>76.37273085551023</v>
       </c>
       <c r="C5" t="n">
-        <v>22.57219488591512</v>
+        <v>122.1846204598269</v>
       </c>
       <c r="D5" t="n">
-        <v>55.24920442373202</v>
+        <v>29.26567032807468</v>
       </c>
       <c r="E5" t="n">
-        <v>59.26348363447843</v>
+        <v>29.07083506432494</v>
       </c>
       <c r="F5" t="n">
-        <v>44.43674149424928</v>
+        <v>87.93337072393061</v>
       </c>
       <c r="G5" t="n">
-        <v>145.2478288310243</v>
+        <v>64.43755417921902</v>
       </c>
       <c r="H5" t="n">
-        <v>59.29389094471956</v>
+        <v>83.02980966368089</v>
       </c>
       <c r="I5" t="n">
-        <v>55.72311290182513</v>
+        <v>88.46763433955644</v>
       </c>
       <c r="J5" t="n">
-        <v>21.05467735122865</v>
+        <v>95.31534039377161</v>
       </c>
       <c r="K5" t="n">
-        <v>20.31958732944224</v>
+        <v>69.97159670700611</v>
       </c>
       <c r="L5" t="n">
-        <v>81.23767953927289</v>
+        <v>30.19622592946476</v>
       </c>
       <c r="M5" t="n">
-        <v>62.05069939707028</v>
+        <v>59.32517537024204</v>
       </c>
       <c r="N5" t="n">
-        <v>36.66693294782573</v>
+        <v>86.93055389727884</v>
       </c>
       <c r="O5" t="n">
-        <v>29.42988382758686</v>
+        <v>112.1475951822646</v>
       </c>
       <c r="P5" t="n">
-        <v>72.05643321927721</v>
+        <v>50.79578784039148</v>
       </c>
       <c r="Q5" t="n">
-        <v>29.55369302058857</v>
+        <v>106.8578110054394</v>
       </c>
       <c r="R5" t="n">
-        <v>41.9446813438889</v>
+        <v>60.073527741955</v>
       </c>
       <c r="S5" t="n">
-        <v>15.71735050200023</v>
+        <v>33.6463625801992</v>
       </c>
       <c r="T5" t="n">
-        <v>100.4040959651654</v>
+        <v>38.37632105953292</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45.90780206871774</v>
+        <v>32.5541161475697</v>
       </c>
       <c r="B6" t="n">
-        <v>92.51060709577848</v>
+        <v>75.31908787405655</v>
       </c>
       <c r="C6" t="n">
-        <v>41.39114545933526</v>
+        <v>121.528813278019</v>
       </c>
       <c r="D6" t="n">
-        <v>65.23953962071964</v>
+        <v>26.3941364625403</v>
       </c>
       <c r="E6" t="n">
-        <v>68.67229013919814</v>
+        <v>26.17793787120813</v>
       </c>
       <c r="F6" t="n">
-        <v>56.37682977159015</v>
+        <v>87.01981766657447</v>
       </c>
       <c r="G6" t="n">
-        <v>149.3340373812838</v>
+        <v>63.18519896662062</v>
       </c>
       <c r="H6" t="n">
-        <v>68.69853305444312</v>
+        <v>82.06168577746088</v>
       </c>
       <c r="I6" t="n">
-        <v>65.64136083246345</v>
+        <v>87.559655695355</v>
       </c>
       <c r="J6" t="n">
-        <v>40.58352348961901</v>
+        <v>94.47319775593604</v>
       </c>
       <c r="K6" t="n">
-        <v>40.20707114062086</v>
+        <v>68.82002125529719</v>
       </c>
       <c r="L6" t="n">
-        <v>88.33619596401984</v>
+        <v>27.42230917036216</v>
       </c>
       <c r="M6" t="n">
-        <v>71.09157640771301</v>
+        <v>57.96246554936756</v>
       </c>
       <c r="N6" t="n">
-        <v>50.47956925597191</v>
+        <v>86.00634965361192</v>
       </c>
       <c r="O6" t="n">
-        <v>45.49550530078083</v>
+        <v>111.4327334539395</v>
       </c>
       <c r="P6" t="n">
-        <v>79.97407397871059</v>
+        <v>49.1973885707129</v>
       </c>
       <c r="Q6" t="n">
-        <v>45.57569211348636</v>
+        <v>106.1073171497888</v>
       </c>
       <c r="R6" t="n">
-        <v>54.43417339786192</v>
+        <v>58.72818501550245</v>
       </c>
       <c r="S6" t="n">
-        <v>38.08881787704686</v>
+        <v>31.18090272474288</v>
       </c>
       <c r="T6" t="n">
-        <v>106.2294941485191</v>
+        <v>36.23414132991147</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>46.45976880120251</v>
+        <v>93.46069840863984</v>
       </c>
       <c r="B7" t="n">
-        <v>92.78575457207926</v>
+        <v>115.5339632621556</v>
       </c>
       <c r="C7" t="n">
-        <v>42.00250883835959</v>
+        <v>149.8144990501416</v>
       </c>
       <c r="D7" t="n">
-        <v>65.62911972748128</v>
+        <v>91.49744318003906</v>
       </c>
       <c r="E7" t="n">
-        <v>69.04250328053608</v>
+        <v>91.43531101314255</v>
       </c>
       <c r="F7" t="n">
-        <v>56.82720089337041</v>
+        <v>123.4810930288728</v>
       </c>
       <c r="G7" t="n">
-        <v>149.5046438973562</v>
+        <v>108.0162072900762</v>
       </c>
       <c r="H7" t="n">
-        <v>69.06860553184087</v>
+        <v>120.0385435663062</v>
       </c>
       <c r="I7" t="n">
-        <v>66.02857016639307</v>
+        <v>123.862120821381</v>
       </c>
       <c r="J7" t="n">
-        <v>41.2068708483559</v>
+        <v>128.8422165406722</v>
       </c>
       <c r="K7" t="n">
-        <v>40.83616529484095</v>
+        <v>111.4061353537624</v>
       </c>
       <c r="L7" t="n">
-        <v>88.62430447498214</v>
+        <v>91.79931758524245</v>
       </c>
       <c r="M7" t="n">
-        <v>71.44925515646977</v>
+        <v>105.0465567329215</v>
       </c>
       <c r="N7" t="n">
-        <v>50.98206290990088</v>
+        <v>122.7689856992418</v>
       </c>
       <c r="O7" t="n">
-        <v>46.05241393080282</v>
+        <v>141.747612868429</v>
       </c>
       <c r="P7" t="n">
-        <v>80.2921934874923</v>
+        <v>100.4764385866606</v>
       </c>
       <c r="Q7" t="n">
-        <v>46.13163272532123</v>
+        <v>137.6004884497404</v>
       </c>
       <c r="R7" t="n">
-        <v>54.90048323821134</v>
+        <v>105.4709978339845</v>
       </c>
       <c r="S7" t="n">
-        <v>38.75231442832118</v>
+        <v>92.99129186978291</v>
       </c>
       <c r="T7" t="n">
-        <v>106.4691939169772</v>
+        <v>94.80529872743017</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59.34618492094241</v>
+        <v>23.78055405919196</v>
       </c>
       <c r="B8" t="n">
-        <v>99.86318540443034</v>
+        <v>71.96324944992789</v>
       </c>
       <c r="C8" t="n">
-        <v>55.92557819393535</v>
+        <v>119.4780177688611</v>
       </c>
       <c r="D8" t="n">
-        <v>75.30365797100148</v>
+        <v>14.22654957520945</v>
       </c>
       <c r="E8" t="n">
-        <v>78.29640353715065</v>
+        <v>13.8213134108711</v>
       </c>
       <c r="F8" t="n">
-        <v>67.77012844155587</v>
+        <v>84.13199712319064</v>
       </c>
       <c r="G8" t="n">
-        <v>153.9970717074997</v>
+        <v>59.14485304457293</v>
       </c>
       <c r="H8" t="n">
-        <v>78.31942171468417</v>
+        <v>78.9928132544437</v>
       </c>
       <c r="I8" t="n">
-        <v>75.65204310412109</v>
+        <v>84.69024488512126</v>
       </c>
       <c r="J8" t="n">
-        <v>55.33051375798517</v>
+        <v>91.82009239510103</v>
       </c>
       <c r="K8" t="n">
-        <v>55.05499017888455</v>
+        <v>65.13017425734596</v>
       </c>
       <c r="L8" t="n">
-        <v>96.00899380414234</v>
+        <v>16.05388779852474</v>
       </c>
       <c r="M8" t="n">
-        <v>80.4267095561159</v>
+        <v>53.52935349669669</v>
       </c>
       <c r="N8" t="n">
-        <v>62.9494264164384</v>
+        <v>83.08331032133977</v>
       </c>
       <c r="O8" t="n">
-        <v>59.0278271365591</v>
+        <v>109.1924830665071</v>
       </c>
       <c r="P8" t="n">
-        <v>88.37587839813759</v>
+        <v>43.88766700783268</v>
       </c>
       <c r="Q8" t="n">
-        <v>59.089652947986</v>
+        <v>103.7521422715625</v>
       </c>
       <c r="R8" t="n">
-        <v>66.16284914813316</v>
+        <v>54.35755686588369</v>
       </c>
       <c r="S8" t="n">
-        <v>53.52757626832147</v>
+        <v>21.86305028907381</v>
       </c>
       <c r="T8" t="n">
-        <v>112.6905000474325</v>
+        <v>28.61218745794685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>120.5666451780768</v>
+        <v>84.29355015716702</v>
       </c>
       <c r="B9" t="n">
-        <v>144.8689133801493</v>
+        <v>108.2524693396378</v>
       </c>
       <c r="C9" t="n">
-        <v>118.9202109027374</v>
+        <v>144.2736447751736</v>
       </c>
       <c r="D9" t="n">
-        <v>129.1703803843557</v>
+        <v>82.11140334662764</v>
       </c>
       <c r="E9" t="n">
-        <v>130.9376686506901</v>
+        <v>82.04216325242898</v>
       </c>
       <c r="F9" t="n">
-        <v>124.928525861032</v>
+        <v>116.6965328819723</v>
       </c>
       <c r="G9" t="n">
-        <v>186.358376144756</v>
+        <v>100.1898272700418</v>
       </c>
       <c r="H9" t="n">
-        <v>130.9514340606781</v>
+        <v>113.0475669467862</v>
       </c>
       <c r="I9" t="n">
-        <v>129.3737913591983</v>
+        <v>117.0996388783436</v>
       </c>
       <c r="J9" t="n">
-        <v>118.6415273736315</v>
+        <v>122.3552909120876</v>
       </c>
       <c r="K9" t="n">
-        <v>118.5132828353963</v>
+        <v>103.8355789001483</v>
       </c>
       <c r="L9" t="n">
-        <v>142.2394922520093</v>
+        <v>82.44765102890624</v>
       </c>
       <c r="M9" t="n">
-        <v>132.222546771908</v>
+        <v>96.98082043636771</v>
       </c>
       <c r="N9" t="n">
-        <v>122.380458207118</v>
+        <v>115.94276303715</v>
       </c>
       <c r="O9" t="n">
-        <v>120.4102597011113</v>
+        <v>135.8782035683653</v>
       </c>
       <c r="P9" t="n">
-        <v>137.2029232468025</v>
+        <v>92.01095131628129</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.4405801644072</v>
+        <v>131.5461701178534</v>
       </c>
       <c r="R9" t="n">
-        <v>124.0639708868945</v>
+        <v>97.44040145219262</v>
       </c>
       <c r="S9" t="n">
-        <v>117.8114921643323</v>
+        <v>83.77279280696837</v>
       </c>
       <c r="T9" t="n">
-        <v>153.9918668818777</v>
+        <v>85.78196266037152</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>29.65663170866756</v>
+        <v>30.89086628407935</v>
       </c>
       <c r="B10" t="n">
-        <v>85.61659850024691</v>
+        <v>74.61528087336578</v>
       </c>
       <c r="C10" t="n">
-        <v>22.02762892276041</v>
+        <v>121.0938792771749</v>
       </c>
       <c r="D10" t="n">
-        <v>55.02896549496845</v>
+        <v>24.31307428596003</v>
       </c>
       <c r="E10" t="n">
-        <v>59.05821658740798</v>
+        <v>24.0781970425579</v>
       </c>
       <c r="F10" t="n">
-        <v>44.16261369776289</v>
+        <v>86.41136388436001</v>
       </c>
       <c r="G10" t="n">
-        <v>145.1641974941399</v>
+        <v>62.34456279486486</v>
       </c>
       <c r="H10" t="n">
-        <v>59.0887295290345</v>
+        <v>81.41618643900078</v>
       </c>
       <c r="I10" t="n">
-        <v>55.50475444014366</v>
+        <v>86.95497942683056</v>
       </c>
       <c r="J10" t="n">
-        <v>20.46977997818832</v>
+        <v>93.91304614303388</v>
       </c>
       <c r="K10" t="n">
-        <v>19.71289129554384</v>
+        <v>68.04902987707445</v>
       </c>
       <c r="L10" t="n">
-        <v>81.08805726441283</v>
+        <v>25.42554191883312</v>
       </c>
       <c r="M10" t="n">
-        <v>61.85468252005403</v>
+        <v>57.04491698822108</v>
       </c>
       <c r="N10" t="n">
-        <v>36.33423214809206</v>
+        <v>85.39067468038159</v>
       </c>
       <c r="O10" t="n">
-        <v>29.01431570960027</v>
+        <v>110.9582319012346</v>
       </c>
       <c r="P10" t="n">
-        <v>71.8877042495812</v>
+        <v>48.1129731341675</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.13989061658063</v>
+        <v>105.6088911709486</v>
       </c>
       <c r="R10" t="n">
-        <v>41.65415641963571</v>
+        <v>57.82278838698889</v>
       </c>
       <c r="S10" t="n">
-        <v>14.9247298398941</v>
+        <v>29.44017385073141</v>
       </c>
       <c r="T10" t="n">
-        <v>100.2830740482821</v>
+        <v>34.74749112594188</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>109.1714471380009</v>
+        <v>87.24903082417343</v>
       </c>
       <c r="B11" t="n">
-        <v>135.5326197070442</v>
+        <v>110.5693804802575</v>
       </c>
       <c r="C11" t="n">
-        <v>107.3503865939039</v>
+        <v>146.0201197040042</v>
       </c>
       <c r="D11" t="n">
-        <v>118.604705258047</v>
+        <v>85.1426646353713</v>
       </c>
       <c r="E11" t="n">
-        <v>120.5270177694071</v>
+        <v>85.07589160741685</v>
       </c>
       <c r="F11" t="n">
-        <v>113.9702834712611</v>
+        <v>118.8489443299013</v>
       </c>
       <c r="G11" t="n">
-        <v>179.1969120828242</v>
+        <v>102.6888127794822</v>
       </c>
       <c r="H11" t="n">
-        <v>120.541972039855</v>
+        <v>115.2681359884284</v>
       </c>
       <c r="I11" t="n">
-        <v>118.8262043126954</v>
+        <v>119.2447743387408</v>
       </c>
       <c r="J11" t="n">
-        <v>107.0415851819153</v>
+        <v>124.4098388224995</v>
       </c>
       <c r="K11" t="n">
-        <v>106.8994253919623</v>
+        <v>106.2488504746647</v>
       </c>
       <c r="L11" t="n">
-        <v>132.7183562918803</v>
+        <v>85.46698743867738</v>
       </c>
       <c r="M11" t="n">
-        <v>121.9216585170923</v>
+        <v>99.56038526527371</v>
       </c>
       <c r="N11" t="n">
-        <v>111.1713339476199</v>
+        <v>118.1089119514165</v>
       </c>
       <c r="O11" t="n">
-        <v>108.9987136713005</v>
+        <v>137.7311765237807</v>
       </c>
       <c r="P11" t="n">
-        <v>127.3056600791066</v>
+        <v>94.72595179667407</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0322075858692</v>
+        <v>133.459303363737</v>
       </c>
       <c r="R11" t="n">
-        <v>113.021935096393</v>
+        <v>100.008112755032</v>
       </c>
       <c r="S11" t="n">
-        <v>106.1208585844254</v>
+        <v>86.74601775492627</v>
       </c>
       <c r="T11" t="n">
-        <v>145.2431891913525</v>
+        <v>88.6878565505115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>28.25213296792177</v>
+        <v>38.77772828104678</v>
       </c>
       <c r="B12" t="n">
-        <v>85.14029100071286</v>
+        <v>78.21065611966881</v>
       </c>
       <c r="C12" t="n">
-        <v>20.09685669184156</v>
+        <v>123.3417779556175</v>
       </c>
       <c r="D12" t="n">
-        <v>54.28493581445974</v>
+        <v>33.7726542056208</v>
       </c>
       <c r="E12" t="n">
-        <v>58.36557340949181</v>
+        <v>33.60396053559862</v>
       </c>
       <c r="F12" t="n">
-        <v>43.23197499017851</v>
+        <v>89.53429733467004</v>
       </c>
       <c r="G12" t="n">
-        <v>144.8837860046845</v>
+        <v>66.60563865725388</v>
       </c>
       <c r="H12" t="n">
-        <v>58.39644826775838</v>
+        <v>84.7234442473154</v>
       </c>
       <c r="I12" t="n">
-        <v>54.76718888526445</v>
+        <v>90.05906416334977</v>
       </c>
       <c r="J12" t="n">
-        <v>18.37604705286273</v>
+        <v>96.79424996724462</v>
       </c>
       <c r="K12" t="n">
-        <v>17.52898445899003</v>
+        <v>71.9731690150489</v>
       </c>
       <c r="L12" t="n">
-        <v>80.58498770770075</v>
+        <v>34.5821452880553</v>
       </c>
       <c r="M12" t="n">
-        <v>61.19370035052843</v>
+        <v>61.67324496936138</v>
       </c>
       <c r="N12" t="n">
-        <v>35.19721066682745</v>
+        <v>88.54961272207004</v>
       </c>
       <c r="O12" t="n">
-        <v>27.57712329141571</v>
+        <v>113.4072123698752</v>
       </c>
       <c r="P12" t="n">
-        <v>71.31976749267233</v>
+        <v>53.51938690481187</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.70921215191565</v>
+        <v>108.1790390288946</v>
       </c>
       <c r="R12" t="n">
-        <v>40.66615250998138</v>
+        <v>62.39344074263194</v>
       </c>
       <c r="S12" t="n">
-        <v>11.89179438635782</v>
+        <v>37.63230563251625</v>
       </c>
       <c r="T12" t="n">
-        <v>99.87673479598152</v>
+        <v>41.91485095291686</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>65.26657220554077</v>
+        <v>22.66826330654248</v>
       </c>
       <c r="B13" t="n">
-        <v>103.4911183721096</v>
+        <v>71.60338456640953</v>
       </c>
       <c r="C13" t="n">
-        <v>62.17255084936077</v>
+        <v>119.2616121807386</v>
       </c>
       <c r="D13" t="n">
-        <v>80.05246208958191</v>
+        <v>12.27721966849503</v>
       </c>
       <c r="E13" t="n">
-        <v>82.8738957069276</v>
+        <v>11.80525791222345</v>
       </c>
       <c r="F13" t="n">
-        <v>73.01058890171585</v>
+        <v>83.82438994653732</v>
       </c>
       <c r="G13" t="n">
-        <v>156.37408313808</v>
+        <v>58.70646516046352</v>
       </c>
       <c r="H13" t="n">
-        <v>82.89564283189385</v>
+        <v>78.66511269822225</v>
       </c>
       <c r="I13" t="n">
-        <v>80.3802675326362</v>
+        <v>84.38467271178099</v>
       </c>
       <c r="J13" t="n">
-        <v>61.63782552550795</v>
+        <v>91.53832409115583</v>
       </c>
       <c r="K13" t="n">
-        <v>61.3906159472883</v>
+        <v>64.73233356495686</v>
       </c>
       <c r="L13" t="n">
-        <v>99.77716509339307</v>
+        <v>14.35488500198488</v>
       </c>
       <c r="M13" t="n">
-        <v>84.88940683509455</v>
+        <v>53.04457649700772</v>
       </c>
       <c r="N13" t="n">
-        <v>68.55936164338877</v>
+        <v>82.77180597235167</v>
       </c>
       <c r="O13" t="n">
-        <v>64.97722800530873</v>
+        <v>108.9556504647741</v>
       </c>
       <c r="P13" t="n">
-        <v>92.45567405753297</v>
+        <v>43.2950658316048</v>
       </c>
       <c r="Q13" t="n">
-        <v>65.03339809900605</v>
+        <v>103.5028619696632</v>
       </c>
       <c r="R13" t="n">
-        <v>71.52117441841261</v>
+        <v>53.88023198168664</v>
       </c>
       <c r="S13" t="n">
-        <v>60.02463830754289</v>
+        <v>20.6477208891238</v>
       </c>
       <c r="T13" t="n">
-        <v>115.9176629497453</v>
+        <v>27.69463271287923</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>38.8548928250477</v>
+        <v>98.99078891264442</v>
       </c>
       <c r="B14" t="n">
-        <v>89.22101115149323</v>
+        <v>120.0515339742817</v>
       </c>
       <c r="C14" t="n">
-        <v>33.39765452994009</v>
+        <v>153.3253347237888</v>
       </c>
       <c r="D14" t="n">
-        <v>60.4844933482031</v>
+        <v>97.13936509470022</v>
       </c>
       <c r="E14" t="n">
-        <v>64.17211106569262</v>
+        <v>97.08084384978891</v>
       </c>
       <c r="F14" t="n">
-        <v>50.79885176615935</v>
+        <v>127.7178706294547</v>
       </c>
       <c r="G14" t="n">
-        <v>147.3188077818309</v>
+        <v>112.8351681872709</v>
       </c>
       <c r="H14" t="n">
-        <v>64.20019353162256</v>
+        <v>124.3926287367422</v>
       </c>
       <c r="I14" t="n">
-        <v>60.91768755955076</v>
+        <v>128.0862955857783</v>
       </c>
       <c r="J14" t="n">
-        <v>32.39133810909696</v>
+        <v>132.9082048092986</v>
       </c>
       <c r="K14" t="n">
-        <v>31.91841122882412</v>
+        <v>116.0844569138256</v>
       </c>
       <c r="L14" t="n">
-        <v>84.88498055050194</v>
+        <v>97.42375917420347</v>
       </c>
       <c r="M14" t="n">
-        <v>66.7546900359748</v>
+        <v>109.9956963883582</v>
       </c>
       <c r="N14" t="n">
-        <v>44.16291790556692</v>
+        <v>127.0295162241344</v>
       </c>
       <c r="O14" t="n">
-        <v>38.36687905262499</v>
+        <v>145.4532911157908</v>
       </c>
       <c r="P14" t="n">
-        <v>76.14478914815939</v>
+        <v>105.6399018059747</v>
       </c>
       <c r="Q14" t="n">
-        <v>38.46193075352148</v>
+        <v>141.4148809854328</v>
       </c>
       <c r="R14" t="n">
-        <v>48.63389393390042</v>
+        <v>110.4011119808734</v>
       </c>
       <c r="S14" t="n">
-        <v>29.20504156710315</v>
+        <v>98.5477270469905</v>
       </c>
       <c r="T14" t="n">
-        <v>103.3773758262205</v>
+        <v>100.2612527814921</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70.93568686839468</v>
+        <v>55.38629765072608</v>
       </c>
       <c r="B15" t="n">
-        <v>107.1566974385637</v>
+        <v>87.64038160280465</v>
       </c>
       <c r="C15" t="n">
-        <v>68.09972322371235</v>
+        <v>129.5265376132203</v>
       </c>
       <c r="D15" t="n">
-        <v>84.73808418080871</v>
+        <v>52.00501830504982</v>
       </c>
       <c r="E15" t="n">
-        <v>87.40840242031992</v>
+        <v>51.89562525390941</v>
       </c>
       <c r="F15" t="n">
-        <v>78.11973064345031</v>
+        <v>97.87910990619619</v>
       </c>
       <c r="G15" t="n">
-        <v>158.8238020616086</v>
+        <v>77.46122163868061</v>
       </c>
       <c r="H15" t="n">
-        <v>87.42902163779937</v>
+        <v>93.4986190376312</v>
       </c>
       <c r="I15" t="n">
-        <v>85.04783144000818</v>
+        <v>98.359365567263</v>
       </c>
       <c r="J15" t="n">
-        <v>67.61189066682601</v>
+        <v>104.5612575648245</v>
       </c>
       <c r="K15" t="n">
-        <v>67.38660067414979</v>
+        <v>82.12226747286589</v>
       </c>
       <c r="L15" t="n">
-        <v>103.5742675479971</v>
+        <v>52.53431763657253</v>
       </c>
       <c r="M15" t="n">
-        <v>89.32165256444863</v>
+        <v>73.26335306186162</v>
       </c>
       <c r="N15" t="n">
-        <v>73.9765658366137</v>
+        <v>96.97919194365726</v>
       </c>
       <c r="O15" t="n">
-        <v>70.66955768422322</v>
+        <v>120.1046442662485</v>
       </c>
       <c r="P15" t="n">
-        <v>96.54117199134602</v>
+        <v>66.54513153855117</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.72120680767318</v>
+        <v>115.1808761992686</v>
       </c>
       <c r="R15" t="n">
-        <v>76.72955502424652</v>
+        <v>73.87063831131049</v>
       </c>
       <c r="S15" t="n">
-        <v>66.14456461404234</v>
+        <v>54.59047704531665</v>
       </c>
       <c r="T15" t="n">
-        <v>119.2017231744602</v>
+        <v>57.62624824870491</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>155.3863357734657</v>
+        <v>185.93838215108</v>
       </c>
       <c r="B16" t="n">
-        <v>174.9159783426121</v>
+        <v>197.9552385692065</v>
       </c>
       <c r="C16" t="n">
-        <v>154.1123420649998</v>
+        <v>219.732937757577</v>
       </c>
       <c r="D16" t="n">
-        <v>162.1529666217893</v>
+        <v>184.9593520707045</v>
       </c>
       <c r="E16" t="n">
-        <v>163.5642702037516</v>
+        <v>184.9286238255194</v>
       </c>
       <c r="F16" t="n">
-        <v>158.7946283393066</v>
+        <v>202.6962262735433</v>
       </c>
       <c r="G16" t="n">
-        <v>210.5660033692959</v>
+        <v>193.6638346394676</v>
       </c>
       <c r="H16" t="n">
-        <v>163.5752899986917</v>
+        <v>200.6176257247861</v>
       </c>
       <c r="I16" t="n">
-        <v>162.3150495371927</v>
+        <v>202.9285706456849</v>
       </c>
       <c r="J16" t="n">
-        <v>153.8973990461051</v>
+        <v>206.0060595541884</v>
       </c>
       <c r="K16" t="n">
-        <v>153.7985553379179</v>
+        <v>195.5748112727996</v>
       </c>
       <c r="L16" t="n">
-        <v>172.7445239992208</v>
+        <v>185.1088720700511</v>
       </c>
       <c r="M16" t="n">
-        <v>164.5946514637014</v>
+        <v>192.0233290289835</v>
       </c>
       <c r="N16" t="n">
-        <v>156.7978761545963</v>
+        <v>202.2632039189308</v>
       </c>
       <c r="O16" t="n">
-        <v>155.2650252210621</v>
+        <v>214.3141749017744</v>
       </c>
       <c r="P16" t="n">
-        <v>168.6215868833998</v>
+        <v>189.5618488013591</v>
       </c>
       <c r="Q16" t="n">
-        <v>155.2885403561608</v>
+        <v>211.5941261744699</v>
       </c>
       <c r="R16" t="n">
-        <v>158.1153575331383</v>
+        <v>192.2558482700246</v>
       </c>
       <c r="S16" t="n">
-        <v>153.2584258747117</v>
+        <v>185.7028814357534</v>
       </c>
       <c r="T16" t="n">
-        <v>182.5433988983823</v>
+        <v>186.6178568002741</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>78.9008501722525</v>
+        <v>87.4886563947139</v>
       </c>
       <c r="B17" t="n">
-        <v>112.587878087977</v>
+        <v>110.7585640832469</v>
       </c>
       <c r="C17" t="n">
-        <v>76.36127807704322</v>
+        <v>146.1634255768743</v>
       </c>
       <c r="D17" t="n">
-        <v>91.50964646990566</v>
+        <v>85.38820152225982</v>
       </c>
       <c r="E17" t="n">
-        <v>93.98777207746699</v>
+        <v>85.32162065263228</v>
       </c>
       <c r="F17" t="n">
-        <v>85.41759070717534</v>
+        <v>119.0249687516309</v>
       </c>
       <c r="G17" t="n">
-        <v>162.5376036113438</v>
+        <v>102.8924870340604</v>
       </c>
       <c r="H17" t="n">
-        <v>94.00694820573682</v>
+        <v>115.4496201476712</v>
       </c>
       <c r="I17" t="n">
-        <v>91.79654742451559</v>
+        <v>119.4202153116966</v>
       </c>
       <c r="J17" t="n">
-        <v>75.92654506795454</v>
+        <v>124.5780061400689</v>
       </c>
       <c r="K17" t="n">
-        <v>75.72599577972296</v>
+        <v>106.4457131367084</v>
       </c>
       <c r="L17" t="n">
-        <v>109.183796345966</v>
+        <v>85.71159524730469</v>
       </c>
       <c r="M17" t="n">
-        <v>95.76967214759257</v>
+        <v>99.7704461860549</v>
       </c>
       <c r="N17" t="n">
-        <v>81.64560477693908</v>
+        <v>118.2860376390308</v>
       </c>
       <c r="O17" t="n">
-        <v>78.66167344836397</v>
+        <v>137.8830976030767</v>
       </c>
       <c r="P17" t="n">
-        <v>102.5361905664334</v>
+        <v>94.94670906240282</v>
       </c>
       <c r="Q17" t="n">
-        <v>78.70807823055378</v>
+        <v>133.6160816381349</v>
       </c>
       <c r="R17" t="n">
-        <v>84.14806652937528</v>
+        <v>100.2172352183891</v>
       </c>
       <c r="S17" t="n">
-        <v>74.62289135643644</v>
+        <v>86.98702900049369</v>
       </c>
       <c r="T17" t="n">
-        <v>124.1069026854426</v>
+        <v>88.92360495120997</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>85.15072020350857</v>
+        <v>62.11938011802942</v>
       </c>
       <c r="B18" t="n">
-        <v>117.0526859393886</v>
+        <v>92.04353266948539</v>
       </c>
       <c r="C18" t="n">
-        <v>82.80305418782261</v>
+        <v>132.5454615023177</v>
       </c>
       <c r="D18" t="n">
-        <v>96.95007163648248</v>
+        <v>59.12442259931144</v>
       </c>
       <c r="E18" t="n">
-        <v>99.29250874742689</v>
+        <v>59.02822493763135</v>
       </c>
       <c r="F18" t="n">
-        <v>91.22206857712935</v>
+        <v>101.8405399378</v>
       </c>
       <c r="G18" t="n">
-        <v>165.6616237424658</v>
+        <v>82.41004960895367</v>
       </c>
       <c r="H18" t="n">
-        <v>99.31066057693933</v>
+        <v>97.63793924872388</v>
       </c>
       <c r="I18" t="n">
-        <v>97.22091910866357</v>
+        <v>102.3022004337536</v>
       </c>
       <c r="J18" t="n">
-        <v>82.4023133123585</v>
+        <v>108.2784927967275</v>
       </c>
       <c r="K18" t="n">
-        <v>82.21756156748134</v>
+        <v>86.80577304349251</v>
       </c>
       <c r="L18" t="n">
-        <v>113.7822586249251</v>
+        <v>59.5905189466722</v>
       </c>
       <c r="M18" t="n">
-        <v>100.9808451961526</v>
+        <v>78.47734909297327</v>
       </c>
       <c r="N18" t="n">
-        <v>87.70008992392255</v>
+        <v>100.9759332159803</v>
       </c>
       <c r="O18" t="n">
-        <v>84.92914613352129</v>
+        <v>123.3543716011537</v>
       </c>
       <c r="P18" t="n">
-        <v>107.4196042123965</v>
+        <v>72.24562236064192</v>
       </c>
       <c r="Q18" t="n">
-        <v>84.97212820695349</v>
+        <v>118.5656344006333</v>
       </c>
       <c r="R18" t="n">
-        <v>90.03442727037327</v>
+        <v>79.04458629984634</v>
       </c>
       <c r="S18" t="n">
-        <v>81.20269027357703</v>
+        <v>61.410875281408</v>
       </c>
       <c r="T18" t="n">
-        <v>128.1710743008964</v>
+        <v>64.12456554250305</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>106.3110647090086</v>
+        <v>125.1403323276513</v>
       </c>
       <c r="B19" t="n">
-        <v>133.2393658571368</v>
+        <v>142.3843295278852</v>
       </c>
       <c r="C19" t="n">
-        <v>104.4401412830254</v>
+        <v>171.3755663847363</v>
       </c>
       <c r="D19" t="n">
-        <v>115.9772120664482</v>
+        <v>123.6809716024609</v>
       </c>
       <c r="E19" t="n">
-        <v>117.9423571993737</v>
+        <v>123.6350141671621</v>
       </c>
       <c r="F19" t="n">
-        <v>111.2333723478583</v>
+        <v>148.9052751370797</v>
       </c>
       <c r="G19" t="n">
-        <v>177.4687885499225</v>
+        <v>136.3550573516692</v>
       </c>
       <c r="H19" t="n">
-        <v>117.9576391448</v>
+        <v>146.0631800611101</v>
       </c>
       <c r="I19" t="n">
-        <v>116.2037195649094</v>
+        <v>149.2213979374763</v>
       </c>
       <c r="J19" t="n">
-        <v>104.1227091830351</v>
+        <v>153.3803031394766</v>
       </c>
       <c r="K19" t="n">
-        <v>103.97655869709</v>
+        <v>139.0558435395834</v>
       </c>
       <c r="L19" t="n">
-        <v>130.3756100893728</v>
+        <v>123.9044605216474</v>
       </c>
       <c r="M19" t="n">
-        <v>119.3671999542426</v>
+        <v>134.014848839549</v>
       </c>
       <c r="N19" t="n">
-        <v>108.3637536312346</v>
+        <v>148.3152874037768</v>
       </c>
       <c r="O19" t="n">
-        <v>106.1336760475007</v>
+        <v>164.370272196472</v>
       </c>
       <c r="P19" t="n">
-        <v>124.8613979480236</v>
+        <v>130.4634636176093</v>
       </c>
       <c r="Q19" t="n">
-        <v>106.1680738282736</v>
+        <v>160.807633679659</v>
       </c>
       <c r="R19" t="n">
-        <v>110.2614865775487</v>
+        <v>134.3478024090481</v>
       </c>
       <c r="S19" t="n">
-        <v>103.1759382610756</v>
+        <v>124.7901478148633</v>
       </c>
       <c r="T19" t="n">
-        <v>143.105630971785</v>
+        <v>126.1477122061337</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>48.34188190352313</v>
+        <v>93.46966296570412</v>
       </c>
       <c r="B20" t="n">
-        <v>93.74232598150695</v>
+        <v>115.541215221897</v>
       </c>
       <c r="C20" t="n">
-        <v>44.07536928523074</v>
+        <v>149.820091688453</v>
       </c>
       <c r="D20" t="n">
-        <v>66.97468764478904</v>
+        <v>91.50660007002806</v>
       </c>
       <c r="E20" t="n">
-        <v>70.32278925181951</v>
+        <v>91.4444741248026</v>
       </c>
       <c r="F20" t="n">
-        <v>58.37600697451364</v>
+        <v>123.4878782856711</v>
       </c>
       <c r="G20" t="n">
-        <v>150.1001864615373</v>
+        <v>108.0239639396014</v>
       </c>
       <c r="H20" t="n">
-        <v>70.34841646423908</v>
+        <v>120.0455234042969</v>
       </c>
       <c r="I20" t="n">
-        <v>67.36615995536096</v>
+        <v>123.8688852063422</v>
       </c>
       <c r="J20" t="n">
-        <v>43.31782120589711</v>
+        <v>128.8487194775527</v>
       </c>
       <c r="K20" t="n">
-        <v>42.96533282660055</v>
+        <v>111.4136559958088</v>
       </c>
       <c r="L20" t="n">
-        <v>89.6253020780813</v>
+        <v>91.80844436656025</v>
       </c>
       <c r="M20" t="n">
-        <v>72.68716180541999</v>
+        <v>105.0545326453575</v>
       </c>
       <c r="N20" t="n">
-        <v>52.70292370886151</v>
+        <v>122.7758103109575</v>
       </c>
       <c r="O20" t="n">
-        <v>47.95051884773498</v>
+        <v>141.7535237720375</v>
       </c>
       <c r="P20" t="n">
-        <v>81.39572325341108</v>
+        <v>100.484777249843</v>
       </c>
       <c r="Q20" t="n">
-        <v>48.02660686345553</v>
+        <v>137.6065774935876</v>
       </c>
       <c r="R20" t="n">
-        <v>56.50212817852182</v>
+        <v>105.4789416518195</v>
       </c>
       <c r="S20" t="n">
-        <v>40.98986829040143</v>
+        <v>93.00030167425662</v>
       </c>
       <c r="T20" t="n">
-        <v>107.3038521314304</v>
+        <v>94.81413615431434</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>96.86618816999106</v>
+        <v>35.2117476937163</v>
       </c>
       <c r="B21" t="n">
-        <v>125.8322079001757</v>
+        <v>76.50530501655641</v>
       </c>
       <c r="C21" t="n">
-        <v>94.80906624495044</v>
+        <v>122.2675310712541</v>
       </c>
       <c r="D21" t="n">
-        <v>107.3858912973534</v>
+        <v>29.60991619541798</v>
       </c>
       <c r="E21" t="n">
-        <v>109.5053220294144</v>
+        <v>29.41736100817524</v>
       </c>
       <c r="F21" t="n">
-        <v>102.2442128186158</v>
+        <v>88.048539818786</v>
       </c>
       <c r="G21" t="n">
-        <v>171.9772858269318</v>
+        <v>64.59462877010682</v>
       </c>
       <c r="H21" t="n">
-        <v>109.5217812292877</v>
+        <v>83.15177069753356</v>
       </c>
       <c r="I21" t="n">
-        <v>107.6304806815486</v>
+        <v>88.58210881992815</v>
       </c>
       <c r="J21" t="n">
-        <v>94.45927428599062</v>
+        <v>95.42160023667951</v>
       </c>
       <c r="K21" t="n">
-        <v>94.29814785832485</v>
+        <v>70.11627502282217</v>
       </c>
       <c r="L21" t="n">
-        <v>122.7958290708494</v>
+        <v>30.52998096513336</v>
       </c>
       <c r="M21" t="n">
-        <v>111.0384814194487</v>
+        <v>59.49574867213705</v>
       </c>
       <c r="N21" t="n">
-        <v>99.11467616893077</v>
+        <v>87.04704979627873</v>
       </c>
       <c r="O21" t="n">
-        <v>96.67147005387332</v>
+        <v>112.2379204302771</v>
       </c>
       <c r="P21" t="n">
-        <v>116.924696401384</v>
+        <v>50.99489915348582</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.70923343418069</v>
+        <v>106.9526037561608</v>
       </c>
       <c r="R21" t="n">
-        <v>101.1860235077555</v>
+        <v>60.24198214461044</v>
       </c>
       <c r="S21" t="n">
-        <v>93.41461431207857</v>
+        <v>33.94621322366243</v>
       </c>
       <c r="T21" t="n">
-        <v>136.2359627515944</v>
+        <v>38.63948363283954</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>120.6417097213069</v>
+        <v>29.83235586023898</v>
       </c>
       <c r="B22" t="n">
-        <v>144.9313915579679</v>
+        <v>74.1833133272054</v>
       </c>
       <c r="C22" t="n">
-        <v>118.9963140443239</v>
+        <v>120.8281897356163</v>
       </c>
       <c r="D22" t="n">
-        <v>129.2404478622035</v>
+        <v>22.95320059655463</v>
       </c>
       <c r="E22" t="n">
-        <v>131.0067909181112</v>
+        <v>22.70425971511314</v>
       </c>
       <c r="F22" t="n">
-        <v>125.0009710714055</v>
+        <v>86.03864041665432</v>
       </c>
       <c r="G22" t="n">
-        <v>186.4069487822119</v>
+        <v>61.82692250528012</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0205490659077</v>
+        <v>81.02048661086405</v>
       </c>
       <c r="I22" t="n">
-        <v>129.4437487313975</v>
+        <v>86.58459610988315</v>
       </c>
       <c r="J22" t="n">
-        <v>118.7178091632926</v>
+        <v>93.570209320353</v>
       </c>
       <c r="K22" t="n">
-        <v>118.589647117303</v>
+        <v>67.57510121044611</v>
       </c>
       <c r="L22" t="n">
-        <v>142.3031248816878</v>
+        <v>24.12844831847679</v>
       </c>
       <c r="M22" t="n">
-        <v>132.2909976900666</v>
+        <v>56.47872511471996</v>
       </c>
       <c r="N22" t="n">
-        <v>122.4544108881667</v>
+        <v>85.01347633617759</v>
       </c>
       <c r="O22" t="n">
-        <v>120.4854216752918</v>
+        <v>110.6682116194132</v>
       </c>
       <c r="P22" t="n">
-        <v>137.2688906579046</v>
+        <v>47.44029953742059</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.5157232286427</v>
+        <v>105.3041391909565</v>
       </c>
       <c r="R22" t="n">
-        <v>124.1369206449395</v>
+        <v>57.26428811430002</v>
       </c>
       <c r="S22" t="n">
-        <v>117.8883110446933</v>
+        <v>28.32750735155415</v>
       </c>
       <c r="T22" t="n">
-        <v>154.050645116305</v>
+        <v>33.80993901116172</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>58.01533486233348</v>
+        <v>76.54681232799535</v>
       </c>
       <c r="B23" t="n">
-        <v>99.07807635212555</v>
+        <v>102.3357659745982</v>
       </c>
       <c r="C23" t="n">
-        <v>54.51128058341659</v>
+        <v>139.8888718097029</v>
       </c>
       <c r="D23" t="n">
-        <v>74.25934498991738</v>
+        <v>74.13699777460026</v>
       </c>
       <c r="E23" t="n">
-        <v>77.29253664727489</v>
+        <v>74.06030266355057</v>
       </c>
       <c r="F23" t="n">
-        <v>66.6078052746296</v>
+        <v>111.2299090449675</v>
       </c>
       <c r="G23" t="n">
-        <v>153.4891120210251</v>
+        <v>93.76573664126634</v>
       </c>
       <c r="H23" t="n">
-        <v>77.31585369276171</v>
+        <v>107.3953642950505</v>
       </c>
       <c r="I23" t="n">
-        <v>74.61260644385631</v>
+        <v>111.6527532348262</v>
       </c>
       <c r="J23" t="n">
-        <v>53.90060451646696</v>
+        <v>117.153015725845</v>
       </c>
       <c r="K23" t="n">
-        <v>53.61773361598816</v>
+        <v>97.65162223438709</v>
       </c>
       <c r="L23" t="n">
-        <v>95.19210211883039</v>
+        <v>74.50924130376589</v>
       </c>
       <c r="M23" t="n">
-        <v>79.44976415661544</v>
+        <v>90.32879613937908</v>
       </c>
       <c r="N23" t="n">
-        <v>61.69635078897767</v>
+        <v>110.4388345654156</v>
       </c>
       <c r="O23" t="n">
-        <v>57.68963330600652</v>
+        <v>131.2131780136607</v>
       </c>
       <c r="P23" t="n">
-        <v>87.48774369681958</v>
+        <v>84.97074226818073</v>
       </c>
       <c r="Q23" t="n">
-        <v>57.75289170276605</v>
+        <v>126.7217690539149</v>
       </c>
       <c r="R23" t="n">
-        <v>64.97177865748034</v>
+        <v>90.82204421087961</v>
       </c>
       <c r="S23" t="n">
-        <v>52.04815881161374</v>
+        <v>75.97297344554681</v>
       </c>
       <c r="T23" t="n">
-        <v>111.9953490795862</v>
+        <v>78.1828433695263</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>185.2220767544294</v>
+        <v>102.5332451832453</v>
       </c>
       <c r="B24" t="n">
-        <v>201.885868380312</v>
+        <v>122.9888648936882</v>
       </c>
       <c r="C24" t="n">
-        <v>184.1546044737384</v>
+        <v>155.635948117463</v>
       </c>
       <c r="D24" t="n">
-        <v>190.9342529677863</v>
+        <v>100.7469420342932</v>
       </c>
       <c r="E24" t="n">
-        <v>192.1342625858423</v>
+        <v>100.6905175319249</v>
       </c>
       <c r="F24" t="n">
-        <v>188.0905057719236</v>
+        <v>130.4827366220601</v>
       </c>
       <c r="G24" t="n">
-        <v>233.4530919628991</v>
+        <v>115.9554451421298</v>
       </c>
       <c r="H24" t="n">
-        <v>192.1436438456281</v>
+        <v>127.2297770268296</v>
       </c>
       <c r="I24" t="n">
-        <v>191.0719227892493</v>
+        <v>130.8433765811138</v>
       </c>
       <c r="J24" t="n">
-        <v>183.9747640446255</v>
+        <v>135.5672563117298</v>
       </c>
       <c r="K24" t="n">
-        <v>183.8920879106824</v>
+        <v>119.1196508357777</v>
       </c>
       <c r="L24" t="n">
-        <v>200.0074372213116</v>
+        <v>101.021180600372</v>
       </c>
       <c r="M24" t="n">
-        <v>193.012185269679</v>
+        <v>113.1942723914053</v>
       </c>
       <c r="N24" t="n">
-        <v>186.4078279974091</v>
+        <v>129.8090446401844</v>
       </c>
       <c r="O24" t="n">
-        <v>185.1203187902845</v>
+        <v>147.8869499809729</v>
       </c>
       <c r="P24" t="n">
-        <v>196.4574863302375</v>
+        <v>108.9664119434781</v>
       </c>
       <c r="Q24" t="n">
-        <v>185.1400419630137</v>
+        <v>143.9168462772302</v>
       </c>
       <c r="R24" t="n">
-        <v>187.5173876203262</v>
+        <v>113.5882723034078</v>
       </c>
       <c r="S24" t="n">
-        <v>183.4405884032049</v>
+        <v>102.1055560897051</v>
       </c>
       <c r="T24" t="n">
-        <v>208.5291271105632</v>
+        <v>103.7603435208945</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>30.28372623274294</v>
+        <v>34.19727642851388</v>
       </c>
       <c r="B25" t="n">
-        <v>85.83583289622499</v>
+        <v>76.04372581060574</v>
       </c>
       <c r="C25" t="n">
-        <v>22.86492305246199</v>
+        <v>121.9792428806735</v>
       </c>
       <c r="D25" t="n">
-        <v>55.36944386286181</v>
+        <v>28.39601515322056</v>
       </c>
       <c r="E25" t="n">
-        <v>59.37559445362521</v>
+        <v>28.19517100795037</v>
       </c>
       <c r="F25" t="n">
-        <v>44.5861494059984</v>
+        <v>87.64777181253724</v>
       </c>
       <c r="G25" t="n">
-        <v>145.2936079266869</v>
+        <v>64.04726852434979</v>
       </c>
       <c r="H25" t="n">
-        <v>59.40594437925864</v>
+        <v>82.72728394923561</v>
       </c>
       <c r="I25" t="n">
-        <v>55.84233193283412</v>
+        <v>88.18376575349824</v>
       </c>
       <c r="J25" t="n">
-        <v>21.36820447748515</v>
+        <v>95.0519243950954</v>
       </c>
       <c r="K25" t="n">
-        <v>20.64428137441711</v>
+        <v>69.61234490058708</v>
       </c>
       <c r="L25" t="n">
-        <v>81.31950135824046</v>
+        <v>29.35415264002116</v>
       </c>
       <c r="M25" t="n">
-        <v>62.15778326076996</v>
+        <v>58.901024180742</v>
       </c>
       <c r="N25" t="n">
-        <v>36.84785877127222</v>
+        <v>86.64164944019754</v>
       </c>
       <c r="O25" t="n">
-        <v>29.65499597593185</v>
+        <v>111.9238014096888</v>
       </c>
       <c r="P25" t="n">
-        <v>72.14866798847662</v>
+        <v>50.29976420577381</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.77786922166294</v>
+        <v>106.6229149371963</v>
       </c>
       <c r="R25" t="n">
-        <v>42.10293359455676</v>
+        <v>59.65469765403072</v>
       </c>
       <c r="S25" t="n">
-        <v>16.13492581420821</v>
+        <v>32.89273372203365</v>
       </c>
       <c r="T25" t="n">
-        <v>100.4703100961146</v>
+        <v>37.71732009163338</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>158.9502528332959</v>
+        <v>97.54852100161361</v>
       </c>
       <c r="B26" t="n">
-        <v>178.089497192332</v>
+        <v>118.8650851580591</v>
       </c>
       <c r="C26" t="n">
-        <v>157.7050522571296</v>
+        <v>152.3981493595522</v>
       </c>
       <c r="D26" t="n">
-        <v>165.5712961684832</v>
+        <v>95.66918997804879</v>
       </c>
       <c r="E26" t="n">
-        <v>166.9537062120824</v>
+        <v>95.60976886616568</v>
       </c>
       <c r="F26" t="n">
-        <v>162.2837130462665</v>
+        <v>126.603286443033</v>
       </c>
       <c r="G26" t="n">
-        <v>213.2095478762215</v>
+        <v>111.5720074207873</v>
       </c>
       <c r="H26" t="n">
-        <v>166.9645023015986</v>
+        <v>123.2479766328499</v>
       </c>
       <c r="I26" t="n">
-        <v>165.7300360131675</v>
+        <v>126.9749454693402</v>
       </c>
       <c r="J26" t="n">
-        <v>157.4950125045888</v>
+        <v>131.8375081897598</v>
       </c>
       <c r="K26" t="n">
-        <v>157.3984280566203</v>
+        <v>114.8570363409763</v>
       </c>
       <c r="L26" t="n">
-        <v>175.9572109985318</v>
+        <v>95.9579413685377</v>
       </c>
       <c r="M26" t="n">
-        <v>167.9632960533992</v>
+        <v>108.6995440837468</v>
       </c>
       <c r="N26" t="n">
-        <v>160.3304197501416</v>
+        <v>125.9088386579439</v>
       </c>
       <c r="O26" t="n">
-        <v>158.8316643102423</v>
+        <v>144.4755950202993</v>
       </c>
       <c r="P26" t="n">
-        <v>171.9113407944351</v>
+        <v>104.2896280251804</v>
       </c>
       <c r="Q26" t="n">
-        <v>158.8546514793049</v>
+        <v>140.4090674571221</v>
       </c>
       <c r="R26" t="n">
-        <v>161.6191072197116</v>
+        <v>109.1097758528899</v>
       </c>
       <c r="S26" t="n">
-        <v>156.8706939879434</v>
+        <v>97.09887829518253</v>
       </c>
       <c r="T26" t="n">
-        <v>185.5865351043507</v>
+        <v>98.83752561334582</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>107.8574859521592</v>
+        <v>108.575618877852</v>
       </c>
       <c r="B27" t="n">
-        <v>134.4764790227985</v>
+        <v>128.0697448062538</v>
       </c>
       <c r="C27" t="n">
-        <v>106.013857148844</v>
+        <v>159.6813921323418</v>
       </c>
       <c r="D27" t="n">
-        <v>117.3963735175116</v>
+        <v>106.890340892722</v>
       </c>
       <c r="E27" t="n">
-        <v>119.3381515614427</v>
+        <v>106.8371609869335</v>
       </c>
       <c r="F27" t="n">
-        <v>112.712279367576</v>
+        <v>135.2824571157805</v>
       </c>
       <c r="G27" t="n">
-        <v>178.3994554524601</v>
+        <v>121.3312157072967</v>
       </c>
       <c r="H27" t="n">
-        <v>119.3532547900226</v>
+        <v>132.1477007336785</v>
       </c>
       <c r="I27" t="n">
-        <v>117.6201480915465</v>
+        <v>135.6303352574498</v>
       </c>
       <c r="J27" t="n">
-        <v>105.7011511951129</v>
+        <v>140.1930084946868</v>
       </c>
       <c r="K27" t="n">
-        <v>105.5571861828772</v>
+        <v>124.3587144599794</v>
       </c>
       <c r="L27" t="n">
-        <v>131.6396387967293</v>
+        <v>107.1488570951368</v>
       </c>
       <c r="M27" t="n">
-        <v>120.7465246757576</v>
+        <v>118.695163966864</v>
       </c>
       <c r="N27" t="n">
-        <v>109.8812900243172</v>
+        <v>134.632784704538</v>
       </c>
       <c r="O27" t="n">
-        <v>107.6826447841667</v>
+        <v>152.1385836057897</v>
       </c>
       <c r="P27" t="n">
-        <v>126.1806779736578</v>
+        <v>114.6702994621399</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.7165479244622</v>
+        <v>148.2823566351877</v>
       </c>
       <c r="R27" t="n">
-        <v>111.7532559644154</v>
+        <v>119.0709630924946</v>
       </c>
       <c r="S27" t="n">
-        <v>104.7686452733378</v>
+        <v>108.1718227233368</v>
       </c>
       <c r="T27" t="n">
-        <v>144.2581589103019</v>
+        <v>109.7351699979324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>29.25222141054083</v>
+        <v>173.9467030374288</v>
       </c>
       <c r="B28" t="n">
-        <v>85.4773571883235</v>
+        <v>186.7368469735468</v>
       </c>
       <c r="C28" t="n">
-        <v>21.48006259549977</v>
+        <v>209.6829451247898</v>
       </c>
       <c r="D28" t="n">
-        <v>54.81207619306338</v>
+        <v>172.8997844389784</v>
       </c>
       <c r="E28" t="n">
-        <v>58.85617724277503</v>
+        <v>172.8669125386082</v>
       </c>
       <c r="F28" t="n">
-        <v>43.89206194479353</v>
+        <v>191.7554006701398</v>
       </c>
       <c r="G28" t="n">
-        <v>145.0821177377329</v>
+        <v>182.1813777198247</v>
       </c>
       <c r="H28" t="n">
-        <v>58.88679487375036</v>
+        <v>189.5568655894076</v>
       </c>
       <c r="I28" t="n">
-        <v>55.28973158379778</v>
+        <v>192.000985218647</v>
       </c>
       <c r="J28" t="n">
-        <v>19.87934972536066</v>
+        <v>195.2507877414946</v>
       </c>
       <c r="K28" t="n">
-        <v>19.09907684621657</v>
+        <v>184.2115098060421</v>
       </c>
       <c r="L28" t="n">
-        <v>80.94102596375001</v>
+        <v>173.0597239674123</v>
       </c>
       <c r="M28" t="n">
-        <v>61.66180667807614</v>
+        <v>180.4365052643273</v>
       </c>
       <c r="N28" t="n">
-        <v>36.00490354020135</v>
+        <v>191.2976142041017</v>
       </c>
       <c r="O28" t="n">
-        <v>28.60082462524664</v>
+        <v>203.9973997492584</v>
       </c>
       <c r="P28" t="n">
-        <v>71.72181450174705</v>
+        <v>177.8147014777454</v>
       </c>
       <c r="Q28" t="n">
-        <v>28.72820701495381</v>
+        <v>201.1378824890226</v>
       </c>
       <c r="R28" t="n">
-        <v>41.36720198634707</v>
+        <v>180.6839360171708</v>
       </c>
       <c r="S28" t="n">
-        <v>14.10404955825039</v>
+        <v>173.6949444116664</v>
       </c>
       <c r="T28" t="n">
-        <v>100.1642231224353</v>
+        <v>174.6728313658366</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>55.52715211626177</v>
+        <v>21.73399054037475</v>
       </c>
       <c r="B29" t="n">
-        <v>97.64195182702673</v>
+        <v>71.31311846245046</v>
       </c>
       <c r="C29" t="n">
-        <v>51.85523362012516</v>
+        <v>119.0875657800731</v>
       </c>
       <c r="D29" t="n">
-        <v>72.33212191886366</v>
+        <v>10.45209578327906</v>
       </c>
       <c r="E29" t="n">
-        <v>75.44283772714358</v>
+        <v>9.893447217652357</v>
       </c>
       <c r="F29" t="n">
-        <v>64.45219365123862</v>
+        <v>83.57657885665999</v>
       </c>
       <c r="G29" t="n">
-        <v>152.5660284989964</v>
+        <v>58.35207995531159</v>
       </c>
       <c r="H29" t="n">
-        <v>75.46672627850185</v>
+        <v>78.40099578001778</v>
       </c>
       <c r="I29" t="n">
-        <v>72.69474935165246</v>
+        <v>84.13851182513721</v>
       </c>
       <c r="J29" t="n">
-        <v>51.21289593641789</v>
+        <v>91.31145032739235</v>
       </c>
       <c r="K29" t="n">
-        <v>50.91509502170114</v>
+        <v>64.41111078252881</v>
       </c>
       <c r="L29" t="n">
-        <v>93.69643455732786</v>
+        <v>12.82883108060003</v>
       </c>
       <c r="M29" t="n">
-        <v>77.65146854693481</v>
+        <v>52.652096627022</v>
       </c>
       <c r="N29" t="n">
-        <v>59.36265866376247</v>
+        <v>82.52083402025814</v>
       </c>
       <c r="O29" t="n">
-        <v>55.18676774314007</v>
+        <v>108.7651136701303</v>
       </c>
       <c r="P29" t="n">
-        <v>85.8579689959772</v>
+        <v>42.81330294239575</v>
       </c>
       <c r="Q29" t="n">
-        <v>55.25289171604697</v>
+        <v>103.3022682199452</v>
       </c>
       <c r="R29" t="n">
-        <v>62.75999972012752</v>
+        <v>53.49388359312424</v>
       </c>
       <c r="S29" t="n">
-        <v>49.25948008894078</v>
+        <v>19.61745552790978</v>
       </c>
       <c r="T29" t="n">
-        <v>110.7268881456179</v>
+        <v>26.93527175611263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>151.1653035396803</v>
+        <v>48.13180849137519</v>
       </c>
       <c r="B30" t="n">
-        <v>171.1772038815117</v>
+        <v>83.24581376069797</v>
       </c>
       <c r="C30" t="n">
-        <v>149.8554290838306</v>
+        <v>126.5944428767099</v>
       </c>
       <c r="D30" t="n">
-        <v>158.1126820763805</v>
+        <v>44.19899263675766</v>
       </c>
       <c r="E30" t="n">
-        <v>159.5597259223809</v>
+        <v>44.07022738413986</v>
       </c>
       <c r="F30" t="n">
-        <v>154.6666403545314</v>
+        <v>93.96461662362501</v>
       </c>
       <c r="G30" t="n">
-        <v>207.4706664183103</v>
+        <v>72.45184524187354</v>
       </c>
       <c r="H30" t="n">
-        <v>159.571022266875</v>
+        <v>89.3925096590295</v>
       </c>
       <c r="I30" t="n">
-        <v>158.2789024330179</v>
+        <v>94.46477553030057</v>
       </c>
       <c r="J30" t="n">
-        <v>149.6343713265624</v>
+        <v>100.9063209354754</v>
       </c>
       <c r="K30" t="n">
-        <v>149.5327097098493</v>
+        <v>77.41508790979002</v>
       </c>
       <c r="L30" t="n">
-        <v>168.9577054201933</v>
+        <v>44.82057062037349</v>
       </c>
       <c r="M30" t="n">
-        <v>160.6157991593505</v>
+        <v>67.94518322193693</v>
       </c>
       <c r="N30" t="n">
-        <v>152.6158891325919</v>
+        <v>93.02683855339978</v>
       </c>
       <c r="O30" t="n">
-        <v>151.040602839225</v>
+        <v>116.9365408908511</v>
       </c>
       <c r="P30" t="n">
-        <v>164.7400231037236</v>
+        <v>60.64060976506313</v>
       </c>
       <c r="Q30" t="n">
-        <v>151.0647755603086</v>
+        <v>111.8734251876951</v>
       </c>
       <c r="R30" t="n">
-        <v>153.9691590448282</v>
+        <v>68.59956432599294</v>
       </c>
       <c r="S30" t="n">
-        <v>148.9771148557186</v>
+        <v>47.21386666256891</v>
       </c>
       <c r="T30" t="n">
-        <v>178.9640414455188</v>
+        <v>50.69332804637072</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>31.04908415483851</v>
+        <v>25.95178134335828</v>
       </c>
       <c r="B31" t="n">
-        <v>86.10883672018325</v>
+        <v>72.70962436241761</v>
       </c>
       <c r="C31" t="n">
-        <v>23.86935815034683</v>
+        <v>119.9290495814406</v>
       </c>
       <c r="D31" t="n">
-        <v>55.7917275767396</v>
+        <v>17.61746055330392</v>
       </c>
       <c r="E31" t="n">
-        <v>59.76958063292639</v>
+        <v>17.29187404340123</v>
       </c>
       <c r="F31" t="n">
-        <v>45.10949202959984</v>
+        <v>84.77129905497431</v>
       </c>
       <c r="G31" t="n">
-        <v>145.4550585461652</v>
+        <v>60.05076057133212</v>
       </c>
       <c r="H31" t="n">
-        <v>59.79973060061469</v>
+        <v>79.6733628597585</v>
       </c>
       <c r="I31" t="n">
-        <v>56.26106636041789</v>
+        <v>85.3253642373306</v>
       </c>
       <c r="J31" t="n">
-        <v>22.43973517905541</v>
+        <v>92.40622041278509</v>
       </c>
       <c r="K31" t="n">
-        <v>21.751503529196</v>
+        <v>65.95392181154642</v>
       </c>
       <c r="L31" t="n">
-        <v>81.60761516836153</v>
+        <v>19.12348077570998</v>
       </c>
       <c r="M31" t="n">
-        <v>62.53424319688673</v>
+        <v>54.52863366439363</v>
       </c>
       <c r="N31" t="n">
-        <v>37.4794109924655</v>
+        <v>83.73061959333259</v>
       </c>
       <c r="O31" t="n">
-        <v>30.43616826486302</v>
+        <v>109.6858175050939</v>
       </c>
       <c r="P31" t="n">
-        <v>72.47324916702682</v>
+        <v>45.10108112808087</v>
       </c>
       <c r="Q31" t="n">
-        <v>30.55590037451002</v>
+        <v>104.2712195645082</v>
       </c>
       <c r="R31" t="n">
-        <v>42.65675291887765</v>
+        <v>55.34188460794506</v>
       </c>
       <c r="S31" t="n">
-        <v>17.52932923258969</v>
+        <v>24.20688272937881</v>
       </c>
       <c r="T31" t="n">
-        <v>100.7036482115913</v>
+        <v>30.44072066591097</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>123.0815201356495</v>
+        <v>152.6183484703805</v>
       </c>
       <c r="B32" t="n">
-        <v>146.9685229338284</v>
+        <v>167.0495579457092</v>
       </c>
       <c r="C32" t="n">
-        <v>121.469178109336</v>
+        <v>192.3586293058895</v>
       </c>
       <c r="D32" t="n">
-        <v>131.5208418390225</v>
+        <v>151.4240411932009</v>
       </c>
       <c r="E32" t="n">
-        <v>133.2569613231667</v>
+        <v>151.3865061452501</v>
       </c>
       <c r="F32" t="n">
-        <v>127.3572975656149</v>
+        <v>172.6413579603708</v>
       </c>
       <c r="G32" t="n">
-        <v>187.9951835253137</v>
+        <v>161.941221374079</v>
       </c>
       <c r="H32" t="n">
-        <v>133.2704871753463</v>
+        <v>170.196093034816</v>
       </c>
       <c r="I32" t="n">
-        <v>131.7206231387455</v>
+        <v>172.9140917252441</v>
       </c>
       <c r="J32" t="n">
-        <v>121.1963559145001</v>
+        <v>176.5156505976431</v>
       </c>
       <c r="K32" t="n">
-        <v>121.0708176144387</v>
+        <v>164.2217559803103</v>
       </c>
       <c r="L32" t="n">
-        <v>144.3773452641219</v>
+        <v>151.6066385482903</v>
       </c>
       <c r="M32" t="n">
-        <v>134.5196883145937</v>
+        <v>159.9757394864566</v>
       </c>
       <c r="N32" t="n">
-        <v>124.8588051376041</v>
+        <v>172.1327452648576</v>
       </c>
       <c r="O32" t="n">
-        <v>122.9283340434381</v>
+        <v>186.1446853839608</v>
       </c>
       <c r="P32" t="n">
-        <v>139.4180290237744</v>
+        <v>157.0126518910331</v>
       </c>
       <c r="Q32" t="n">
-        <v>122.958033571398</v>
+        <v>183.0064276587106</v>
       </c>
       <c r="R32" t="n">
-        <v>126.5093417168481</v>
+        <v>160.2547644436573</v>
       </c>
       <c r="S32" t="n">
-        <v>120.3839372814853</v>
+        <v>152.3313444646468</v>
       </c>
       <c r="T32" t="n">
-        <v>155.968713962679</v>
+        <v>153.4454391945001</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>42.94235709836471</v>
+        <v>39.31608543734648</v>
       </c>
       <c r="B33" t="n">
-        <v>91.07542021650194</v>
+        <v>78.47897230562542</v>
       </c>
       <c r="C33" t="n">
-        <v>38.07553893011573</v>
+        <v>123.5120907147591</v>
       </c>
       <c r="D33" t="n">
-        <v>63.18795195530835</v>
+        <v>34.38945384228236</v>
       </c>
       <c r="E33" t="n">
-        <v>66.72633045016876</v>
+        <v>34.22380059485069</v>
       </c>
       <c r="F33" t="n">
-        <v>53.9895052531301</v>
+        <v>89.76877387316335</v>
       </c>
       <c r="G33" t="n">
-        <v>148.4492319379847</v>
+        <v>66.92050107716398</v>
       </c>
       <c r="H33" t="n">
-        <v>66.75333839004101</v>
+        <v>84.9711972882929</v>
       </c>
       <c r="I33" t="n">
-        <v>63.60273574556818</v>
+        <v>90.29217796385457</v>
       </c>
       <c r="J33" t="n">
-        <v>37.19599603741466</v>
+        <v>97.01118074840377</v>
       </c>
       <c r="K33" t="n">
-        <v>36.78489244363583</v>
+        <v>72.26464849113172</v>
       </c>
       <c r="L33" t="n">
-        <v>86.83204051372179</v>
+        <v>35.18475715707298</v>
       </c>
       <c r="M33" t="n">
-        <v>69.21366901499013</v>
+        <v>62.01315593105137</v>
       </c>
       <c r="N33" t="n">
-        <v>47.79860515382613</v>
+        <v>88.78668974968387</v>
       </c>
       <c r="O33" t="n">
-        <v>42.50130286186866</v>
+        <v>113.5924213184313</v>
       </c>
       <c r="P33" t="n">
-        <v>78.30946463317945</v>
+        <v>53.91073305145257</v>
       </c>
       <c r="Q33" t="n">
-        <v>42.58712779709629</v>
+        <v>108.3731832544063</v>
       </c>
       <c r="R33" t="n">
-        <v>51.95766522748503</v>
+        <v>62.7294493135589</v>
       </c>
       <c r="S33" t="n">
-        <v>34.45689756280668</v>
+        <v>38.18681435649152</v>
       </c>
       <c r="T33" t="n">
-        <v>104.9820230774449</v>
+        <v>42.41340700631427</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>56.96190958491405</v>
+        <v>129.5460449976728</v>
       </c>
       <c r="B34" t="n">
-        <v>98.4649444117492</v>
+        <v>146.2715703565442</v>
       </c>
       <c r="C34" t="n">
-        <v>53.38876075744041</v>
+        <v>174.6186122758774</v>
       </c>
       <c r="D34" t="n">
-        <v>73.43929726449461</v>
+        <v>128.1368711027112</v>
       </c>
       <c r="E34" t="n">
-        <v>76.50500823960199</v>
+        <v>128.0925123790553</v>
       </c>
       <c r="F34" t="n">
-        <v>65.69231148219868</v>
+        <v>152.626524441571</v>
       </c>
       <c r="G34" t="n">
-        <v>153.0940481317743</v>
+        <v>140.4093182977577</v>
       </c>
       <c r="H34" t="n">
-        <v>76.52856523293622</v>
+        <v>149.8550218345329</v>
       </c>
       <c r="I34" t="n">
-        <v>73.79648436556464</v>
+        <v>152.9349554610676</v>
       </c>
       <c r="J34" t="n">
-        <v>52.76509482235218</v>
+        <v>156.9955171035842</v>
       </c>
       <c r="K34" t="n">
-        <v>52.47610334701221</v>
+        <v>143.0335716605342</v>
       </c>
       <c r="L34" t="n">
-        <v>94.55377501809789</v>
+        <v>128.3526015966351</v>
       </c>
       <c r="M34" t="n">
-        <v>78.68382990750422</v>
+        <v>138.1378105695585</v>
       </c>
       <c r="N34" t="n">
-        <v>60.70683458267137</v>
+        <v>152.0509765740719</v>
       </c>
       <c r="O34" t="n">
-        <v>56.63014970272227</v>
+        <v>167.7488044112576</v>
       </c>
       <c r="P34" t="n">
-        <v>86.79277251898128</v>
+        <v>134.6951756321188</v>
       </c>
       <c r="Q34" t="n">
-        <v>56.69459025694305</v>
+        <v>164.2594595422604</v>
       </c>
       <c r="R34" t="n">
-        <v>64.03289846858299</v>
+        <v>138.4608501042974</v>
       </c>
       <c r="S34" t="n">
-        <v>50.87131706620346</v>
+        <v>129.2078015876731</v>
       </c>
       <c r="T34" t="n">
-        <v>111.4533008924797</v>
+        <v>130.5194249692574</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>29.51864462499647</v>
+        <v>42.66298795649631</v>
       </c>
       <c r="B35" t="n">
-        <v>85.56889922714775</v>
+        <v>80.20801120465801</v>
       </c>
       <c r="C35" t="n">
-        <v>21.84149747961705</v>
+        <v>124.6178659743068</v>
       </c>
       <c r="D35" t="n">
-        <v>54.95472336059672</v>
+        <v>38.17080694496633</v>
       </c>
       <c r="E35" t="n">
-        <v>58.98904578545476</v>
+        <v>38.02163192730584</v>
       </c>
       <c r="F35" t="n">
-        <v>44.07006948951999</v>
+        <v>91.28421950123996</v>
       </c>
       <c r="G35" t="n">
-        <v>145.1360699836913</v>
+        <v>68.9400422953027</v>
       </c>
       <c r="H35" t="n">
-        <v>59.01959448817554</v>
+        <v>86.57066671722828</v>
       </c>
       <c r="I35" t="n">
-        <v>55.43114956099986</v>
+        <v>91.79898348410948</v>
       </c>
       <c r="J35" t="n">
-        <v>20.26934800502291</v>
+        <v>98.41516731408269</v>
       </c>
       <c r="K35" t="n">
-        <v>19.50468301263097</v>
+        <v>74.13875766969831</v>
       </c>
       <c r="L35" t="n">
-        <v>81.03769250854803</v>
+        <v>38.88885577465116</v>
       </c>
       <c r="M35" t="n">
-        <v>61.78864236937047</v>
+        <v>64.18728437773569</v>
       </c>
       <c r="N35" t="n">
-        <v>36.22169242297677</v>
+        <v>90.31861515748589</v>
       </c>
       <c r="O35" t="n">
-        <v>28.87325912136772</v>
+        <v>114.7937896762862</v>
       </c>
       <c r="P35" t="n">
-        <v>71.83088888819726</v>
+        <v>56.39807714279276</v>
       </c>
       <c r="Q35" t="n">
-        <v>28.99944484536852</v>
+        <v>109.6317600695736</v>
       </c>
       <c r="R35" t="n">
-        <v>41.55602631658574</v>
+        <v>64.8795790556765</v>
       </c>
       <c r="S35" t="n">
-        <v>14.64862235799368</v>
+        <v>41.62461721093142</v>
       </c>
       <c r="T35" t="n">
-        <v>100.242353906752</v>
+        <v>45.53320833350851</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>71.91913599366181</v>
+        <v>72.25656578273353</v>
       </c>
       <c r="B36" t="n">
-        <v>107.8102418906653</v>
+        <v>99.16756434815213</v>
       </c>
       <c r="C36" t="n">
-        <v>69.12353256113366</v>
+        <v>137.5881291294007</v>
       </c>
       <c r="D36" t="n">
-        <v>85.56303735385802</v>
+        <v>69.69857430513366</v>
       </c>
       <c r="E36" t="n">
-        <v>88.20838545317824</v>
+        <v>69.61698967747651</v>
       </c>
       <c r="F36" t="n">
-        <v>79.01381376942331</v>
+        <v>108.3221560313905</v>
       </c>
       <c r="G36" t="n">
-        <v>159.2654719388007</v>
+        <v>90.29734320020981</v>
       </c>
       <c r="H36" t="n">
-        <v>88.2288177135264</v>
+        <v>104.3808463905316</v>
       </c>
       <c r="I36" t="n">
-        <v>85.86980891577623</v>
+        <v>108.7563061438469</v>
       </c>
       <c r="J36" t="n">
-        <v>68.64297640783589</v>
+        <v>114.3959173869297</v>
       </c>
       <c r="K36" t="n">
-        <v>68.42108155386907</v>
+        <v>94.32622194355395</v>
       </c>
       <c r="L36" t="n">
-        <v>104.2502726552212</v>
+        <v>70.09439250610542</v>
       </c>
       <c r="M36" t="n">
-        <v>90.10465064261639</v>
+        <v>86.72305479586534</v>
       </c>
       <c r="N36" t="n">
-        <v>74.92010907335039</v>
+        <v>107.5096879416194</v>
       </c>
       <c r="O36" t="n">
-        <v>71.65665938255587</v>
+        <v>128.7575042690009</v>
       </c>
       <c r="P36" t="n">
-        <v>97.2660698293425</v>
+        <v>81.12720790673589</v>
       </c>
       <c r="Q36" t="n">
-        <v>71.70759752576821</v>
+        <v>124.1773069980619</v>
       </c>
       <c r="R36" t="n">
-        <v>77.63964879365925</v>
+        <v>87.2366925999612</v>
       </c>
       <c r="S36" t="n">
-        <v>67.19816871437122</v>
+        <v>71.64837412876106</v>
       </c>
       <c r="T36" t="n">
-        <v>119.7895707411314</v>
+        <v>73.98752474898075</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>94.84311667637274</v>
+        <v>31.49097772423862</v>
       </c>
       <c r="B37" t="n">
-        <v>124.2815469622783</v>
+        <v>74.86572111493275</v>
       </c>
       <c r="C37" t="n">
-        <v>92.74113117998583</v>
+        <v>121.2483552739691</v>
       </c>
       <c r="D37" t="n">
-        <v>105.5646153785961</v>
+        <v>25.07113159556691</v>
       </c>
       <c r="E37" t="n">
-        <v>107.7198863862643</v>
+        <v>24.84342228977053</v>
       </c>
       <c r="F37" t="n">
-        <v>100.3296438008346</v>
+        <v>86.62770842289954</v>
       </c>
       <c r="G37" t="n">
-        <v>170.8459692550636</v>
+        <v>62.64407847778168</v>
       </c>
       <c r="H37" t="n">
-        <v>107.7366183520715</v>
+        <v>81.64576824623404</v>
       </c>
       <c r="I37" t="n">
-        <v>105.8134147546763</v>
+        <v>87.16997479274701</v>
       </c>
       <c r="J37" t="n">
-        <v>92.38350972408412</v>
+        <v>94.11214743119633</v>
       </c>
       <c r="K37" t="n">
-        <v>92.21875655100992</v>
+        <v>68.32354298086855</v>
       </c>
       <c r="L37" t="n">
-        <v>121.2063282485746</v>
+        <v>26.15137166792524</v>
       </c>
       <c r="M37" t="n">
-        <v>109.2780981086383</v>
+        <v>57.37210657140503</v>
       </c>
       <c r="N37" t="n">
-        <v>97.13844451284956</v>
+        <v>85.60959864768894</v>
       </c>
       <c r="O37" t="n">
-        <v>94.6442364472389</v>
+        <v>111.1267982302008</v>
       </c>
       <c r="P37" t="n">
-        <v>115.2542537126494</v>
+        <v>48.50045610153317</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.68280837475614</v>
+        <v>105.7859818341017</v>
       </c>
       <c r="R37" t="n">
-        <v>99.25104394219733</v>
+        <v>58.14560099520961</v>
       </c>
       <c r="S37" t="n">
-        <v>91.31510574586405</v>
+        <v>30.06925164697173</v>
       </c>
       <c r="T37" t="n">
-        <v>134.8050292724932</v>
+        <v>35.28206623477475</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>80.16519345599232</v>
+        <v>45.65736003400549</v>
       </c>
       <c r="B38" t="n">
-        <v>113.4775060365957</v>
+        <v>81.84002104902707</v>
       </c>
       <c r="C38" t="n">
-        <v>77.66697414919652</v>
+        <v>125.6744862885421</v>
       </c>
       <c r="D38" t="n">
-        <v>92.60199501619583</v>
+        <v>41.49065541454536</v>
       </c>
       <c r="E38" t="n">
-        <v>95.05164587748243</v>
+        <v>41.35345787614592</v>
       </c>
       <c r="F38" t="n">
-        <v>86.58682859506384</v>
+        <v>92.721479247525</v>
       </c>
       <c r="G38" t="n">
-        <v>163.1551000479322</v>
+        <v>70.83214959025865</v>
       </c>
       <c r="H38" t="n">
-        <v>95.07060741832106</v>
+        <v>88.08486998210343</v>
       </c>
       <c r="I38" t="n">
-        <v>92.88552203112053</v>
+        <v>93.2283076785933</v>
       </c>
       <c r="J38" t="n">
-        <v>77.23959043061123</v>
+        <v>99.74973253777446</v>
       </c>
       <c r="K38" t="n">
-        <v>77.04245920765418</v>
+        <v>75.9013792542988</v>
       </c>
       <c r="L38" t="n">
-        <v>110.1009330952732</v>
+        <v>42.15218959152978</v>
       </c>
       <c r="M38" t="n">
-        <v>96.81396690142289</v>
+        <v>66.21534157343723</v>
       </c>
       <c r="N38" t="n">
-        <v>82.86808108870734</v>
+        <v>91.77099883876546</v>
       </c>
       <c r="O38" t="n">
-        <v>79.92980016007476</v>
+        <v>115.9399764194477</v>
       </c>
       <c r="P38" t="n">
-        <v>103.5122430430738</v>
+        <v>58.69588647684823</v>
       </c>
       <c r="Q38" t="n">
-        <v>79.97546913072416</v>
+        <v>110.8313439413743</v>
       </c>
       <c r="R38" t="n">
-        <v>85.33470094026585</v>
+        <v>66.88664861046956</v>
       </c>
       <c r="S38" t="n">
-        <v>75.958475487117</v>
+        <v>44.68861982490867</v>
       </c>
       <c r="T38" t="n">
-        <v>124.914520285299</v>
+        <v>48.35015041384402</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>63.3408300588975</v>
+        <v>94.7223617180444</v>
       </c>
       <c r="B39" t="n">
-        <v>102.2875695624794</v>
+        <v>116.5569402887466</v>
       </c>
       <c r="C39" t="n">
-        <v>60.14782942222785</v>
+        <v>150.6048066565546</v>
       </c>
       <c r="D39" t="n">
-        <v>78.49033056175146</v>
+        <v>92.7858058697438</v>
       </c>
       <c r="E39" t="n">
-        <v>81.36595046290419</v>
+        <v>92.7245370033381</v>
       </c>
       <c r="F39" t="n">
-        <v>71.29432934577912</v>
+        <v>124.4387560128212</v>
       </c>
       <c r="G39" t="n">
-        <v>155.5801696308505</v>
+        <v>109.1096911357833</v>
       </c>
       <c r="H39" t="n">
-        <v>81.3881005159967</v>
+        <v>121.0234506363676</v>
       </c>
       <c r="I39" t="n">
-        <v>78.82463265824482</v>
+        <v>124.8168603866629</v>
       </c>
       <c r="J39" t="n">
-        <v>59.59493972311765</v>
+        <v>129.7603191485239</v>
       </c>
       <c r="K39" t="n">
-        <v>59.3392200106853</v>
+        <v>112.4666646472373</v>
       </c>
       <c r="L39" t="n">
-        <v>98.52825979973098</v>
+        <v>93.08350214473836</v>
       </c>
       <c r="M39" t="n">
-        <v>83.4179039409602</v>
+        <v>106.1706303261698</v>
       </c>
       <c r="N39" t="n">
-        <v>66.72871476387083</v>
+        <v>123.7321603789166</v>
       </c>
       <c r="O39" t="n">
-        <v>63.04264798010109</v>
+        <v>142.5826406555557</v>
       </c>
       <c r="P39" t="n">
-        <v>91.10645954333778</v>
+        <v>101.6510618413418</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.10054019889902</v>
+        <v>138.4605289749409</v>
       </c>
       <c r="R39" t="n">
-        <v>69.76828574128839</v>
+        <v>106.5905954881089</v>
       </c>
       <c r="S39" t="n">
-        <v>57.9248867848735</v>
+        <v>94.25923841207535</v>
       </c>
       <c r="T39" t="n">
-        <v>114.8444160106177</v>
+        <v>96.04930155503777</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>115.3113639501278</v>
+        <v>27.10608325159524</v>
       </c>
       <c r="B40" t="n">
-        <v>140.5254311165341</v>
+        <v>73.12957178373743</v>
       </c>
       <c r="C40" t="n">
-        <v>113.5887815221825</v>
+        <v>120.1841159548821</v>
       </c>
       <c r="D40" t="n">
-        <v>124.2794508162218</v>
+        <v>19.27744046018955</v>
       </c>
       <c r="E40" t="n">
-        <v>126.1152956552871</v>
+        <v>18.98035042568462</v>
       </c>
       <c r="F40" t="n">
-        <v>119.8646374055047</v>
+        <v>85.1317680881633</v>
       </c>
       <c r="G40" t="n">
-        <v>183.0022925699373</v>
+        <v>60.5585554611765</v>
       </c>
       <c r="H40" t="n">
-        <v>126.1295873658939</v>
+        <v>80.05678949178314</v>
       </c>
       <c r="I40" t="n">
-        <v>124.4908535483468</v>
+        <v>85.68350235945114</v>
       </c>
       <c r="J40" t="n">
-        <v>113.2969847087323</v>
+        <v>92.7370172332772</v>
       </c>
       <c r="K40" t="n">
-        <v>113.1626834913577</v>
+        <v>66.4165988038571</v>
       </c>
       <c r="L40" t="n">
-        <v>137.8131629513377</v>
+        <v>20.66282437925373</v>
       </c>
       <c r="M40" t="n">
-        <v>127.4487999213486</v>
+        <v>55.08735502503797</v>
       </c>
       <c r="N40" t="n">
-        <v>117.2065325718952</v>
+        <v>84.09554953641901</v>
       </c>
       <c r="O40" t="n">
-        <v>115.1478413511588</v>
+        <v>109.9646459372725</v>
       </c>
       <c r="P40" t="n">
-        <v>132.6085852198512</v>
+        <v>45.77501844096479</v>
       </c>
       <c r="Q40" t="n">
-        <v>115.1795471291738</v>
+        <v>104.5644873932771</v>
       </c>
       <c r="R40" t="n">
-        <v>118.96328676851</v>
+        <v>55.89247700995224</v>
       </c>
       <c r="S40" t="n">
-        <v>112.4274984713664</v>
+        <v>25.44047888352008</v>
       </c>
       <c r="T40" t="n">
-        <v>149.9129407099618</v>
+        <v>31.43059447431677</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>29.5365716283517</v>
+        <v>84.94789534629321</v>
       </c>
       <c r="B41" t="n">
-        <v>85.57508514752227</v>
+        <v>108.7627668082933</v>
       </c>
       <c r="C41" t="n">
-        <v>21.86571963627164</v>
+        <v>144.656928290279</v>
       </c>
       <c r="D41" t="n">
-        <v>54.96435483747292</v>
+        <v>82.78299876918283</v>
       </c>
       <c r="E41" t="n">
-        <v>58.99801865942954</v>
+        <v>82.71432086890491</v>
       </c>
       <c r="F41" t="n">
-        <v>44.08207921447261</v>
+        <v>117.170060648355</v>
       </c>
       <c r="G41" t="n">
-        <v>145.1397171465166</v>
+        <v>100.7409738590349</v>
       </c>
       <c r="H41" t="n">
-        <v>59.02856271847214</v>
+        <v>113.5363145352801</v>
       </c>
       <c r="I41" t="n">
-        <v>55.44069827043895</v>
+        <v>117.5715431178159</v>
       </c>
       <c r="J41" t="n">
-        <v>20.2954465732746</v>
+        <v>122.8070011841651</v>
       </c>
       <c r="K41" t="n">
-        <v>19.53180335972929</v>
+        <v>104.3674746805483</v>
       </c>
       <c r="L41" t="n">
-        <v>81.04422428631111</v>
+        <v>83.11652955850751</v>
       </c>
       <c r="M41" t="n">
-        <v>61.79720874691576</v>
+        <v>97.55009922176885</v>
       </c>
       <c r="N41" t="n">
-        <v>36.23630341307803</v>
+        <v>116.4193567511635</v>
       </c>
       <c r="O41" t="n">
-        <v>28.89158658415217</v>
+        <v>136.2851001783836</v>
       </c>
       <c r="P41" t="n">
-        <v>71.83825778461265</v>
+        <v>92.61078494318595</v>
       </c>
       <c r="Q41" t="n">
-        <v>29.0176926098456</v>
+        <v>131.9664245114688</v>
       </c>
       <c r="R41" t="n">
-        <v>41.56876238577092</v>
+        <v>98.0070107738748</v>
       </c>
       <c r="S41" t="n">
-        <v>14.68471382244236</v>
+        <v>84.4311739841701</v>
       </c>
       <c r="T41" t="n">
-        <v>100.2476343851886</v>
+        <v>86.42503944767004</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>40.1832795994064</v>
+        <v>160.8087591280494</v>
       </c>
       <c r="B42" t="n">
-        <v>89.80747237180772</v>
+        <v>174.5641759707112</v>
       </c>
       <c r="C42" t="n">
-        <v>34.93417511577103</v>
+        <v>198.9194283897809</v>
       </c>
       <c r="D42" t="n">
-        <v>61.34628919915982</v>
+        <v>159.6757244347329</v>
       </c>
       <c r="E42" t="n">
-        <v>64.98502213237845</v>
+        <v>159.6401295581483</v>
       </c>
       <c r="F42" t="n">
-        <v>51.82197027977958</v>
+        <v>179.9225811311005</v>
       </c>
       <c r="G42" t="n">
-        <v>147.6747249504063</v>
+        <v>169.6822203491132</v>
       </c>
       <c r="H42" t="n">
-        <v>65.01275345973218</v>
+        <v>177.5776078417329</v>
       </c>
       <c r="I42" t="n">
-        <v>61.77344025162572</v>
+        <v>180.1842940981335</v>
       </c>
       <c r="J42" t="n">
-        <v>33.97340205831561</v>
+        <v>183.6433272089834</v>
       </c>
       <c r="K42" t="n">
-        <v>33.52280176671474</v>
+        <v>171.8600647612269</v>
       </c>
       <c r="L42" t="n">
-        <v>85.50118821383256</v>
+        <v>159.8488960687201</v>
       </c>
       <c r="M42" t="n">
-        <v>67.53652274671241</v>
+        <v>167.8074311427095</v>
       </c>
       <c r="N42" t="n">
-        <v>45.33604063934091</v>
+        <v>179.4346084647354</v>
       </c>
       <c r="O42" t="n">
-        <v>39.71159366176182</v>
+        <v>192.9169267305757</v>
       </c>
       <c r="P42" t="n">
-        <v>76.83112765888433</v>
+        <v>164.9850586457188</v>
       </c>
       <c r="Q42" t="n">
-        <v>39.80343427653961</v>
+        <v>189.8906245365458</v>
       </c>
       <c r="R42" t="n">
-        <v>49.70159858688655</v>
+        <v>168.0734549218545</v>
       </c>
       <c r="S42" t="n">
-        <v>30.9504073616867</v>
+        <v>160.5363984549406</v>
       </c>
       <c r="T42" t="n">
-        <v>103.8839501349162</v>
+        <v>161.5939340819127</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>31.34011261091769</v>
+        <v>35.40128237965817</v>
       </c>
       <c r="B43" t="n">
-        <v>86.21420296513757</v>
+        <v>76.59272363713599</v>
       </c>
       <c r="C43" t="n">
-        <v>24.24671709985265</v>
+        <v>122.3222497043708</v>
       </c>
       <c r="D43" t="n">
-        <v>55.9542125099432</v>
+        <v>29.83505916833477</v>
       </c>
       <c r="E43" t="n">
-        <v>59.92128003177709</v>
+        <v>29.64396645463745</v>
       </c>
       <c r="F43" t="n">
-        <v>45.31030018416663</v>
+        <v>88.12450841110379</v>
       </c>
       <c r="G43" t="n">
-        <v>145.5174597368958</v>
+        <v>64.69814282053446</v>
       </c>
       <c r="H43" t="n">
-        <v>59.95135370879336</v>
+        <v>83.23220884137079</v>
       </c>
       <c r="I43" t="n">
-        <v>56.42219970563097</v>
+        <v>88.65762021092125</v>
       </c>
       <c r="J43" t="n">
-        <v>22.84072561274915</v>
+        <v>95.49170335797261</v>
       </c>
       <c r="K43" t="n">
-        <v>22.16494839586558</v>
+        <v>70.21164890211877</v>
       </c>
       <c r="L43" t="n">
-        <v>81.71878538670377</v>
+        <v>30.74838786358996</v>
       </c>
       <c r="M43" t="n">
-        <v>62.67925178093731</v>
+        <v>59.60811797512533</v>
       </c>
       <c r="N43" t="n">
-        <v>37.72086001078053</v>
+        <v>87.12389165271595</v>
       </c>
       <c r="O43" t="n">
-        <v>30.73300132199608</v>
+        <v>112.2975262460913</v>
       </c>
       <c r="P43" t="n">
-        <v>72.59840822247214</v>
+        <v>51.12595581651799</v>
       </c>
       <c r="Q43" t="n">
-        <v>30.85158147174533</v>
+        <v>107.0151534536147</v>
       </c>
       <c r="R43" t="n">
-        <v>42.86905178789164</v>
+        <v>60.35296207469791</v>
       </c>
       <c r="S43" t="n">
-        <v>18.03980085686317</v>
+        <v>34.14277391637526</v>
       </c>
       <c r="T43" t="n">
-        <v>100.7937587092311</v>
+        <v>38.81228302858305</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>122.8588905776478</v>
+        <v>74.5846510579379</v>
       </c>
       <c r="B44" t="n">
-        <v>146.7821280960981</v>
+        <v>100.8764823606808</v>
       </c>
       <c r="C44" t="n">
-        <v>121.2435879773678</v>
+        <v>138.8248974501638</v>
       </c>
       <c r="D44" t="n">
-        <v>131.3125212350799</v>
+        <v>72.10929298563465</v>
       </c>
       <c r="E44" t="n">
-        <v>133.0513590165545</v>
+        <v>72.03043888852638</v>
       </c>
       <c r="F44" t="n">
-        <v>127.1421552369029</v>
+        <v>109.8887999843877</v>
       </c>
       <c r="G44" t="n">
-        <v>187.8495020589209</v>
+        <v>92.1708688455107</v>
       </c>
       <c r="H44" t="n">
-        <v>133.0649057679082</v>
+        <v>106.005754409483</v>
       </c>
       <c r="I44" t="n">
-        <v>131.5126189957737</v>
+        <v>110.3167847644864</v>
       </c>
       <c r="J44" t="n">
-        <v>120.970257013955</v>
+        <v>115.8804763086392</v>
       </c>
       <c r="K44" t="n">
-        <v>120.844483833135</v>
+        <v>96.12125166093323</v>
       </c>
       <c r="L44" t="n">
-        <v>144.1876007865572</v>
+        <v>72.49194945316223</v>
       </c>
       <c r="M44" t="n">
-        <v>134.3160189229995</v>
+        <v>88.67213264519198</v>
       </c>
       <c r="N44" t="n">
-        <v>124.6393501886877</v>
+        <v>109.0880006051273</v>
       </c>
       <c r="O44" t="n">
-        <v>122.7054265538539</v>
+        <v>130.0782602140021</v>
       </c>
       <c r="P44" t="n">
-        <v>139.2215256773971</v>
+        <v>83.20746803900845</v>
       </c>
       <c r="Q44" t="n">
-        <v>122.7351800211055</v>
+        <v>125.546256208661</v>
       </c>
       <c r="R44" t="n">
-        <v>126.2927548860122</v>
+        <v>89.17454463298361</v>
       </c>
       <c r="S44" t="n">
-        <v>120.1563096572989</v>
+        <v>73.9955970988462</v>
       </c>
       <c r="T44" t="n">
-        <v>155.7930875560277</v>
+        <v>76.26278707994416</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>132.5293793371454</v>
+        <v>25.60239706855786</v>
       </c>
       <c r="B45" t="n">
-        <v>154.9668432986164</v>
+        <v>72.58565461361145</v>
       </c>
       <c r="C45" t="n">
-        <v>131.0333431579317</v>
+        <v>119.8539307418419</v>
       </c>
       <c r="D45" t="n">
-        <v>140.4019502237482</v>
+        <v>17.0986168186155</v>
       </c>
       <c r="E45" t="n">
-        <v>142.0295516069477</v>
+        <v>16.76295584601577</v>
       </c>
       <c r="F45" t="n">
-        <v>136.5095492330235</v>
+        <v>84.66499231813883</v>
       </c>
       <c r="G45" t="n">
-        <v>194.3120295228864</v>
+        <v>59.90059787646595</v>
       </c>
       <c r="H45" t="n">
-        <v>142.0422420991053</v>
+        <v>79.56024465865704</v>
       </c>
       <c r="I45" t="n">
-        <v>140.5891117713107</v>
+        <v>85.2197486677575</v>
       </c>
       <c r="J45" t="n">
-        <v>130.780474366554</v>
+        <v>92.30870680352336</v>
       </c>
       <c r="K45" t="n">
-        <v>130.6641445325203</v>
+        <v>65.8172286190037</v>
       </c>
       <c r="L45" t="n">
-        <v>152.5116179643444</v>
+        <v>18.64658943993701</v>
       </c>
       <c r="M45" t="n">
-        <v>143.2149514989343</v>
+        <v>54.36321982800746</v>
       </c>
       <c r="N45" t="n">
-        <v>134.1815822271331</v>
+        <v>83.62298989061556</v>
       </c>
       <c r="O45" t="n">
-        <v>132.3871258819444</v>
+        <v>109.603678508175</v>
       </c>
       <c r="P45" t="n">
-        <v>147.8254464071078</v>
+        <v>44.90094987507896</v>
       </c>
       <c r="Q45" t="n">
-        <v>132.414703897761</v>
+        <v>104.1848118020689</v>
       </c>
       <c r="R45" t="n">
-        <v>135.7187876832715</v>
+        <v>55.17890876704366</v>
       </c>
       <c r="S45" t="n">
-        <v>130.0279513949953</v>
+        <v>23.83193135766632</v>
       </c>
       <c r="T45" t="n">
-        <v>163.5274152053981</v>
+        <v>30.14341147618564</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>32.73142638839512</v>
+        <v>28.97390398215532</v>
       </c>
       <c r="B46" t="n">
-        <v>86.72965126107601</v>
+        <v>73.84227537120962</v>
       </c>
       <c r="C46" t="n">
-        <v>26.02012500112582</v>
+        <v>120.6191074854283</v>
       </c>
       <c r="D46" t="n">
-        <v>56.74519814540972</v>
+        <v>21.82583499939686</v>
       </c>
       <c r="E46" t="n">
-        <v>60.66055897863598</v>
+        <v>21.5638833470813</v>
       </c>
       <c r="F46" t="n">
-        <v>46.28354910476525</v>
+        <v>85.74476835668497</v>
       </c>
       <c r="G46" t="n">
-        <v>145.8234367419484</v>
+        <v>61.41731028194847</v>
       </c>
       <c r="H46" t="n">
-        <v>60.69026632394009</v>
+        <v>80.70834471389202</v>
       </c>
       <c r="I46" t="n">
-        <v>57.20671494305569</v>
+        <v>86.29258333893367</v>
       </c>
       <c r="J46" t="n">
-        <v>24.7152252967846</v>
+        <v>93.30006285126444</v>
       </c>
       <c r="K46" t="n">
-        <v>24.09208484845823</v>
+        <v>67.20053541004904</v>
       </c>
       <c r="L46" t="n">
-        <v>82.2624063593576</v>
+        <v>23.05861387968987</v>
       </c>
       <c r="M46" t="n">
-        <v>63.38637250049935</v>
+        <v>56.03002807762388</v>
       </c>
       <c r="N46" t="n">
-        <v>38.88453284928119</v>
+        <v>84.71604815238402</v>
       </c>
       <c r="O46" t="n">
-        <v>32.15059852027236</v>
+        <v>110.4398964090171</v>
       </c>
       <c r="P46" t="n">
-        <v>73.20978412337136</v>
+        <v>46.9052201358805</v>
       </c>
       <c r="Q46" t="n">
-        <v>32.26396897874882</v>
+        <v>105.064167947705</v>
       </c>
       <c r="R46" t="n">
-        <v>43.8964601778647</v>
+        <v>56.82179466571593</v>
       </c>
       <c r="S46" t="n">
-        <v>20.36118930488118</v>
+        <v>27.42198622542822</v>
       </c>
       <c r="T46" t="n">
-        <v>101.2350009121777</v>
+        <v>33.0549486723803</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>30.64674508840298</v>
+        <v>60.35585108635993</v>
       </c>
       <c r="B47" t="n">
-        <v>85.96458060714592</v>
+        <v>90.86266164046292</v>
       </c>
       <c r="C47" t="n">
-        <v>23.34359904061147</v>
+        <v>131.7281698763518</v>
       </c>
       <c r="D47" t="n">
-        <v>55.56882420617188</v>
+        <v>57.268741227764</v>
       </c>
       <c r="E47" t="n">
-        <v>59.561565851606</v>
+        <v>57.16942113926141</v>
       </c>
       <c r="F47" t="n">
-        <v>44.83351011049481</v>
+        <v>100.7745352206264</v>
       </c>
       <c r="G47" t="n">
-        <v>145.3697059718002</v>
+        <v>81.08901066519947</v>
       </c>
       <c r="H47" t="n">
-        <v>59.59182106267101</v>
+        <v>96.52553317567389</v>
       </c>
       <c r="I47" t="n">
-        <v>56.04002985072951</v>
+        <v>101.241056828238</v>
       </c>
       <c r="J47" t="n">
-        <v>21.87964973589489</v>
+        <v>107.2764810032544</v>
       </c>
       <c r="K47" t="n">
-        <v>21.17322043147745</v>
+        <v>85.55263647479811</v>
       </c>
       <c r="L47" t="n">
-        <v>81.455387858181</v>
+        <v>57.74981664424854</v>
       </c>
       <c r="M47" t="n">
-        <v>62.3354548380509</v>
+        <v>77.08894664458076</v>
       </c>
       <c r="N47" t="n">
-        <v>37.14678459842052</v>
+        <v>99.90070301528786</v>
       </c>
       <c r="O47" t="n">
-        <v>30.0256173343091</v>
+        <v>122.4757623663806</v>
       </c>
       <c r="P47" t="n">
-        <v>72.30179252608653</v>
+        <v>70.73500777116737</v>
       </c>
       <c r="Q47" t="n">
-        <v>30.14698003708315</v>
+        <v>117.6512687349153</v>
       </c>
       <c r="R47" t="n">
-        <v>42.36479584798545</v>
+        <v>77.66632473230906</v>
       </c>
       <c r="S47" t="n">
-        <v>16.80638988610675</v>
+        <v>59.62639496849759</v>
       </c>
       <c r="T47" t="n">
-        <v>100.5803267084734</v>
+        <v>62.41771607584977</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>34.25700121982634</v>
+        <v>172.0062734054737</v>
       </c>
       <c r="B48" t="n">
-        <v>87.31682694088305</v>
+        <v>184.9306697410383</v>
       </c>
       <c r="C48" t="n">
-        <v>27.91492010073587</v>
+        <v>208.0760439585795</v>
       </c>
       <c r="D48" t="n">
-        <v>57.6386447769035</v>
+        <v>170.9474716171383</v>
       </c>
       <c r="E48" t="n">
-        <v>61.49714850915307</v>
+        <v>170.9142242292254</v>
       </c>
       <c r="F48" t="n">
-        <v>47.37470608763152</v>
+        <v>189.9969375527221</v>
       </c>
       <c r="G48" t="n">
-        <v>146.1734263208921</v>
+        <v>180.3295787749213</v>
       </c>
       <c r="H48" t="n">
-        <v>61.52645191807367</v>
+        <v>187.777815210764</v>
       </c>
       <c r="I48" t="n">
-        <v>58.09306407594873</v>
+        <v>190.2447920921312</v>
       </c>
       <c r="J48" t="n">
-        <v>26.70277552291289</v>
+        <v>193.5240881826377</v>
       </c>
       <c r="K48" t="n">
-        <v>26.1270819553498</v>
+        <v>182.3803249757732</v>
       </c>
       <c r="L48" t="n">
-        <v>82.88123647236648</v>
+        <v>171.1092360246052</v>
       </c>
       <c r="M48" t="n">
-        <v>64.18744486212482</v>
+        <v>178.566612291466</v>
       </c>
       <c r="N48" t="n">
-        <v>40.1771421838722</v>
+        <v>189.5349038922078</v>
       </c>
       <c r="O48" t="n">
-        <v>33.70247534481695</v>
+        <v>202.3453525478306</v>
       </c>
       <c r="P48" t="n">
-        <v>73.90445419964139</v>
+        <v>175.9169424895363</v>
       </c>
       <c r="Q48" t="n">
-        <v>33.81064260581157</v>
+        <v>199.4621527142805</v>
       </c>
       <c r="R48" t="n">
-        <v>45.0454778563078</v>
+        <v>178.8166304567453</v>
       </c>
       <c r="S48" t="n">
-        <v>22.73266128427251</v>
+        <v>171.7516704647119</v>
       </c>
       <c r="T48" t="n">
-        <v>101.7384945281032</v>
+        <v>172.7405586728406</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>145.0676082608421</v>
+        <v>61.90257472410721</v>
       </c>
       <c r="B49" t="n">
-        <v>165.8170591373821</v>
+        <v>91.89735185251027</v>
       </c>
       <c r="C49" t="n">
-        <v>143.7021628166272</v>
+        <v>132.4439909398982</v>
       </c>
       <c r="D49" t="n">
-        <v>152.2934082804112</v>
+        <v>58.89659344077057</v>
       </c>
       <c r="E49" t="n">
-        <v>153.7952148433194</v>
+        <v>58.80002304857585</v>
       </c>
       <c r="F49" t="n">
-        <v>148.7125805398972</v>
+        <v>101.7084408790543</v>
       </c>
       <c r="G49" t="n">
-        <v>203.0707743530201</v>
+        <v>82.24674855443013</v>
       </c>
       <c r="H49" t="n">
-        <v>153.8069345626945</v>
+        <v>97.50014642021284</v>
       </c>
       <c r="I49" t="n">
-        <v>152.4659730158773</v>
+        <v>102.1706982691874</v>
       </c>
       <c r="J49" t="n">
-        <v>143.4716245623957</v>
+        <v>108.1542573066655</v>
       </c>
       <c r="K49" t="n">
-        <v>143.3655929623545</v>
+        <v>86.65075651662701</v>
       </c>
       <c r="L49" t="n">
-        <v>163.5248243941399</v>
+        <v>59.3644786009205</v>
       </c>
       <c r="M49" t="n">
-        <v>154.8905965895744</v>
+        <v>78.30584711173132</v>
       </c>
       <c r="N49" t="n">
-        <v>146.5785509138668</v>
+        <v>100.8427015706321</v>
       </c>
       <c r="O49" t="n">
-        <v>144.9376613524378</v>
+        <v>123.2453340469365</v>
       </c>
       <c r="P49" t="n">
-        <v>159.1632406823034</v>
+        <v>72.0592903205543</v>
       </c>
       <c r="Q49" t="n">
-        <v>144.9628517495564</v>
+        <v>118.4521888022762</v>
       </c>
       <c r="R49" t="n">
-        <v>147.9870396664825</v>
+        <v>78.87431771203669</v>
       </c>
       <c r="S49" t="n">
-        <v>142.7860032461565</v>
+        <v>61.19155966351974</v>
       </c>
       <c r="T49" t="n">
-        <v>173.8441546408473</v>
+        <v>63.91456232534349</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>90.1429635189982</v>
+        <v>65.32405135499984</v>
       </c>
       <c r="B50" t="n">
-        <v>120.7329284264917</v>
+        <v>94.23601331476756</v>
       </c>
       <c r="C50" t="n">
-        <v>87.92868987789325</v>
+        <v>134.0772675140898</v>
       </c>
       <c r="D50" t="n">
-        <v>101.36283890623</v>
+        <v>62.48289083328649</v>
       </c>
       <c r="E50" t="n">
-        <v>103.6055549387632</v>
+        <v>62.39187157370766</v>
       </c>
       <c r="F50" t="n">
-        <v>95.89877223563255</v>
+        <v>103.8263447974793</v>
       </c>
       <c r="G50" t="n">
-        <v>168.2821508710937</v>
+        <v>84.85181539444299</v>
       </c>
       <c r="H50" t="n">
-        <v>103.622951246523</v>
+        <v>99.7074795585563</v>
       </c>
       <c r="I50" t="n">
-        <v>101.6219259468376</v>
+        <v>104.2792141932912</v>
       </c>
       <c r="J50" t="n">
-        <v>87.55141323839001</v>
+        <v>110.1482923222752</v>
       </c>
       <c r="K50" t="n">
-        <v>87.37754946731926</v>
+        <v>89.12719300449642</v>
       </c>
       <c r="L50" t="n">
-        <v>117.5649229090063</v>
+        <v>62.92411499191805</v>
       </c>
       <c r="M50" t="n">
-        <v>105.2247110584799</v>
+        <v>81.03769875707737</v>
       </c>
       <c r="N50" t="n">
-        <v>92.55492690005941</v>
+        <v>102.9784122426664</v>
       </c>
       <c r="O50" t="n">
-        <v>89.93368992641329</v>
+        <v>124.9988611640039</v>
       </c>
       <c r="P50" t="n">
-        <v>111.4184907901698</v>
+        <v>75.01895926670076</v>
       </c>
       <c r="Q50" t="n">
-        <v>89.97428128543278</v>
+        <v>120.2756166477938</v>
       </c>
       <c r="R50" t="n">
-        <v>94.76975685689699</v>
+        <v>81.58713699166238</v>
       </c>
       <c r="S50" t="n">
-        <v>86.42329332117424</v>
+        <v>64.65067595942887</v>
       </c>
       <c r="T50" t="n">
-        <v>131.5406135315521</v>
+        <v>67.23372818159942</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>101.621052583185</v>
+        <v>32.60023779854907</v>
       </c>
       <c r="B51" t="n">
-        <v>129.5280836828964</v>
+        <v>75.33903387057961</v>
       </c>
       <c r="C51" t="n">
-        <v>99.66212399788471</v>
+        <v>121.5411760809319</v>
       </c>
       <c r="D51" t="n">
-        <v>111.6938206314805</v>
+        <v>26.45100122822742</v>
       </c>
       <c r="E51" t="n">
-        <v>113.7330007970251</v>
+        <v>26.23527125000468</v>
       </c>
       <c r="F51" t="n">
-        <v>106.7598190914014</v>
+        <v>87.03708228735816</v>
       </c>
       <c r="G51" t="n">
-        <v>174.6996472747686</v>
+        <v>63.20897400546797</v>
       </c>
       <c r="H51" t="n">
-        <v>113.7488482630321</v>
+        <v>82.07999329319669</v>
       </c>
       <c r="I51" t="n">
-        <v>111.9289966419407</v>
+        <v>87.57681389421292</v>
       </c>
       <c r="J51" t="n">
-        <v>99.32942371808241</v>
+        <v>94.48910053865836</v>
       </c>
       <c r="K51" t="n">
-        <v>99.17620988443167</v>
+        <v>68.84185029436708</v>
       </c>
       <c r="L51" t="n">
-        <v>126.5803916676181</v>
+        <v>27.4770461768986</v>
       </c>
       <c r="M51" t="n">
-        <v>115.209913954779</v>
+        <v>57.98838193064289</v>
       </c>
       <c r="N51" t="n">
-        <v>103.7665598813142</v>
+        <v>86.02381767343181</v>
       </c>
       <c r="O51" t="n">
-        <v>101.4354624374892</v>
+        <v>111.4462162273319</v>
       </c>
       <c r="P51" t="n">
-        <v>120.8931947881524</v>
+        <v>49.22791960412507</v>
       </c>
       <c r="Q51" t="n">
-        <v>101.4714528769407</v>
+        <v>106.1214765214768</v>
       </c>
       <c r="R51" t="n">
-        <v>105.7468262920566</v>
+        <v>58.75376363763921</v>
       </c>
       <c r="S51" t="n">
-        <v>98.33651450303056</v>
+        <v>31.22905251688509</v>
       </c>
       <c r="T51" t="n">
-        <v>139.6567845268684</v>
+        <v>36.27558441002002</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>57.57931802171945</v>
+        <v>96.55536951993355</v>
       </c>
       <c r="B52" t="n">
-        <v>98.82339803050309</v>
+        <v>118.0514036475692</v>
       </c>
       <c r="C52" t="n">
-        <v>54.04700265048555</v>
+        <v>151.7643613031236</v>
       </c>
       <c r="D52" t="n">
-        <v>73.91920659063643</v>
+        <v>94.656322264203</v>
       </c>
       <c r="E52" t="n">
-        <v>76.96580413422544</v>
+        <v>94.59626491659321</v>
       </c>
       <c r="F52" t="n">
-        <v>66.22838143998835</v>
+        <v>125.839650236741</v>
       </c>
       <c r="G52" t="n">
-        <v>153.3248391281087</v>
+        <v>110.7047346477687</v>
       </c>
       <c r="H52" t="n">
-        <v>76.98922013436787</v>
+        <v>122.4634197530846</v>
       </c>
       <c r="I52" t="n">
-        <v>74.27408582408408</v>
+        <v>126.2135579502875</v>
       </c>
       <c r="J52" t="n">
-        <v>53.43102050212217</v>
+        <v>131.1043630060176</v>
       </c>
       <c r="K52" t="n">
-        <v>53.14565027142569</v>
+        <v>114.0147544424011</v>
       </c>
       <c r="L52" t="n">
-        <v>94.92699874355796</v>
+        <v>94.94815398530073</v>
       </c>
       <c r="M52" t="n">
-        <v>79.13193924831766</v>
+        <v>107.8091662037281</v>
       </c>
       <c r="N52" t="n">
-        <v>61.28652776372803</v>
+        <v>125.1409648585179</v>
       </c>
       <c r="O52" t="n">
-        <v>57.25113602051157</v>
+        <v>143.8068947929764</v>
       </c>
       <c r="P52" t="n">
-        <v>87.19922064914351</v>
+        <v>103.3612690864386</v>
       </c>
       <c r="Q52" t="n">
-        <v>57.31487838850436</v>
+        <v>139.7209063014813</v>
       </c>
       <c r="R52" t="n">
-        <v>64.58274387616432</v>
+        <v>108.2227731126704</v>
       </c>
       <c r="S52" t="n">
-        <v>51.5617069183768</v>
+        <v>96.10108011729801</v>
       </c>
       <c r="T52" t="n">
-        <v>111.7701078111496</v>
+        <v>97.85745706330944</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>38.9421518607334</v>
+        <v>47.28965295677435</v>
       </c>
       <c r="B53" t="n">
-        <v>89.25904618576965</v>
+        <v>82.76174114168063</v>
       </c>
       <c r="C53" t="n">
-        <v>33.4991316782944</v>
+        <v>126.276653643444</v>
       </c>
       <c r="D53" t="n">
-        <v>60.54058498798393</v>
+        <v>43.28037936786019</v>
       </c>
       <c r="E53" t="n">
-        <v>64.22498216213117</v>
+        <v>43.14887286837898</v>
       </c>
       <c r="F53" t="n">
-        <v>50.86562528720855</v>
+        <v>93.5360329784547</v>
       </c>
       <c r="G53" t="n">
-        <v>147.3418461312282</v>
+        <v>71.89513312508807</v>
       </c>
       <c r="H53" t="n">
-        <v>64.25304152019787</v>
+        <v>88.94189716473009</v>
       </c>
       <c r="I53" t="n">
-        <v>60.97338068945763</v>
+        <v>94.03847140458959</v>
       </c>
       <c r="J53" t="n">
-        <v>32.49595789627251</v>
+        <v>100.5073424823027</v>
       </c>
       <c r="K53" t="n">
-        <v>32.02457603889245</v>
+        <v>76.89431789282129</v>
       </c>
       <c r="L53" t="n">
-        <v>84.92495756935985</v>
+        <v>43.91496144661438</v>
       </c>
       <c r="M53" t="n">
-        <v>66.80551726390235</v>
+        <v>67.35123021285001</v>
       </c>
       <c r="N53" t="n">
-        <v>44.2397085550111</v>
+        <v>92.59391437541697</v>
       </c>
       <c r="O53" t="n">
-        <v>38.45524545932886</v>
+        <v>116.5924306447011</v>
       </c>
       <c r="P53" t="n">
-        <v>76.18935233689896</v>
+        <v>59.97435986153092</v>
       </c>
       <c r="Q53" t="n">
-        <v>38.55007927861057</v>
+        <v>111.5136922146718</v>
       </c>
       <c r="R53" t="n">
-        <v>48.70363573977158</v>
+        <v>68.01132636434747</v>
       </c>
       <c r="S53" t="n">
-        <v>29.32103251992845</v>
+        <v>46.35503741075588</v>
       </c>
       <c r="T53" t="n">
-        <v>103.4102041764454</v>
+        <v>49.89442650776435</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>47.74077180111653</v>
+        <v>63.55655851720076</v>
       </c>
       <c r="B54" t="n">
-        <v>93.43375956588292</v>
+        <v>93.01951757873591</v>
       </c>
       <c r="C54" t="n">
-        <v>43.4152268659461</v>
+        <v>133.2250656189161</v>
       </c>
       <c r="D54" t="n">
-        <v>66.54211096222575</v>
+        <v>60.63263223713866</v>
       </c>
       <c r="E54" t="n">
-        <v>69.9109321519026</v>
+        <v>60.53883120435791</v>
       </c>
       <c r="F54" t="n">
-        <v>57.87920124259293</v>
+        <v>102.7234847497142</v>
       </c>
       <c r="G54" t="n">
-        <v>149.9076706575763</v>
+        <v>83.49871268979146</v>
       </c>
       <c r="H54" t="n">
-        <v>69.93671028307044</v>
+        <v>98.55854059917705</v>
       </c>
       <c r="I54" t="n">
-        <v>66.9361132224107</v>
+        <v>103.1811947880525</v>
       </c>
       <c r="J54" t="n">
-        <v>42.64595385518041</v>
+        <v>109.1093522418363</v>
       </c>
       <c r="K54" t="n">
-        <v>42.28786553011</v>
+        <v>87.83997369068632</v>
       </c>
       <c r="L54" t="n">
-        <v>89.30251126804572</v>
+        <v>61.08722200784576</v>
       </c>
       <c r="M54" t="n">
-        <v>72.28877670509728</v>
+        <v>79.61980322107389</v>
       </c>
       <c r="N54" t="n">
-        <v>52.15210363594343</v>
+        <v>101.8663724353639</v>
       </c>
       <c r="O54" t="n">
-        <v>47.34444005328497</v>
+        <v>124.0843251076365</v>
       </c>
       <c r="P54" t="n">
-        <v>81.04015986002244</v>
+        <v>73.48502360738968</v>
       </c>
       <c r="Q54" t="n">
-        <v>47.42150053518995</v>
+        <v>119.3248859422324</v>
       </c>
       <c r="R54" t="n">
-        <v>55.98869738522425</v>
+        <v>80.17895838445392</v>
       </c>
       <c r="S54" t="n">
-        <v>40.27918877853131</v>
+        <v>62.86425333312076</v>
       </c>
       <c r="T54" t="n">
-        <v>107.0343889992183</v>
+        <v>65.51777354517554</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>35.10126603878913</v>
+        <v>96.88265824188434</v>
       </c>
       <c r="B55" t="n">
-        <v>87.65149748849011</v>
+        <v>118.3192460593126</v>
       </c>
       <c r="C55" t="n">
-        <v>28.94476652490284</v>
+        <v>151.9727983773014</v>
       </c>
       <c r="D55" t="n">
-        <v>58.1443902424708</v>
+        <v>94.99015438174369</v>
       </c>
       <c r="E55" t="n">
-        <v>61.97141292327856</v>
+        <v>94.93030823216121</v>
       </c>
       <c r="F55" t="n">
-        <v>47.98874369933161</v>
+        <v>126.0909499392727</v>
       </c>
       <c r="G55" t="n">
-        <v>146.373588148067</v>
+        <v>110.9903074971672</v>
       </c>
       <c r="H55" t="n">
-        <v>62.00049218012467</v>
+        <v>122.7216332294475</v>
       </c>
       <c r="I55" t="n">
-        <v>58.59488747905361</v>
+        <v>126.4641146545273</v>
       </c>
       <c r="J55" t="n">
-        <v>27.77759826870827</v>
+        <v>131.3455902727476</v>
       </c>
       <c r="K55" t="n">
-        <v>27.22464244856548</v>
+        <v>114.2920570969123</v>
       </c>
       <c r="L55" t="n">
-        <v>83.2337437830295</v>
+        <v>95.28096362914908</v>
       </c>
       <c r="M55" t="n">
-        <v>64.64197415672717</v>
+        <v>108.1023885139728</v>
       </c>
       <c r="N55" t="n">
-        <v>40.89938262387039</v>
+        <v>125.3936647945328</v>
       </c>
       <c r="O55" t="n">
-        <v>34.56028919610862</v>
+        <v>144.0268484515337</v>
       </c>
       <c r="P55" t="n">
-        <v>74.2995632254831</v>
+        <v>103.6670730369196</v>
       </c>
       <c r="Q55" t="n">
-        <v>34.66577993307794</v>
+        <v>139.9472820121569</v>
       </c>
       <c r="R55" t="n">
-        <v>45.69082862297186</v>
+        <v>108.5148778052088</v>
       </c>
       <c r="S55" t="n">
-        <v>23.98605082159484</v>
+        <v>96.4299107362139</v>
       </c>
       <c r="T55" t="n">
-        <v>102.0258693361421</v>
+        <v>98.18040531480963</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>92.73628033284909</v>
+        <v>110.1103903579876</v>
       </c>
       <c r="B56" t="n">
-        <v>122.681310004506</v>
+        <v>129.3734616713134</v>
       </c>
       <c r="C56" t="n">
-        <v>90.5854200278834</v>
+        <v>160.7289023274985</v>
       </c>
       <c r="D56" t="n">
-        <v>103.675884028619</v>
+        <v>108.4489650768606</v>
       </c>
       <c r="E56" t="n">
-        <v>105.8696124114678</v>
+        <v>108.3965498428237</v>
       </c>
       <c r="F56" t="n">
-        <v>98.34042065339695</v>
+        <v>136.5173111856618</v>
       </c>
       <c r="G56" t="n">
-        <v>169.685432844976</v>
+        <v>122.7065481345245</v>
       </c>
       <c r="H56" t="n">
-        <v>105.886636753769</v>
+        <v>133.4115731834299</v>
       </c>
       <c r="I56" t="n">
-        <v>103.9292049961409</v>
+        <v>136.8620505915648</v>
       </c>
       <c r="J56" t="n">
-        <v>90.2192539207938</v>
+        <v>141.3849803935027</v>
       </c>
       <c r="K56" t="n">
-        <v>90.05054119159504</v>
+        <v>125.7009264572799</v>
       </c>
       <c r="L56" t="n">
-        <v>119.5649401646901</v>
+        <v>108.7037746670918</v>
       </c>
       <c r="M56" t="n">
-        <v>107.4546585091866</v>
+        <v>120.1006869222677</v>
       </c>
       <c r="N56" t="n">
-        <v>95.08248162232975</v>
+        <v>135.8735432944114</v>
       </c>
       <c r="O56" t="n">
-        <v>92.53287200646906</v>
+        <v>153.2376640113509</v>
       </c>
       <c r="P56" t="n">
-        <v>113.5268422354136</v>
+        <v>116.1245479165222</v>
       </c>
       <c r="Q56" t="n">
-        <v>92.57232367622362</v>
+        <v>149.4098067041277</v>
       </c>
       <c r="R56" t="n">
-        <v>97.23975849774982</v>
+        <v>120.4721017574361</v>
       </c>
       <c r="S56" t="n">
-        <v>89.12490923677316</v>
+        <v>109.7122430787413</v>
       </c>
       <c r="T56" t="n">
-        <v>133.3311547472775</v>
+        <v>111.2539463774429</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>56.59452147425335</v>
+        <v>31.9044365954713</v>
       </c>
       <c r="B57" t="n">
-        <v>98.25286761895889</v>
+        <v>75.04057298891608</v>
       </c>
       <c r="C57" t="n">
-        <v>52.99660831180622</v>
+        <v>121.3563968362962</v>
       </c>
       <c r="D57" t="n">
-        <v>73.15470661579204</v>
+        <v>25.58853328989743</v>
       </c>
       <c r="E57" t="n">
-        <v>76.23186343702592</v>
+        <v>25.36546919561754</v>
       </c>
       <c r="F57" t="n">
-        <v>65.3740048124177</v>
+        <v>86.77886414933566</v>
       </c>
       <c r="G57" t="n">
-        <v>152.9577336740899</v>
+        <v>62.85293918963874</v>
       </c>
       <c r="H57" t="n">
-        <v>76.25550481081069</v>
+        <v>81.80612977621979</v>
       </c>
       <c r="I57" t="n">
-        <v>73.51327650198178</v>
+        <v>87.32019183335608</v>
       </c>
       <c r="J57" t="n">
-        <v>52.36827235026583</v>
+        <v>94.25130073668579</v>
       </c>
       <c r="K57" t="n">
-        <v>52.0770788334571</v>
+        <v>68.51509265778269</v>
       </c>
       <c r="L57" t="n">
-        <v>94.33290564544734</v>
+        <v>26.64780734994754</v>
       </c>
       <c r="M57" t="n">
-        <v>78.41827469571653</v>
+        <v>57.60008688263076</v>
       </c>
       <c r="N57" t="n">
-        <v>60.36224384818397</v>
+        <v>85.76254880228514</v>
       </c>
       <c r="O57" t="n">
-        <v>56.26059520385947</v>
+        <v>111.2446703502767</v>
       </c>
       <c r="P57" t="n">
-        <v>86.55210037238514</v>
+        <v>48.76992555358991</v>
       </c>
       <c r="Q57" t="n">
-        <v>56.32545855776463</v>
+        <v>105.9097981730248</v>
       </c>
       <c r="R57" t="n">
-        <v>63.70630112969719</v>
+        <v>58.37056031545419</v>
       </c>
       <c r="S57" t="n">
-        <v>50.45960381721207</v>
+        <v>30.50198831313898</v>
       </c>
       <c r="T57" t="n">
-        <v>111.2659831088074</v>
+        <v>35.65158613920267</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>147.161325226091</v>
+        <v>35.56275258821363</v>
       </c>
       <c r="B58" t="n">
-        <v>167.6518469231647</v>
+        <v>76.66748914423172</v>
       </c>
       <c r="C58" t="n">
-        <v>145.8154870854074</v>
+        <v>122.3690784073519</v>
       </c>
       <c r="D58" t="n">
-        <v>154.2891016288649</v>
+        <v>30.02647720103435</v>
       </c>
       <c r="E58" t="n">
-        <v>155.7716687478213</v>
+        <v>29.83661047588799</v>
       </c>
       <c r="F58" t="n">
-        <v>150.7556840938796</v>
+        <v>88.18949801549446</v>
       </c>
       <c r="G58" t="n">
-        <v>204.5717088751849</v>
+        <v>64.78663644573989</v>
       </c>
       <c r="H58" t="n">
-        <v>155.7832397767846</v>
+        <v>83.30101539681111</v>
       </c>
       <c r="I58" t="n">
-        <v>154.4594367575397</v>
+        <v>88.7222193083004</v>
       </c>
       <c r="J58" t="n">
-        <v>145.5882953068385</v>
+        <v>95.55168228625405</v>
       </c>
       <c r="K58" t="n">
-        <v>145.4838063882909</v>
+        <v>70.2932017984712</v>
       </c>
       <c r="L58" t="n">
-        <v>165.3850442721846</v>
+        <v>30.93415480881876</v>
       </c>
       <c r="M58" t="n">
-        <v>156.8532485722003</v>
+        <v>59.70415652249564</v>
       </c>
       <c r="N58" t="n">
-        <v>148.6509881022902</v>
+        <v>87.18962710231297</v>
       </c>
       <c r="O58" t="n">
-        <v>147.0332287413023</v>
+        <v>112.3485334951808</v>
       </c>
       <c r="P58" t="n">
-        <v>161.0738397762685</v>
+        <v>51.23789550399927</v>
       </c>
       <c r="Q58" t="n">
-        <v>147.0580601774077</v>
+        <v>107.0686772414178</v>
       </c>
       <c r="R58" t="n">
-        <v>150.0400232772151</v>
+        <v>60.4478172369865</v>
       </c>
       <c r="S58" t="n">
-        <v>144.912688881235</v>
+        <v>34.31016741770453</v>
       </c>
       <c r="T58" t="n">
-        <v>175.5950875695816</v>
+        <v>38.95961872781913</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>68.20619045346275</v>
+        <v>97.63686347220171</v>
       </c>
       <c r="B59" t="n">
-        <v>105.3696851595513</v>
+        <v>118.9375955226931</v>
       </c>
       <c r="C59" t="n">
-        <v>65.25170532506655</v>
+        <v>152.4547115943076</v>
       </c>
       <c r="D59" t="n">
-        <v>82.46669421843534</v>
+        <v>95.75926623644888</v>
       </c>
       <c r="E59" t="n">
-        <v>85.20822471073834</v>
+        <v>95.69990105391297</v>
       </c>
       <c r="F59" t="n">
-        <v>75.64988473545959</v>
+        <v>126.6713673142584</v>
       </c>
       <c r="G59" t="n">
-        <v>157.6236430424958</v>
+        <v>111.6492543593164</v>
       </c>
       <c r="H59" t="n">
-        <v>85.22937621047031</v>
+        <v>123.317909904355</v>
       </c>
       <c r="I59" t="n">
-        <v>82.78494052260433</v>
+        <v>127.0428271726862</v>
       </c>
       <c r="J59" t="n">
-        <v>64.74241657697006</v>
+        <v>131.9028874770075</v>
       </c>
       <c r="K59" t="n">
-        <v>64.50710577215828</v>
+        <v>114.9320754016017</v>
       </c>
       <c r="L59" t="n">
-        <v>101.72434144681</v>
+        <v>96.04774682820428</v>
       </c>
       <c r="M59" t="n">
-        <v>87.16977894618734</v>
+        <v>108.7788308592325</v>
       </c>
       <c r="N59" t="n">
-        <v>71.36347131174277</v>
+        <v>125.9772948244216</v>
       </c>
       <c r="O59" t="n">
-        <v>67.92936867045685</v>
+        <v>144.5352576901451</v>
       </c>
       <c r="P59" t="n">
-        <v>94.55374468600249</v>
+        <v>104.372264863409</v>
       </c>
       <c r="Q59" t="n">
-        <v>67.98309964260802</v>
+        <v>140.470457332728</v>
       </c>
       <c r="R59" t="n">
-        <v>74.21345807130919</v>
+        <v>109.18876474141</v>
       </c>
       <c r="S59" t="n">
-        <v>63.2085134508344</v>
+        <v>97.18762948683221</v>
       </c>
       <c r="T59" t="n">
-        <v>117.5978892346446</v>
+        <v>98.92471697435326</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>174.4352766411336</v>
+        <v>136.7958382201455</v>
       </c>
       <c r="B60" t="n">
-        <v>192.0373710279271</v>
+        <v>152.7294859363529</v>
       </c>
       <c r="C60" t="n">
-        <v>173.3013743988319</v>
+        <v>180.0627205530516</v>
       </c>
       <c r="D60" t="n">
-        <v>180.4891602728865</v>
+        <v>135.4621028768045</v>
       </c>
       <c r="E60" t="n">
-        <v>181.7581439139673</v>
+        <v>135.4201436544489</v>
       </c>
       <c r="F60" t="n">
-        <v>177.478129303819</v>
+        <v>158.8262558361388</v>
       </c>
       <c r="G60" t="n">
-        <v>224.9906535096134</v>
+        <v>147.1247778066434</v>
       </c>
       <c r="H60" t="n">
-        <v>181.7680606980244</v>
+        <v>156.164820458519</v>
       </c>
       <c r="I60" t="n">
-        <v>180.6347909402447</v>
+        <v>159.1226702317802</v>
       </c>
       <c r="J60" t="n">
-        <v>173.110259155605</v>
+        <v>163.029187480141</v>
       </c>
       <c r="K60" t="n">
-        <v>173.0223916601409</v>
+        <v>149.6313008757938</v>
       </c>
       <c r="L60" t="n">
-        <v>190.0616293823716</v>
+        <v>135.6661856043638</v>
       </c>
       <c r="M60" t="n">
-        <v>182.6859372864314</v>
+        <v>144.9585398959453</v>
       </c>
       <c r="N60" t="n">
-        <v>175.6938426876614</v>
+        <v>158.2732543954982</v>
       </c>
       <c r="O60" t="n">
-        <v>174.3272223396611</v>
+        <v>173.4087222754943</v>
       </c>
       <c r="P60" t="n">
-        <v>186.3222798133399</v>
+        <v>141.681734596879</v>
       </c>
       <c r="Q60" t="n">
-        <v>174.3481664879546</v>
+        <v>170.0355657764828</v>
       </c>
       <c r="R60" t="n">
-        <v>176.8706269554013</v>
+        <v>145.2664124683261</v>
       </c>
       <c r="S60" t="n">
-        <v>172.5424512789797</v>
+        <v>136.4755640066479</v>
       </c>
       <c r="T60" t="n">
-        <v>199.0096602507992</v>
+        <v>137.7179867487132</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>81.61709190617516</v>
+        <v>26.22995365900283</v>
       </c>
       <c r="B61" t="n">
-        <v>114.5077980998237</v>
+        <v>72.80937432078257</v>
       </c>
       <c r="C61" t="n">
-        <v>79.16470376927036</v>
+        <v>119.9895514099773</v>
       </c>
       <c r="D61" t="n">
-        <v>93.86171173787491</v>
+        <v>18.02471720741207</v>
       </c>
       <c r="E61" t="n">
-        <v>96.27931674769347</v>
+        <v>17.70662085189634</v>
       </c>
       <c r="F61" t="n">
-        <v>87.93276030885947</v>
+        <v>84.85687159875648</v>
       </c>
       <c r="G61" t="n">
-        <v>163.8733600102077</v>
+        <v>60.17149955963715</v>
       </c>
       <c r="H61" t="n">
-        <v>96.29803655460942</v>
+        <v>79.7644047394745</v>
       </c>
       <c r="I61" t="n">
-        <v>94.14144492399798</v>
+        <v>85.41038166577347</v>
       </c>
       <c r="J61" t="n">
-        <v>78.74544926072195</v>
+        <v>92.48472892881385</v>
       </c>
       <c r="K61" t="n">
-        <v>78.55209717217883</v>
+        <v>66.06387300471822</v>
       </c>
       <c r="L61" t="n">
-        <v>111.1625247906604</v>
+        <v>19.4993084759154</v>
       </c>
       <c r="M61" t="n">
-        <v>98.01956762082852</v>
+        <v>54.66157154130861</v>
       </c>
       <c r="N61" t="n">
-        <v>84.27342589873123</v>
+        <v>83.8172546170735</v>
       </c>
       <c r="O61" t="n">
-        <v>81.38589805988414</v>
+        <v>109.751966159248</v>
       </c>
       <c r="P61" t="n">
-        <v>104.6406991050459</v>
+        <v>45.26171707946673</v>
       </c>
       <c r="Q61" t="n">
-        <v>81.43075040833027</v>
+        <v>104.340800953078</v>
       </c>
       <c r="R61" t="n">
-        <v>86.70007286011342</v>
+        <v>55.47287360520513</v>
       </c>
       <c r="S61" t="n">
-        <v>77.48923439879454</v>
+        <v>24.50487064919657</v>
       </c>
       <c r="T61" t="n">
-        <v>125.8512170282463</v>
+        <v>30.67821684387761</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>68.72210637819832</v>
+        <v>97.12363538598692</v>
       </c>
       <c r="B62" t="n">
-        <v>105.704370957427</v>
+        <v>118.5166446986267</v>
       </c>
       <c r="C62" t="n">
-        <v>65.7907937078714</v>
+        <v>152.1265345993403</v>
       </c>
       <c r="D62" t="n">
-        <v>82.89390293742531</v>
+        <v>95.23592028244317</v>
       </c>
       <c r="E62" t="n">
-        <v>85.6217556888321</v>
+        <v>95.17622866887248</v>
       </c>
       <c r="F62" t="n">
-        <v>76.11536342533414</v>
+        <v>126.2762002087667</v>
       </c>
       <c r="G62" t="n">
-        <v>157.8475731041516</v>
+        <v>111.2007169081751</v>
       </c>
       <c r="H62" t="n">
-        <v>85.64280505744925</v>
+        <v>122.9119617656451</v>
       </c>
       <c r="I62" t="n">
-        <v>83.21051535841795</v>
+        <v>126.6488190940989</v>
       </c>
       <c r="J62" t="n">
-        <v>65.28571048176086</v>
+        <v>131.5234396093444</v>
       </c>
       <c r="K62" t="n">
-        <v>65.05236493766225</v>
+        <v>114.4963990613689</v>
       </c>
       <c r="L62" t="n">
-        <v>102.0709808499436</v>
+        <v>95.52598134892726</v>
       </c>
       <c r="M62" t="n">
-        <v>87.57404781331932</v>
+        <v>108.318407876973</v>
       </c>
       <c r="N62" t="n">
-        <v>71.85672220846361</v>
+        <v>125.5799436740598</v>
       </c>
       <c r="O62" t="n">
-        <v>68.44737114637215</v>
+        <v>144.1890569962138</v>
       </c>
       <c r="P62" t="n">
-        <v>94.92657227050873</v>
+        <v>103.8923149930657</v>
       </c>
       <c r="Q62" t="n">
-        <v>68.50069580594889</v>
+        <v>140.1142135015807</v>
       </c>
       <c r="R62" t="n">
-        <v>74.68788956574112</v>
+        <v>108.7300776586486</v>
       </c>
       <c r="S62" t="n">
-        <v>63.76487796229745</v>
+        <v>96.6720164637655</v>
       </c>
       <c r="T62" t="n">
-        <v>117.8978669922662</v>
+        <v>98.41820497426616</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>80.65486550819254</v>
+        <v>44.3113970352193</v>
       </c>
       <c r="B63" t="n">
-        <v>113.8239582187931</v>
+        <v>81.09682131405174</v>
       </c>
       <c r="C63" t="n">
-        <v>78.17229663889832</v>
+        <v>125.1917804243833</v>
       </c>
       <c r="D63" t="n">
-        <v>93.02622516950535</v>
+        <v>40.0047480765294</v>
       </c>
       <c r="E63" t="n">
-        <v>95.46499082033306</v>
+        <v>39.86243670740934</v>
       </c>
       <c r="F63" t="n">
-        <v>87.04038128626802</v>
+        <v>92.06616151326854</v>
       </c>
       <c r="G63" t="n">
-        <v>163.3962538124994</v>
+        <v>69.97212871933237</v>
       </c>
       <c r="H63" t="n">
-        <v>95.4838702776363</v>
+        <v>87.3947921886774</v>
       </c>
       <c r="I63" t="n">
-        <v>93.30846312795924</v>
+        <v>92.57657767790133</v>
       </c>
       <c r="J63" t="n">
-        <v>77.74769075796735</v>
+        <v>99.14088219950224</v>
       </c>
       <c r="K63" t="n">
-        <v>77.55185110022204</v>
+        <v>75.09943245220261</v>
       </c>
       <c r="L63" t="n">
-        <v>110.4579764288563</v>
+        <v>40.69044690462753</v>
       </c>
       <c r="M63" t="n">
-        <v>97.21981935540592</v>
+        <v>65.29453914091901</v>
       </c>
       <c r="N63" t="n">
-        <v>83.34187393881018</v>
+        <v>91.10884484945868</v>
       </c>
       <c r="O63" t="n">
-        <v>80.42090550309315</v>
+        <v>115.4165651632387</v>
       </c>
       <c r="P63" t="n">
-        <v>103.8919320646042</v>
+        <v>57.65511660937904</v>
       </c>
       <c r="Q63" t="n">
-        <v>80.46629574540738</v>
+        <v>110.2836895546628</v>
       </c>
       <c r="R63" t="n">
-        <v>85.79487323186952</v>
+        <v>65.97521613665596</v>
       </c>
       <c r="S63" t="n">
-        <v>76.47508801325374</v>
+        <v>43.31256311733653</v>
       </c>
       <c r="T63" t="n">
-        <v>125.2293354865956</v>
+        <v>47.08123221602618</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>48.97725762902011</v>
+        <v>94.41038430785738</v>
       </c>
       <c r="B64" t="n">
-        <v>94.07155733434173</v>
+        <v>116.3035476036209</v>
       </c>
       <c r="C64" t="n">
-        <v>44.77133454024677</v>
+        <v>150.4087851283012</v>
       </c>
       <c r="D64" t="n">
-        <v>67.43473143716294</v>
+        <v>92.46729490263606</v>
       </c>
       <c r="E64" t="n">
-        <v>70.76106914851594</v>
+        <v>92.40581485056391</v>
       </c>
       <c r="F64" t="n">
-        <v>58.90324616838784</v>
+        <v>124.2014446523539</v>
       </c>
       <c r="G64" t="n">
-        <v>150.3060218177353</v>
+        <v>108.8389615691885</v>
       </c>
       <c r="H64" t="n">
-        <v>70.78653768839987</v>
+        <v>120.7794289589357</v>
       </c>
       <c r="I64" t="n">
-        <v>67.82354846228934</v>
+        <v>124.5802692744601</v>
       </c>
       <c r="J64" t="n">
-        <v>44.0257635130988</v>
+        <v>129.5327575605494</v>
       </c>
       <c r="K64" t="n">
-        <v>43.67898858473935</v>
+        <v>112.2040351885235</v>
       </c>
       <c r="L64" t="n">
-        <v>89.969600374085</v>
+        <v>92.76601331976487</v>
       </c>
       <c r="M64" t="n">
-        <v>73.11126937902624</v>
+        <v>105.892386882011</v>
       </c>
       <c r="N64" t="n">
-        <v>53.28632457157566</v>
+        <v>123.4934911958813</v>
       </c>
       <c r="O64" t="n">
-        <v>48.59101230322558</v>
+        <v>142.3755747030529</v>
       </c>
       <c r="P64" t="n">
-        <v>81.77467812734648</v>
+        <v>101.3604125346063</v>
       </c>
       <c r="Q64" t="n">
-        <v>48.66609893655075</v>
+        <v>138.2472890863822</v>
       </c>
       <c r="R64" t="n">
-        <v>57.04668883982086</v>
+        <v>106.3134511819786</v>
       </c>
       <c r="S64" t="n">
-        <v>41.73731569410864</v>
+        <v>93.94572306250957</v>
       </c>
       <c r="T64" t="n">
-        <v>107.5915930783121</v>
+        <v>95.74164812099207</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>113.5701194632177</v>
+        <v>98.42933370676342</v>
       </c>
       <c r="B65" t="n">
-        <v>139.1001731463281</v>
+        <v>119.5889972112309</v>
       </c>
       <c r="C65" t="n">
-        <v>111.8207166250727</v>
+        <v>152.9634456743556</v>
       </c>
       <c r="D65" t="n">
-        <v>122.6655749345855</v>
+        <v>96.56714604569783</v>
       </c>
       <c r="E65" t="n">
-        <v>124.5252150251955</v>
+        <v>96.5082778159302</v>
       </c>
       <c r="F65" t="n">
-        <v>118.1904931845359</v>
+        <v>127.2831957586381</v>
       </c>
       <c r="G65" t="n">
-        <v>181.9101439301932</v>
+        <v>112.3429242287175</v>
       </c>
       <c r="H65" t="n">
-        <v>124.5396892076633</v>
+        <v>123.9462929193393</v>
       </c>
       <c r="I65" t="n">
-        <v>122.8797542154387</v>
+        <v>127.6528752566782</v>
       </c>
       <c r="J65" t="n">
-        <v>111.5242938688312</v>
+        <v>132.4905594751571</v>
       </c>
       <c r="K65" t="n">
-        <v>111.3878553246085</v>
+        <v>115.6060490691879</v>
       </c>
       <c r="L65" t="n">
-        <v>136.3595587463625</v>
+        <v>96.85322037001589</v>
       </c>
       <c r="M65" t="n">
-        <v>125.8755654614614</v>
+        <v>109.4906875874362</v>
       </c>
       <c r="N65" t="n">
-        <v>115.493864150341</v>
+        <v>126.5924778039647</v>
       </c>
       <c r="O65" t="n">
-        <v>113.4040861110495</v>
+        <v>145.0717661739343</v>
       </c>
       <c r="P65" t="n">
-        <v>131.0972854519163</v>
+        <v>105.1139681392804</v>
       </c>
       <c r="Q65" t="n">
-        <v>113.4362792748963</v>
+        <v>141.0224308701768</v>
       </c>
       <c r="R65" t="n">
-        <v>117.2762762779304</v>
+        <v>109.8979661823776</v>
       </c>
       <c r="S65" t="n">
-        <v>110.6408775786771</v>
+        <v>97.98373309145661</v>
       </c>
       <c r="T65" t="n">
-        <v>148.5777613613801</v>
+        <v>99.70695188262417</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>49.5032743864211</v>
+        <v>180.8106462530186</v>
       </c>
       <c r="B66" t="n">
-        <v>94.34649071071077</v>
+        <v>193.1467947403337</v>
       </c>
       <c r="C66" t="n">
-        <v>45.34616639400271</v>
+        <v>215.41116910933</v>
       </c>
       <c r="D66" t="n">
-        <v>67.81773672218927</v>
+        <v>179.8036978482032</v>
       </c>
       <c r="E66" t="n">
-        <v>71.12616478595582</v>
+        <v>179.7720883548767</v>
       </c>
       <c r="F66" t="n">
-        <v>59.34134156969814</v>
+        <v>198.0029494401753</v>
       </c>
       <c r="G66" t="n">
-        <v>150.4782462842765</v>
+        <v>188.7460958238241</v>
       </c>
       <c r="H66" t="n">
-        <v>71.15150264069722</v>
+        <v>195.8745506514909</v>
       </c>
       <c r="I66" t="n">
-        <v>68.20437035948942</v>
+        <v>198.2407945549399</v>
       </c>
       <c r="J66" t="n">
-        <v>44.61020357529417</v>
+        <v>201.3899312639958</v>
       </c>
       <c r="K66" t="n">
-        <v>44.26800711466101</v>
+        <v>190.7063571196942</v>
       </c>
       <c r="L66" t="n">
-        <v>90.25702965193594</v>
+        <v>179.9575015400016</v>
       </c>
       <c r="M66" t="n">
-        <v>73.46468621269969</v>
+        <v>187.0624674616648</v>
       </c>
       <c r="N66" t="n">
-        <v>53.77020361190011</v>
+        <v>197.5596403646861</v>
       </c>
       <c r="O66" t="n">
-        <v>49.12116536453616</v>
+        <v>209.8808552615066</v>
       </c>
       <c r="P66" t="n">
-        <v>82.09080577597594</v>
+        <v>184.5348269635368</v>
       </c>
       <c r="Q66" t="n">
-        <v>49.19544283589725</v>
+        <v>207.1025882817755</v>
       </c>
       <c r="R66" t="n">
-        <v>57.49893144837762</v>
+        <v>187.3011453128353</v>
       </c>
       <c r="S66" t="n">
-        <v>42.35334616612452</v>
+        <v>180.5684579737409</v>
       </c>
       <c r="T66" t="n">
-        <v>107.8320606834859</v>
+        <v>181.5093174418348</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>62.3271665636975</v>
+        <v>43.29685342647841</v>
       </c>
       <c r="B67" t="n">
-        <v>101.6629815926516</v>
+        <v>80.54695547731366</v>
       </c>
       <c r="C67" t="n">
-        <v>59.07940693265443</v>
+        <v>124.8362907781551</v>
       </c>
       <c r="D67" t="n">
-        <v>77.67462218126184</v>
+        <v>38.87798191891775</v>
       </c>
       <c r="E67" t="n">
-        <v>80.57935736924524</v>
+        <v>38.73153069107041</v>
       </c>
       <c r="F67" t="n">
-        <v>70.39528632069892</v>
+        <v>91.58218006363663</v>
       </c>
       <c r="G67" t="n">
-        <v>155.1702423845274</v>
+        <v>69.33409267406572</v>
       </c>
       <c r="H67" t="n">
-        <v>80.60172358523569</v>
+        <v>86.8847933249727</v>
       </c>
       <c r="I67" t="n">
-        <v>78.01241986386522</v>
+        <v>92.09527861933863</v>
       </c>
       <c r="J67" t="n">
-        <v>58.5164231640211</v>
+        <v>98.69160112550964</v>
       </c>
       <c r="K67" t="n">
-        <v>58.25596940044234</v>
+        <v>74.50531768984047</v>
       </c>
       <c r="L67" t="n">
-        <v>97.87968593366062</v>
+        <v>39.58320450291291</v>
       </c>
       <c r="M67" t="n">
-        <v>82.65084172113447</v>
+        <v>64.61032774290902</v>
       </c>
       <c r="N67" t="n">
-        <v>65.7672890831513</v>
+        <v>90.6197507126556</v>
       </c>
       <c r="O67" t="n">
-        <v>62.02411147007027</v>
+        <v>115.0308703066322</v>
       </c>
       <c r="P67" t="n">
-        <v>90.40465646099541</v>
+        <v>56.87908298014489</v>
       </c>
       <c r="Q67" t="n">
-        <v>62.082953479209</v>
+        <v>109.8799790280757</v>
       </c>
       <c r="R67" t="n">
-        <v>68.84931833058934</v>
+        <v>65.29813744433744</v>
       </c>
       <c r="S67" t="n">
-        <v>56.81467634642629</v>
+        <v>42.27405508363699</v>
       </c>
       <c r="T67" t="n">
-        <v>114.2884719826483</v>
+        <v>46.12764936998735</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>82.05581671558647</v>
+        <v>34.72358311157788</v>
       </c>
       <c r="B68" t="n">
-        <v>114.8209179170366</v>
+        <v>76.2818572410049</v>
       </c>
       <c r="C68" t="n">
-        <v>79.61694347635562</v>
+        <v>122.1278395891813</v>
       </c>
       <c r="D68" t="n">
-        <v>94.24345227125757</v>
+        <v>29.02769686972078</v>
       </c>
       <c r="E68" t="n">
-        <v>96.65150903655652</v>
+        <v>28.83125347857825</v>
       </c>
       <c r="F68" t="n">
-        <v>88.34012509146797</v>
+        <v>87.85445584989451</v>
       </c>
       <c r="G68" t="n">
-        <v>164.0923078229934</v>
+        <v>64.32982290049176</v>
       </c>
       <c r="H68" t="n">
-        <v>96.67015676988306</v>
+        <v>82.94622968282478</v>
       </c>
       <c r="I68" t="n">
-        <v>94.52205572256152</v>
+        <v>88.38919646340447</v>
       </c>
       <c r="J68" t="n">
-        <v>79.20008298552354</v>
+        <v>95.24254217622185</v>
       </c>
       <c r="K68" t="n">
-        <v>79.00784350802333</v>
+        <v>69.87239849566319</v>
       </c>
       <c r="L68" t="n">
-        <v>111.4850406264225</v>
+        <v>29.96564343030409</v>
       </c>
       <c r="M68" t="n">
-        <v>98.38517674027452</v>
+        <v>59.20814267074098</v>
       </c>
       <c r="N68" t="n">
-        <v>84.69839241892269</v>
+        <v>86.8507278420656</v>
       </c>
       <c r="O68" t="n">
-        <v>81.8258624681386</v>
+        <v>112.0857298275473</v>
       </c>
       <c r="P68" t="n">
-        <v>104.9832523540476</v>
+        <v>50.65905435492169</v>
       </c>
       <c r="Q68" t="n">
-        <v>81.87047378453759</v>
+        <v>106.7928813108957</v>
       </c>
       <c r="R68" t="n">
-        <v>87.11320221177645</v>
+        <v>59.9579557787979</v>
       </c>
       <c r="S68" t="n">
-        <v>77.95119507327774</v>
+        <v>33.43957895499098</v>
       </c>
       <c r="T68" t="n">
-        <v>126.1361811421751</v>
+        <v>38.19515340816419</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>52.43185041909886</v>
+        <v>85.65804066267496</v>
       </c>
       <c r="B69" t="n">
-        <v>95.91551007433414</v>
+        <v>109.318317084553</v>
       </c>
       <c r="C69" t="n">
-        <v>48.5262771086557</v>
+        <v>145.0750905868496</v>
       </c>
       <c r="D69" t="n">
-        <v>69.98407088412075</v>
+        <v>83.5115554376891</v>
       </c>
       <c r="E69" t="n">
-        <v>73.19464516310194</v>
+        <v>83.44347717591742</v>
       </c>
       <c r="F69" t="n">
-        <v>61.8054979972255</v>
+        <v>117.6859299948081</v>
       </c>
       <c r="G69" t="n">
-        <v>151.4669183953541</v>
+        <v>101.340509276747</v>
       </c>
       <c r="H69" t="n">
-        <v>73.21926721446074</v>
+        <v>114.0686184919312</v>
       </c>
       <c r="I69" t="n">
-        <v>70.35880115186627</v>
+        <v>118.0856585598274</v>
       </c>
       <c r="J69" t="n">
-        <v>47.83926239421601</v>
+        <v>123.2992885066707</v>
       </c>
       <c r="K69" t="n">
-        <v>47.5203242549663</v>
+        <v>104.9462947302027</v>
       </c>
       <c r="L69" t="n">
-        <v>91.89589852101075</v>
+        <v>83.84218802162756</v>
       </c>
       <c r="M69" t="n">
-        <v>75.46909886651548</v>
+        <v>98.16912378431745</v>
       </c>
       <c r="N69" t="n">
-        <v>56.47795640653667</v>
+        <v>116.9385378425708</v>
       </c>
       <c r="O69" t="n">
-        <v>52.07123630339084</v>
+        <v>136.728868703854</v>
       </c>
       <c r="P69" t="n">
-        <v>83.88936259349255</v>
+        <v>93.26259965386302</v>
       </c>
       <c r="Q69" t="n">
-        <v>52.14131144508637</v>
+        <v>132.4246661492672</v>
       </c>
       <c r="R69" t="n">
-        <v>60.03875316076017</v>
+        <v>98.62316749747042</v>
       </c>
       <c r="S69" t="n">
-        <v>45.74200143042537</v>
+        <v>85.14562905251741</v>
       </c>
       <c r="T69" t="n">
-        <v>109.2075000841996</v>
+        <v>87.12314531704544</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>28.7053720063895</v>
+        <v>21.29565441625971</v>
       </c>
       <c r="B70" t="n">
-        <v>85.29176112892819</v>
+        <v>71.18075173139967</v>
       </c>
       <c r="C70" t="n">
-        <v>20.72918265828383</v>
+        <v>119.0083479241305</v>
       </c>
       <c r="D70" t="n">
-        <v>54.52219384038111</v>
+        <v>9.507095164691602</v>
       </c>
       <c r="E70" t="n">
-        <v>58.58630833400288</v>
+        <v>8.889254752572667</v>
       </c>
       <c r="F70" t="n">
-        <v>43.52951902260693</v>
+        <v>83.46366326486736</v>
       </c>
       <c r="G70" t="n">
-        <v>144.9728485332316</v>
+        <v>58.19023790395378</v>
       </c>
       <c r="H70" t="n">
-        <v>58.6170669265962</v>
+        <v>78.28061504297234</v>
       </c>
       <c r="I70" t="n">
-        <v>55.00236670528199</v>
+        <v>84.02635136882012</v>
       </c>
       <c r="J70" t="n">
-        <v>19.0655309413901</v>
+        <v>91.20811100499506</v>
       </c>
       <c r="K70" t="n">
-        <v>18.25049755353514</v>
+        <v>64.26452944235149</v>
       </c>
       <c r="L70" t="n">
-        <v>80.7450036140835</v>
+        <v>12.07134868613411</v>
       </c>
       <c r="M70" t="n">
-        <v>61.40426961847475</v>
+        <v>52.47267699888128</v>
       </c>
       <c r="N70" t="n">
-        <v>35.56204442257377</v>
+        <v>82.40647183083775</v>
       </c>
       <c r="O70" t="n">
-        <v>28.04127482512201</v>
+        <v>108.678371831216</v>
       </c>
       <c r="P70" t="n">
-        <v>71.50052167639701</v>
+        <v>42.59245779530708</v>
       </c>
       <c r="Q70" t="n">
-        <v>28.17118745931644</v>
+        <v>103.2109353295142</v>
       </c>
       <c r="R70" t="n">
-        <v>40.98232942077772</v>
+        <v>53.31729676270534</v>
       </c>
       <c r="S70" t="n">
-        <v>12.93174924422405</v>
+        <v>19.13068513141076</v>
       </c>
       <c r="T70" t="n">
-        <v>100.0058874181661</v>
+        <v>26.58284064548598</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>54.67296684014075</v>
+        <v>44.60020007310005</v>
       </c>
       <c r="B71" t="n">
-        <v>97.15873320269293</v>
+        <v>81.25498364156471</v>
       </c>
       <c r="C71" t="n">
-        <v>50.93951251001932</v>
+        <v>125.2942928675313</v>
       </c>
       <c r="D71" t="n">
-        <v>71.67848032879891</v>
+        <v>40.32440710059225</v>
       </c>
       <c r="E71" t="n">
-        <v>74.8163781887681</v>
+        <v>40.18322783948457</v>
       </c>
       <c r="F71" t="n">
-        <v>63.71776790988066</v>
+        <v>92.20550978729504</v>
       </c>
       <c r="G71" t="n">
-        <v>152.2572222684928</v>
+        <v>70.15537568043186</v>
       </c>
       <c r="H71" t="n">
-        <v>74.84046670187846</v>
+        <v>87.54157664247211</v>
       </c>
       <c r="I71" t="n">
-        <v>72.04439786867701</v>
+        <v>92.71515881397286</v>
       </c>
       <c r="J71" t="n">
-        <v>50.28547892935915</v>
+        <v>99.2703000027868</v>
       </c>
       <c r="K71" t="n">
-        <v>49.98215263501075</v>
+        <v>75.27019791385335</v>
       </c>
       <c r="L71" t="n">
-        <v>93.19276007135038</v>
+        <v>41.00476080464345</v>
       </c>
       <c r="M71" t="n">
-        <v>77.04297014300695</v>
+        <v>65.4908755550933</v>
       </c>
       <c r="N71" t="n">
-        <v>58.56444249364139</v>
+        <v>91.2496550631861</v>
       </c>
       <c r="O71" t="n">
-        <v>54.32723087822479</v>
+        <v>115.5277518755897</v>
       </c>
       <c r="P71" t="n">
-        <v>85.30802729564692</v>
+        <v>57.87737390888435</v>
       </c>
       <c r="Q71" t="n">
-        <v>54.39439974800593</v>
+        <v>110.4000458384731</v>
       </c>
       <c r="R71" t="n">
-        <v>62.0055339935966</v>
+        <v>66.16953289563241</v>
       </c>
       <c r="S71" t="n">
-        <v>48.2945655285707</v>
+        <v>43.60798164488896</v>
       </c>
       <c r="T71" t="n">
-        <v>110.3010083334365</v>
+        <v>47.35314526329897</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>78.06424585567133</v>
+        <v>81.72940077854562</v>
       </c>
       <c r="B72" t="n">
-        <v>112.0031812738533</v>
+        <v>106.2680077523359</v>
       </c>
       <c r="C72" t="n">
-        <v>75.49653709058438</v>
+        <v>142.7906752215784</v>
       </c>
       <c r="D72" t="n">
-        <v>90.78930399643771</v>
+        <v>79.47688288473495</v>
       </c>
       <c r="E72" t="n">
-        <v>93.28656721734562</v>
+        <v>79.40534556728223</v>
       </c>
       <c r="F72" t="n">
-        <v>84.64541999026873</v>
+        <v>114.8580564879736</v>
       </c>
       <c r="G72" t="n">
-        <v>162.1331394589915</v>
+        <v>98.04230638822258</v>
       </c>
       <c r="H72" t="n">
-        <v>93.30588745661522</v>
+        <v>111.1487505377789</v>
       </c>
       <c r="I72" t="n">
-        <v>91.07847408785349</v>
+        <v>115.2675920584784</v>
       </c>
       <c r="J72" t="n">
-        <v>75.0567956221593</v>
+        <v>120.6031076204211</v>
       </c>
       <c r="K72" t="n">
-        <v>74.85391612962597</v>
+        <v>101.7650224735898</v>
       </c>
       <c r="L72" t="n">
-        <v>108.5807704320975</v>
+        <v>79.82422886383308</v>
       </c>
       <c r="M72" t="n">
-        <v>95.08160929626628</v>
+        <v>94.76060302695575</v>
       </c>
       <c r="N72" t="n">
-        <v>80.83741152772396</v>
+        <v>114.0921410711975</v>
       </c>
       <c r="O72" t="n">
-        <v>77.82249798617049</v>
+        <v>134.3025634844228</v>
       </c>
       <c r="P72" t="n">
-        <v>101.8938305246515</v>
+        <v>89.66776185256542</v>
       </c>
       <c r="Q72" t="n">
-        <v>77.86940286054232</v>
+        <v>129.9180019327442</v>
       </c>
       <c r="R72" t="n">
-        <v>83.36413751573653</v>
+        <v>95.23089933779771</v>
       </c>
       <c r="S72" t="n">
-        <v>73.73776669729683</v>
+        <v>81.19219893684708</v>
       </c>
       <c r="T72" t="n">
-        <v>123.5767195602974</v>
+        <v>83.26366237072853</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>48.62286197965244</v>
+        <v>124.7546033209018</v>
       </c>
       <c r="B73" t="n">
-        <v>93.88753293990244</v>
+        <v>142.0454348783725</v>
       </c>
       <c r="C73" t="n">
-        <v>44.38336781664518</v>
+        <v>171.0941057674686</v>
       </c>
       <c r="D73" t="n">
-        <v>67.17777866404346</v>
+        <v>123.290676903038</v>
       </c>
       <c r="E73" t="n">
-        <v>70.51623819570905</v>
+        <v>123.2445739284085</v>
       </c>
       <c r="F73" t="n">
-        <v>58.60890163965384</v>
+        <v>148.5812546666974</v>
       </c>
       <c r="G73" t="n">
-        <v>150.1909156270992</v>
+        <v>136.0011394807321</v>
       </c>
       <c r="H73" t="n">
-        <v>70.54179512986737</v>
+        <v>145.7328406511204</v>
       </c>
       <c r="I73" t="n">
-        <v>67.56807432692923</v>
+        <v>148.8980653907069</v>
       </c>
       <c r="J73" t="n">
-        <v>43.63116770319383</v>
+        <v>153.0657560195562</v>
       </c>
       <c r="K73" t="n">
-        <v>43.28123133667425</v>
+        <v>138.7088169410498</v>
       </c>
       <c r="L73" t="n">
-        <v>89.77716822057532</v>
+        <v>123.5148720269792</v>
       </c>
       <c r="M73" t="n">
-        <v>72.87433466211175</v>
+        <v>133.6547342377656</v>
       </c>
       <c r="N73" t="n">
-        <v>52.96077160106555</v>
+        <v>147.9899751751634</v>
       </c>
       <c r="O73" t="n">
-        <v>48.23377881614856</v>
+        <v>164.0767949974123</v>
       </c>
       <c r="P73" t="n">
-        <v>81.56291390738832</v>
+        <v>130.0935187232009</v>
       </c>
       <c r="Q73" t="n">
-        <v>48.30942069550274</v>
+        <v>160.507642572969</v>
       </c>
       <c r="R73" t="n">
-        <v>56.74271450873904</v>
+        <v>133.9885826733801</v>
       </c>
       <c r="S73" t="n">
-        <v>41.32087200898125</v>
+        <v>124.403333019401</v>
       </c>
       <c r="T73" t="n">
-        <v>107.4307304422809</v>
+        <v>125.765072931725</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>128.0078716594963</v>
+        <v>102.5053735780034</v>
       </c>
       <c r="B74" t="n">
-        <v>151.1181701227321</v>
+        <v>122.9656298824856</v>
       </c>
       <c r="C74" t="n">
-        <v>126.4583561432353</v>
+        <v>155.6175876659839</v>
       </c>
       <c r="D74" t="n">
-        <v>136.142155286072</v>
+        <v>100.7185761109626</v>
       </c>
       <c r="E74" t="n">
-        <v>137.8200723732785</v>
+        <v>100.6621357085444</v>
       </c>
       <c r="F74" t="n">
-        <v>132.1243196807777</v>
+        <v>130.4608362725781</v>
       </c>
       <c r="G74" t="n">
-        <v>191.2567479505185</v>
+        <v>115.9308004917934</v>
       </c>
       <c r="H74" t="n">
-        <v>137.8331504386587</v>
+        <v>127.207316640417</v>
       </c>
       <c r="I74" t="n">
-        <v>136.3351648253347</v>
+        <v>130.8215366050472</v>
       </c>
       <c r="J74" t="n">
-        <v>126.1963204489178</v>
+        <v>135.5461774763448</v>
       </c>
       <c r="K74" t="n">
-        <v>126.075760896853</v>
+        <v>119.0956609612463</v>
       </c>
       <c r="L74" t="n">
-        <v>148.5993688863018</v>
+        <v>100.9928917025921</v>
       </c>
       <c r="M74" t="n">
-        <v>139.0413648960165</v>
+        <v>113.1690264461889</v>
       </c>
       <c r="N74" t="n">
-        <v>129.7176773931832</v>
+        <v>129.7870306115211</v>
       </c>
       <c r="O74" t="n">
-        <v>127.8605878235623</v>
+        <v>147.8676273537697</v>
       </c>
       <c r="P74" t="n">
-        <v>143.7857483367729</v>
+        <v>108.9401862326033</v>
       </c>
       <c r="Q74" t="n">
-        <v>127.8891419458149</v>
+        <v>143.8969905416456</v>
       </c>
       <c r="R74" t="n">
-        <v>131.307151935917</v>
+        <v>113.5631139474066</v>
       </c>
       <c r="S74" t="n">
-        <v>125.4162946482009</v>
+        <v>102.0775677068495</v>
       </c>
       <c r="T74" t="n">
-        <v>159.8849409514972</v>
+        <v>103.7328016209558</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>72.07318819595822</v>
+        <v>19.64067748498107</v>
       </c>
       <c r="B75" t="n">
-        <v>107.9130696031716</v>
+        <v>70.70325828488696</v>
       </c>
       <c r="C75" t="n">
-        <v>69.28380105324257</v>
+        <v>118.723368342897</v>
       </c>
       <c r="D75" t="n">
-        <v>85.69256499762913</v>
+        <v>4.757748787271466</v>
       </c>
       <c r="E75" t="n">
-        <v>88.33403420489554</v>
+        <v>3.357106657289344</v>
       </c>
       <c r="F75" t="n">
-        <v>79.15405928342715</v>
+        <v>83.05681429385218</v>
       </c>
       <c r="G75" t="n">
-        <v>159.3350962171991</v>
+        <v>57.60516558756706</v>
       </c>
       <c r="H75" t="n">
-        <v>88.35443740855271</v>
+        <v>77.84668269462937</v>
       </c>
       <c r="I75" t="n">
-        <v>85.99887451523486</v>
+        <v>83.62224010039851</v>
       </c>
       <c r="J75" t="n">
-        <v>68.8043642858642</v>
+        <v>90.83595559111922</v>
       </c>
       <c r="K75" t="n">
-        <v>68.58299159162127</v>
+        <v>63.73524189566665</v>
       </c>
       <c r="L75" t="n">
-        <v>104.3566082399345</v>
+        <v>8.829992873978577</v>
       </c>
       <c r="M75" t="n">
-        <v>90.22765874211268</v>
+        <v>51.82309472118783</v>
       </c>
       <c r="N75" t="n">
-        <v>75.06800302537633</v>
+        <v>81.99437733563768</v>
       </c>
       <c r="O75" t="n">
-        <v>71.81127466159352</v>
+        <v>108.3662300670108</v>
       </c>
       <c r="P75" t="n">
-        <v>97.38003221760465</v>
+        <v>41.78957736203246</v>
       </c>
       <c r="Q75" t="n">
-        <v>71.86210320866449</v>
+        <v>102.8822068515516</v>
       </c>
       <c r="R75" t="n">
-        <v>77.78237203542936</v>
+        <v>52.67813065338092</v>
       </c>
       <c r="S75" t="n">
-        <v>67.3630181421549</v>
+        <v>17.26946521029129</v>
       </c>
       <c r="T75" t="n">
-        <v>119.8821237424484</v>
+        <v>25.27644618682742</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>142.5579890145174</v>
+        <v>24.58594682741205</v>
       </c>
       <c r="B76" t="n">
-        <v>163.6259953867728</v>
+        <v>72.23339464147263</v>
       </c>
       <c r="C76" t="n">
-        <v>141.1682714476541</v>
+        <v>119.6409242693088</v>
       </c>
       <c r="D76" t="n">
-        <v>149.904808031651</v>
+        <v>15.53540288676394</v>
       </c>
       <c r="E76" t="n">
-        <v>151.4303053356392</v>
+        <v>15.16518164875405</v>
       </c>
       <c r="F76" t="n">
-        <v>146.2655149930343</v>
+        <v>84.36318492076232</v>
       </c>
       <c r="G76" t="n">
-        <v>201.2856394819992</v>
+        <v>59.47325173304642</v>
       </c>
       <c r="H76" t="n">
-        <v>151.4422080693329</v>
+        <v>79.23899656034015</v>
       </c>
       <c r="I76" t="n">
-        <v>150.0801192464224</v>
+        <v>84.91991291057704</v>
       </c>
       <c r="J76" t="n">
-        <v>140.9335883312249</v>
+        <v>92.03196943173101</v>
       </c>
       <c r="K76" t="n">
-        <v>140.8256457850972</v>
+        <v>65.42853833634396</v>
       </c>
       <c r="L76" t="n">
-        <v>161.3026269422678</v>
+        <v>17.22444029528399</v>
       </c>
       <c r="M76" t="n">
-        <v>152.5426700212645</v>
+        <v>53.89198192507394</v>
       </c>
       <c r="N76" t="n">
-        <v>144.0952492393527</v>
+        <v>83.31740804891992</v>
       </c>
       <c r="O76" t="n">
-        <v>142.4257523892926</v>
+        <v>109.3707108336945</v>
       </c>
       <c r="P76" t="n">
-        <v>156.879273487083</v>
+        <v>44.32923804249951</v>
       </c>
       <c r="Q76" t="n">
-        <v>142.4513869806328</v>
+        <v>103.9396991335685</v>
       </c>
       <c r="R76" t="n">
-        <v>145.527774581319</v>
+        <v>54.71469654915359</v>
       </c>
       <c r="S76" t="n">
-        <v>140.2355589298005</v>
+        <v>22.73646845886035</v>
       </c>
       <c r="T76" t="n">
-        <v>171.7555220891979</v>
+        <v>29.28500130044171</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>33.77109728109026</v>
+        <v>22.37639204741329</v>
       </c>
       <c r="B77" t="n">
-        <v>87.12733868320436</v>
+        <v>71.51151963907587</v>
       </c>
       <c r="C77" t="n">
-        <v>27.31643540479151</v>
+        <v>119.2064801077261</v>
       </c>
       <c r="D77" t="n">
-        <v>57.35118351622523</v>
+        <v>11.72957298938377</v>
       </c>
       <c r="E77" t="n">
-        <v>61.22780539714377</v>
+        <v>11.23462834716461</v>
       </c>
       <c r="F77" t="n">
-        <v>47.02454312253496</v>
+        <v>83.74593189901195</v>
       </c>
       <c r="G77" t="n">
-        <v>146.0603143957419</v>
+        <v>58.59438378685724</v>
       </c>
       <c r="H77" t="n">
-        <v>61.25723765091526</v>
+        <v>78.58150364779746</v>
       </c>
       <c r="I77" t="n">
-        <v>57.80786255109217</v>
+        <v>84.30673607962294</v>
       </c>
       <c r="J77" t="n">
-        <v>26.07648556881766</v>
+        <v>91.46648313531182</v>
       </c>
       <c r="K77" t="n">
-        <v>25.48664925986239</v>
+        <v>64.63070298619411</v>
       </c>
       <c r="L77" t="n">
-        <v>82.68158342812509</v>
+        <v>13.88940182819299</v>
       </c>
       <c r="M77" t="n">
-        <v>63.92943732680583</v>
+        <v>52.92050505684639</v>
       </c>
       <c r="N77" t="n">
-        <v>39.7636471297184</v>
+        <v>82.69234924495393</v>
       </c>
       <c r="O77" t="n">
-        <v>33.20845861165004</v>
+        <v>108.8953007614508</v>
       </c>
       <c r="P77" t="n">
-        <v>73.6804806549236</v>
+        <v>43.14296565012417</v>
       </c>
       <c r="Q77" t="n">
-        <v>33.31822973105864</v>
+        <v>103.4393309898896</v>
       </c>
       <c r="R77" t="n">
-        <v>44.67706295513163</v>
+        <v>53.75808923432052</v>
       </c>
       <c r="S77" t="n">
-        <v>21.99360743623341</v>
+        <v>20.32685754463684</v>
       </c>
       <c r="T77" t="n">
-        <v>101.5759132267023</v>
+        <v>27.45624593468817</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>39.00160210076232</v>
+        <v>158.71035952579</v>
       </c>
       <c r="B78" t="n">
-        <v>89.28499930489512</v>
+        <v>172.6330580764759</v>
       </c>
       <c r="C78" t="n">
-        <v>33.56822304027236</v>
+        <v>197.2269256451047</v>
       </c>
       <c r="D78" t="n">
-        <v>60.57884288734038</v>
+        <v>157.5622359014343</v>
       </c>
       <c r="E78" t="n">
-        <v>64.26104658817684</v>
+        <v>157.5261634581535</v>
       </c>
       <c r="F78" t="n">
-        <v>50.91115408965383</v>
+        <v>178.0495897478562</v>
       </c>
       <c r="G78" t="n">
-        <v>147.3575698640565</v>
+        <v>167.694892918978</v>
       </c>
       <c r="H78" t="n">
-        <v>64.28909020571092</v>
+        <v>175.6796175294527</v>
       </c>
       <c r="I78" t="n">
-        <v>61.01136719975459</v>
+        <v>178.3140517405882</v>
       </c>
       <c r="J78" t="n">
-        <v>32.56717756389217</v>
+        <v>181.8086709617785</v>
       </c>
       <c r="K78" t="n">
-        <v>32.09684167254731</v>
+        <v>169.8982138465134</v>
       </c>
       <c r="L78" t="n">
-        <v>84.9522347736617</v>
+        <v>157.7377278360855</v>
       </c>
       <c r="M78" t="n">
-        <v>66.84018934577698</v>
+        <v>165.7976331411811</v>
       </c>
       <c r="N78" t="n">
-        <v>44.29204881142989</v>
+        <v>177.5564696748485</v>
       </c>
       <c r="O78" t="n">
-        <v>38.51544726754447</v>
+        <v>191.1712892347404</v>
       </c>
       <c r="P78" t="n">
-        <v>76.21975586682167</v>
+        <v>162.940451652847</v>
       </c>
       <c r="Q78" t="n">
-        <v>38.61013322003598</v>
+        <v>188.1169064581435</v>
       </c>
       <c r="R78" t="n">
-        <v>48.75118366926203</v>
+        <v>166.0668764620782</v>
       </c>
       <c r="S78" t="n">
-        <v>29.39994426723403</v>
+        <v>158.4343915865047</v>
       </c>
       <c r="T78" t="n">
-        <v>103.4326065740194</v>
+        <v>159.5058642827029</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>63.12536380343916</v>
+        <v>154.1561167535605</v>
       </c>
       <c r="B79" t="n">
-        <v>102.1542837563138</v>
+        <v>168.455640607751</v>
       </c>
       <c r="C79" t="n">
-        <v>59.92088272857661</v>
+        <v>193.5809657769883</v>
       </c>
       <c r="D79" t="n">
-        <v>78.31655504718928</v>
+        <v>152.9738157136414</v>
       </c>
       <c r="E79" t="n">
-        <v>81.19832940090696</v>
+        <v>152.9366610253302</v>
       </c>
       <c r="F79" t="n">
-        <v>71.10296899307957</v>
+        <v>174.002260103459</v>
       </c>
       <c r="G79" t="n">
-        <v>155.4925721220491</v>
+        <v>163.3912703385323</v>
       </c>
       <c r="H79" t="n">
-        <v>81.22052516678524</v>
+        <v>171.5763915200068</v>
       </c>
       <c r="I79" t="n">
-        <v>78.65159576558919</v>
+        <v>174.2728640950077</v>
       </c>
       <c r="J79" t="n">
-        <v>59.36587945418176</v>
+        <v>177.8469087406923</v>
       </c>
       <c r="K79" t="n">
-        <v>59.10916878321779</v>
+        <v>165.6518432736789</v>
       </c>
       <c r="L79" t="n">
-        <v>98.38988150175655</v>
+        <v>153.154565373099</v>
       </c>
       <c r="M79" t="n">
-        <v>83.25441430140313</v>
+        <v>161.4434429357524</v>
       </c>
       <c r="N79" t="n">
-        <v>66.52422248177311</v>
+        <v>173.4976369727475</v>
       </c>
       <c r="O79" t="n">
-        <v>62.82615909881295</v>
+        <v>187.4075557158907</v>
       </c>
       <c r="P79" t="n">
-        <v>90.9567906936489</v>
+        <v>158.5077944347395</v>
       </c>
       <c r="Q79" t="n">
-        <v>62.88425062095663</v>
+        <v>184.2908044562012</v>
       </c>
       <c r="R79" t="n">
-        <v>69.57272811989249</v>
+        <v>161.7199355973252</v>
       </c>
       <c r="S79" t="n">
-        <v>57.68919579788599</v>
+        <v>153.871981039817</v>
       </c>
       <c r="T79" t="n">
-        <v>114.7257193988612</v>
+        <v>154.9750007333567</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>55.26850826558329</v>
+        <v>65.89860227100495</v>
       </c>
       <c r="B80" t="n">
-        <v>97.49509803242306</v>
+        <v>94.63519589086553</v>
       </c>
       <c r="C80" t="n">
-        <v>51.57817985891062</v>
+        <v>134.3581324665026</v>
       </c>
       <c r="D80" t="n">
-        <v>72.13375939908948</v>
+        <v>63.08332380848237</v>
       </c>
       <c r="E80" t="n">
-        <v>75.25267535499647</v>
+        <v>62.99317212453642</v>
       </c>
       <c r="F80" t="n">
-        <v>64.22949984405247</v>
+        <v>104.1887900392672</v>
       </c>
       <c r="G80" t="n">
-        <v>152.4720841194116</v>
+        <v>85.29492758408365</v>
       </c>
       <c r="H80" t="n">
-        <v>75.27662425318165</v>
+        <v>100.084841888077</v>
       </c>
       <c r="I80" t="n">
-        <v>72.49737903579653</v>
+        <v>104.6400908285718</v>
       </c>
       <c r="J80" t="n">
-        <v>50.9323482077426</v>
+        <v>110.4900013456188</v>
       </c>
       <c r="K80" t="n">
-        <v>50.6328972588892</v>
+        <v>89.54915202670652</v>
       </c>
       <c r="L80" t="n">
-        <v>93.54338689889305</v>
+        <v>63.52037738676911</v>
       </c>
       <c r="M80" t="n">
-        <v>77.46672802730201</v>
+        <v>81.50155038822427</v>
       </c>
       <c r="N80" t="n">
-        <v>59.12079691099188</v>
+        <v>103.3438313778911</v>
       </c>
       <c r="O80" t="n">
-        <v>54.92652107766938</v>
+        <v>125.3000773668531</v>
       </c>
       <c r="P80" t="n">
-        <v>85.69092264571876</v>
+        <v>75.51978777314163</v>
       </c>
       <c r="Q80" t="n">
-        <v>54.99295797414052</v>
+        <v>120.5886315365114</v>
       </c>
       <c r="R80" t="n">
-        <v>62.53127976165833</v>
+        <v>82.04788247321028</v>
       </c>
       <c r="S80" t="n">
-        <v>48.96774205937136</v>
+        <v>65.23115818267001</v>
       </c>
       <c r="T80" t="n">
-        <v>110.5974101964985</v>
+        <v>67.79209615463029</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>93.65559338151364</v>
+        <v>94.50869700028755</v>
       </c>
       <c r="B81" t="n">
-        <v>123.3776977662185</v>
+        <v>116.3833679213768</v>
       </c>
       <c r="C81" t="n">
-        <v>91.52633939636561</v>
+        <v>150.4705146774819</v>
       </c>
       <c r="D81" t="n">
-        <v>104.4990019607188</v>
+        <v>92.56767130130206</v>
       </c>
       <c r="E81" t="n">
-        <v>106.6758047254628</v>
+        <v>92.50625795983498</v>
       </c>
       <c r="F81" t="n">
-        <v>99.20781630475348</v>
+        <v>124.2761923992949</v>
       </c>
       <c r="G81" t="n">
-        <v>170.1895960435229</v>
+        <v>108.9242521158357</v>
       </c>
       <c r="H81" t="n">
-        <v>106.6927004283577</v>
+        <v>120.8562931881556</v>
       </c>
       <c r="I81" t="n">
-        <v>104.7503323756088</v>
+        <v>124.6547898639752</v>
       </c>
       <c r="J81" t="n">
-        <v>91.1639526331286</v>
+        <v>129.6044305754047</v>
       </c>
       <c r="K81" t="n">
-        <v>90.99699143691403</v>
+        <v>112.286769728772</v>
       </c>
       <c r="L81" t="n">
-        <v>120.2793722890861</v>
+        <v>92.86606684240283</v>
       </c>
       <c r="M81" t="n">
-        <v>108.2490467255789</v>
+        <v>105.9800487974238</v>
       </c>
       <c r="N81" t="n">
-        <v>95.97932482118908</v>
+        <v>123.5686671906841</v>
       </c>
       <c r="O81" t="n">
-        <v>93.45418601344851</v>
+        <v>142.4407856463851</v>
       </c>
       <c r="P81" t="n">
-        <v>114.2790286518709</v>
+        <v>101.4519904818058</v>
       </c>
       <c r="Q81" t="n">
-        <v>93.49324891395186</v>
+        <v>138.3144464011933</v>
       </c>
       <c r="R81" t="n">
-        <v>98.11688496059868</v>
+        <v>106.4007661897121</v>
       </c>
       <c r="S81" t="n">
-        <v>90.08108529615805</v>
+        <v>94.04452150589411</v>
       </c>
       <c r="T81" t="n">
-        <v>133.9721960255676</v>
+        <v>95.83859519243121</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>31.74490378254202</v>
+        <v>52.47678343476121</v>
       </c>
       <c r="B82" t="n">
-        <v>86.36217372560621</v>
+        <v>85.83127238768643</v>
       </c>
       <c r="C82" t="n">
-        <v>24.76771180020746</v>
+        <v>128.3093713579526</v>
       </c>
       <c r="D82" t="n">
-        <v>56.18193798104274</v>
+        <v>48.89471097278896</v>
       </c>
       <c r="E82" t="n">
-        <v>60.13398422144085</v>
+        <v>48.77834307044677</v>
       </c>
       <c r="F82" t="n">
-        <v>45.59122240604149</v>
+        <v>96.26261469663721</v>
       </c>
       <c r="G82" t="n">
-        <v>145.60517623346</v>
+        <v>75.40829987448865</v>
       </c>
       <c r="H82" t="n">
-        <v>60.16395157579578</v>
+        <v>91.80502488506876</v>
       </c>
       <c r="I82" t="n">
-        <v>56.64804389667796</v>
+        <v>96.75089470903349</v>
       </c>
       <c r="J82" t="n">
-        <v>23.39305461487969</v>
+        <v>103.049635689514</v>
       </c>
       <c r="K82" t="n">
-        <v>22.73370174628921</v>
+        <v>80.18876259856445</v>
       </c>
       <c r="L82" t="n">
-        <v>81.87488102449981</v>
+        <v>49.45730847654671</v>
       </c>
       <c r="M82" t="n">
-        <v>62.88262766071391</v>
+        <v>71.08930815580491</v>
       </c>
       <c r="N82" t="n">
-        <v>38.05784462697213</v>
+        <v>95.34744098426931</v>
       </c>
       <c r="O82" t="n">
-        <v>31.14568393783739</v>
+        <v>118.7909777993519</v>
       </c>
       <c r="P82" t="n">
-        <v>72.77406910524215</v>
+        <v>64.14378663352423</v>
       </c>
       <c r="Q82" t="n">
-        <v>31.26269881193223</v>
+        <v>113.8103908886848</v>
       </c>
       <c r="R82" t="n">
-        <v>43.16586450994332</v>
+        <v>71.71500565937687</v>
       </c>
       <c r="S82" t="n">
-        <v>18.73421128986033</v>
+        <v>51.63614060170693</v>
       </c>
       <c r="T82" t="n">
-        <v>100.9203549955733</v>
+        <v>54.83571208095476</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>42.62194918514884</v>
+        <v>171.097307612258</v>
       </c>
       <c r="B83" t="n">
-        <v>90.92478587706624</v>
+        <v>184.0855322728922</v>
       </c>
       <c r="C83" t="n">
-        <v>37.71380627829409</v>
+        <v>207.3252774043189</v>
       </c>
       <c r="D83" t="n">
-        <v>62.97064229848932</v>
+        <v>170.0328457493356</v>
       </c>
       <c r="E83" t="n">
-        <v>66.52058098455737</v>
+        <v>169.9994194849</v>
       </c>
       <c r="F83" t="n">
-        <v>53.73500904118002</v>
+        <v>189.1744350083754</v>
       </c>
       <c r="G83" t="n">
-        <v>148.3568636166035</v>
+        <v>179.4627748656127</v>
       </c>
       <c r="H83" t="n">
-        <v>66.54767242656395</v>
+        <v>186.9455494700339</v>
       </c>
       <c r="I83" t="n">
-        <v>63.38684811140646</v>
+        <v>189.4233657696518</v>
       </c>
       <c r="J83" t="n">
-        <v>36.82562477940196</v>
+        <v>192.7166398841739</v>
       </c>
       <c r="K83" t="n">
-        <v>36.41033962033027</v>
+        <v>181.523313983614</v>
       </c>
       <c r="L83" t="n">
-        <v>86.67403174512283</v>
+        <v>170.1954794765392</v>
       </c>
       <c r="M83" t="n">
-        <v>69.01533523568905</v>
+        <v>177.6912085798726</v>
       </c>
       <c r="N83" t="n">
-        <v>47.51095846043637</v>
+        <v>188.7103875645257</v>
       </c>
       <c r="O83" t="n">
-        <v>42.17754454842317</v>
+        <v>201.5732429640177</v>
       </c>
       <c r="P83" t="n">
-        <v>78.1342227856214</v>
+        <v>175.0282869601136</v>
       </c>
       <c r="Q83" t="n">
-        <v>42.26402693998938</v>
+        <v>198.6788386988912</v>
       </c>
       <c r="R83" t="n">
-        <v>51.69316681215559</v>
+        <v>177.9424567359607</v>
       </c>
       <c r="S83" t="n">
-        <v>34.05675129591327</v>
+        <v>170.8413500553775</v>
       </c>
       <c r="T83" t="n">
-        <v>104.8513695123297</v>
+        <v>171.8354771050791</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>70.34672021983216</v>
+        <v>57.55967361507008</v>
       </c>
       <c r="B84" t="n">
-        <v>106.7677253674362</v>
+        <v>89.02982953316146</v>
       </c>
       <c r="C84" t="n">
-        <v>67.4860109751838</v>
+        <v>130.4706787185824</v>
       </c>
       <c r="D84" t="n">
-        <v>84.24566626735304</v>
+        <v>54.31386552370523</v>
       </c>
       <c r="E84" t="n">
-        <v>86.93111173721977</v>
+        <v>54.2091318848842</v>
       </c>
       <c r="F84" t="n">
-        <v>77.58531877875886</v>
+        <v>99.12514421299876</v>
       </c>
       <c r="G84" t="n">
-        <v>158.5616267433626</v>
+        <v>79.02983561273155</v>
       </c>
       <c r="H84" t="n">
-        <v>86.95184413650577</v>
+        <v>94.80224586560522</v>
       </c>
       <c r="I84" t="n">
-        <v>84.55721735514034</v>
+        <v>99.59939183555817</v>
       </c>
       <c r="J84" t="n">
-        <v>66.9937096579913</v>
+        <v>105.7285706077413</v>
       </c>
       <c r="K84" t="n">
-        <v>66.76633376645543</v>
+        <v>83.60347405522987</v>
       </c>
       <c r="L84" t="n">
-        <v>103.1717900993314</v>
+        <v>54.82087730745345</v>
       </c>
       <c r="M84" t="n">
-        <v>88.85463967087186</v>
+        <v>74.91991031151571</v>
       </c>
       <c r="N84" t="n">
-        <v>73.41199947675614</v>
+        <v>98.23664147996554</v>
       </c>
       <c r="O84" t="n">
-        <v>70.07835441475602</v>
+        <v>121.1222507780493</v>
       </c>
       <c r="P84" t="n">
-        <v>96.10924650448078</v>
+        <v>68.36467355807126</v>
       </c>
       <c r="Q84" t="n">
-        <v>70.13043894437052</v>
+        <v>116.2415945402066</v>
       </c>
       <c r="R84" t="n">
-        <v>76.18539222459432</v>
+        <v>75.51387464392899</v>
       </c>
       <c r="S84" t="n">
-        <v>65.51253927438337</v>
+        <v>56.79431523712398</v>
       </c>
       <c r="T84" t="n">
-        <v>118.8521778595455</v>
+        <v>59.71815926868422</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>60.4879628440946</v>
+        <v>133.1279909533924</v>
       </c>
       <c r="B85" t="n">
-        <v>100.5459088351063</v>
+        <v>149.4531916531625</v>
       </c>
       <c r="C85" t="n">
-        <v>57.13575308582057</v>
+        <v>177.2922557640369</v>
       </c>
       <c r="D85" t="n">
-        <v>76.20672469127283</v>
+        <v>131.7571323941906</v>
       </c>
       <c r="E85" t="n">
-        <v>79.16533831930623</v>
+        <v>131.7139929101153</v>
       </c>
       <c r="F85" t="n">
-        <v>68.7721912791999</v>
+        <v>155.6783227166227</v>
       </c>
       <c r="G85" t="n">
-        <v>154.4406749494532</v>
+        <v>143.7207739527884</v>
       </c>
       <c r="H85" t="n">
-        <v>79.18810391769978</v>
+        <v>152.962125278697</v>
       </c>
       <c r="I85" t="n">
-        <v>76.55100005999708</v>
+        <v>155.9807193297498</v>
       </c>
       <c r="J85" t="n">
-        <v>56.55342374322233</v>
+        <v>159.9639852947196</v>
       </c>
       <c r="K85" t="n">
-        <v>56.28388693005265</v>
+        <v>146.2856343689175</v>
       </c>
       <c r="L85" t="n">
-        <v>96.71892718409214</v>
+        <v>131.966944866402</v>
       </c>
       <c r="M85" t="n">
-        <v>81.27287120793568</v>
+        <v>141.5024342889502</v>
       </c>
       <c r="N85" t="n">
-        <v>64.02698080119403</v>
+        <v>155.1140989010232</v>
       </c>
       <c r="O85" t="n">
-        <v>60.17564591112738</v>
+        <v>170.5301896502605</v>
       </c>
       <c r="P85" t="n">
-        <v>89.14662005370859</v>
+        <v>138.1436735406829</v>
       </c>
       <c r="Q85" t="n">
-        <v>60.23629362661109</v>
+        <v>167.0989355138533</v>
       </c>
       <c r="R85" t="n">
-        <v>67.1888874127002</v>
+        <v>141.8178099265115</v>
       </c>
       <c r="S85" t="n">
-        <v>54.79074196904846</v>
+        <v>132.7988711995209</v>
       </c>
       <c r="T85" t="n">
-        <v>113.295952201737</v>
+        <v>134.0753687112329</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>167.7800866587345</v>
+        <v>62.90322622438705</v>
       </c>
       <c r="B86" t="n">
-        <v>186.0130200111309</v>
+        <v>92.57435060245797</v>
       </c>
       <c r="C86" t="n">
-        <v>166.600894688077</v>
+        <v>132.9146261630019</v>
       </c>
       <c r="D86" t="n">
-        <v>174.0655874041602</v>
+        <v>59.9474422380985</v>
       </c>
       <c r="E86" t="n">
-        <v>175.3810554803286</v>
+        <v>59.85256738416314</v>
       </c>
       <c r="F86" t="n">
-        <v>170.9414464766422</v>
+        <v>102.3205456299507</v>
       </c>
       <c r="G86" t="n">
-        <v>219.8710665572588</v>
+        <v>83.00249851503503</v>
       </c>
       <c r="H86" t="n">
-        <v>175.3913328310846</v>
+        <v>98.13850245406071</v>
       </c>
       <c r="I86" t="n">
-        <v>174.2165877302433</v>
+        <v>102.7800500913289</v>
       </c>
       <c r="J86" t="n">
-        <v>166.4020840232007</v>
+        <v>108.7300808678038</v>
       </c>
       <c r="K86" t="n">
-        <v>166.3106724120218</v>
+        <v>87.36841944814221</v>
       </c>
       <c r="L86" t="n">
-        <v>183.9725922680484</v>
+        <v>60.40718857488639</v>
       </c>
       <c r="M86" t="n">
-        <v>176.3424039321387</v>
+        <v>79.09925918647139</v>
       </c>
       <c r="N86" t="n">
-        <v>169.0881962193114</v>
+        <v>101.4600294304427</v>
       </c>
       <c r="O86" t="n">
-        <v>167.6677434422175</v>
+        <v>123.7509574763108</v>
       </c>
       <c r="P86" t="n">
-        <v>180.1068674348209</v>
+        <v>72.9206996227043</v>
       </c>
       <c r="Q86" t="n">
-        <v>167.6895193506594</v>
+        <v>118.9781834792111</v>
       </c>
       <c r="R86" t="n">
-        <v>170.3106292101006</v>
+        <v>79.66206817866356</v>
       </c>
       <c r="S86" t="n">
-        <v>165.8113061154236</v>
+        <v>62.20365010203849</v>
       </c>
       <c r="T86" t="n">
-        <v>193.2028380109416</v>
+        <v>64.88419213647462</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>182.745438118776</v>
+        <v>19.65989259857049</v>
       </c>
       <c r="B87" t="n">
-        <v>199.6160847418672</v>
+        <v>70.70859846594134</v>
       </c>
       <c r="C87" t="n">
-        <v>181.6634134460725</v>
+        <v>118.7265486553091</v>
       </c>
       <c r="D87" t="n">
-        <v>188.5326666452428</v>
+        <v>4.836459287647082</v>
       </c>
       <c r="E87" t="n">
-        <v>189.7478650615206</v>
+        <v>3.467755762261961</v>
       </c>
       <c r="F87" t="n">
-        <v>185.6521365283407</v>
+        <v>83.06136024386872</v>
       </c>
       <c r="G87" t="n">
-        <v>231.4930313919567</v>
+        <v>57.61171987789728</v>
       </c>
       <c r="H87" t="n">
-        <v>189.7573643005067</v>
+        <v>77.85153287814308</v>
       </c>
       <c r="I87" t="n">
-        <v>188.6720888588995</v>
+        <v>83.62675531387657</v>
       </c>
       <c r="J87" t="n">
-        <v>181.4811043642706</v>
+        <v>90.84011224712388</v>
       </c>
       <c r="K87" t="n">
-        <v>181.3972916891257</v>
+        <v>63.74116585392384</v>
       </c>
       <c r="L87" t="n">
-        <v>197.7160903412682</v>
+        <v>8.872651186246255</v>
       </c>
       <c r="M87" t="n">
-        <v>190.6367779274936</v>
+        <v>51.83038019732722</v>
       </c>
       <c r="N87" t="n">
-        <v>183.9471548426647</v>
+        <v>81.99898218622728</v>
       </c>
       <c r="O87" t="n">
-        <v>182.642300316811</v>
+        <v>108.3697143294869</v>
       </c>
       <c r="P87" t="n">
-        <v>194.1242421007616</v>
+        <v>41.79861171158176</v>
       </c>
       <c r="Q87" t="n">
-        <v>182.6622910566549</v>
+        <v>102.8858768323609</v>
       </c>
       <c r="R87" t="n">
-        <v>185.0714675360611</v>
+        <v>52.68529789279885</v>
       </c>
       <c r="S87" t="n">
-        <v>180.9395670098546</v>
+        <v>17.29131555341426</v>
       </c>
       <c r="T87" t="n">
-        <v>206.3324363484643</v>
+        <v>25.29137989026828</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>175.6359514471371</v>
+        <v>21.16338735365355</v>
       </c>
       <c r="B88" t="n">
-        <v>193.1286451440853</v>
+        <v>71.14129239978128</v>
       </c>
       <c r="C88" t="n">
-        <v>174.5098509322507</v>
+        <v>118.984750883863</v>
       </c>
       <c r="D88" t="n">
-        <v>181.6498243321033</v>
+        <v>9.207004167182921</v>
       </c>
       <c r="E88" t="n">
-        <v>182.91075578796</v>
+        <v>8.567550251977341</v>
       </c>
       <c r="F88" t="n">
-        <v>178.6583557661253</v>
+        <v>83.43001350146834</v>
       </c>
       <c r="G88" t="n">
-        <v>225.9228095402392</v>
+        <v>58.14196294057125</v>
       </c>
       <c r="H88" t="n">
-        <v>182.9206100847932</v>
+        <v>78.24473630072536</v>
       </c>
       <c r="I88" t="n">
-        <v>181.7945252253164</v>
+        <v>83.99292703329513</v>
       </c>
       <c r="J88" t="n">
-        <v>174.3200606034572</v>
+        <v>91.17731944054685</v>
       </c>
       <c r="K88" t="n">
-        <v>174.2328032250743</v>
+        <v>64.22082070256408</v>
       </c>
       <c r="L88" t="n">
-        <v>191.1641824907434</v>
+        <v>11.83644906068763</v>
       </c>
       <c r="M88" t="n">
-        <v>183.832732085704</v>
+        <v>52.41913676028008</v>
       </c>
       <c r="N88" t="n">
-        <v>176.8859747470923</v>
+        <v>82.37239019763038</v>
       </c>
       <c r="O88" t="n">
-        <v>175.5286362749221</v>
+        <v>108.6525313609769</v>
       </c>
       <c r="P88" t="n">
-        <v>187.4468288841206</v>
+        <v>42.52648031884412</v>
       </c>
       <c r="Q88" t="n">
-        <v>175.5494370870605</v>
+        <v>103.1837256492379</v>
       </c>
       <c r="R88" t="n">
-        <v>178.0548802573774</v>
+        <v>53.26460552136297</v>
       </c>
       <c r="S88" t="n">
-        <v>173.7562062121275</v>
+        <v>18.98333956028817</v>
       </c>
       <c r="T88" t="n">
-        <v>200.0629065494421</v>
+        <v>26.47699915109948</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>140.3876426389816</v>
+        <v>172.609945858372</v>
       </c>
       <c r="B89" t="n">
-        <v>161.7386049778448</v>
+        <v>185.4922853631937</v>
       </c>
       <c r="C89" t="n">
-        <v>138.9762240003148</v>
+        <v>208.5753470279847</v>
       </c>
       <c r="D89" t="n">
-        <v>147.8423533527294</v>
+        <v>171.5548698541777</v>
       </c>
       <c r="E89" t="n">
-        <v>149.3889130689157</v>
+        <v>171.5217402030118</v>
       </c>
       <c r="F89" t="n">
-        <v>144.1510001701157</v>
+        <v>190.5436212466965</v>
       </c>
       <c r="G89" t="n">
-        <v>199.7543957852855</v>
+        <v>180.9054789096563</v>
       </c>
       <c r="H89" t="n">
-        <v>149.4009784398424</v>
+        <v>188.330940643643</v>
       </c>
       <c r="I89" t="n">
-        <v>148.0201073060262</v>
+        <v>190.7907655956382</v>
       </c>
       <c r="J89" t="n">
-        <v>138.737832957641</v>
+        <v>194.0608358873909</v>
       </c>
       <c r="K89" t="n">
-        <v>138.6281807016769</v>
+        <v>182.9497697638896</v>
       </c>
       <c r="L89" t="n">
-        <v>159.3877267305847</v>
+        <v>171.7160620655959</v>
       </c>
       <c r="M89" t="n">
-        <v>150.5163650606921</v>
+        <v>179.1481798502074</v>
       </c>
       <c r="N89" t="n">
-        <v>141.9484090337694</v>
+        <v>190.0829164123383</v>
       </c>
       <c r="O89" t="n">
-        <v>140.2533597370245</v>
+        <v>202.8587612505247</v>
       </c>
       <c r="P89" t="n">
-        <v>154.9097040979102</v>
+        <v>176.5072405689307</v>
       </c>
       <c r="Q89" t="n">
-        <v>140.2793913109589</v>
+        <v>199.9829634839091</v>
       </c>
       <c r="R89" t="n">
-        <v>143.4023819483426</v>
+        <v>179.39738751246</v>
       </c>
       <c r="S89" t="n">
-        <v>138.0286997773314</v>
+        <v>172.3562346589485</v>
       </c>
       <c r="T89" t="n">
-        <v>169.95843415965</v>
+        <v>173.341673953486</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>30.3446679599847</v>
+        <v>27.47235398668222</v>
       </c>
       <c r="B90" t="n">
-        <v>85.85735267320241</v>
+        <v>73.2661228235804</v>
       </c>
       <c r="C90" t="n">
-        <v>22.94557703037792</v>
+        <v>120.2672532827774</v>
       </c>
       <c r="D90" t="n">
-        <v>55.40279878078908</v>
+        <v>19.7891433625439</v>
       </c>
       <c r="E90" t="n">
-        <v>59.40670009168467</v>
+        <v>19.49985093812126</v>
       </c>
       <c r="F90" t="n">
-        <v>44.62756455281881</v>
+        <v>85.24909631277028</v>
       </c>
       <c r="G90" t="n">
-        <v>145.3063223105444</v>
+        <v>60.72338201937991</v>
       </c>
       <c r="H90" t="n">
-        <v>59.43703413406132</v>
+        <v>80.18154418604595</v>
       </c>
       <c r="I90" t="n">
-        <v>55.87540456013561</v>
+        <v>85.8000761124909</v>
       </c>
       <c r="J90" t="n">
-        <v>21.45448581657493</v>
+        <v>92.84473517465767</v>
       </c>
       <c r="K90" t="n">
-        <v>20.73357548827755</v>
+        <v>66.56692182307722</v>
       </c>
       <c r="L90" t="n">
-        <v>81.34221597802011</v>
+        <v>21.14102163224485</v>
       </c>
       <c r="M90" t="n">
-        <v>62.18749728807916</v>
+        <v>55.26850068512568</v>
       </c>
       <c r="N90" t="n">
-        <v>36.89796058171267</v>
+        <v>84.2143214433238</v>
       </c>
       <c r="O90" t="n">
-        <v>29.71722708118193</v>
+        <v>110.0555034536522</v>
       </c>
       <c r="P90" t="n">
-        <v>72.17426890224404</v>
+        <v>45.99285594087225</v>
       </c>
       <c r="Q90" t="n">
-        <v>29.83984407540461</v>
+        <v>104.6600330027942</v>
       </c>
       <c r="R90" t="n">
-        <v>42.14678892074288</v>
+        <v>56.07102166569825</v>
       </c>
       <c r="S90" t="n">
-        <v>16.24901935785668</v>
+        <v>25.83037843605845</v>
       </c>
       <c r="T90" t="n">
-        <v>100.4886959307932</v>
+        <v>31.74701172293409</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>71.47136487887524</v>
+        <v>122.4261795231264</v>
       </c>
       <c r="B91" t="n">
-        <v>107.5120557523586</v>
+        <v>140.0048711747529</v>
       </c>
       <c r="C91" t="n">
-        <v>68.65753148274854</v>
+        <v>169.4038116786128</v>
       </c>
       <c r="D91" t="n">
-        <v>85.18701331066963</v>
+        <v>120.934070443703</v>
       </c>
       <c r="E91" t="n">
-        <v>87.84368582790096</v>
+        <v>120.8870687280825</v>
       </c>
       <c r="F91" t="n">
-        <v>78.60646692202626</v>
+        <v>146.6316733219777</v>
       </c>
       <c r="G91" t="n">
-        <v>159.0637747177635</v>
+        <v>133.86847396953</v>
       </c>
       <c r="H91" t="n">
-        <v>87.86420289686335</v>
+        <v>143.7446319940958</v>
       </c>
       <c r="I91" t="n">
-        <v>85.49513412356532</v>
+        <v>146.9526871478314</v>
       </c>
       <c r="J91" t="n">
-        <v>68.17369056829192</v>
+        <v>151.1740190929364</v>
       </c>
       <c r="K91" t="n">
-        <v>67.95026325611772</v>
+        <v>136.6184258438768</v>
       </c>
       <c r="L91" t="n">
-        <v>103.9418742579836</v>
+        <v>121.1626262290243</v>
       </c>
       <c r="M91" t="n">
-        <v>89.74765703349838</v>
+        <v>131.4840156332355</v>
       </c>
       <c r="N91" t="n">
-        <v>74.49037937302522</v>
+        <v>146.0325002703804</v>
       </c>
       <c r="O91" t="n">
-        <v>71.20723776023145</v>
+        <v>162.3134407234843</v>
       </c>
       <c r="P91" t="n">
-        <v>96.93545386297539</v>
+        <v>127.8623556667756</v>
       </c>
       <c r="Q91" t="n">
-        <v>71.25849716694886</v>
+        <v>158.704636690946</v>
       </c>
       <c r="R91" t="n">
-        <v>77.22505383861674</v>
+        <v>131.8233616234027</v>
       </c>
       <c r="S91" t="n">
-        <v>66.71872116684791</v>
+        <v>122.0682090030373</v>
       </c>
       <c r="T91" t="n">
-        <v>119.5212748171597</v>
+        <v>123.4557084641909</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>121.9797780690088</v>
+        <v>156.5214676339945</v>
       </c>
       <c r="B92" t="n">
-        <v>146.0470896396556</v>
+        <v>170.6228717093051</v>
       </c>
       <c r="C92" t="n">
-        <v>120.3526771177938</v>
+        <v>195.4698232692549</v>
       </c>
       <c r="D92" t="n">
-        <v>130.4903731962919</v>
+        <v>155.3571684594996</v>
       </c>
       <c r="E92" t="n">
-        <v>132.2400219296197</v>
+        <v>155.3205839009723</v>
       </c>
       <c r="F92" t="n">
-        <v>126.2928616433998</v>
+        <v>176.1012436607817</v>
       </c>
       <c r="G92" t="n">
-        <v>187.2757183608669</v>
+        <v>165.6247829299757</v>
       </c>
       <c r="H92" t="n">
-        <v>132.2536517863174</v>
+        <v>173.7046908543027</v>
       </c>
       <c r="I92" t="n">
-        <v>130.6917297265659</v>
+        <v>176.3686271921377</v>
       </c>
       <c r="J92" t="n">
-        <v>120.0773181988028</v>
+        <v>179.9010407040002</v>
       </c>
       <c r="K92" t="n">
-        <v>119.9506087383096</v>
+        <v>167.8552789689073</v>
       </c>
       <c r="L92" t="n">
-        <v>143.4392675817114</v>
+        <v>155.5351484147074</v>
       </c>
       <c r="M92" t="n">
-        <v>133.5123672290989</v>
+        <v>163.7035331466971</v>
       </c>
       <c r="N92" t="n">
-        <v>123.7728842649009</v>
+        <v>175.6026524084687</v>
       </c>
       <c r="O92" t="n">
-        <v>121.8252066263688</v>
+        <v>189.3580033617985</v>
       </c>
       <c r="P92" t="n">
-        <v>138.4463523381398</v>
+        <v>160.8091489758212</v>
       </c>
       <c r="Q92" t="n">
-        <v>121.8551750177537</v>
+        <v>186.2738900245442</v>
       </c>
       <c r="R92" t="n">
-        <v>125.4377104402523</v>
+        <v>163.9762149440132</v>
       </c>
       <c r="S92" t="n">
-        <v>119.2572765673228</v>
+        <v>156.2416335260228</v>
       </c>
       <c r="T92" t="n">
-        <v>155.1007588441602</v>
+        <v>157.3280405714955</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>52.38737915447819</v>
+        <v>19.68190193954345</v>
       </c>
       <c r="B93" t="n">
-        <v>95.89120725657797</v>
+        <v>70.71472112642599</v>
       </c>
       <c r="C93" t="n">
-        <v>48.47822321754729</v>
+        <v>118.7301951593273</v>
       </c>
       <c r="D93" t="n">
-        <v>69.95075935126036</v>
+        <v>4.925162475649419</v>
       </c>
       <c r="E93" t="n">
-        <v>73.16279544178654</v>
+        <v>3.590434095924673</v>
       </c>
       <c r="F93" t="n">
-        <v>61.76777589479278</v>
+        <v>83.06657241352993</v>
       </c>
       <c r="G93" t="n">
-        <v>151.4515299509686</v>
+        <v>57.61923423874862</v>
       </c>
       <c r="H93" t="n">
-        <v>73.18742820817592</v>
+        <v>77.85709382225276</v>
       </c>
       <c r="I93" t="n">
-        <v>70.32566711970928</v>
+        <v>83.63193224658545</v>
       </c>
       <c r="J93" t="n">
-        <v>47.79051770724973</v>
+        <v>90.84487811671357</v>
       </c>
       <c r="K93" t="n">
-        <v>47.47125207535018</v>
+        <v>63.74795770366219</v>
       </c>
       <c r="L93" t="n">
-        <v>91.87053238818312</v>
+        <v>8.921313022379298</v>
       </c>
       <c r="M93" t="n">
-        <v>75.43820941690085</v>
+        <v>51.83873260767442</v>
       </c>
       <c r="N93" t="n">
-        <v>56.43667350369754</v>
+        <v>82.00426188039067</v>
       </c>
       <c r="O93" t="n">
-        <v>52.02645679332648</v>
+        <v>108.3737093156135</v>
       </c>
       <c r="P93" t="n">
-        <v>83.86157470884245</v>
+        <v>41.80896827220277</v>
       </c>
       <c r="Q93" t="n">
-        <v>52.09659216798921</v>
+        <v>102.8900847435466</v>
       </c>
       <c r="R93" t="n">
-        <v>59.99992031163866</v>
+        <v>52.69351479094398</v>
       </c>
       <c r="S93" t="n">
-        <v>45.69101937104638</v>
+        <v>17.31633565562366</v>
       </c>
       <c r="T93" t="n">
-        <v>109.1861558575296</v>
+        <v>25.30849232420502</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>56.67803598729067</v>
+        <v>125.9503056836409</v>
       </c>
       <c r="B94" t="n">
-        <v>98.3009964233606</v>
+        <v>143.0967295986634</v>
       </c>
       <c r="C94" t="n">
-        <v>53.08578336081988</v>
+        <v>171.9679082864496</v>
       </c>
       <c r="D94" t="n">
-        <v>73.21933489536421</v>
+        <v>124.5004396106951</v>
       </c>
       <c r="E94" t="n">
-        <v>76.29388511249287</v>
+        <v>124.454784780827</v>
       </c>
       <c r="F94" t="n">
-        <v>65.446316991034</v>
+        <v>149.5866226986123</v>
       </c>
       <c r="G94" t="n">
-        <v>152.9886538054071</v>
+        <v>137.0987906296207</v>
       </c>
       <c r="H94" t="n">
-        <v>76.31750727341968</v>
+        <v>146.7577231231524</v>
       </c>
       <c r="I94" t="n">
-        <v>73.57758982552852</v>
+        <v>149.9013086305195</v>
       </c>
       <c r="J94" t="n">
-        <v>52.45851552825823</v>
+        <v>154.0418583304075</v>
       </c>
       <c r="K94" t="n">
-        <v>52.16782573869644</v>
+        <v>139.7852079056746</v>
       </c>
       <c r="L94" t="n">
-        <v>94.38303337989178</v>
+        <v>124.7224601420613</v>
       </c>
       <c r="M94" t="n">
-        <v>78.47856846763801</v>
+        <v>134.7714971209222</v>
       </c>
       <c r="N94" t="n">
-        <v>60.44055248642683</v>
+        <v>148.9993328991525</v>
       </c>
       <c r="O94" t="n">
-        <v>56.34460466778898</v>
+        <v>164.9877665424618</v>
       </c>
       <c r="P94" t="n">
-        <v>86.60673173228699</v>
+        <v>131.240588484778</v>
       </c>
       <c r="Q94" t="n">
-        <v>56.40937142194863</v>
+        <v>161.4387554968725</v>
       </c>
       <c r="R94" t="n">
-        <v>63.780504122377</v>
+        <v>135.1025859814246</v>
       </c>
       <c r="S94" t="n">
-        <v>50.55325429551391</v>
+        <v>125.6023794296231</v>
       </c>
       <c r="T94" t="n">
-        <v>111.3084852993981</v>
+        <v>126.9512584481506</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>42.99399963099811</v>
+        <v>38.94096184661896</v>
       </c>
       <c r="B95" t="n">
-        <v>91.09978122212588</v>
+        <v>78.29171750300428</v>
       </c>
       <c r="C95" t="n">
-        <v>38.13377290441572</v>
+        <v>123.3931946590005</v>
       </c>
       <c r="D95" t="n">
-        <v>63.22305942781595</v>
+        <v>33.95995393096955</v>
       </c>
       <c r="E95" t="n">
-        <v>66.75957718898398</v>
+        <v>33.79219529091307</v>
       </c>
       <c r="F95" t="n">
-        <v>54.03058993370842</v>
+        <v>89.60511535684914</v>
       </c>
       <c r="G95" t="n">
-        <v>148.4641789593852</v>
+        <v>66.70080509140659</v>
       </c>
       <c r="H95" t="n">
-        <v>66.78657168415006</v>
+        <v>84.79828007706936</v>
       </c>
       <c r="I95" t="n">
-        <v>63.63761439139095</v>
+        <v>90.12946985797426</v>
       </c>
       <c r="J95" t="n">
-        <v>37.25560484440105</v>
+        <v>96.85976009480187</v>
       </c>
       <c r="K95" t="n">
-        <v>36.84516634779449</v>
+        <v>72.06124726210291</v>
       </c>
       <c r="L95" t="n">
-        <v>86.85759167098415</v>
+        <v>34.76508408770651</v>
       </c>
       <c r="M95" t="n">
-        <v>69.24572152576214</v>
+        <v>61.77601026249588</v>
       </c>
       <c r="N95" t="n">
-        <v>47.84500627817041</v>
+        <v>88.62121761818513</v>
       </c>
       <c r="O95" t="n">
-        <v>42.55348065743949</v>
+        <v>113.4631310885043</v>
       </c>
       <c r="P95" t="n">
-        <v>78.33779561770918</v>
+        <v>53.63777655317274</v>
       </c>
       <c r="Q95" t="n">
-        <v>42.63920056840892</v>
+        <v>108.237658807442</v>
       </c>
       <c r="R95" t="n">
-        <v>52.00035525838452</v>
+        <v>62.49502177458186</v>
       </c>
       <c r="S95" t="n">
-        <v>34.52123637357945</v>
+        <v>37.80048579211982</v>
       </c>
       <c r="T95" t="n">
-        <v>105.0031577646118</v>
+        <v>42.06591291421563</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>65.03721065145228</v>
+        <v>44.19229806038319</v>
       </c>
       <c r="B96" t="n">
-        <v>103.3466250236084</v>
+        <v>81.03180689018444</v>
       </c>
       <c r="C96" t="n">
-        <v>61.93173177763289</v>
+        <v>125.1496751353031</v>
       </c>
       <c r="D96" t="n">
-        <v>79.86557461424954</v>
+        <v>39.87278732809494</v>
       </c>
       <c r="E96" t="n">
-        <v>82.69338493194618</v>
+        <v>39.73000328337668</v>
       </c>
       <c r="F96" t="n">
-        <v>72.80562762338957</v>
+        <v>92.00889846331253</v>
       </c>
       <c r="G96" t="n">
-        <v>156.2784924394124</v>
+        <v>69.89676743712634</v>
       </c>
       <c r="H96" t="n">
-        <v>82.71517951605513</v>
+        <v>87.33446629107556</v>
       </c>
       <c r="I96" t="n">
-        <v>80.1941439911823</v>
+        <v>92.51963053967198</v>
       </c>
       <c r="J96" t="n">
-        <v>61.39490905094063</v>
+        <v>99.08770773380768</v>
       </c>
       <c r="K96" t="n">
-        <v>61.14671739552141</v>
+        <v>75.0292213426732</v>
       </c>
       <c r="L96" t="n">
-        <v>99.62728539880291</v>
+        <v>40.56071707876006</v>
       </c>
       <c r="M96" t="n">
-        <v>84.71319091307156</v>
+        <v>65.2137726425171</v>
       </c>
       <c r="N96" t="n">
-        <v>68.34105201713885</v>
+        <v>91.05097973359563</v>
       </c>
       <c r="O96" t="n">
-        <v>64.74684147596847</v>
+        <v>115.3708924067289</v>
       </c>
       <c r="P96" t="n">
-        <v>92.29390547210085</v>
+        <v>57.56363237223656</v>
       </c>
       <c r="Q96" t="n">
-        <v>64.80321126428933</v>
+        <v>110.2358901739091</v>
       </c>
       <c r="R96" t="n">
-        <v>71.31193246609793</v>
+        <v>65.8952839353726</v>
       </c>
       <c r="S96" t="n">
-        <v>59.77516646410663</v>
+        <v>43.19070993209265</v>
       </c>
       <c r="T96" t="n">
-        <v>115.7886777953314</v>
+        <v>46.96915719516678</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>95.64011253213552</v>
+        <v>21.02854562879693</v>
       </c>
       <c r="B97" t="n">
-        <v>124.8908213585309</v>
+        <v>71.10129570755225</v>
       </c>
       <c r="C97" t="n">
-        <v>93.55603538422753</v>
+        <v>118.9608410775434</v>
       </c>
       <c r="D97" t="n">
-        <v>106.281241827062</v>
+        <v>8.892676352827385</v>
       </c>
       <c r="E97" t="n">
-        <v>108.4222683185571</v>
+        <v>8.228832499314144</v>
       </c>
       <c r="F97" t="n">
-        <v>101.0833901760019</v>
+        <v>83.39591069013397</v>
       </c>
       <c r="G97" t="n">
-        <v>171.2896948300558</v>
+        <v>58.09301697764002</v>
       </c>
       <c r="H97" t="n">
-        <v>108.4388919078916</v>
+        <v>78.20837247860142</v>
       </c>
       <c r="I97" t="n">
-        <v>106.5283675192512</v>
+        <v>83.95905286865765</v>
       </c>
       <c r="J97" t="n">
-        <v>93.2015408306721</v>
+        <v>91.14611537166647</v>
       </c>
       <c r="K97" t="n">
-        <v>93.03823624771661</v>
+        <v>64.17651111343226</v>
       </c>
       <c r="L97" t="n">
-        <v>121.8309827251373</v>
+        <v>11.5936315858261</v>
       </c>
       <c r="M97" t="n">
-        <v>109.9705281905688</v>
+        <v>52.36484188531994</v>
       </c>
       <c r="N97" t="n">
-        <v>97.91675927361692</v>
+        <v>82.33784933948837</v>
       </c>
       <c r="O97" t="n">
-        <v>95.44289306675672</v>
+        <v>108.626347347822</v>
       </c>
       <c r="P97" t="n">
-        <v>115.9109888799645</v>
+        <v>42.45953715351415</v>
       </c>
       <c r="Q97" t="n">
-        <v>95.48114235807134</v>
+        <v>103.1561535044749</v>
       </c>
       <c r="R97" t="n">
-        <v>100.0129195048694</v>
+        <v>53.21117334101948</v>
       </c>
       <c r="S97" t="n">
-        <v>92.14262250256297</v>
+        <v>18.83289536536572</v>
       </c>
       <c r="T97" t="n">
-        <v>135.3669467094137</v>
+        <v>26.36934301473843</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>76.90437512765314</v>
+        <v>62.34782146408545</v>
       </c>
       <c r="B98" t="n">
-        <v>111.1978823909149</v>
+        <v>92.19785985231907</v>
       </c>
       <c r="C98" t="n">
-        <v>74.29659174841117</v>
+        <v>132.6526773945088</v>
       </c>
       <c r="D98" t="n">
-        <v>89.79395387729441</v>
+        <v>59.36439002273346</v>
       </c>
       <c r="E98" t="n">
-        <v>92.3181458650272</v>
+        <v>59.26858184870673</v>
       </c>
       <c r="F98" t="n">
-        <v>83.57693197341646</v>
+        <v>101.9800423116792</v>
       </c>
       <c r="G98" t="n">
-        <v>161.5778801185016</v>
+        <v>82.58238148430603</v>
       </c>
       <c r="H98" t="n">
-        <v>92.33766873181628</v>
+        <v>97.78343743092049</v>
       </c>
       <c r="I98" t="n">
-        <v>90.08631902199078</v>
+        <v>102.4410741287748</v>
       </c>
       <c r="J98" t="n">
-        <v>73.8497054958697</v>
+        <v>108.4097110843868</v>
       </c>
       <c r="K98" t="n">
-        <v>73.64350068200979</v>
+        <v>86.96939512695012</v>
       </c>
       <c r="L98" t="n">
-        <v>107.7498962430495</v>
+        <v>59.82861692704374</v>
       </c>
       <c r="M98" t="n">
-        <v>94.13165705079203</v>
+        <v>78.65829756439963</v>
       </c>
       <c r="N98" t="n">
-        <v>79.71789971683081</v>
+        <v>101.1166284243465</v>
       </c>
       <c r="O98" t="n">
-        <v>76.65896963544191</v>
+        <v>123.4695689155217</v>
       </c>
       <c r="P98" t="n">
-        <v>101.0079656846256</v>
+        <v>72.44213832670684</v>
       </c>
       <c r="Q98" t="n">
-        <v>76.70658599245264</v>
+        <v>118.6854798022651</v>
       </c>
       <c r="R98" t="n">
-        <v>82.27901224797687</v>
+        <v>79.22423920987252</v>
       </c>
       <c r="S98" t="n">
-        <v>72.50872133933319</v>
+        <v>61.64194235987291</v>
       </c>
       <c r="T98" t="n">
-        <v>122.8473119365845</v>
+        <v>64.34588845516095</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>92.29209085736819</v>
+        <v>57.27527528746933</v>
       </c>
       <c r="B99" t="n">
-        <v>122.3458874228049</v>
+        <v>88.84622490171313</v>
       </c>
       <c r="C99" t="n">
-        <v>90.13063112216618</v>
+        <v>130.3454607490017</v>
       </c>
       <c r="D99" t="n">
-        <v>103.2787551917992</v>
+        <v>54.01237932834598</v>
       </c>
       <c r="E99" t="n">
-        <v>105.4807431572529</v>
+        <v>53.90705994853336</v>
       </c>
       <c r="F99" t="n">
-        <v>97.92165582310685</v>
+        <v>98.96027156303585</v>
       </c>
       <c r="G99" t="n">
-        <v>169.4430832599514</v>
+        <v>78.82294113744661</v>
       </c>
       <c r="H99" t="n">
-        <v>105.4978302519846</v>
+        <v>94.62984177174059</v>
       </c>
       <c r="I99" t="n">
-        <v>103.5330478445497</v>
+        <v>99.43530553377433</v>
       </c>
       <c r="J99" t="n">
-        <v>89.76260982656754</v>
+        <v>105.5740108896983</v>
       </c>
       <c r="K99" t="n">
-        <v>89.59303719458946</v>
+        <v>83.40792532299011</v>
       </c>
       <c r="L99" t="n">
-        <v>119.2207501294882</v>
+        <v>54.52219475902328</v>
       </c>
       <c r="M99" t="n">
-        <v>107.07154608101</v>
+        <v>74.70163380855574</v>
       </c>
       <c r="N99" t="n">
-        <v>94.64930351731388</v>
+        <v>98.0702751186377</v>
       </c>
       <c r="O99" t="n">
-        <v>92.08770138632801</v>
+        <v>120.9873578772703</v>
       </c>
       <c r="P99" t="n">
-        <v>113.164288769896</v>
+        <v>68.12539705046606</v>
       </c>
       <c r="Q99" t="n">
-        <v>92.1273436915851</v>
+        <v>116.1010311488739</v>
       </c>
       <c r="R99" t="n">
-        <v>96.81623302707372</v>
+        <v>75.29731998099948</v>
       </c>
       <c r="S99" t="n">
-        <v>88.66262905708913</v>
+        <v>56.50606494736485</v>
       </c>
       <c r="T99" t="n">
-        <v>133.0225889505027</v>
+        <v>59.44408868022064</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>52.77203964791113</v>
+        <v>116.5370767826527</v>
       </c>
       <c r="B100" t="n">
-        <v>96.10189541861097</v>
+        <v>134.885450605602</v>
       </c>
       <c r="C100" t="n">
-        <v>48.89364785180167</v>
+        <v>165.1979789333394</v>
       </c>
       <c r="D100" t="n">
-        <v>70.2393010197538</v>
+        <v>114.9685619049818</v>
       </c>
       <c r="E100" t="n">
-        <v>73.43871806331011</v>
+        <v>114.91912033289</v>
       </c>
       <c r="F100" t="n">
-        <v>62.0943541146455</v>
+        <v>141.7517846576201</v>
       </c>
       <c r="G100" t="n">
-        <v>151.5850144256179</v>
+        <v>128.5048215256839</v>
       </c>
       <c r="H100" t="n">
-        <v>73.46325831089003</v>
+        <v>138.7632518339606</v>
       </c>
       <c r="I100" t="n">
-        <v>70.61267683467189</v>
+        <v>142.08382417568</v>
       </c>
       <c r="J100" t="n">
-        <v>48.21186842109106</v>
+        <v>146.44556968761</v>
       </c>
       <c r="K100" t="n">
-        <v>47.89541154982476</v>
+        <v>131.3671005711704</v>
       </c>
       <c r="L100" t="n">
-        <v>92.09041967117889</v>
+        <v>115.2089528948656</v>
       </c>
       <c r="M100" t="n">
-        <v>75.70583936496469</v>
+        <v>126.0189160382601</v>
       </c>
       <c r="N100" t="n">
-        <v>56.79391507977421</v>
+        <v>141.1318956424655</v>
       </c>
       <c r="O100" t="n">
-        <v>52.41376613441849</v>
+        <v>157.9188838356995</v>
       </c>
       <c r="P100" t="n">
-        <v>84.1024041664233</v>
+        <v>122.2354401516767</v>
       </c>
       <c r="Q100" t="n">
-        <v>52.48338393666554</v>
+        <v>154.2072713578134</v>
       </c>
       <c r="R100" t="n">
-        <v>60.33606807978655</v>
+        <v>126.3729381715544</v>
       </c>
       <c r="S100" t="n">
-        <v>46.13155021339499</v>
+        <v>116.1609593694297</v>
       </c>
       <c r="T100" t="n">
-        <v>109.3712361860759</v>
+        <v>117.618165199141</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>61.05446030401129</v>
+        <v>144.286747208372</v>
       </c>
       <c r="B101" t="n">
-        <v>100.8877260000592</v>
+        <v>159.4736967026319</v>
       </c>
       <c r="C101" t="n">
-        <v>57.73515181126118</v>
+        <v>185.8175110117095</v>
       </c>
       <c r="D101" t="n">
-        <v>76.65714814782096</v>
+        <v>143.0228841179844</v>
       </c>
       <c r="E101" t="n">
-        <v>79.59902176029387</v>
+        <v>142.9831436673988</v>
       </c>
       <c r="F101" t="n">
-        <v>69.27097348333122</v>
+        <v>165.3219392837716</v>
       </c>
       <c r="G101" t="n">
-        <v>154.6634266813851</v>
+        <v>154.1144519838248</v>
       </c>
       <c r="H101" t="n">
-        <v>79.62166335907544</v>
+        <v>162.7667509489021</v>
       </c>
       <c r="I101" t="n">
-        <v>76.99940963521209</v>
+        <v>165.606727663197</v>
       </c>
       <c r="J101" t="n">
-        <v>57.158929407976</v>
+        <v>169.3637506553731</v>
       </c>
       <c r="K101" t="n">
-        <v>56.8922613537243</v>
+        <v>156.5090740736867</v>
       </c>
       <c r="L101" t="n">
-        <v>97.07422082935942</v>
+        <v>143.2161931558653</v>
       </c>
       <c r="M101" t="n">
-        <v>81.69536748413107</v>
+        <v>152.0478291669592</v>
       </c>
       <c r="N101" t="n">
-        <v>64.56243291963206</v>
+        <v>164.7907373688295</v>
       </c>
       <c r="O101" t="n">
-        <v>60.74505605238092</v>
+        <v>179.3771139996402</v>
       </c>
       <c r="P101" t="n">
-        <v>89.53196826265911</v>
+        <v>148.927089490129</v>
       </c>
       <c r="Q101" t="n">
-        <v>60.80513583453973</v>
+        <v>176.1183059609337</v>
       </c>
       <c r="R101" t="n">
-        <v>67.69933578508746</v>
+        <v>152.3413753943369</v>
       </c>
       <c r="S101" t="n">
-        <v>55.4155111814767</v>
+        <v>143.9831366395144</v>
       </c>
       <c r="T101" t="n">
-        <v>113.5994113509563</v>
+        <v>145.1613169537229</v>
       </c>
     </row>
   </sheetData>

--- a/UFLP/data.xlsx
+++ b/UFLP/data.xlsx
@@ -454,1102 +454,1102 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.004181489414917</v>
+        <v>-35.04348478352408</v>
       </c>
       <c r="B2" t="n">
-        <v>-77.55989014051541</v>
+        <v>-1.3837827845398</v>
       </c>
       <c r="C2" t="n">
-        <v>61.70869122362482</v>
+        <v>87.45716801952399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-65.54181913111989</v>
+        <v>59.48751582878488</v>
       </c>
       <c r="B3" t="n">
-        <v>-15.25759363010957</v>
+        <v>-58.1045753304657</v>
       </c>
       <c r="C3" t="n">
-        <v>93.06230104822509</v>
+        <v>81.34035388327086</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>38.9448752310293</v>
+        <v>43.18820506846651</v>
       </c>
       <c r="B4" t="n">
-        <v>-40.71319748528468</v>
+        <v>-61.12358204643017</v>
       </c>
       <c r="C4" t="n">
-        <v>98.6192596408163</v>
+        <v>76.68217150824134</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-23.16528642730783</v>
+        <v>-31.66135470781903</v>
       </c>
       <c r="B5" t="n">
-        <v>5.71639718331981</v>
+        <v>-22.49507242372136</v>
       </c>
       <c r="C5" t="n">
-        <v>66.5000053848746</v>
+        <v>78.65692382706136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-8.428241551550242</v>
+        <v>-40.6330776100781</v>
       </c>
       <c r="B6" t="n">
-        <v>17.53948126035696</v>
+        <v>-29.89362923358985</v>
       </c>
       <c r="C6" t="n">
-        <v>57.54077885347471</v>
+        <v>58.17798214490428</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.569403373419368</v>
+        <v>9.530254902734214</v>
       </c>
       <c r="B7" t="n">
-        <v>96.94475178269943</v>
+        <v>-15.61727486699638</v>
       </c>
       <c r="C7" t="n">
-        <v>63.4346774991405</v>
+        <v>99.8096156174864</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-4.849296766295497</v>
+        <v>91.98636069548949</v>
       </c>
       <c r="B8" t="n">
-        <v>8.569604129408981</v>
+        <v>-93.3937984173875</v>
       </c>
       <c r="C8" t="n">
-        <v>90.65510063375673</v>
+        <v>54.82689730579472</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>74.50873533597206</v>
+        <v>-43.22609584424973</v>
       </c>
       <c r="B9" t="n">
-        <v>-7.46659478221301</v>
+        <v>78.81912883855384</v>
       </c>
       <c r="C9" t="n">
-        <v>60.52963155416197</v>
+        <v>50.10446742010549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>75.62669958308513</v>
+        <v>-20.87210115264961</v>
       </c>
       <c r="B10" t="n">
-        <v>51.77721804432925</v>
+        <v>-11.13439517273286</v>
       </c>
       <c r="C10" t="n">
-        <v>87.31796406897202</v>
+        <v>71.2595206138076</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-30.66838507390486</v>
+        <v>-59.86306513092566</v>
       </c>
       <c r="B11" t="n">
-        <v>54.34305844780081</v>
+        <v>-62.83993349711218</v>
       </c>
       <c r="C11" t="n">
-        <v>82.32804859733443</v>
+        <v>98.77643242080367</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-50.88985066739627</v>
+        <v>1.291035675365571</v>
       </c>
       <c r="B12" t="n">
-        <v>-84.33031060031709</v>
+        <v>-95.75259650207705</v>
       </c>
       <c r="C12" t="n">
-        <v>58.34616933536324</v>
+        <v>65.24025877912675</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-35.32665996003915</v>
+        <v>54.39863185512428</v>
       </c>
       <c r="B13" t="n">
-        <v>-23.99518559783334</v>
+        <v>-2.060049343731385</v>
       </c>
       <c r="C13" t="n">
-        <v>55.54172730569051</v>
+        <v>75.39197688358452</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-26.6728643614071</v>
+        <v>28.42102755301305</v>
       </c>
       <c r="B14" t="n">
-        <v>70.35150597632975</v>
+        <v>-68.41565847893357</v>
       </c>
       <c r="C14" t="n">
-        <v>89.05262739765188</v>
+        <v>95.81493294276419</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3.548438817601018</v>
+        <v>-93.24505950915054</v>
       </c>
       <c r="B15" t="n">
-        <v>-48.24146480599547</v>
+        <v>99.01711928787111</v>
       </c>
       <c r="C15" t="n">
-        <v>65.67460607345339</v>
+        <v>50.38528869799433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-93.50006246468874</v>
+        <v>-81.26688880098656</v>
       </c>
       <c r="B16" t="n">
-        <v>91.3989210556315</v>
+        <v>89.7510069941611</v>
       </c>
       <c r="C16" t="n">
-        <v>94.53623541097606</v>
+        <v>59.34387615223561</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-58.34001943959897</v>
+        <v>86.80904142881937</v>
       </c>
       <c r="B17" t="n">
-        <v>26.91733888001412</v>
+        <v>19.6462268726828</v>
       </c>
       <c r="C17" t="n">
-        <v>61.15995125480689</v>
+        <v>68.86123778034496</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>33.61542509344397</v>
+        <v>74.33829927837134</v>
       </c>
       <c r="B18" t="n">
-        <v>-25.31987448274225</v>
+        <v>-66.62636694897952</v>
       </c>
       <c r="C18" t="n">
-        <v>55.02518340412856</v>
+        <v>68.54295813949311</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>54.38724663833086</v>
+        <v>58.90997131003905</v>
       </c>
       <c r="B19" t="n">
-        <v>-69.20342827268981</v>
+        <v>46.99388539625686</v>
       </c>
       <c r="C19" t="n">
-        <v>52.31220647782979</v>
+        <v>55.43329478284497</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>89.49841782897859</v>
+        <v>88.39678694108275</v>
       </c>
       <c r="B20" t="n">
-        <v>-1.886099704402877</v>
+        <v>5.812723991799407</v>
       </c>
       <c r="C20" t="n">
-        <v>85.23163659165425</v>
+        <v>63.19228205018239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-39.60225501269099</v>
+        <v>15.53596086447176</v>
       </c>
       <c r="B21" t="n">
-        <v>-10.37180298860278</v>
+        <v>-51.47765301210461</v>
       </c>
       <c r="C21" t="n">
-        <v>56.78179569557282</v>
+        <v>80.61618717765847</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-60.01597290223022</v>
+        <v>-30.24579375888787</v>
       </c>
       <c r="B22" t="n">
-        <v>-37.55441449550958</v>
+        <v>-46.88309149695754</v>
       </c>
       <c r="C22" t="n">
-        <v>55.54994777261153</v>
+        <v>99.68013705048733</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>97.90437005858358</v>
+        <v>49.71167820803435</v>
       </c>
       <c r="B23" t="n">
-        <v>23.91811033784942</v>
+        <v>-69.02954779118259</v>
       </c>
       <c r="C23" t="n">
-        <v>52.84613024769257</v>
+        <v>54.57258402046172</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>61.10807853817695</v>
+        <v>8.700314969434086</v>
       </c>
       <c r="B24" t="n">
-        <v>-39.52799112719744</v>
+        <v>92.92691043179605</v>
       </c>
       <c r="C24" t="n">
-        <v>68.69538993922238</v>
+        <v>70.4367910454778</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-39.79392068379736</v>
+        <v>-54.58780651054587</v>
       </c>
       <c r="B25" t="n">
-        <v>-67.79402541600824</v>
+        <v>-82.13230792695148</v>
       </c>
       <c r="C25" t="n">
-        <v>51.72050517562096</v>
+        <v>63.99871857520439</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>31.38722109227574</v>
+        <v>14.28065874043015</v>
       </c>
       <c r="B26" t="n">
-        <v>-64.16520482925091</v>
+        <v>34.23099469794227</v>
       </c>
       <c r="C26" t="n">
-        <v>72.03357880974329</v>
+        <v>50.16603456900516</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>76.66809598560128</v>
+        <v>-34.12708923362089</v>
       </c>
       <c r="B27" t="n">
-        <v>-30.1177512255117</v>
+        <v>5.030897635848652</v>
       </c>
       <c r="C27" t="n">
-        <v>60.97185627857981</v>
+        <v>92.60694576985816</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-79.38579489115573</v>
+        <v>-5.885591881394747</v>
       </c>
       <c r="B28" t="n">
-        <v>93.44940883620428</v>
+        <v>35.5702558853623</v>
       </c>
       <c r="C28" t="n">
-        <v>75.49689497181215</v>
+        <v>98.63582417872401</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-55.65716753398397</v>
+        <v>79.07174767424284</v>
       </c>
       <c r="B29" t="n">
-        <v>-64.98017642037286</v>
+        <v>-23.94214895225142</v>
       </c>
       <c r="C29" t="n">
-        <v>86.05853062068907</v>
+        <v>99.0026074046672</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-49.1911463234329</v>
+        <v>-88.78905875802997</v>
       </c>
       <c r="B30" t="n">
-        <v>-93.13683028143956</v>
+        <v>-69.30491140261431</v>
       </c>
       <c r="C30" t="n">
-        <v>50.63105718465274</v>
+        <v>66.64371504117997</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>40.55171991268084</v>
+        <v>34.49175986011763</v>
       </c>
       <c r="B31" t="n">
-        <v>57.52367044230666</v>
+        <v>-69.30476452357087</v>
       </c>
       <c r="C31" t="n">
-        <v>72.87140072586408</v>
+        <v>81.95611598870666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>64.30787384097422</v>
+        <v>4.527547935507981</v>
       </c>
       <c r="B32" t="n">
-        <v>-87.04242328365339</v>
+        <v>40.14044634988788</v>
       </c>
       <c r="C32" t="n">
-        <v>94.64927608920631</v>
+        <v>57.11727384125382</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-30.10897190440214</v>
+        <v>-30.26759707996448</v>
       </c>
       <c r="B33" t="n">
-        <v>-64.17224720204953</v>
+        <v>83.86540118595185</v>
       </c>
       <c r="C33" t="n">
-        <v>61.66756194401467</v>
+        <v>96.10002941414787</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-73.8185045197304</v>
+        <v>-39.76039239458845</v>
       </c>
       <c r="B34" t="n">
-        <v>54.23121209231704</v>
+        <v>90.8438357325569</v>
       </c>
       <c r="C34" t="n">
-        <v>74.12245637956619</v>
+        <v>85.14207052888499</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>54.7020102808255</v>
+        <v>0.6082318472432791</v>
       </c>
       <c r="B35" t="n">
-        <v>16.82480484981811</v>
+        <v>45.75115920679639</v>
       </c>
       <c r="C35" t="n">
-        <v>67.58958513365744</v>
+        <v>87.82315637550919</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-94.73582681738517</v>
+        <v>-26.71012374628289</v>
       </c>
       <c r="B36" t="n">
-        <v>-25.19761107524031</v>
+        <v>-65.87060042111491</v>
       </c>
       <c r="C36" t="n">
-        <v>57.99585782104892</v>
+        <v>59.39704243323688</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>73.52662183204963</v>
+        <v>-90.71560104028215</v>
       </c>
       <c r="B37" t="n">
-        <v>98.14843792906164</v>
+        <v>-95.09513249084725</v>
       </c>
       <c r="C37" t="n">
-        <v>97.87435054319363</v>
+        <v>90.16603779049581</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-36.32306946086376</v>
+        <v>85.11029457881504</v>
       </c>
       <c r="B38" t="n">
-        <v>-77.54377633448965</v>
+        <v>42.80780100485448</v>
       </c>
       <c r="C38" t="n">
-        <v>62.31339442091384</v>
+        <v>57.3360826943123</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>69.78671470998987</v>
+        <v>-8.171229589305117</v>
       </c>
       <c r="B39" t="n">
-        <v>-22.87869393493345</v>
+        <v>17.66153843227125</v>
       </c>
       <c r="C39" t="n">
-        <v>77.21122311811901</v>
+        <v>87.69766526075686</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10.03665124317699</v>
+        <v>-59.20833899642972</v>
       </c>
       <c r="B40" t="n">
-        <v>28.72600380363235</v>
+        <v>-93.39836998493685</v>
       </c>
       <c r="C40" t="n">
-        <v>82.38565869627055</v>
+        <v>57.51931940304624</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>26.75399907975757</v>
+        <v>-69.93677997377117</v>
       </c>
       <c r="B41" t="n">
-        <v>-55.89403219535127</v>
+        <v>83.53302021941998</v>
       </c>
       <c r="C41" t="n">
-        <v>57.24276202006936</v>
+        <v>91.59080983173205</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>80.79438493422518</v>
+        <v>21.70742797465852</v>
       </c>
       <c r="B42" t="n">
-        <v>-78.81140807526931</v>
+        <v>99.14136833443405</v>
       </c>
       <c r="C42" t="n">
-        <v>80.71223487763498</v>
+        <v>54.17139552109099</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>55.59284415506417</v>
+        <v>-46.66962026799626</v>
       </c>
       <c r="B43" t="n">
-        <v>85.05133943250296</v>
+        <v>46.44629497693315</v>
       </c>
       <c r="C43" t="n">
-        <v>76.41536130452006</v>
+        <v>75.64026666643274</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>68.88797560011503</v>
+        <v>18.59926313085787</v>
       </c>
       <c r="B44" t="n">
-        <v>-3.06633159077484</v>
+        <v>57.6483620893501</v>
       </c>
       <c r="C44" t="n">
-        <v>71.36295315809294</v>
+        <v>56.3478483792458</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>-57.97702518292742</v>
+        <v>-38.18160123422673</v>
       </c>
       <c r="B45" t="n">
-        <v>-41.54428695880033</v>
+        <v>-0.09788149839909943</v>
       </c>
       <c r="C45" t="n">
-        <v>86.09783860015425</v>
+        <v>96.41938330009373</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6.872745225472365</v>
+        <v>-68.16940706892071</v>
       </c>
       <c r="B46" t="n">
-        <v>-14.43545183232076</v>
+        <v>-51.12662133355287</v>
       </c>
       <c r="C46" t="n">
-        <v>76.9832242804349</v>
+        <v>90.52871827633984</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>-5.972381755013656</v>
+        <v>83.55004981538701</v>
       </c>
       <c r="B47" t="n">
-        <v>51.10108765280702</v>
+        <v>65.54994748636899</v>
       </c>
       <c r="C47" t="n">
-        <v>50.08699318091514</v>
+        <v>57.02729986663623</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>95.77916316477008</v>
+        <v>-33.54965479909946</v>
       </c>
       <c r="B48" t="n">
-        <v>-75.10298991367503</v>
+        <v>68.61811461441634</v>
       </c>
       <c r="C48" t="n">
-        <v>68.69656326245283</v>
+        <v>63.05215405178136</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>-33.9004939044137</v>
+        <v>91.80510268771582</v>
       </c>
       <c r="B49" t="n">
-        <v>-92.60723037783951</v>
+        <v>-24.00808789763964</v>
       </c>
       <c r="C49" t="n">
-        <v>91.16856349670223</v>
+        <v>93.05829909196956</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-22.66633004856895</v>
+        <v>-28.06682244819103</v>
       </c>
       <c r="B50" t="n">
-        <v>-84.97029328781436</v>
+        <v>96.88597277942249</v>
       </c>
       <c r="C50" t="n">
-        <v>82.78926609352133</v>
+        <v>78.30539413951681</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>21.37082543981408</v>
+        <v>46.63074781082196</v>
       </c>
       <c r="B51" t="n">
-        <v>47.39634473162716</v>
+        <v>30.65036236332575</v>
       </c>
       <c r="C51" t="n">
-        <v>83.03240187376116</v>
+        <v>78.79232726012519</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>81.27174963230327</v>
+        <v>-57.74081396484078</v>
       </c>
       <c r="B52" t="n">
-        <v>-13.26655759295595</v>
+        <v>-6.678818524735409</v>
       </c>
       <c r="C52" t="n">
-        <v>93.0665122014845</v>
+        <v>98.19955712893434</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-48.86058903989596</v>
+        <v>26.96248683921304</v>
       </c>
       <c r="B53" t="n">
-        <v>-91.88225133528786</v>
+        <v>-24.30274853640838</v>
       </c>
       <c r="C53" t="n">
-        <v>77.76632323976528</v>
+        <v>94.73856603365168</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-51.85871467627642</v>
+        <v>-95.60725300732649</v>
       </c>
       <c r="B54" t="n">
-        <v>8.589513423784146</v>
+        <v>38.28132345400542</v>
       </c>
       <c r="C54" t="n">
-        <v>86.35930816193158</v>
+        <v>93.40591059474879</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>20.06672063309142</v>
+        <v>51.04783217953634</v>
       </c>
       <c r="B55" t="n">
-        <v>-74.80583397518477</v>
+        <v>94.2036164379811</v>
       </c>
       <c r="C55" t="n">
-        <v>85.68228603036978</v>
+        <v>83.7777684354798</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>44.00152106087069</v>
+        <v>-57.93413889189554</v>
       </c>
       <c r="B56" t="n">
-        <v>-64.34445355136393</v>
+        <v>-93.38371598913324</v>
       </c>
       <c r="C56" t="n">
-        <v>60.95193887870203</v>
+        <v>65.61765568923369</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-93.76233834979901</v>
+        <v>94.26611933434121</v>
       </c>
       <c r="B57" t="n">
-        <v>-68.61387469173363</v>
+        <v>52.3555622204762</v>
       </c>
       <c r="C57" t="n">
-        <v>83.86727724402547</v>
+        <v>52.32350691332941</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>-64.04326098338127</v>
+        <v>-91.92392847014045</v>
       </c>
       <c r="B58" t="n">
-        <v>-93.69560526738489</v>
+        <v>44.41102817658268</v>
       </c>
       <c r="C58" t="n">
-        <v>69.06526524704348</v>
+        <v>98.62986988636989</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2.386108010096488</v>
+        <v>-50.98345935527268</v>
       </c>
       <c r="B59" t="n">
-        <v>98.02872015853139</v>
+        <v>76.49729787216259</v>
       </c>
       <c r="C59" t="n">
-        <v>76.24500254569971</v>
+        <v>52.16820417331542</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>-98.27053401506843</v>
+        <v>23.29077060646104</v>
       </c>
       <c r="B60" t="n">
-        <v>37.10913027849821</v>
+        <v>-28.39766593015922</v>
       </c>
       <c r="C60" t="n">
-        <v>59.11346234992827</v>
+        <v>85.55970342914196</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>59.82082029656044</v>
+        <v>-61.24012969833556</v>
       </c>
       <c r="B61" t="n">
-        <v>77.21514749941664</v>
+        <v>79.22769562513021</v>
       </c>
       <c r="C61" t="n">
-        <v>64.92941255625676</v>
+        <v>76.17932956681463</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-34.05549756464598</v>
+        <v>7.32001069471816</v>
       </c>
       <c r="B62" t="n">
-        <v>61.06312679713039</v>
+        <v>-51.1882727795164</v>
       </c>
       <c r="C62" t="n">
-        <v>59.0090316898643</v>
+        <v>60.87403629787759</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>-33.79525082879461</v>
+        <v>6.04952891773578</v>
       </c>
       <c r="B63" t="n">
-        <v>-73.51995418954267</v>
+        <v>-79.90514042905018</v>
       </c>
       <c r="C63" t="n">
-        <v>83.75131430855045</v>
+        <v>92.50439596959203</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>30.39853527268993</v>
+        <v>59.3941153006399</v>
       </c>
       <c r="B64" t="n">
-        <v>-61.94794714566703</v>
+        <v>-66.12766409739883</v>
       </c>
       <c r="C64" t="n">
-        <v>81.90361574332675</v>
+        <v>51.54355678920524</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>19.64062876058576</v>
+        <v>4.955791682938249</v>
       </c>
       <c r="B65" t="n">
-        <v>-76.81084029947563</v>
+        <v>71.93245052411746</v>
       </c>
       <c r="C65" t="n">
-        <v>63.04528050397866</v>
+        <v>57.97358493672274</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-96.55402944839325</v>
+        <v>-47.16228648079829</v>
       </c>
       <c r="B66" t="n">
-        <v>83.18756826432545</v>
+        <v>-7.846480005143031</v>
       </c>
       <c r="C66" t="n">
-        <v>98.86046507242781</v>
+        <v>68.26840416598067</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-25.81159382831799</v>
+        <v>-99.95134270201839</v>
       </c>
       <c r="B67" t="n">
-        <v>12.77816733342726</v>
+        <v>-74.70990068969007</v>
       </c>
       <c r="C67" t="n">
-        <v>79.05073834558651</v>
+        <v>98.26317952856894</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-23.78969718421071</v>
+        <v>-87.1856774012534</v>
       </c>
       <c r="B68" t="n">
-        <v>4.850822608440463</v>
+        <v>88.27523557255029</v>
       </c>
       <c r="C68" t="n">
-        <v>74.8909221943033</v>
+        <v>74.40578685805032</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-94.61359740979282</v>
+        <v>-81.83082508443678</v>
       </c>
       <c r="B69" t="n">
-        <v>-11.23583010906052</v>
+        <v>-87.24228034698911</v>
       </c>
       <c r="C69" t="n">
-        <v>79.03148794860491</v>
+        <v>67.19329931148425</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>27.64480384741869</v>
+        <v>7.057992043373485</v>
       </c>
       <c r="B70" t="n">
-        <v>35.89447335009265</v>
+        <v>-20.46239288730109</v>
       </c>
       <c r="C70" t="n">
-        <v>73.77660236965581</v>
+        <v>76.64488076627896</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>30.98420868862874</v>
+        <v>-53.94404791652828</v>
       </c>
       <c r="B71" t="n">
-        <v>71.03080650226505</v>
+        <v>30.50767128116431</v>
       </c>
       <c r="C71" t="n">
-        <v>85.15951941998973</v>
+        <v>60.74562764056959</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>64.48541016943916</v>
+        <v>-83.34812280253807</v>
       </c>
       <c r="B72" t="n">
-        <v>-14.85088103141494</v>
+        <v>-28.61798306871692</v>
       </c>
       <c r="C72" t="n">
-        <v>71.72745679732304</v>
+        <v>94.02435126468407</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-93.45787920295669</v>
+        <v>-52.11260813830787</v>
       </c>
       <c r="B73" t="n">
-        <v>29.74221495139922</v>
+        <v>47.26628682857024</v>
       </c>
       <c r="C73" t="n">
-        <v>72.9099324048854</v>
+        <v>77.04850923751344</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-49.69605492514621</v>
+        <v>33.51148074226317</v>
       </c>
       <c r="B74" t="n">
-        <v>50.91161755688978</v>
+        <v>69.98978763499764</v>
       </c>
       <c r="C74" t="n">
-        <v>53.9203924242379</v>
+        <v>58.04076448569003</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>32.02739523786376</v>
+        <v>24.53554882134972</v>
       </c>
       <c r="B75" t="n">
-        <v>31.47209175720701</v>
+        <v>-16.78256275179776</v>
       </c>
       <c r="C75" t="n">
-        <v>61.1668574585473</v>
+        <v>96.4755045202164</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-7.376988078545699</v>
+        <v>15.38683607988144</v>
       </c>
       <c r="B76" t="n">
-        <v>-22.17634385124472</v>
+        <v>-94.21079125486162</v>
       </c>
       <c r="C76" t="n">
-        <v>52.70536888085807</v>
+        <v>79.34963174026892</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-77.11027627530061</v>
+        <v>5.739496324701476</v>
       </c>
       <c r="B77" t="n">
-        <v>-66.37458482359952</v>
+        <v>32.47811941694309</v>
       </c>
       <c r="C77" t="n">
-        <v>54.79871700156595</v>
+        <v>93.3779223565415</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>65.97380193240097</v>
+        <v>11.8741905425125</v>
       </c>
       <c r="B78" t="n">
-        <v>-91.51756408711165</v>
+        <v>-81.44023459975529</v>
       </c>
       <c r="C78" t="n">
-        <v>53.13375874090931</v>
+        <v>95.94910603758852</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>57.41806986902501</v>
+        <v>89.91044672256128</v>
       </c>
       <c r="B79" t="n">
-        <v>-95.48274923415691</v>
+        <v>85.09043831780045</v>
       </c>
       <c r="C79" t="n">
-        <v>93.83055716189997</v>
+        <v>77.41087909419694</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>9.369743441473188</v>
+        <v>42.14403937908548</v>
       </c>
       <c r="B80" t="n">
-        <v>72.27584752651954</v>
+        <v>-35.48546735391436</v>
       </c>
       <c r="C80" t="n">
-        <v>94.66834833992783</v>
+        <v>51.30897196120949</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-72.7951605754149</v>
+        <v>-30.80493096619278</v>
       </c>
       <c r="B81" t="n">
-        <v>19.65182941657321</v>
+        <v>-97.63462565760352</v>
       </c>
       <c r="C81" t="n">
-        <v>81.62611666952323</v>
+        <v>92.65965146929685</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-47.17359897174978</v>
+        <v>-48.78239076700292</v>
       </c>
       <c r="B82" t="n">
-        <v>-95.83944890314845</v>
+        <v>-59.85582471173081</v>
       </c>
       <c r="C82" t="n">
-        <v>78.21408334809583</v>
+        <v>96.58628295970098</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-76.38275155278058</v>
+        <v>43.94374405866802</v>
       </c>
       <c r="B83" t="n">
-        <v>93.58442416668068</v>
+        <v>0.05808172882805218</v>
       </c>
       <c r="C83" t="n">
-        <v>51.39052624556184</v>
+        <v>74.70824069714595</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-30.72202628181008</v>
+        <v>40.49352365427367</v>
       </c>
       <c r="B84" t="n">
-        <v>-84.82995709199706</v>
+        <v>-57.47288867072687</v>
       </c>
       <c r="C84" t="n">
-        <v>61.68073100998964</v>
+        <v>86.34411314651577</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-89.21004021573935</v>
+        <v>55.55498653065337</v>
       </c>
       <c r="B85" t="n">
-        <v>42.46233397555831</v>
+        <v>-8.347664188815894</v>
       </c>
       <c r="C85" t="n">
-        <v>92.27798044146142</v>
+        <v>71.16768762521772</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-18.92628636083529</v>
+        <v>13.84290504087845</v>
       </c>
       <c r="B86" t="n">
-        <v>-78.68721021014507</v>
+        <v>-99.12849816438813</v>
       </c>
       <c r="C86" t="n">
-        <v>81.49831878365522</v>
+        <v>88.11807959020851</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>25.77739930840687</v>
+        <v>-74.34612256823429</v>
       </c>
       <c r="B87" t="n">
-        <v>24.74612491528246</v>
+        <v>-10.37749320405051</v>
       </c>
       <c r="C87" t="n">
-        <v>89.72541622250425</v>
+        <v>57.58316659619977</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>-10.21764645244649</v>
+        <v>93.85809028929076</v>
       </c>
       <c r="B88" t="n">
-        <v>-2.315677446725828</v>
+        <v>23.87818248634296</v>
       </c>
       <c r="C88" t="n">
-        <v>84.66359706591926</v>
+        <v>64.32834039729467</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>94.97699230622473</v>
+        <v>-98.32323422037179</v>
       </c>
       <c r="B89" t="n">
-        <v>-76.51279036060559</v>
+        <v>93.45948494445817</v>
       </c>
       <c r="C89" t="n">
-        <v>68.43272973263568</v>
+        <v>56.23149085427343</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>-59.85208416664559</v>
+        <v>-2.878413081323283</v>
       </c>
       <c r="B90" t="n">
-        <v>-40.63536271224131</v>
+        <v>-52.36483537400378</v>
       </c>
       <c r="C90" t="n">
-        <v>91.49178492221472</v>
+        <v>86.52845219908922</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>54.31009308308425</v>
+        <v>75.45178464799024</v>
       </c>
       <c r="B91" t="n">
-        <v>-66.53162811665435</v>
+        <v>93.61945489512752</v>
       </c>
       <c r="C91" t="n">
-        <v>73.10512130673823</v>
+        <v>61.85156736392216</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>89.24214539409532</v>
+        <v>-10.0456652968429</v>
       </c>
       <c r="B92" t="n">
-        <v>-66.04314682698462</v>
+        <v>43.559761008701</v>
       </c>
       <c r="C92" t="n">
-        <v>55.27927381995885</v>
+        <v>61.4372301268286</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>22.45997939466492</v>
+        <v>10.58264181141436</v>
       </c>
       <c r="B93" t="n">
-        <v>21.07094597375976</v>
+        <v>-47.8730298794639</v>
       </c>
       <c r="C93" t="n">
-        <v>89.07154676571052</v>
+        <v>82.46184547004901</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>89.14619177677965</v>
+        <v>-52.22142665988783</v>
       </c>
       <c r="B94" t="n">
-        <v>-35.26454590968041</v>
+        <v>-1.180287225904497</v>
       </c>
       <c r="C94" t="n">
-        <v>74.40189281058547</v>
+        <v>66.8756833626737</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>48.64537499893402</v>
+        <v>-78.77163117762368</v>
       </c>
       <c r="B95" t="n">
-        <v>82.27498486028122</v>
+        <v>10.6079230645045</v>
       </c>
       <c r="C95" t="n">
-        <v>57.58354980466319</v>
+        <v>80.16643804475524</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>15.81184924423635</v>
+        <v>-82.31225923369659</v>
       </c>
       <c r="B96" t="n">
-        <v>-23.77995998121247</v>
+        <v>-19.97490688258245</v>
       </c>
       <c r="C96" t="n">
-        <v>57.78571690523516</v>
+        <v>66.91362199486429</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-81.98537735381447</v>
+        <v>-45.19898957966176</v>
       </c>
       <c r="B97" t="n">
-        <v>-89.51876179568266</v>
+        <v>-20.65348301369479</v>
       </c>
       <c r="C97" t="n">
-        <v>67.03169871039142</v>
+        <v>71.53300527268803</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>42.66809494998189</v>
+        <v>46.16092238889384</v>
       </c>
       <c r="B98" t="n">
-        <v>-16.50793897595862</v>
+        <v>29.46395565224458</v>
       </c>
       <c r="C98" t="n">
-        <v>66.10709252608082</v>
+        <v>86.70807126908392</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>12.11738184259479</v>
+        <v>89.73629673467272</v>
       </c>
       <c r="B99" t="n">
-        <v>-41.6879088744154</v>
+        <v>-41.81035522064283</v>
       </c>
       <c r="C99" t="n">
-        <v>89.27888592025302</v>
+        <v>56.32526068813904</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-31.43862872112272</v>
+        <v>-54.44346925591393</v>
       </c>
       <c r="B100" t="n">
-        <v>83.43278815414907</v>
+        <v>-59.14869187740538</v>
       </c>
       <c r="C100" t="n">
-        <v>54.54326957172271</v>
+        <v>50.35885626597204</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>-54.24555344691574</v>
+        <v>28.12377115151003</v>
       </c>
       <c r="B101" t="n">
-        <v>88.69925257925381</v>
+        <v>-28.41745111722287</v>
       </c>
       <c r="C101" t="n">
-        <v>53.87869458110882</v>
+        <v>89.07597001726145</v>
       </c>
     </row>
   </sheetData>
@@ -1590,222 +1590,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-25.825358468904</v>
+        <v>-35.87014271134446</v>
       </c>
       <c r="B2" t="n">
-        <v>-6.192532637826787</v>
+        <v>52.76852618820747</v>
       </c>
       <c r="C2" t="n">
-        <v>5070.774901036546</v>
+        <v>6708.410886751005</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-28.08440942668219</v>
+        <v>-95.61134507804272</v>
       </c>
       <c r="B3" t="n">
-        <v>-98.78548700081684</v>
+        <v>9.745609257831633</v>
       </c>
       <c r="C3" t="n">
-        <v>5900.186730621417</v>
+        <v>7447.59038589581</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>28.89109794470118</v>
+        <v>-68.78999696572248</v>
       </c>
       <c r="B4" t="n">
-        <v>-89.83097173371858</v>
+        <v>-6.574331645158537</v>
       </c>
       <c r="C4" t="n">
-        <v>5560.290251043627</v>
+        <v>6167.174660532234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-85.29570961988429</v>
+        <v>48.82686418020297</v>
       </c>
       <c r="B5" t="n">
-        <v>-90.02094099698675</v>
+        <v>-80.72467115087406</v>
       </c>
       <c r="C5" t="n">
-        <v>8762.93760298819</v>
+        <v>5471.210319758809</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-67.44276143097593</v>
+        <v>93.12670167080222</v>
       </c>
       <c r="B6" t="n">
-        <v>-70.75362282233422</v>
+        <v>79.7685779405454</v>
       </c>
       <c r="C6" t="n">
-        <v>8488.51917570333</v>
+        <v>9869.180249826359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5.726040710557134</v>
+        <v>-11.44037687066148</v>
       </c>
       <c r="B7" t="n">
-        <v>88.78099865219852</v>
+        <v>31.04854210765409</v>
       </c>
       <c r="C7" t="n">
-        <v>7895.501696325226</v>
+        <v>7797.392309072469</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-38.41755601052547</v>
+        <v>53.23653745783383</v>
       </c>
       <c r="B8" t="n">
-        <v>19.18493300180273</v>
+        <v>-60.07527723723683</v>
       </c>
       <c r="C8" t="n">
-        <v>8288.068570316926</v>
+        <v>8457.914198798391</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-11.75123033593833</v>
+        <v>-8.719744105691928</v>
       </c>
       <c r="B9" t="n">
-        <v>66.09347176126722</v>
+        <v>-83.69678429933239</v>
       </c>
       <c r="C9" t="n">
-        <v>9082.907380038798</v>
+        <v>8846.566447014438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-87.68197264715147</v>
+        <v>-29.37541934804378</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.061576346649098</v>
+        <v>90.88455926434905</v>
       </c>
       <c r="C10" t="n">
-        <v>9657.944063075249</v>
+        <v>7738.391207180283</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-54.7151572775759</v>
+        <v>4.887305027423238</v>
       </c>
       <c r="B11" t="n">
-        <v>36.11910094142511</v>
+        <v>81.99796737996492</v>
       </c>
       <c r="C11" t="n">
-        <v>9169.773666556035</v>
+        <v>9327.461022538699</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>63.43650219806134</v>
+        <v>58.31756441416</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.2963205665354907</v>
+        <v>3.699070569246843</v>
       </c>
       <c r="C12" t="n">
-        <v>6542.627035793411</v>
+        <v>8163.005639565244</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-70.24108818948915</v>
+        <v>-50.6110136323631</v>
       </c>
       <c r="B13" t="n">
-        <v>-79.05360271139962</v>
+        <v>76.78562059030273</v>
       </c>
       <c r="C13" t="n">
-        <v>9792.709703227199</v>
+        <v>9082.262174505524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>36.99782812712428</v>
+        <v>-60.73931287679151</v>
       </c>
       <c r="B14" t="n">
-        <v>88.81794762260186</v>
+        <v>-52.77977358020441</v>
       </c>
       <c r="C14" t="n">
-        <v>9315.867481091187</v>
+        <v>9788.26876738885</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>70.2025914080822</v>
+        <v>70.31029173669326</v>
       </c>
       <c r="B15" t="n">
-        <v>-11.78990552123022</v>
+        <v>-87.32242408844051</v>
       </c>
       <c r="C15" t="n">
-        <v>9933.901449779738</v>
+        <v>9444.390153854987</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>55.62173884195607</v>
+        <v>-85.68453809935855</v>
       </c>
       <c r="B16" t="n">
-        <v>-52.7430684387321</v>
+        <v>42.01870315401368</v>
       </c>
       <c r="C16" t="n">
-        <v>6413.663872271125</v>
+        <v>9483.36733886239</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>42.07041463649547</v>
+        <v>32.98050947801961</v>
       </c>
       <c r="B17" t="n">
-        <v>0.2845268974313808</v>
+        <v>-95.90729794267119</v>
       </c>
       <c r="C17" t="n">
-        <v>7553.08027342332</v>
+        <v>9456.126626607933</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-26.96719336629425</v>
+        <v>-34.27787695348368</v>
       </c>
       <c r="B18" t="n">
-        <v>75.9135148577932</v>
+        <v>61.43414754912474</v>
       </c>
       <c r="C18" t="n">
-        <v>9266.562857734318</v>
+        <v>9409.321418430434</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>28.76682794213906</v>
+        <v>19.57773880325428</v>
       </c>
       <c r="B19" t="n">
-        <v>81.44203166437482</v>
+        <v>32.23393436040936</v>
       </c>
       <c r="C19" t="n">
-        <v>5037.528056544078</v>
+        <v>7379.867965102987</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>23.48172712990698</v>
+        <v>-2.625956893456505</v>
       </c>
       <c r="B20" t="n">
-        <v>40.74226207798527</v>
+        <v>37.39879831321231</v>
       </c>
       <c r="C20" t="n">
-        <v>5280.845411233684</v>
+        <v>9339.911818841852</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-1.902322564544634</v>
+        <v>-57.34163295389632</v>
       </c>
       <c r="B21" t="n">
-        <v>-27.1726682266038</v>
+        <v>-71.74216869094758</v>
       </c>
       <c r="C21" t="n">
-        <v>7873.84143630482</v>
+        <v>9737.021077319661</v>
       </c>
     </row>
   </sheetData>
@@ -1891,6202 +1891,6202 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>85.83939606897022</v>
+        <v>54.15861824686365</v>
       </c>
       <c r="B2" t="n">
-        <v>109.460478884006</v>
+        <v>61.58188912244515</v>
       </c>
       <c r="C2" t="n">
-        <v>145.182243735588</v>
+        <v>34.14335780115564</v>
       </c>
       <c r="D2" t="n">
-        <v>83.69756196532417</v>
+        <v>115.4522065707558</v>
       </c>
       <c r="E2" t="n">
-        <v>83.62963512131877</v>
+        <v>151.7013590808966</v>
       </c>
       <c r="F2" t="n">
-        <v>117.8179956800316</v>
+        <v>40.11187356705064</v>
       </c>
       <c r="G2" t="n">
-        <v>101.4938461572302</v>
+        <v>106.0096875197056</v>
       </c>
       <c r="H2" t="n">
-        <v>114.2048672867089</v>
+        <v>86.41972889131279</v>
       </c>
       <c r="I2" t="n">
-        <v>118.2172776916521</v>
+        <v>92.44227339389505</v>
       </c>
       <c r="J2" t="n">
-        <v>123.4253480188259</v>
+        <v>92.44990121910318</v>
       </c>
       <c r="K2" t="n">
-        <v>105.0943707575037</v>
+        <v>93.49930965257705</v>
       </c>
       <c r="L2" t="n">
-        <v>84.02746265103457</v>
+        <v>79.70447652696978</v>
       </c>
       <c r="M2" t="n">
-        <v>98.32740641295132</v>
+        <v>57.46149537966092</v>
       </c>
       <c r="N2" t="n">
-        <v>117.0714466472309</v>
+        <v>135.9590684589756</v>
       </c>
       <c r="O2" t="n">
-        <v>136.8425574313518</v>
+        <v>66.69551758989145</v>
       </c>
       <c r="P2" t="n">
-        <v>93.42919501694206</v>
+        <v>116.4558230108912</v>
       </c>
       <c r="Q2" t="n">
-        <v>132.5420468834775</v>
+        <v>62.82259567030441</v>
       </c>
       <c r="R2" t="n">
-        <v>98.78072258569061</v>
+        <v>64.13757847124135</v>
       </c>
       <c r="S2" t="n">
-        <v>85.32807354010728</v>
+        <v>50.5468565897725</v>
       </c>
       <c r="T2" t="n">
-        <v>87.30145724586778</v>
+        <v>73.80724814801643</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>53.98102615132348</v>
+        <v>146.239282282928</v>
       </c>
       <c r="B3" t="n">
-        <v>86.75912461741568</v>
+        <v>169.2905910062975</v>
       </c>
       <c r="C3" t="n">
-        <v>128.9318935056955</v>
+        <v>138.2406825178903</v>
       </c>
       <c r="D3" t="n">
-        <v>50.50575359108714</v>
+        <v>25.00636375998853</v>
       </c>
       <c r="E3" t="n">
-        <v>50.39310605022521</v>
+        <v>141.9175860033051</v>
       </c>
       <c r="F3" t="n">
-        <v>97.09083052958337</v>
+        <v>113.9256086739033</v>
       </c>
       <c r="G3" t="n">
-        <v>76.46273651035416</v>
+        <v>6.554265527078464</v>
       </c>
       <c r="H3" t="n">
-        <v>92.67308659389271</v>
+        <v>72.85047335244587</v>
       </c>
       <c r="I3" t="n">
-        <v>97.57496611164939</v>
+        <v>173.4773284194597</v>
       </c>
       <c r="J3" t="n">
-        <v>103.8237246511249</v>
+        <v>150.3659053558391</v>
       </c>
       <c r="K3" t="n">
-        <v>81.18113100825813</v>
+        <v>61.81471857745239</v>
       </c>
       <c r="L3" t="n">
-        <v>51.05059986361904</v>
+        <v>174.1179231011287</v>
       </c>
       <c r="M3" t="n">
-        <v>72.20684260346822</v>
+        <v>120.3446876861608</v>
       </c>
       <c r="N3" t="n">
-        <v>96.18353750481296</v>
+        <v>31.15790693221694</v>
       </c>
       <c r="O3" t="n">
-        <v>119.4631105873991</v>
+        <v>176.3507758310022</v>
       </c>
       <c r="P3" t="n">
-        <v>65.38014796846305</v>
+        <v>46.16998183424878</v>
       </c>
       <c r="Q3" t="n">
-        <v>114.5117612253269</v>
+        <v>151.9258212131717</v>
       </c>
       <c r="R3" t="n">
-        <v>72.82293884083158</v>
+        <v>98.76151393835505</v>
       </c>
       <c r="S3" t="n">
-        <v>53.16417403600181</v>
+        <v>113.9253170763224</v>
       </c>
       <c r="T3" t="n">
-        <v>56.27693758651416</v>
+        <v>117.6224211532466</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>82.04179665872134</v>
+        <v>138.6421100236287</v>
       </c>
       <c r="B4" t="n">
-        <v>106.508454683285</v>
+        <v>155.8452995665682</v>
       </c>
       <c r="C4" t="n">
-        <v>142.969711399321</v>
+        <v>124.5581729560541</v>
       </c>
       <c r="D4" t="n">
-        <v>79.79809747384157</v>
+        <v>20.39600869431854</v>
       </c>
       <c r="E4" t="n">
-        <v>79.72684837638042</v>
+        <v>149.4806147588945</v>
       </c>
       <c r="F4" t="n">
-        <v>115.0805569484498</v>
+        <v>107.1446799227845</v>
       </c>
       <c r="G4" t="n">
-        <v>98.30287528497301</v>
+        <v>10.10286725539766</v>
       </c>
       <c r="H4" t="n">
-        <v>111.3786613022452</v>
+        <v>56.60375117796917</v>
       </c>
       <c r="I4" t="n">
-        <v>115.4893035147872</v>
+        <v>168.4397655342057</v>
       </c>
       <c r="J4" t="n">
-        <v>120.8150281011171</v>
+        <v>148.1578106417817</v>
       </c>
       <c r="K4" t="n">
-        <v>102.0160832732814</v>
+        <v>66.56480906863521</v>
       </c>
       <c r="L4" t="n">
-        <v>80.14405131434553</v>
+        <v>166.7850161159135</v>
       </c>
       <c r="M4" t="n">
-        <v>95.03017064807968</v>
+        <v>104.2619207859849</v>
       </c>
       <c r="N4" t="n">
-        <v>114.3161322892831</v>
+        <v>37.70924169989383</v>
       </c>
       <c r="O4" t="n">
-        <v>134.4928994626046</v>
+        <v>165.0651838758552</v>
       </c>
       <c r="P4" t="n">
-        <v>89.95259286434846</v>
+        <v>36.25057159297822</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.1147519444563</v>
+        <v>144.9875544570936</v>
       </c>
       <c r="R4" t="n">
-        <v>95.49913945191656</v>
+        <v>96.29683269409247</v>
       </c>
       <c r="S4" t="n">
-        <v>81.50665381164532</v>
+        <v>108.6535635310843</v>
       </c>
       <c r="T4" t="n">
-        <v>83.57032319404729</v>
+        <v>101.0890830660246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>34.92276475735863</v>
+        <v>75.38118579908488</v>
       </c>
       <c r="B5" t="n">
-        <v>76.37273085551023</v>
+        <v>71.61747568605675</v>
       </c>
       <c r="C5" t="n">
-        <v>122.1846204598269</v>
+        <v>40.39809479237316</v>
       </c>
       <c r="D5" t="n">
-        <v>29.26567032807468</v>
+        <v>99.34303975463689</v>
       </c>
       <c r="E5" t="n">
-        <v>29.07083506432494</v>
+        <v>161.337885199289</v>
       </c>
       <c r="F5" t="n">
-        <v>87.93337072393061</v>
+        <v>57.2346625898619</v>
       </c>
       <c r="G5" t="n">
-        <v>64.43755417921902</v>
+        <v>92.84354521449831</v>
       </c>
       <c r="H5" t="n">
-        <v>83.02980966368089</v>
+        <v>65.36028636354754</v>
       </c>
       <c r="I5" t="n">
-        <v>88.46763433955644</v>
+        <v>113.4026736113024</v>
       </c>
       <c r="J5" t="n">
-        <v>95.31534039377161</v>
+        <v>110.7004963668063</v>
       </c>
       <c r="K5" t="n">
-        <v>69.97159670700611</v>
+        <v>93.71413454487914</v>
       </c>
       <c r="L5" t="n">
-        <v>30.19622592946476</v>
+        <v>101.0729715537316</v>
       </c>
       <c r="M5" t="n">
-        <v>59.32517537024204</v>
+        <v>41.98441110000233</v>
       </c>
       <c r="N5" t="n">
-        <v>86.93055389727884</v>
+        <v>120.8337792277713</v>
       </c>
       <c r="O5" t="n">
-        <v>112.1475951822646</v>
+        <v>84.14589462980516</v>
       </c>
       <c r="P5" t="n">
-        <v>50.79578784039148</v>
+        <v>97.81577306889496</v>
       </c>
       <c r="Q5" t="n">
-        <v>106.8578110054394</v>
+        <v>83.9699955574159</v>
       </c>
       <c r="R5" t="n">
-        <v>60.073527741955</v>
+        <v>74.9713871247821</v>
       </c>
       <c r="S5" t="n">
-        <v>33.6463625801992</v>
+        <v>66.56072474132782</v>
       </c>
       <c r="T5" t="n">
-        <v>38.37632105953292</v>
+        <v>55.54055438640666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32.5541161475697</v>
+        <v>82.79926018888665</v>
       </c>
       <c r="B6" t="n">
-        <v>75.31908787405655</v>
+        <v>67.77816109897677</v>
       </c>
       <c r="C6" t="n">
-        <v>121.528813278019</v>
+        <v>36.55956437949007</v>
       </c>
       <c r="D6" t="n">
-        <v>26.3941364625403</v>
+        <v>102.892545927862</v>
       </c>
       <c r="E6" t="n">
-        <v>26.17793787120813</v>
+        <v>172.9666968973299</v>
       </c>
       <c r="F6" t="n">
-        <v>87.01981766657447</v>
+        <v>67.57338251298856</v>
       </c>
       <c r="G6" t="n">
-        <v>63.18519896662062</v>
+        <v>98.60241634571643</v>
       </c>
       <c r="H6" t="n">
-        <v>82.06168577746088</v>
+        <v>62.55589780660585</v>
       </c>
       <c r="I6" t="n">
-        <v>87.559655695355</v>
+        <v>121.3017134519888</v>
       </c>
       <c r="J6" t="n">
-        <v>94.47319775593604</v>
+        <v>120.7966664614342</v>
       </c>
       <c r="K6" t="n">
-        <v>68.82002125529719</v>
+        <v>104.497363780396</v>
       </c>
       <c r="L6" t="n">
-        <v>27.42230917036216</v>
+        <v>107.1448624538447</v>
       </c>
       <c r="M6" t="n">
-        <v>57.96246554936756</v>
+        <v>30.46368821489787</v>
       </c>
       <c r="N6" t="n">
-        <v>86.00634965361192</v>
+        <v>124.925968799504</v>
       </c>
       <c r="O6" t="n">
-        <v>111.4327334539395</v>
+        <v>84.85881004139976</v>
       </c>
       <c r="P6" t="n">
-        <v>49.1973885707129</v>
+        <v>98.87752353497378</v>
       </c>
       <c r="Q6" t="n">
-        <v>106.1073171497888</v>
+        <v>91.54862853947577</v>
       </c>
       <c r="R6" t="n">
-        <v>58.72818501550245</v>
+        <v>86.51691494318572</v>
       </c>
       <c r="S6" t="n">
-        <v>31.18090272474288</v>
+        <v>77.28397007342122</v>
       </c>
       <c r="T6" t="n">
-        <v>36.23414132991147</v>
+        <v>45.06080421376724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>93.46069840863984</v>
+        <v>82.08418781640201</v>
       </c>
       <c r="B7" t="n">
-        <v>115.5339632621556</v>
+        <v>108.1574405098751</v>
       </c>
       <c r="C7" t="n">
-        <v>149.8144990501416</v>
+        <v>78.84057759080585</v>
       </c>
       <c r="D7" t="n">
-        <v>91.49744318003906</v>
+        <v>76.04733099571564</v>
       </c>
       <c r="E7" t="n">
-        <v>91.43531101314255</v>
+        <v>126.833855212512</v>
       </c>
       <c r="F7" t="n">
-        <v>123.4810930288728</v>
+        <v>51.16117542518867</v>
       </c>
       <c r="G7" t="n">
-        <v>108.0162072900762</v>
+        <v>62.3438297631651</v>
       </c>
       <c r="H7" t="n">
-        <v>120.0385435663062</v>
+        <v>70.48320415783525</v>
       </c>
       <c r="I7" t="n">
-        <v>123.862120821381</v>
+        <v>113.3855906288284</v>
       </c>
       <c r="J7" t="n">
-        <v>128.8422165406722</v>
+        <v>97.72559798986951</v>
       </c>
       <c r="K7" t="n">
-        <v>111.4061353537624</v>
+        <v>52.47211421675261</v>
       </c>
       <c r="L7" t="n">
-        <v>91.79931758524245</v>
+        <v>110.2509286577815</v>
       </c>
       <c r="M7" t="n">
-        <v>105.0465567329215</v>
+        <v>79.49127918539585</v>
       </c>
       <c r="N7" t="n">
-        <v>122.7689856992418</v>
+        <v>93.99915586007668</v>
       </c>
       <c r="O7" t="n">
-        <v>141.747612868429</v>
+        <v>111.3003269036966</v>
       </c>
       <c r="P7" t="n">
-        <v>100.4764385866606</v>
+        <v>83.64449919234431</v>
       </c>
       <c r="Q7" t="n">
-        <v>137.6004884497404</v>
+        <v>88.63449730821124</v>
       </c>
       <c r="R7" t="n">
-        <v>105.4709978339845</v>
+        <v>48.89468434560316</v>
       </c>
       <c r="S7" t="n">
-        <v>92.99129186978291</v>
+        <v>54.39188818825</v>
       </c>
       <c r="T7" t="n">
-        <v>94.80529872743017</v>
+        <v>87.30322498201063</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>23.78055405919196</v>
+        <v>194.1924576226714</v>
       </c>
       <c r="B8" t="n">
-        <v>71.96324944992789</v>
+        <v>214.0809114028801</v>
       </c>
       <c r="C8" t="n">
-        <v>119.4780177688611</v>
+        <v>182.7201603365653</v>
       </c>
       <c r="D8" t="n">
-        <v>14.22654957520945</v>
+        <v>44.98053940481532</v>
       </c>
       <c r="E8" t="n">
-        <v>13.8213134108711</v>
+        <v>173.1661311095977</v>
       </c>
       <c r="F8" t="n">
-        <v>84.13199712319064</v>
+        <v>161.8115760967919</v>
       </c>
       <c r="G8" t="n">
-        <v>59.14485304457293</v>
+        <v>51.1045267523505</v>
       </c>
       <c r="H8" t="n">
-        <v>78.9928132544437</v>
+        <v>101.1718914868764</v>
       </c>
       <c r="I8" t="n">
-        <v>84.69024488512126</v>
+        <v>220.6517499708828</v>
       </c>
       <c r="J8" t="n">
-        <v>91.82009239510103</v>
+        <v>195.8277738416649</v>
       </c>
       <c r="K8" t="n">
-        <v>65.13017425734596</v>
+        <v>102.7648434586917</v>
       </c>
       <c r="L8" t="n">
-        <v>16.05388779852474</v>
+        <v>222.0248765769113</v>
       </c>
       <c r="M8" t="n">
-        <v>53.52935349669669</v>
+        <v>158.0336368675424</v>
       </c>
       <c r="N8" t="n">
-        <v>83.08331032133977</v>
+        <v>22.51029879296777</v>
       </c>
       <c r="O8" t="n">
-        <v>109.1924830665071</v>
+        <v>223.3908992335942</v>
       </c>
       <c r="P8" t="n">
-        <v>43.88766700783268</v>
+        <v>59.05936130506148</v>
       </c>
       <c r="Q8" t="n">
-        <v>103.7521422715625</v>
+        <v>199.7857616580461</v>
       </c>
       <c r="R8" t="n">
-        <v>54.35755686588369</v>
+        <v>145.0011578133851</v>
       </c>
       <c r="S8" t="n">
-        <v>21.86305028907381</v>
+        <v>161.425506036329</v>
       </c>
       <c r="T8" t="n">
-        <v>28.61218745794685</v>
+        <v>150.8895051259758</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>84.29355015716702</v>
+        <v>27.06924352359578</v>
       </c>
       <c r="B9" t="n">
-        <v>108.2524693396378</v>
+        <v>86.69120742356183</v>
       </c>
       <c r="C9" t="n">
-        <v>144.2736447751736</v>
+        <v>89.13784905376494</v>
       </c>
       <c r="D9" t="n">
-        <v>82.11140334662764</v>
+        <v>184.195471074427</v>
       </c>
       <c r="E9" t="n">
-        <v>82.04216325242898</v>
+        <v>136.3561030675856</v>
       </c>
       <c r="F9" t="n">
-        <v>116.6965328819723</v>
+        <v>57.37909799990187</v>
       </c>
       <c r="G9" t="n">
-        <v>100.1898272700418</v>
+        <v>169.1055754927048</v>
       </c>
       <c r="H9" t="n">
-        <v>113.0475669467862</v>
+        <v>166.1388284939618</v>
       </c>
       <c r="I9" t="n">
-        <v>117.0996388783436</v>
+        <v>18.36888267593477</v>
       </c>
       <c r="J9" t="n">
-        <v>122.3552909120876</v>
+        <v>48.21829899437206</v>
       </c>
       <c r="K9" t="n">
-        <v>103.8355789001483</v>
+        <v>126.3096912079965</v>
       </c>
       <c r="L9" t="n">
-        <v>82.44765102890624</v>
+        <v>7.659775880069766</v>
       </c>
       <c r="M9" t="n">
-        <v>96.98082043636771</v>
+        <v>132.759119794652</v>
       </c>
       <c r="N9" t="n">
-        <v>115.94276303715</v>
+        <v>201.2300348206583</v>
       </c>
       <c r="O9" t="n">
-        <v>135.8782035683653</v>
+        <v>56.18710394115159</v>
       </c>
       <c r="P9" t="n">
-        <v>92.01095131628129</v>
+        <v>190.622063021254</v>
       </c>
       <c r="Q9" t="n">
-        <v>131.5461701178534</v>
+        <v>19.55270302927097</v>
       </c>
       <c r="R9" t="n">
-        <v>97.44040145219262</v>
+        <v>78.19528112998614</v>
       </c>
       <c r="S9" t="n">
-        <v>83.77279280696837</v>
+        <v>58.0001298589258</v>
       </c>
       <c r="T9" t="n">
-        <v>85.78196266037152</v>
+        <v>151.2215351782307</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30.89086628407935</v>
+        <v>65.63935259475723</v>
       </c>
       <c r="B10" t="n">
-        <v>74.61528087336578</v>
+        <v>77.60108998950855</v>
       </c>
       <c r="C10" t="n">
-        <v>121.0938792771749</v>
+        <v>48.13438395292932</v>
       </c>
       <c r="D10" t="n">
-        <v>24.31307428596003</v>
+        <v>98.49239706283953</v>
       </c>
       <c r="E10" t="n">
-        <v>24.0781970425579</v>
+        <v>145.8049298412562</v>
       </c>
       <c r="F10" t="n">
-        <v>86.41136388436001</v>
+        <v>43.22450254812082</v>
       </c>
       <c r="G10" t="n">
-        <v>62.34456279486486</v>
+        <v>88.81047378519564</v>
       </c>
       <c r="H10" t="n">
-        <v>81.41618643900078</v>
+        <v>73.57295765127832</v>
       </c>
       <c r="I10" t="n">
-        <v>86.95497942683056</v>
+        <v>102.3727184593997</v>
       </c>
       <c r="J10" t="n">
-        <v>93.91304614303388</v>
+        <v>96.62910514641599</v>
       </c>
       <c r="K10" t="n">
-        <v>68.04902987707445</v>
+        <v>80.5669587268977</v>
       </c>
       <c r="L10" t="n">
-        <v>25.42554191883312</v>
+        <v>92.81342622297964</v>
       </c>
       <c r="M10" t="n">
-        <v>57.04491698822108</v>
+        <v>57.65181795363485</v>
       </c>
       <c r="N10" t="n">
-        <v>85.39067468038159</v>
+        <v>118.8227441321197</v>
       </c>
       <c r="O10" t="n">
-        <v>110.9582319012346</v>
+        <v>83.82066478323772</v>
       </c>
       <c r="P10" t="n">
-        <v>48.1129731341675</v>
+        <v>100.4318112740176</v>
       </c>
       <c r="Q10" t="n">
-        <v>105.6088911709486</v>
+        <v>73.79639705023749</v>
       </c>
       <c r="R10" t="n">
-        <v>57.82278838698889</v>
+        <v>59.30431315640925</v>
       </c>
       <c r="S10" t="n">
-        <v>29.44017385073141</v>
+        <v>51.84971215225285</v>
       </c>
       <c r="T10" t="n">
-        <v>34.74749112594188</v>
+        <v>70.73421350829706</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>87.24903082417343</v>
+        <v>118.0719114651923</v>
       </c>
       <c r="B11" t="n">
-        <v>110.5693804802575</v>
+        <v>80.91106559802081</v>
       </c>
       <c r="C11" t="n">
-        <v>146.0201197040042</v>
+        <v>56.96936074545403</v>
       </c>
       <c r="D11" t="n">
-        <v>85.1426646353713</v>
+        <v>110.1515527562005</v>
       </c>
       <c r="E11" t="n">
-        <v>85.07589160741685</v>
+        <v>209.1484073104828</v>
       </c>
       <c r="F11" t="n">
-        <v>118.8489443299013</v>
+        <v>105.6399668200323</v>
       </c>
       <c r="G11" t="n">
-        <v>102.6888127794822</v>
+        <v>113.1333877773074</v>
       </c>
       <c r="H11" t="n">
-        <v>115.2681359884284</v>
+        <v>55.23266706285501</v>
       </c>
       <c r="I11" t="n">
-        <v>119.2447743387408</v>
+        <v>156.7185892616158</v>
       </c>
       <c r="J11" t="n">
-        <v>124.4098388224995</v>
+        <v>158.652538479916</v>
       </c>
       <c r="K11" t="n">
-        <v>106.2488504746647</v>
+        <v>135.6248511955523</v>
       </c>
       <c r="L11" t="n">
-        <v>85.46698743867738</v>
+        <v>139.931754120177</v>
       </c>
       <c r="M11" t="n">
-        <v>99.56038526527371</v>
+        <v>10.09824874252427</v>
       </c>
       <c r="N11" t="n">
-        <v>118.1089119514165</v>
+        <v>132.4556347753426</v>
       </c>
       <c r="O11" t="n">
-        <v>137.7311765237807</v>
+        <v>107.9911206840282</v>
       </c>
       <c r="P11" t="n">
-        <v>94.72595179667407</v>
+        <v>98.55648095149404</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.459303363737</v>
+        <v>126.8804518984772</v>
       </c>
       <c r="R11" t="n">
-        <v>100.008112755032</v>
+        <v>123.8946394284203</v>
       </c>
       <c r="S11" t="n">
-        <v>86.74601775492627</v>
+        <v>115.4291553912179</v>
       </c>
       <c r="T11" t="n">
-        <v>88.6878565505115</v>
+        <v>9.252427339337524</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>38.77772828104678</v>
+        <v>153.099565852655</v>
       </c>
       <c r="B12" t="n">
-        <v>78.21065611966881</v>
+        <v>143.2478370316234</v>
       </c>
       <c r="C12" t="n">
-        <v>123.3417779556175</v>
+        <v>113.4200778474956</v>
       </c>
       <c r="D12" t="n">
-        <v>33.7726542056208</v>
+        <v>49.85472426964813</v>
       </c>
       <c r="E12" t="n">
-        <v>33.60396053559862</v>
+        <v>198.0946042337926</v>
       </c>
       <c r="F12" t="n">
-        <v>89.53429733467004</v>
+        <v>127.4386817969387</v>
       </c>
       <c r="G12" t="n">
-        <v>66.60563865725388</v>
+        <v>63.01750760985199</v>
       </c>
       <c r="H12" t="n">
-        <v>84.7234442473154</v>
+        <v>15.67030056165729</v>
       </c>
       <c r="I12" t="n">
-        <v>90.05906416334977</v>
+        <v>189.1397879249207</v>
       </c>
       <c r="J12" t="n">
-        <v>96.79424996724462</v>
+        <v>177.7869402223809</v>
       </c>
       <c r="K12" t="n">
-        <v>71.9731690150489</v>
+        <v>114.6414369382293</v>
       </c>
       <c r="L12" t="n">
-        <v>34.5821452880553</v>
+        <v>180.175633979068</v>
       </c>
       <c r="M12" t="n">
-        <v>61.67324496936138</v>
+        <v>75.46143154868399</v>
       </c>
       <c r="N12" t="n">
-        <v>88.54961272207004</v>
+        <v>69.53219048888622</v>
       </c>
       <c r="O12" t="n">
-        <v>113.4072123698752</v>
+        <v>162.9284549806166</v>
       </c>
       <c r="P12" t="n">
-        <v>53.51938690481187</v>
+        <v>31.68985141058283</v>
       </c>
       <c r="Q12" t="n">
-        <v>108.1790390288946</v>
+        <v>161.1608514839033</v>
       </c>
       <c r="R12" t="n">
-        <v>62.39344074263194</v>
+        <v>129.2863318123835</v>
       </c>
       <c r="S12" t="n">
-        <v>37.63230563251625</v>
+        <v>133.2089965882232</v>
       </c>
       <c r="T12" t="n">
-        <v>41.91485095291686</v>
+        <v>63.35842859685119</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>22.66826330654248</v>
+        <v>105.6154551029038</v>
       </c>
       <c r="B13" t="n">
-        <v>71.60338456640953</v>
+        <v>150.4738075364146</v>
       </c>
       <c r="C13" t="n">
-        <v>119.2616121807386</v>
+        <v>123.2713146496675</v>
       </c>
       <c r="D13" t="n">
-        <v>12.27721966849503</v>
+        <v>78.86169741442347</v>
       </c>
       <c r="E13" t="n">
-        <v>11.80525791222345</v>
+        <v>90.53058949811997</v>
       </c>
       <c r="F13" t="n">
-        <v>83.82438994653732</v>
+        <v>73.69500592230689</v>
       </c>
       <c r="G13" t="n">
-        <v>58.70646516046352</v>
+        <v>58.02686559623556</v>
       </c>
       <c r="H13" t="n">
-        <v>78.66511269822225</v>
+        <v>103.1915009976209</v>
       </c>
       <c r="I13" t="n">
-        <v>84.38467271178099</v>
+        <v>125.127103076433</v>
       </c>
       <c r="J13" t="n">
-        <v>91.53832409115583</v>
+        <v>97.55573617046122</v>
       </c>
       <c r="K13" t="n">
-        <v>64.73233356495686</v>
+        <v>6.9660243018764</v>
       </c>
       <c r="L13" t="n">
-        <v>14.35488500198488</v>
+        <v>131.3151374090376</v>
       </c>
       <c r="M13" t="n">
-        <v>53.04457649700772</v>
+        <v>125.8142946716054</v>
       </c>
       <c r="N13" t="n">
-        <v>82.77180597235167</v>
+        <v>86.73438457321264</v>
       </c>
       <c r="O13" t="n">
-        <v>108.9556504647741</v>
+        <v>146.8544549077555</v>
       </c>
       <c r="P13" t="n">
-        <v>43.2950658316048</v>
+        <v>96.26028275333415</v>
       </c>
       <c r="Q13" t="n">
-        <v>103.5028619696632</v>
+        <v>109.0643674788054</v>
       </c>
       <c r="R13" t="n">
-        <v>53.88023198168664</v>
+        <v>48.873018233271</v>
       </c>
       <c r="S13" t="n">
-        <v>20.6477208891238</v>
+        <v>69.34554333451182</v>
       </c>
       <c r="T13" t="n">
-        <v>27.69463271287923</v>
+        <v>131.6870704978652</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98.99078891264442</v>
+        <v>137.1822189184894</v>
       </c>
       <c r="B14" t="n">
-        <v>120.0515339742817</v>
+        <v>146.6056384819744</v>
       </c>
       <c r="C14" t="n">
-        <v>153.3253347237888</v>
+        <v>115.2142916158581</v>
       </c>
       <c r="D14" t="n">
-        <v>97.13936509470022</v>
+        <v>23.83086153317914</v>
       </c>
       <c r="E14" t="n">
-        <v>97.08084384978891</v>
+        <v>161.6953684749862</v>
       </c>
       <c r="F14" t="n">
-        <v>127.7178706294547</v>
+        <v>107.1543688374706</v>
       </c>
       <c r="G14" t="n">
-        <v>112.8351681872709</v>
+        <v>26.17960066718179</v>
       </c>
       <c r="H14" t="n">
-        <v>124.3926287367422</v>
+        <v>40.16154536049283</v>
       </c>
       <c r="I14" t="n">
-        <v>128.0862955857783</v>
+        <v>169.4608764507134</v>
       </c>
       <c r="J14" t="n">
-        <v>132.9082048092986</v>
+        <v>152.2435382534581</v>
       </c>
       <c r="K14" t="n">
-        <v>116.0844569138256</v>
+        <v>78.06623509547769</v>
       </c>
       <c r="L14" t="n">
-        <v>97.42375917420347</v>
+        <v>165.31628769504</v>
       </c>
       <c r="M14" t="n">
-        <v>109.9956963883582</v>
+        <v>90.52097658623082</v>
       </c>
       <c r="N14" t="n">
-        <v>127.0295162241344</v>
+        <v>45.95841859401809</v>
       </c>
       <c r="O14" t="n">
-        <v>145.4532911157908</v>
+        <v>158.794925429386</v>
       </c>
       <c r="P14" t="n">
-        <v>105.6399018059747</v>
+        <v>27.86716913912494</v>
       </c>
       <c r="Q14" t="n">
-        <v>141.4148809854328</v>
+        <v>144.1947459231409</v>
       </c>
       <c r="R14" t="n">
-        <v>110.4011119808734</v>
+        <v>101.0373410904955</v>
       </c>
       <c r="S14" t="n">
-        <v>98.5477270469905</v>
+        <v>110.2751763065298</v>
       </c>
       <c r="T14" t="n">
-        <v>100.2612527814921</v>
+        <v>85.82714959390196</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>55.38629765072608</v>
+        <v>73.6940529571649</v>
       </c>
       <c r="B15" t="n">
-        <v>87.64038160280465</v>
+        <v>89.30286563395929</v>
       </c>
       <c r="C15" t="n">
-        <v>129.5265376132203</v>
+        <v>108.3863671969191</v>
       </c>
       <c r="D15" t="n">
-        <v>52.00501830504982</v>
+        <v>229.1103287303287</v>
       </c>
       <c r="E15" t="n">
-        <v>51.89562525390941</v>
+        <v>187.3631225970497</v>
       </c>
       <c r="F15" t="n">
-        <v>97.87910990619619</v>
+        <v>106.3566339514702</v>
       </c>
       <c r="G15" t="n">
-        <v>77.46122163868061</v>
+        <v>216.2573672319633</v>
       </c>
       <c r="H15" t="n">
-        <v>93.4986190376312</v>
+        <v>201.3179065759627</v>
       </c>
       <c r="I15" t="n">
-        <v>98.359365567263</v>
+        <v>64.38532027446512</v>
       </c>
       <c r="J15" t="n">
-        <v>104.5612575648245</v>
+        <v>99.59725147414154</v>
       </c>
       <c r="K15" t="n">
-        <v>82.12226747286589</v>
+        <v>179.0440152086768</v>
       </c>
       <c r="L15" t="n">
-        <v>52.53431763657253</v>
+        <v>48.08223582742384</v>
       </c>
       <c r="M15" t="n">
-        <v>73.26335306186162</v>
+        <v>155.238269278323</v>
       </c>
       <c r="N15" t="n">
-        <v>96.97919194365726</v>
+        <v>247.9370451280801</v>
       </c>
       <c r="O15" t="n">
-        <v>120.1046442662485</v>
+        <v>57.49766017636111</v>
       </c>
       <c r="P15" t="n">
-        <v>66.54513153855117</v>
+        <v>232.2249398725326</v>
       </c>
       <c r="Q15" t="n">
-        <v>115.1808761992686</v>
+        <v>69.92573477103227</v>
       </c>
       <c r="R15" t="n">
-        <v>73.87063831131049</v>
+        <v>131.1067412763246</v>
       </c>
       <c r="S15" t="n">
-        <v>54.59047704531665</v>
+        <v>109.5839369552388</v>
       </c>
       <c r="T15" t="n">
-        <v>57.62624824870491</v>
+        <v>174.49295249219</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>185.93838215108</v>
+        <v>58.5539788749677</v>
       </c>
       <c r="B16" t="n">
-        <v>197.9552385692065</v>
+        <v>81.28116074978659</v>
       </c>
       <c r="C16" t="n">
-        <v>219.732937757577</v>
+        <v>97.13003497296026</v>
       </c>
       <c r="D16" t="n">
-        <v>184.9593520707045</v>
+        <v>214.4442617645443</v>
       </c>
       <c r="E16" t="n">
-        <v>184.9286238255194</v>
+        <v>174.6790579533003</v>
       </c>
       <c r="F16" t="n">
-        <v>202.6962262735433</v>
+        <v>91.22346820915888</v>
       </c>
       <c r="G16" t="n">
-        <v>193.6638346394676</v>
+        <v>201.3432072903121</v>
       </c>
       <c r="H16" t="n">
-        <v>200.6176257247861</v>
+        <v>188.0085756236435</v>
       </c>
       <c r="I16" t="n">
-        <v>202.9285706456849</v>
+        <v>51.90384901657045</v>
       </c>
       <c r="J16" t="n">
-        <v>206.0060595541884</v>
+        <v>86.50233949138313</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5748112727996</v>
+        <v>163.9779111400341</v>
       </c>
       <c r="L16" t="n">
-        <v>185.1088720700511</v>
+        <v>33.2848903701902</v>
       </c>
       <c r="M16" t="n">
-        <v>192.0233290289835</v>
+        <v>144.0014054947434</v>
       </c>
       <c r="N16" t="n">
-        <v>202.2632039189308</v>
+        <v>233.0893426459418</v>
       </c>
       <c r="O16" t="n">
-        <v>214.3141749017744</v>
+        <v>47.93629580194489</v>
       </c>
       <c r="P16" t="n">
-        <v>189.5618488013591</v>
+        <v>217.9942068164649</v>
       </c>
       <c r="Q16" t="n">
-        <v>211.5941261744699</v>
+        <v>54.86175136864218</v>
       </c>
       <c r="R16" t="n">
-        <v>192.2558482700246</v>
+        <v>116.0941538622608</v>
       </c>
       <c r="S16" t="n">
-        <v>185.7028814357534</v>
+        <v>94.47301162267661</v>
       </c>
       <c r="T16" t="n">
-        <v>186.6178568002741</v>
+        <v>163.2558227451937</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>87.4886563947139</v>
+        <v>127.0719045786417</v>
       </c>
       <c r="B17" t="n">
-        <v>110.7585640832469</v>
+        <v>182.6888602035396</v>
       </c>
       <c r="C17" t="n">
-        <v>146.1634255768743</v>
+        <v>157.7928339256687</v>
       </c>
       <c r="D17" t="n">
-        <v>85.38820152225982</v>
+        <v>107.3171140061107</v>
       </c>
       <c r="E17" t="n">
-        <v>85.32162065263228</v>
+        <v>60.45336987183138</v>
       </c>
       <c r="F17" t="n">
-        <v>119.0249687516309</v>
+        <v>98.90885192390022</v>
       </c>
       <c r="G17" t="n">
-        <v>102.8924870340604</v>
+        <v>86.50220367383581</v>
       </c>
       <c r="H17" t="n">
-        <v>115.4496201476712</v>
+        <v>140.732110137658</v>
       </c>
       <c r="I17" t="n">
-        <v>119.4202153116966</v>
+        <v>136.2854685135432</v>
       </c>
       <c r="J17" t="n">
-        <v>124.5780061400689</v>
+        <v>102.9510098994045</v>
       </c>
       <c r="K17" t="n">
-        <v>106.4457131367084</v>
+        <v>32.65082015268653</v>
       </c>
       <c r="L17" t="n">
-        <v>85.71159524730469</v>
+        <v>148.8260119986946</v>
       </c>
       <c r="M17" t="n">
-        <v>99.7704461860549</v>
+        <v>164.3655754709474</v>
       </c>
       <c r="N17" t="n">
-        <v>118.2860376390308</v>
+        <v>108.233548541319</v>
       </c>
       <c r="O17" t="n">
-        <v>137.8830976030767</v>
+        <v>173.9383875784829</v>
       </c>
       <c r="P17" t="n">
-        <v>94.94670906240282</v>
+        <v>127.4759896970049</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.6160816381349</v>
+        <v>128.0947778708528</v>
       </c>
       <c r="R17" t="n">
-        <v>100.2172352183891</v>
+        <v>68.39954994389132</v>
       </c>
       <c r="S17" t="n">
-        <v>86.98702900049369</v>
+        <v>91.17989206868252</v>
       </c>
       <c r="T17" t="n">
-        <v>88.92360495120997</v>
+        <v>170.6788087862295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>62.11938011802942</v>
+        <v>162.4839721112235</v>
       </c>
       <c r="B18" t="n">
-        <v>92.04353266948539</v>
+        <v>186.3211216330702</v>
       </c>
       <c r="C18" t="n">
-        <v>132.5454615023177</v>
+        <v>155.2158372392084</v>
       </c>
       <c r="D18" t="n">
-        <v>59.12442259931144</v>
+        <v>29.14782156760971</v>
       </c>
       <c r="E18" t="n">
-        <v>59.02822493763135</v>
+        <v>147.5956772865213</v>
       </c>
       <c r="F18" t="n">
-        <v>101.8405399378</v>
+        <v>129.9937273144451</v>
       </c>
       <c r="G18" t="n">
-        <v>82.41004960895367</v>
+        <v>22.09527389153607</v>
       </c>
       <c r="H18" t="n">
-        <v>97.63793924872388</v>
+        <v>84.79409012015026</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3022004337536</v>
+        <v>188.5901039500743</v>
       </c>
       <c r="J18" t="n">
-        <v>108.2784927967275</v>
+        <v>164.0507036167998</v>
       </c>
       <c r="K18" t="n">
-        <v>86.80577304349251</v>
+        <v>72.12718702208839</v>
       </c>
       <c r="L18" t="n">
-        <v>59.5905189466722</v>
+        <v>190.2086458782352</v>
       </c>
       <c r="M18" t="n">
-        <v>78.47734909297327</v>
+        <v>135.7854537623998</v>
       </c>
       <c r="N18" t="n">
-        <v>100.9759332159803</v>
+        <v>21.0843929453909</v>
       </c>
       <c r="O18" t="n">
-        <v>123.3543716011537</v>
+        <v>193.4193882218215</v>
       </c>
       <c r="P18" t="n">
-        <v>72.24562236064192</v>
+        <v>50.67385614917628</v>
       </c>
       <c r="Q18" t="n">
-        <v>118.5656344006333</v>
+        <v>167.9195316595082</v>
       </c>
       <c r="R18" t="n">
-        <v>79.04458629984634</v>
+        <v>113.0136193497585</v>
       </c>
       <c r="S18" t="n">
-        <v>61.410875281408</v>
+        <v>129.4014363749841</v>
       </c>
       <c r="T18" t="n">
-        <v>64.12456554250305</v>
+        <v>131.779269918139</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>125.1403323276513</v>
+        <v>94.95586601249299</v>
       </c>
       <c r="B19" t="n">
-        <v>142.3843295278852</v>
+        <v>158.9473852996332</v>
       </c>
       <c r="C19" t="n">
-        <v>171.3755663847363</v>
+        <v>138.4804526806101</v>
       </c>
       <c r="D19" t="n">
-        <v>123.6809716024609</v>
+        <v>128.115958162418</v>
       </c>
       <c r="E19" t="n">
-        <v>123.6350141671621</v>
+        <v>47.38106275669441</v>
       </c>
       <c r="F19" t="n">
-        <v>148.9052751370797</v>
+        <v>72.13477290279067</v>
       </c>
       <c r="G19" t="n">
-        <v>136.3550573516692</v>
+        <v>107.2193706319566</v>
       </c>
       <c r="H19" t="n">
-        <v>146.0631800611101</v>
+        <v>147.1524024700051</v>
       </c>
       <c r="I19" t="n">
-        <v>149.2213979374763</v>
+        <v>98.59361772572061</v>
       </c>
       <c r="J19" t="n">
-        <v>153.3803031394766</v>
+        <v>64.37184343954297</v>
       </c>
       <c r="K19" t="n">
-        <v>139.0558435395834</v>
+        <v>43.29886761608635</v>
       </c>
       <c r="L19" t="n">
-        <v>123.9044605216474</v>
+        <v>113.5006327234612</v>
       </c>
       <c r="M19" t="n">
-        <v>134.014848839549</v>
+        <v>155.7906744063075</v>
       </c>
       <c r="N19" t="n">
-        <v>148.3152874037768</v>
+        <v>134.7992518503697</v>
       </c>
       <c r="O19" t="n">
-        <v>164.370272196472</v>
+        <v>144.6800766853816</v>
       </c>
       <c r="P19" t="n">
-        <v>130.4634636176093</v>
+        <v>145.2345867573013</v>
       </c>
       <c r="Q19" t="n">
-        <v>160.807633679659</v>
+        <v>94.30003305953231</v>
       </c>
       <c r="R19" t="n">
-        <v>134.3478024090481</v>
+        <v>42.01048284117182</v>
       </c>
       <c r="S19" t="n">
-        <v>124.7901478148633</v>
+        <v>62.27950028698825</v>
       </c>
       <c r="T19" t="n">
-        <v>126.1477122061337</v>
+        <v>166.1706533481113</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>93.46966296570412</v>
+        <v>132.8424524207134</v>
       </c>
       <c r="B20" t="n">
-        <v>115.541215221897</v>
+        <v>184.0501568477563</v>
       </c>
       <c r="C20" t="n">
-        <v>149.820091688453</v>
+        <v>157.674107520283</v>
       </c>
       <c r="D20" t="n">
-        <v>91.50660007002806</v>
+        <v>95.15513409890818</v>
       </c>
       <c r="E20" t="n">
-        <v>91.4444741248026</v>
+        <v>74.1069526201062</v>
       </c>
       <c r="F20" t="n">
-        <v>123.4878782856711</v>
+        <v>102.9772100707217</v>
       </c>
       <c r="G20" t="n">
-        <v>108.0239639396014</v>
+        <v>74.68247351073602</v>
       </c>
       <c r="H20" t="n">
-        <v>120.0455234042969</v>
+        <v>132.0741181196352</v>
       </c>
       <c r="I20" t="n">
-        <v>123.8688852063422</v>
+        <v>145.2842377233277</v>
       </c>
       <c r="J20" t="n">
-        <v>128.8487194775527</v>
+        <v>113.0399260420929</v>
       </c>
       <c r="K20" t="n">
-        <v>111.4136559958088</v>
+        <v>30.15339381586765</v>
       </c>
       <c r="L20" t="n">
-        <v>91.80844436656025</v>
+        <v>156.0779314055922</v>
       </c>
       <c r="M20" t="n">
-        <v>105.0545326453575</v>
+        <v>160.2331334044623</v>
       </c>
       <c r="N20" t="n">
-        <v>122.7758103109575</v>
+        <v>94.8750605623344</v>
       </c>
       <c r="O20" t="n">
-        <v>141.7535237720375</v>
+        <v>177.8065821473729</v>
       </c>
       <c r="P20" t="n">
-        <v>100.484777249843</v>
+        <v>115.8357745699159</v>
       </c>
       <c r="Q20" t="n">
-        <v>137.6065774935876</v>
+        <v>134.6952705932477</v>
       </c>
       <c r="R20" t="n">
-        <v>105.4789416518195</v>
+        <v>73.71663139305197</v>
       </c>
       <c r="S20" t="n">
-        <v>93.00030167425662</v>
+        <v>96.34739221279408</v>
       </c>
       <c r="T20" t="n">
-        <v>94.81413615431434</v>
+        <v>165.0892134953633</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>35.2117476937163</v>
+        <v>116.2318947738147</v>
       </c>
       <c r="B21" t="n">
-        <v>76.50530501655641</v>
+        <v>126.8937014246661</v>
       </c>
       <c r="C21" t="n">
-        <v>122.2675310712541</v>
+        <v>95.53625193486991</v>
       </c>
       <c r="D21" t="n">
-        <v>29.60991619541798</v>
+        <v>44.31334238789569</v>
       </c>
       <c r="E21" t="n">
-        <v>29.41736100817524</v>
+        <v>152.4660493295196</v>
       </c>
       <c r="F21" t="n">
-        <v>88.048539818786</v>
+        <v>86.82335906047668</v>
       </c>
       <c r="G21" t="n">
-        <v>64.59462877010682</v>
+        <v>38.6684964510975</v>
       </c>
       <c r="H21" t="n">
-        <v>83.15177069753356</v>
+        <v>40.3287942356729</v>
       </c>
       <c r="I21" t="n">
-        <v>88.58210881992815</v>
+        <v>149.2783693534974</v>
       </c>
       <c r="J21" t="n">
-        <v>95.42160023667951</v>
+        <v>133.8997203514024</v>
       </c>
       <c r="K21" t="n">
-        <v>70.11627502282217</v>
+        <v>69.81931271113719</v>
       </c>
       <c r="L21" t="n">
-        <v>30.52998096513336</v>
+        <v>144.3152437904289</v>
       </c>
       <c r="M21" t="n">
-        <v>59.49574867213705</v>
+        <v>76.28638739826731</v>
       </c>
       <c r="N21" t="n">
-        <v>87.04704979627873</v>
+        <v>65.46048377467527</v>
       </c>
       <c r="O21" t="n">
-        <v>112.2379204302771</v>
+        <v>137.7938969142988</v>
       </c>
       <c r="P21" t="n">
-        <v>50.99489915348582</v>
+        <v>47.73159985781594</v>
       </c>
       <c r="Q21" t="n">
-        <v>106.9526037561608</v>
+        <v>123.4118841284436</v>
       </c>
       <c r="R21" t="n">
-        <v>60.24198214461044</v>
+        <v>83.80910349915736</v>
       </c>
       <c r="S21" t="n">
-        <v>33.94621322366243</v>
+        <v>90.71316804536802</v>
       </c>
       <c r="T21" t="n">
-        <v>38.63948363283954</v>
+        <v>75.64254276829352</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>29.83235586023898</v>
+        <v>99.81021094261494</v>
       </c>
       <c r="B22" t="n">
-        <v>74.1833133272054</v>
+        <v>86.48390051583316</v>
       </c>
       <c r="C22" t="n">
-        <v>120.8281897356163</v>
+        <v>55.77142388033286</v>
       </c>
       <c r="D22" t="n">
-        <v>22.95320059655463</v>
+        <v>86.01010258699174</v>
       </c>
       <c r="E22" t="n">
-        <v>22.70425971511314</v>
+        <v>176.8089873277244</v>
       </c>
       <c r="F22" t="n">
-        <v>86.03864041665432</v>
+        <v>80.16846774526392</v>
       </c>
       <c r="G22" t="n">
-        <v>61.82692250528012</v>
+        <v>84.51824294189069</v>
       </c>
       <c r="H22" t="n">
-        <v>81.02048661086405</v>
+        <v>42.64526692869308</v>
       </c>
       <c r="I22" t="n">
-        <v>86.58459610988315</v>
+        <v>137.7704001152076</v>
       </c>
       <c r="J22" t="n">
-        <v>93.570209320353</v>
+        <v>133.5839135808105</v>
       </c>
       <c r="K22" t="n">
-        <v>67.57510121044611</v>
+        <v>101.9903109622641</v>
       </c>
       <c r="L22" t="n">
-        <v>24.12844831847679</v>
+        <v>125.3343230317085</v>
       </c>
       <c r="M22" t="n">
-        <v>56.47872511471996</v>
+        <v>31.05842184955377</v>
       </c>
       <c r="N22" t="n">
-        <v>85.01347633617759</v>
+        <v>108.3829596875782</v>
       </c>
       <c r="O22" t="n">
-        <v>110.6682116194132</v>
+        <v>104.7711003388412</v>
       </c>
       <c r="P22" t="n">
-        <v>47.44029953742059</v>
+        <v>80.00586377658408</v>
       </c>
       <c r="Q22" t="n">
-        <v>105.3041391909565</v>
+        <v>108.3922597303621</v>
       </c>
       <c r="R22" t="n">
-        <v>57.26428811430002</v>
+        <v>93.49806510022603</v>
       </c>
       <c r="S22" t="n">
-        <v>28.32750735155415</v>
+        <v>88.69212106183194</v>
       </c>
       <c r="T22" t="n">
-        <v>33.80993901116172</v>
+        <v>36.7717040755322</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>76.54681232799535</v>
+        <v>148.8590571546307</v>
       </c>
       <c r="B23" t="n">
-        <v>102.3357659745982</v>
+        <v>165.3006547630788</v>
       </c>
       <c r="C23" t="n">
-        <v>139.8888718097029</v>
+        <v>133.9526074506695</v>
       </c>
       <c r="D23" t="n">
-        <v>74.13699777460026</v>
+        <v>11.7285466389595</v>
       </c>
       <c r="E23" t="n">
-        <v>74.06030266355057</v>
+        <v>155.00240799274</v>
       </c>
       <c r="F23" t="n">
-        <v>111.2299090449675</v>
+        <v>117.2825558987673</v>
       </c>
       <c r="G23" t="n">
-        <v>93.76573664126634</v>
+        <v>9.62307611339312</v>
       </c>
       <c r="H23" t="n">
-        <v>107.3953642950505</v>
+        <v>60.24416104811347</v>
       </c>
       <c r="I23" t="n">
-        <v>111.6527532348262</v>
+        <v>178.4020477326778</v>
       </c>
       <c r="J23" t="n">
-        <v>117.153015725845</v>
+        <v>157.5389944420297</v>
       </c>
       <c r="K23" t="n">
-        <v>97.65162223438709</v>
+        <v>73.23601030920361</v>
       </c>
       <c r="L23" t="n">
-        <v>74.50924130376589</v>
+        <v>176.9935191701218</v>
       </c>
       <c r="M23" t="n">
-        <v>90.32879613937908</v>
+        <v>111.6399417481398</v>
       </c>
       <c r="N23" t="n">
-        <v>110.4388345654156</v>
+        <v>27.54872415430215</v>
       </c>
       <c r="O23" t="n">
-        <v>131.2131780136607</v>
+        <v>175.1109631871906</v>
       </c>
       <c r="P23" t="n">
-        <v>84.97074226818073</v>
+        <v>31.65983986500987</v>
       </c>
       <c r="Q23" t="n">
-        <v>126.7217690539149</v>
+        <v>155.1612747372172</v>
       </c>
       <c r="R23" t="n">
-        <v>90.82204421087961</v>
+        <v>105.652009547934</v>
       </c>
       <c r="S23" t="n">
-        <v>75.97297344554681</v>
+        <v>118.6010999212641</v>
       </c>
       <c r="T23" t="n">
-        <v>78.1828433695263</v>
+        <v>107.0876731602615</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>102.5332451832453</v>
+        <v>59.99351234033372</v>
       </c>
       <c r="B24" t="n">
-        <v>122.9888648936882</v>
+        <v>133.4168328467369</v>
       </c>
       <c r="C24" t="n">
-        <v>155.635948117463</v>
+        <v>126.1160006449007</v>
       </c>
       <c r="D24" t="n">
-        <v>100.7469420342932</v>
+        <v>178.2274157859194</v>
       </c>
       <c r="E24" t="n">
-        <v>100.6905175319249</v>
+        <v>85.44563467725693</v>
       </c>
       <c r="F24" t="n">
-        <v>130.4827366220601</v>
+        <v>65.07365007632404</v>
       </c>
       <c r="G24" t="n">
-        <v>115.9554451421298</v>
+        <v>159.3522655786425</v>
       </c>
       <c r="H24" t="n">
-        <v>127.2297770268296</v>
+        <v>177.4806693661474</v>
       </c>
       <c r="I24" t="n">
-        <v>130.8433765811138</v>
+        <v>38.13046999587513</v>
       </c>
       <c r="J24" t="n">
-        <v>135.5672563117298</v>
+        <v>11.57500933252502</v>
       </c>
       <c r="K24" t="n">
-        <v>119.1196508357777</v>
+        <v>102.095439903048</v>
       </c>
       <c r="L24" t="n">
-        <v>101.021180600372</v>
+        <v>61.46848735943858</v>
       </c>
       <c r="M24" t="n">
-        <v>113.1942723914053</v>
+        <v>161.4072479202692</v>
       </c>
       <c r="N24" t="n">
-        <v>129.8090446401844</v>
+        <v>190.4878259423693</v>
       </c>
       <c r="O24" t="n">
-        <v>147.8869499809729</v>
+        <v>107.2387339400052</v>
       </c>
       <c r="P24" t="n">
-        <v>108.9664119434781</v>
+        <v>190.3887761864823</v>
       </c>
       <c r="Q24" t="n">
-        <v>143.9168462772302</v>
+        <v>53.28150800181347</v>
       </c>
       <c r="R24" t="n">
-        <v>113.5882723034078</v>
+        <v>61.66000075950759</v>
       </c>
       <c r="S24" t="n">
-        <v>102.1055560897051</v>
+        <v>56.6714713922809</v>
       </c>
       <c r="T24" t="n">
-        <v>103.7603435208945</v>
+        <v>177.41883920441</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>34.19727642851388</v>
+        <v>136.1931936003616</v>
       </c>
       <c r="B25" t="n">
-        <v>76.04372581060574</v>
+        <v>100.6204868941349</v>
       </c>
       <c r="C25" t="n">
-        <v>121.9792428806735</v>
+        <v>76.88114198895003</v>
       </c>
       <c r="D25" t="n">
-        <v>28.39601515322056</v>
+        <v>103.4242503253922</v>
       </c>
       <c r="E25" t="n">
-        <v>28.19517100795037</v>
+        <v>219.1608376784908</v>
       </c>
       <c r="F25" t="n">
-        <v>87.64777181253724</v>
+        <v>121.1264029808722</v>
       </c>
       <c r="G25" t="n">
-        <v>64.04726852434979</v>
+        <v>110.0572657985763</v>
       </c>
       <c r="H25" t="n">
-        <v>82.72728394923561</v>
+        <v>45.89473537449926</v>
       </c>
       <c r="I25" t="n">
-        <v>88.18376575349824</v>
+        <v>174.8442186608526</v>
       </c>
       <c r="J25" t="n">
-        <v>95.0519243950954</v>
+        <v>174.5738702234044</v>
       </c>
       <c r="K25" t="n">
-        <v>69.61234490058708</v>
+        <v>141.8261200139208</v>
       </c>
       <c r="L25" t="n">
-        <v>29.35415264002116</v>
+        <v>158.9676787457472</v>
       </c>
       <c r="M25" t="n">
-        <v>58.901024180742</v>
+        <v>29.99020345297656</v>
       </c>
       <c r="N25" t="n">
-        <v>86.64164944019754</v>
+        <v>125.005888867472</v>
       </c>
       <c r="O25" t="n">
-        <v>111.9238014096888</v>
+        <v>127.9862503081194</v>
       </c>
       <c r="P25" t="n">
-        <v>50.29976420577381</v>
+        <v>88.64513700709381</v>
       </c>
       <c r="Q25" t="n">
-        <v>106.6229149371963</v>
+        <v>144.9959322759677</v>
       </c>
       <c r="R25" t="n">
-        <v>59.65469765403072</v>
+        <v>136.3090807196082</v>
       </c>
       <c r="S25" t="n">
-        <v>32.89273372203365</v>
+        <v>130.3369447801595</v>
       </c>
       <c r="T25" t="n">
-        <v>37.71732009163338</v>
+        <v>10.74888614804548</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>97.54852100161361</v>
+        <v>53.4672138792353</v>
       </c>
       <c r="B26" t="n">
-        <v>118.8650851580591</v>
+        <v>112.5867958660785</v>
       </c>
       <c r="C26" t="n">
-        <v>152.3981493595522</v>
+        <v>92.55165313173562</v>
       </c>
       <c r="D26" t="n">
-        <v>95.66918997804879</v>
+        <v>120.0343510043342</v>
       </c>
       <c r="E26" t="n">
-        <v>95.60976886616568</v>
+        <v>91.05146881492404</v>
       </c>
       <c r="F26" t="n">
-        <v>126.603286443033</v>
+        <v>25.91716954832213</v>
       </c>
       <c r="G26" t="n">
-        <v>111.5720074207873</v>
+        <v>102.0354517457389</v>
       </c>
       <c r="H26" t="n">
-        <v>123.2479766328499</v>
+        <v>120.1498214327177</v>
       </c>
       <c r="I26" t="n">
-        <v>126.9749454693402</v>
+        <v>71.52258057527675</v>
       </c>
       <c r="J26" t="n">
-        <v>131.8375081897598</v>
+        <v>48.68181152322455</v>
       </c>
       <c r="K26" t="n">
-        <v>114.8570363409763</v>
+        <v>53.58588855582591</v>
       </c>
       <c r="L26" t="n">
-        <v>95.9579413685377</v>
+        <v>77.60042092783192</v>
       </c>
       <c r="M26" t="n">
-        <v>108.6995440837468</v>
+        <v>114.8863348610359</v>
       </c>
       <c r="N26" t="n">
-        <v>125.9088386579439</v>
+        <v>133.845259132902</v>
       </c>
       <c r="O26" t="n">
-        <v>144.4755950202993</v>
+        <v>100.2680855617303</v>
       </c>
       <c r="P26" t="n">
-        <v>104.2896280251804</v>
+        <v>131.4749391672119</v>
       </c>
       <c r="Q26" t="n">
-        <v>140.4090674571221</v>
+        <v>55.65916738311758</v>
       </c>
       <c r="R26" t="n">
-        <v>109.1097758528899</v>
+        <v>5.661034109040147</v>
       </c>
       <c r="S26" t="n">
-        <v>97.09887829518253</v>
+        <v>17.20083230360957</v>
       </c>
       <c r="T26" t="n">
-        <v>98.83752561334582</v>
+        <v>127.9064659280192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>108.575618877852</v>
+        <v>47.76944018124127</v>
       </c>
       <c r="B27" t="n">
-        <v>128.0697448062538</v>
+        <v>61.66475672878943</v>
       </c>
       <c r="C27" t="n">
-        <v>159.6813921323418</v>
+        <v>36.55404928470901</v>
       </c>
       <c r="D27" t="n">
-        <v>106.890340892722</v>
+        <v>119.3120947972886</v>
       </c>
       <c r="E27" t="n">
-        <v>106.8371609869335</v>
+        <v>147.5779392621868</v>
       </c>
       <c r="F27" t="n">
-        <v>135.2824571157805</v>
+        <v>34.51962835403827</v>
       </c>
       <c r="G27" t="n">
-        <v>121.3312157072967</v>
+        <v>108.9551158747888</v>
       </c>
       <c r="H27" t="n">
-        <v>132.1477007336785</v>
+        <v>92.29374154318562</v>
       </c>
       <c r="I27" t="n">
-        <v>135.6303352574498</v>
+        <v>85.9850544090224</v>
       </c>
       <c r="J27" t="n">
-        <v>140.1930084946868</v>
+        <v>86.2905138734951</v>
       </c>
       <c r="K27" t="n">
-        <v>124.3587144599794</v>
+        <v>92.45424680020653</v>
       </c>
       <c r="L27" t="n">
-        <v>107.1488570951368</v>
+        <v>73.62377353717962</v>
       </c>
       <c r="M27" t="n">
-        <v>118.695163966864</v>
+        <v>63.64184278982433</v>
       </c>
       <c r="N27" t="n">
-        <v>134.632784704538</v>
+        <v>139.4141405218588</v>
       </c>
       <c r="O27" t="n">
-        <v>152.1385836057897</v>
+        <v>63.45288244510846</v>
       </c>
       <c r="P27" t="n">
-        <v>114.6702994621399</v>
+        <v>121.2103507605274</v>
       </c>
       <c r="Q27" t="n">
-        <v>148.2823566351877</v>
+        <v>56.40345146988737</v>
       </c>
       <c r="R27" t="n">
-        <v>119.0709630924946</v>
+        <v>60.20144318459593</v>
       </c>
       <c r="S27" t="n">
-        <v>108.1718227233368</v>
+        <v>45.16638498897414</v>
       </c>
       <c r="T27" t="n">
-        <v>109.7351699979324</v>
+        <v>80.20610172149767</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>173.9467030374288</v>
+        <v>34.56665719857163</v>
       </c>
       <c r="B28" t="n">
-        <v>186.7368469735468</v>
+        <v>93.36821279291264</v>
       </c>
       <c r="C28" t="n">
-        <v>209.6829451247898</v>
+        <v>75.71743813106019</v>
       </c>
       <c r="D28" t="n">
-        <v>172.8997844389784</v>
+        <v>128.5222272708336</v>
       </c>
       <c r="E28" t="n">
-        <v>172.8669125386082</v>
+        <v>108.4293592481303</v>
       </c>
       <c r="F28" t="n">
-        <v>191.7554006701398</v>
+        <v>7.162508761914316</v>
       </c>
       <c r="G28" t="n">
-        <v>182.1813777198247</v>
+        <v>112.4432931922161</v>
       </c>
       <c r="H28" t="n">
-        <v>189.5568655894076</v>
+        <v>119.3007095253338</v>
       </c>
       <c r="I28" t="n">
-        <v>192.000985218647</v>
+        <v>60.09529226749401</v>
       </c>
       <c r="J28" t="n">
-        <v>195.2507877414946</v>
+        <v>47.66117604963264</v>
       </c>
       <c r="K28" t="n">
-        <v>184.2115098060421</v>
+        <v>71.67857233347777</v>
       </c>
       <c r="L28" t="n">
-        <v>173.0597239674123</v>
+        <v>60.81997729827957</v>
       </c>
       <c r="M28" t="n">
-        <v>180.4365052643273</v>
+        <v>103.9935498653995</v>
       </c>
       <c r="N28" t="n">
-        <v>191.2976142041017</v>
+        <v>144.5974531984735</v>
       </c>
       <c r="O28" t="n">
-        <v>203.9973997492584</v>
+        <v>80.05906750439988</v>
       </c>
       <c r="P28" t="n">
-        <v>177.8147014777454</v>
+        <v>137.101863574073</v>
       </c>
       <c r="Q28" t="n">
-        <v>201.1378824890226</v>
+        <v>38.40654558287694</v>
       </c>
       <c r="R28" t="n">
-        <v>180.6839360171708</v>
+        <v>25.68097059835654</v>
       </c>
       <c r="S28" t="n">
-        <v>173.6949444116664</v>
+        <v>3.73748413575747</v>
       </c>
       <c r="T28" t="n">
-        <v>174.6728313658366</v>
+        <v>119.0112626237583</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>21.73399054037475</v>
+        <v>138.1888774320039</v>
       </c>
       <c r="B29" t="n">
-        <v>71.31311846245046</v>
+        <v>177.9017929834453</v>
       </c>
       <c r="C29" t="n">
-        <v>119.0875657800731</v>
+        <v>148.8782610255334</v>
       </c>
       <c r="D29" t="n">
-        <v>10.45209578327906</v>
+        <v>64.33512108331746</v>
       </c>
       <c r="E29" t="n">
-        <v>9.893447217652357</v>
+        <v>104.6587626741196</v>
       </c>
       <c r="F29" t="n">
-        <v>83.57657885665999</v>
+        <v>105.9076049813149</v>
       </c>
       <c r="G29" t="n">
-        <v>58.35207995531159</v>
+        <v>44.4191517994801</v>
       </c>
       <c r="H29" t="n">
-        <v>78.40099578001778</v>
+        <v>106.1977517389562</v>
       </c>
       <c r="I29" t="n">
-        <v>84.13851182513721</v>
+        <v>157.9429040983483</v>
       </c>
       <c r="J29" t="n">
-        <v>91.31145032739235</v>
+        <v>129.3315111614443</v>
       </c>
       <c r="K29" t="n">
-        <v>64.41111078252881</v>
+        <v>34.56549058568039</v>
       </c>
       <c r="L29" t="n">
-        <v>12.82883108060003</v>
+        <v>164.2062792256253</v>
       </c>
       <c r="M29" t="n">
-        <v>52.652096627022</v>
+        <v>142.7541286498843</v>
       </c>
       <c r="N29" t="n">
-        <v>82.52083402025814</v>
+        <v>63.98298513264798</v>
       </c>
       <c r="O29" t="n">
-        <v>108.7651136701303</v>
+        <v>177.4696247601183</v>
       </c>
       <c r="P29" t="n">
-        <v>42.81330294239575</v>
+        <v>85.45984383132409</v>
       </c>
       <c r="Q29" t="n">
-        <v>103.3022682199452</v>
+        <v>141.9057765122245</v>
       </c>
       <c r="R29" t="n">
-        <v>53.49388359312424</v>
+        <v>81.82474826048822</v>
       </c>
       <c r="S29" t="n">
-        <v>19.61745552790978</v>
+        <v>102.1627463562696</v>
       </c>
       <c r="T29" t="n">
-        <v>26.93527175611263</v>
+        <v>144.5456754850082</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>48.13180849137519</v>
+        <v>133.0501252941778</v>
       </c>
       <c r="B30" t="n">
-        <v>83.24581376069797</v>
+        <v>79.34436594566638</v>
       </c>
       <c r="C30" t="n">
-        <v>126.5944428767099</v>
+        <v>65.84138599147995</v>
       </c>
       <c r="D30" t="n">
-        <v>44.19899263675766</v>
+        <v>138.0889320649908</v>
       </c>
       <c r="E30" t="n">
-        <v>44.07022738413986</v>
+        <v>235.1940669263267</v>
       </c>
       <c r="F30" t="n">
-        <v>93.96461662362501</v>
+        <v>126.7029369081511</v>
       </c>
       <c r="G30" t="n">
-        <v>72.45184524187354</v>
+        <v>142.3251774188189</v>
       </c>
       <c r="H30" t="n">
-        <v>89.3925096590295</v>
+        <v>81.35245020508235</v>
       </c>
       <c r="I30" t="n">
-        <v>94.46477553030057</v>
+        <v>170.8527057453343</v>
       </c>
       <c r="J30" t="n">
-        <v>100.9063209354754</v>
+        <v>177.954551107749</v>
       </c>
       <c r="K30" t="n">
-        <v>77.41508790979002</v>
+        <v>164.225272004258</v>
       </c>
       <c r="L30" t="n">
-        <v>44.82057062037349</v>
+        <v>150.9967107840133</v>
       </c>
       <c r="M30" t="n">
-        <v>67.94518322193693</v>
+        <v>32.55562046792683</v>
       </c>
       <c r="N30" t="n">
-        <v>93.02683855339978</v>
+        <v>160.1163142569386</v>
       </c>
       <c r="O30" t="n">
-        <v>116.9365408908511</v>
+        <v>111.3668945713797</v>
       </c>
       <c r="P30" t="n">
-        <v>60.64060976506313</v>
+        <v>124.6415449118814</v>
       </c>
       <c r="Q30" t="n">
-        <v>111.8734251876951</v>
+        <v>141.6480514419969</v>
       </c>
       <c r="R30" t="n">
-        <v>68.59956432599294</v>
+        <v>148.5042087369091</v>
       </c>
       <c r="S30" t="n">
-        <v>47.21386666256891</v>
+        <v>137.1486849738059</v>
       </c>
       <c r="T30" t="n">
-        <v>50.69332804637072</v>
+        <v>31.54173129040359</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>25.95178134335828</v>
+        <v>140.8995586887279</v>
       </c>
       <c r="B31" t="n">
-        <v>72.70962436241761</v>
+        <v>152.2359337000611</v>
       </c>
       <c r="C31" t="n">
-        <v>119.9290495814406</v>
+        <v>120.8396809915723</v>
       </c>
       <c r="D31" t="n">
-        <v>17.61746055330392</v>
+        <v>18.32783356657444</v>
       </c>
       <c r="E31" t="n">
-        <v>17.29187404340123</v>
+        <v>160.1902551173636</v>
       </c>
       <c r="F31" t="n">
-        <v>84.77129905497431</v>
+        <v>110.3655169719041</v>
       </c>
       <c r="G31" t="n">
-        <v>60.05076057133212</v>
+        <v>20.89378191607361</v>
       </c>
       <c r="H31" t="n">
-        <v>79.6733628597585</v>
+        <v>45.54518973737058</v>
       </c>
       <c r="I31" t="n">
-        <v>85.3253642373306</v>
+        <v>172.4518368578266</v>
       </c>
       <c r="J31" t="n">
-        <v>92.40622041278509</v>
+        <v>154.171788688509</v>
       </c>
       <c r="K31" t="n">
-        <v>65.95392181154642</v>
+        <v>76.79341704148051</v>
       </c>
       <c r="L31" t="n">
-        <v>19.12348077570998</v>
+        <v>169.0706440480794</v>
       </c>
       <c r="M31" t="n">
-        <v>54.52863366439363</v>
+        <v>96.65419049529525</v>
       </c>
       <c r="N31" t="n">
-        <v>83.73061959333259</v>
+        <v>40.09492838238776</v>
       </c>
       <c r="O31" t="n">
-        <v>109.6858175050939</v>
+        <v>163.8147033907732</v>
       </c>
       <c r="P31" t="n">
-        <v>45.10108112808087</v>
+        <v>26.64542478610054</v>
       </c>
       <c r="Q31" t="n">
-        <v>104.2712195645082</v>
+        <v>147.7224630089366</v>
       </c>
       <c r="R31" t="n">
-        <v>55.34188460794506</v>
+        <v>102.6281413411359</v>
       </c>
       <c r="S31" t="n">
-        <v>24.20688272937881</v>
+        <v>112.9751088473116</v>
       </c>
       <c r="T31" t="n">
-        <v>30.44072066591097</v>
+        <v>91.86573340918873</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>152.6183484703805</v>
+        <v>42.32542746389885</v>
       </c>
       <c r="B32" t="n">
-        <v>167.0495579457092</v>
+        <v>104.6501027989557</v>
       </c>
       <c r="C32" t="n">
-        <v>192.3586293058895</v>
+        <v>86.93522228343595</v>
       </c>
       <c r="D32" t="n">
-        <v>151.4240411932009</v>
+        <v>128.7276429063334</v>
       </c>
       <c r="E32" t="n">
-        <v>151.3865061452501</v>
+        <v>97.05770889515563</v>
       </c>
       <c r="F32" t="n">
-        <v>172.6413579603708</v>
+        <v>18.37491075802631</v>
       </c>
       <c r="G32" t="n">
-        <v>161.941221374079</v>
+        <v>111.4260154289699</v>
       </c>
       <c r="H32" t="n">
-        <v>170.196093034816</v>
+        <v>124.5437691789237</v>
       </c>
       <c r="I32" t="n">
-        <v>172.9140917252441</v>
+        <v>61.02766738214043</v>
       </c>
       <c r="J32" t="n">
-        <v>176.5156505976431</v>
+        <v>41.85906702195505</v>
       </c>
       <c r="K32" t="n">
-        <v>164.2217559803103</v>
+        <v>64.97183806511515</v>
       </c>
       <c r="L32" t="n">
-        <v>151.6066385482903</v>
+        <v>66.20520951469207</v>
       </c>
       <c r="M32" t="n">
-        <v>159.9757394864566</v>
+        <v>113.5514438135808</v>
       </c>
       <c r="N32" t="n">
-        <v>172.1327452648576</v>
+        <v>143.43692942332</v>
       </c>
       <c r="O32" t="n">
-        <v>186.1446853839608</v>
+        <v>90.23163699825248</v>
       </c>
       <c r="P32" t="n">
-        <v>157.0126518910331</v>
+        <v>138.991221836608</v>
       </c>
       <c r="Q32" t="n">
-        <v>183.0064276587106</v>
+        <v>44.2637855540797</v>
       </c>
       <c r="R32" t="n">
-        <v>160.2547644436573</v>
+        <v>17.00062284139501</v>
       </c>
       <c r="S32" t="n">
-        <v>152.3313444646468</v>
+        <v>7.660891938607751</v>
       </c>
       <c r="T32" t="n">
-        <v>153.4454391945001</v>
+        <v>127.8495799457378</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>39.31608543734648</v>
+        <v>31.59753395720993</v>
       </c>
       <c r="B33" t="n">
-        <v>78.47897230562542</v>
+        <v>98.81067228748213</v>
       </c>
       <c r="C33" t="n">
-        <v>123.5120907147591</v>
+        <v>98.30219004437731</v>
       </c>
       <c r="D33" t="n">
-        <v>34.38945384228236</v>
+        <v>182.6083944233609</v>
       </c>
       <c r="E33" t="n">
-        <v>34.22380059485069</v>
+        <v>123.4622894850795</v>
       </c>
       <c r="F33" t="n">
-        <v>89.76877387316335</v>
+        <v>56.07213946075495</v>
       </c>
       <c r="G33" t="n">
-        <v>66.92050107716398</v>
+        <v>166.4087118808223</v>
       </c>
       <c r="H33" t="n">
-        <v>84.9711972882929</v>
+        <v>168.9419899622521</v>
       </c>
       <c r="I33" t="n">
-        <v>90.29217796385457</v>
+        <v>7.075631507848879</v>
       </c>
       <c r="J33" t="n">
-        <v>97.01118074840377</v>
+        <v>35.20446635300351</v>
       </c>
       <c r="K33" t="n">
-        <v>72.26464849113172</v>
+        <v>119.4737268251349</v>
       </c>
       <c r="L33" t="n">
-        <v>35.18475715707298</v>
+        <v>21.54014601405793</v>
       </c>
       <c r="M33" t="n">
-        <v>62.01315593105137</v>
+        <v>140.0015330290207</v>
       </c>
       <c r="N33" t="n">
-        <v>88.78668974968387</v>
+        <v>198.5476850557363</v>
       </c>
       <c r="O33" t="n">
-        <v>113.5924213184313</v>
+        <v>69.44194329166788</v>
       </c>
       <c r="P33" t="n">
-        <v>53.91073305145257</v>
+        <v>190.5742541246339</v>
       </c>
       <c r="Q33" t="n">
-        <v>108.3731832544063</v>
+        <v>22.78691476228458</v>
       </c>
       <c r="R33" t="n">
-        <v>62.7294493135589</v>
+        <v>71.76604960472599</v>
       </c>
       <c r="S33" t="n">
-        <v>38.18681435649152</v>
+        <v>54.06667600965737</v>
       </c>
       <c r="T33" t="n">
-        <v>42.41340700631427</v>
+        <v>157.9453045250067</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>129.5460449976728</v>
+        <v>38.27353183984994</v>
       </c>
       <c r="B34" t="n">
-        <v>146.2715703565442</v>
+        <v>98.46954479937071</v>
       </c>
       <c r="C34" t="n">
-        <v>174.6186122758774</v>
+        <v>101.6514499492702</v>
       </c>
       <c r="D34" t="n">
-        <v>128.1368711027112</v>
+        <v>193.0892399427214</v>
       </c>
       <c r="E34" t="n">
-        <v>128.0925123790553</v>
+        <v>133.3478200208144</v>
       </c>
       <c r="F34" t="n">
-        <v>152.626524441571</v>
+        <v>66.16268146745421</v>
       </c>
       <c r="G34" t="n">
-        <v>140.4093182977577</v>
+        <v>177.2710005092929</v>
       </c>
       <c r="H34" t="n">
-        <v>149.8550218345329</v>
+        <v>177.279299094145</v>
       </c>
       <c r="I34" t="n">
-        <v>152.9349554610676</v>
+        <v>10.38505289266746</v>
       </c>
       <c r="J34" t="n">
-        <v>156.9955171035842</v>
+        <v>45.51556076770776</v>
       </c>
       <c r="K34" t="n">
-        <v>143.0335716605342</v>
+        <v>131.2002122984075</v>
       </c>
       <c r="L34" t="n">
-        <v>128.3526015966351</v>
+        <v>17.75864280376039</v>
       </c>
       <c r="M34" t="n">
-        <v>138.1378105695585</v>
+        <v>145.1477049650572</v>
       </c>
       <c r="N34" t="n">
-        <v>152.0509765740719</v>
+        <v>209.4248591827903</v>
       </c>
       <c r="O34" t="n">
-        <v>167.7488044112576</v>
+        <v>67.02925279327881</v>
       </c>
       <c r="P34" t="n">
-        <v>134.6951756321188</v>
+        <v>200.417625807271</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.2594595422604</v>
+        <v>29.91634560919267</v>
       </c>
       <c r="R34" t="n">
-        <v>138.4608501042974</v>
+        <v>83.40344329166068</v>
       </c>
       <c r="S34" t="n">
-        <v>129.2078015876731</v>
+        <v>65.07947698578157</v>
       </c>
       <c r="T34" t="n">
-        <v>130.5194249692574</v>
+        <v>163.5338156284628</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>42.66298795649631</v>
+        <v>37.14721052499662</v>
       </c>
       <c r="B35" t="n">
-        <v>80.20801120465801</v>
+        <v>102.7356151040545</v>
       </c>
       <c r="C35" t="n">
-        <v>124.6178659743068</v>
+        <v>86.91415969377354</v>
       </c>
       <c r="D35" t="n">
-        <v>38.17080694496633</v>
+        <v>135.3557245509896</v>
       </c>
       <c r="E35" t="n">
-        <v>38.02163192730584</v>
+        <v>98.57409414141226</v>
       </c>
       <c r="F35" t="n">
-        <v>91.28421950123996</v>
+        <v>19.00883798660934</v>
       </c>
       <c r="G35" t="n">
-        <v>68.9400422953027</v>
+        <v>118.1904107865131</v>
       </c>
       <c r="H35" t="n">
-        <v>86.57066671722828</v>
+        <v>129.7835937757329</v>
       </c>
       <c r="I35" t="n">
-        <v>91.79898348410948</v>
+        <v>54.18526681447397</v>
       </c>
       <c r="J35" t="n">
-        <v>98.41516731408269</v>
+        <v>36.49851462763673</v>
       </c>
       <c r="K35" t="n">
-        <v>74.13875766969831</v>
+        <v>71.40549855647896</v>
       </c>
       <c r="L35" t="n">
-        <v>38.88885577465116</v>
+        <v>59.88780260507581</v>
       </c>
       <c r="M35" t="n">
-        <v>64.18728437773569</v>
+        <v>116.0683676095426</v>
       </c>
       <c r="N35" t="n">
-        <v>90.31861515748589</v>
+        <v>150.2230199532243</v>
       </c>
       <c r="O35" t="n">
-        <v>114.7937896762862</v>
+        <v>86.37345294269009</v>
       </c>
       <c r="P35" t="n">
-        <v>56.39807714279276</v>
+        <v>145.3102984683866</v>
       </c>
       <c r="Q35" t="n">
-        <v>109.6317600695736</v>
+        <v>38.24913999819821</v>
       </c>
       <c r="R35" t="n">
-        <v>64.8795790556765</v>
+        <v>23.29286503850337</v>
       </c>
       <c r="S35" t="n">
-        <v>41.62461721093142</v>
+        <v>8.956668426772415</v>
       </c>
       <c r="T35" t="n">
-        <v>45.53320833350851</v>
+        <v>131.0071331300595</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>72.25656578273353</v>
+        <v>118.9922195358298</v>
       </c>
       <c r="B36" t="n">
-        <v>99.16756434815213</v>
+        <v>102.2995086362518</v>
       </c>
       <c r="C36" t="n">
-        <v>137.5881291294007</v>
+        <v>72.71013148739705</v>
       </c>
       <c r="D36" t="n">
-        <v>69.69857430513366</v>
+        <v>76.98363437933259</v>
       </c>
       <c r="E36" t="n">
-        <v>69.61698967747651</v>
+        <v>188.6044405625287</v>
       </c>
       <c r="F36" t="n">
-        <v>108.3221560313905</v>
+        <v>98.11465414583792</v>
       </c>
       <c r="G36" t="n">
-        <v>90.29734320020981</v>
+        <v>80.15643709953316</v>
       </c>
       <c r="H36" t="n">
-        <v>104.3808463905316</v>
+        <v>25.32640107225285</v>
       </c>
       <c r="I36" t="n">
-        <v>108.7563061438469</v>
+        <v>156.7778169533563</v>
       </c>
       <c r="J36" t="n">
-        <v>114.3959173869297</v>
+        <v>151.2068478894127</v>
       </c>
       <c r="K36" t="n">
-        <v>94.32622194355395</v>
+        <v>109.8619446196758</v>
       </c>
       <c r="L36" t="n">
-        <v>70.09439250610542</v>
+        <v>144.6445641239413</v>
       </c>
       <c r="M36" t="n">
-        <v>86.72305479586534</v>
+        <v>36.46032720997755</v>
       </c>
       <c r="N36" t="n">
-        <v>107.5096879416194</v>
+        <v>99.36368430741359</v>
       </c>
       <c r="O36" t="n">
-        <v>128.7575042690009</v>
+        <v>122.9556154643395</v>
       </c>
       <c r="P36" t="n">
-        <v>81.12720790673589</v>
+        <v>66.8219641489209</v>
       </c>
       <c r="Q36" t="n">
-        <v>124.1773069980619</v>
+        <v>127.5294857841563</v>
       </c>
       <c r="R36" t="n">
-        <v>87.2366925999612</v>
+        <v>108.4761078030741</v>
       </c>
       <c r="S36" t="n">
-        <v>71.64837412876106</v>
+        <v>106.0406328156535</v>
       </c>
       <c r="T36" t="n">
-        <v>73.98752474898075</v>
+        <v>31.1891755306775</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>31.49097772423862</v>
+        <v>157.7075960671116</v>
       </c>
       <c r="B37" t="n">
-        <v>74.86572111493275</v>
+        <v>104.9549876856572</v>
       </c>
       <c r="C37" t="n">
-        <v>121.2483552739691</v>
+        <v>91.19574713985533</v>
       </c>
       <c r="D37" t="n">
-        <v>25.07113159556691</v>
+        <v>140.2804682018632</v>
       </c>
       <c r="E37" t="n">
-        <v>24.84342228977053</v>
+        <v>253.7228990295277</v>
       </c>
       <c r="F37" t="n">
-        <v>86.62770842289954</v>
+        <v>148.9858644581968</v>
       </c>
       <c r="G37" t="n">
-        <v>62.64407847778168</v>
+        <v>148.1506275388822</v>
       </c>
       <c r="H37" t="n">
-        <v>81.64576824623404</v>
+        <v>82.78431551890006</v>
       </c>
       <c r="I37" t="n">
-        <v>87.16997479274701</v>
+        <v>195.8342759462568</v>
       </c>
       <c r="J37" t="n">
-        <v>94.11214743119633</v>
+        <v>201.2507929684849</v>
       </c>
       <c r="K37" t="n">
-        <v>68.32354298086855</v>
+        <v>178.8048628076156</v>
       </c>
       <c r="L37" t="n">
-        <v>26.15137166792524</v>
+        <v>176.4975104949151</v>
       </c>
       <c r="M37" t="n">
-        <v>57.37210657140503</v>
+        <v>51.85718322274311</v>
       </c>
       <c r="N37" t="n">
-        <v>85.60959864768894</v>
+        <v>161.2133776723595</v>
       </c>
       <c r="O37" t="n">
-        <v>111.1267982302008</v>
+        <v>137.2061059849797</v>
       </c>
       <c r="P37" t="n">
-        <v>48.50045610153317</v>
+        <v>123.6987767525494</v>
       </c>
       <c r="Q37" t="n">
-        <v>105.7859818341017</v>
+        <v>166.3930052914772</v>
       </c>
       <c r="R37" t="n">
-        <v>58.14560099520961</v>
+        <v>168.4556679932545</v>
       </c>
       <c r="S37" t="n">
-        <v>30.06925164697173</v>
+        <v>159.1050819610276</v>
       </c>
       <c r="T37" t="n">
-        <v>35.28206623477475</v>
+        <v>40.73306597925725</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>45.65736003400549</v>
+        <v>121.3897946826524</v>
       </c>
       <c r="B38" t="n">
-        <v>81.84002104902707</v>
+        <v>183.7210373456998</v>
       </c>
       <c r="C38" t="n">
-        <v>125.6744862885421</v>
+        <v>161.6288797293266</v>
       </c>
       <c r="D38" t="n">
-        <v>41.49065541454536</v>
+        <v>128.7507630983085</v>
       </c>
       <c r="E38" t="n">
-        <v>41.35345787614592</v>
+        <v>37.82012446243883</v>
       </c>
       <c r="F38" t="n">
-        <v>92.721479247525</v>
+        <v>97.26413690130678</v>
       </c>
       <c r="G38" t="n">
-        <v>70.83214959025865</v>
+        <v>107.7073079302216</v>
       </c>
       <c r="H38" t="n">
-        <v>88.08486998210343</v>
+        <v>157.5039245940252</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2283076785933</v>
+        <v>124.1706623083103</v>
       </c>
       <c r="J38" t="n">
-        <v>99.74973253777446</v>
+        <v>89.2838014035668</v>
       </c>
       <c r="K38" t="n">
-        <v>75.9013792542988</v>
+        <v>47.40615135149698</v>
       </c>
       <c r="L38" t="n">
-        <v>42.15218959152978</v>
+        <v>139.9098485680507</v>
       </c>
       <c r="M38" t="n">
-        <v>66.21534157343723</v>
+        <v>174.382030066199</v>
       </c>
       <c r="N38" t="n">
-        <v>91.77099883876546</v>
+        <v>130.9691397503948</v>
       </c>
       <c r="O38" t="n">
-        <v>115.9399764194477</v>
+        <v>170.7966555439055</v>
       </c>
       <c r="P38" t="n">
-        <v>58.69588647684823</v>
+        <v>148.1870209251706</v>
       </c>
       <c r="Q38" t="n">
-        <v>110.8313439413743</v>
+        <v>120.8324306112098</v>
       </c>
       <c r="R38" t="n">
-        <v>66.88664861046956</v>
+        <v>66.38013650401368</v>
       </c>
       <c r="S38" t="n">
-        <v>44.68861982490867</v>
+        <v>87.90282778457052</v>
       </c>
       <c r="T38" t="n">
-        <v>48.35015041384402</v>
+        <v>182.7956433154084</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>94.7223617180444</v>
+        <v>44.71834497650532</v>
       </c>
       <c r="B39" t="n">
-        <v>116.5569402887466</v>
+        <v>87.79769775670951</v>
       </c>
       <c r="C39" t="n">
-        <v>150.6048066565546</v>
+        <v>65.28408961336797</v>
       </c>
       <c r="D39" t="n">
-        <v>92.7858058697438</v>
+        <v>113.7041289025875</v>
       </c>
       <c r="E39" t="n">
-        <v>92.7245370033381</v>
+        <v>118.8215268125257</v>
       </c>
       <c r="F39" t="n">
-        <v>124.4387560128212</v>
+        <v>13.78039155292451</v>
       </c>
       <c r="G39" t="n">
-        <v>109.1096911357833</v>
+        <v>99.06526315591536</v>
       </c>
       <c r="H39" t="n">
-        <v>121.0234506363676</v>
+        <v>101.3598069016442</v>
       </c>
       <c r="I39" t="n">
-        <v>124.8168603866629</v>
+        <v>76.2314137550885</v>
       </c>
       <c r="J39" t="n">
-        <v>129.7603191485239</v>
+        <v>65.64831617092649</v>
       </c>
       <c r="K39" t="n">
-        <v>112.4666646472373</v>
+        <v>67.93901851558653</v>
       </c>
       <c r="L39" t="n">
-        <v>93.08350214473836</v>
+        <v>72.77906540105509</v>
       </c>
       <c r="M39" t="n">
-        <v>106.1706303261698</v>
+        <v>87.89415121928793</v>
       </c>
       <c r="N39" t="n">
-        <v>123.7321603789166</v>
+        <v>131.0762433707701</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5826406555557</v>
+        <v>81.25013519654485</v>
       </c>
       <c r="P39" t="n">
-        <v>101.6510618413418</v>
+        <v>120.7946448474585</v>
       </c>
       <c r="Q39" t="n">
-        <v>138.4605289749409</v>
+        <v>50.9666395350372</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5905954881089</v>
+        <v>31.34262225688331</v>
       </c>
       <c r="S39" t="n">
-        <v>94.25923841207535</v>
+        <v>20.50145060426529</v>
       </c>
       <c r="T39" t="n">
-        <v>96.04930155503777</v>
+        <v>102.0330898013526</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>27.10608325159524</v>
+        <v>148.0183533982591</v>
       </c>
       <c r="B40" t="n">
-        <v>73.12957178373743</v>
+        <v>109.3794281654947</v>
       </c>
       <c r="C40" t="n">
-        <v>120.1841159548821</v>
+        <v>87.35114082293262</v>
       </c>
       <c r="D40" t="n">
-        <v>19.27744046018955</v>
+        <v>108.7760440885438</v>
       </c>
       <c r="E40" t="n">
-        <v>18.98035042568462</v>
+        <v>230.6355490138367</v>
       </c>
       <c r="F40" t="n">
-        <v>85.1317680881633</v>
+        <v>133.2997079330254</v>
       </c>
       <c r="G40" t="n">
-        <v>60.5585554611765</v>
+        <v>117.2786372323895</v>
       </c>
       <c r="H40" t="n">
-        <v>80.05678949178314</v>
+        <v>51.4122454173727</v>
       </c>
       <c r="I40" t="n">
-        <v>85.68350235945114</v>
+        <v>186.682085662884</v>
       </c>
       <c r="J40" t="n">
-        <v>92.7370172332772</v>
+        <v>186.7408009618008</v>
       </c>
       <c r="K40" t="n">
-        <v>66.4165988038571</v>
+        <v>152.4475350231958</v>
       </c>
       <c r="L40" t="n">
-        <v>20.66282437925373</v>
+        <v>170.4010112984335</v>
       </c>
       <c r="M40" t="n">
-        <v>55.08735502503797</v>
+        <v>40.64743847910829</v>
       </c>
       <c r="N40" t="n">
-        <v>84.09554953641901</v>
+        <v>129.6610690435654</v>
       </c>
       <c r="O40" t="n">
-        <v>109.9646459372725</v>
+        <v>137.9810596294209</v>
       </c>
       <c r="P40" t="n">
-        <v>45.77501844096479</v>
+        <v>92.22298250730174</v>
       </c>
       <c r="Q40" t="n">
-        <v>104.5644873932771</v>
+        <v>156.8267720244546</v>
       </c>
       <c r="R40" t="n">
-        <v>55.89247700995224</v>
+        <v>148.2926901441186</v>
       </c>
       <c r="S40" t="n">
-        <v>25.44047888352008</v>
+        <v>142.5112809543905</v>
       </c>
       <c r="T40" t="n">
-        <v>31.43059447431677</v>
+        <v>21.73650491534951</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>84.94789534629321</v>
+        <v>45.90195929768434</v>
       </c>
       <c r="B41" t="n">
-        <v>108.7627668082933</v>
+        <v>78.1265979657876</v>
       </c>
       <c r="C41" t="n">
-        <v>144.656928290279</v>
+        <v>90.1146490384028</v>
       </c>
       <c r="D41" t="n">
-        <v>82.78299876918283</v>
+        <v>202.6953190062133</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71432086890491</v>
+        <v>163.106928337582</v>
       </c>
       <c r="F41" t="n">
-        <v>117.170060648355</v>
+        <v>78.59039138893465</v>
       </c>
       <c r="G41" t="n">
-        <v>100.7409738590349</v>
+        <v>189.1956902931632</v>
       </c>
       <c r="H41" t="n">
-        <v>113.5363145352801</v>
+        <v>178.0823770052888</v>
       </c>
       <c r="I41" t="n">
-        <v>117.5715431178159</v>
+        <v>41.22219186481262</v>
       </c>
       <c r="J41" t="n">
-        <v>122.8070011841651</v>
+        <v>74.83982952603436</v>
       </c>
       <c r="K41" t="n">
-        <v>104.3674746805483</v>
+        <v>151.0716266250034</v>
       </c>
       <c r="L41" t="n">
-        <v>83.11652955850751</v>
+        <v>20.46979839758352</v>
       </c>
       <c r="M41" t="n">
-        <v>97.55009922176885</v>
+        <v>136.6227329343801</v>
       </c>
       <c r="N41" t="n">
-        <v>116.4193567511635</v>
+        <v>221.0448460674814</v>
       </c>
       <c r="O41" t="n">
-        <v>136.2851001783836</v>
+        <v>44.40079286892396</v>
       </c>
       <c r="P41" t="n">
-        <v>92.61078494318595</v>
+        <v>206.8593634579208</v>
       </c>
       <c r="Q41" t="n">
-        <v>131.9664245114688</v>
+        <v>41.95137110879918</v>
       </c>
       <c r="R41" t="n">
-        <v>98.0070107738748</v>
+        <v>103.171920995262</v>
       </c>
       <c r="S41" t="n">
-        <v>84.4311739841701</v>
+        <v>81.60339046044982</v>
       </c>
       <c r="T41" t="n">
-        <v>86.42503944767004</v>
+        <v>155.7851790755545</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>160.8087591280494</v>
+        <v>73.92981221956755</v>
       </c>
       <c r="B42" t="n">
-        <v>174.5641759707112</v>
+        <v>147.496766918713</v>
       </c>
       <c r="C42" t="n">
-        <v>198.9194283897809</v>
+        <v>139.1603145405152</v>
       </c>
       <c r="D42" t="n">
-        <v>159.6757244347329</v>
+        <v>181.8990268809512</v>
       </c>
       <c r="E42" t="n">
-        <v>159.6401295581483</v>
+        <v>74.00011934402693</v>
       </c>
       <c r="F42" t="n">
-        <v>179.9225811311005</v>
+        <v>75.7324893926898</v>
       </c>
       <c r="G42" t="n">
-        <v>169.6822203491132</v>
+        <v>162.3084254495037</v>
       </c>
       <c r="H42" t="n">
-        <v>177.5776078417329</v>
+        <v>185.3526445976311</v>
       </c>
       <c r="I42" t="n">
-        <v>180.1842940981335</v>
+        <v>51.74584221572157</v>
       </c>
       <c r="J42" t="n">
-        <v>183.6433272089834</v>
+        <v>24.01692595328977</v>
       </c>
       <c r="K42" t="n">
-        <v>171.8600647612269</v>
+        <v>102.2229636276388</v>
       </c>
       <c r="L42" t="n">
-        <v>159.8488960687201</v>
+        <v>75.69502264790881</v>
       </c>
       <c r="M42" t="n">
-        <v>167.8074311427095</v>
+        <v>172.8510874645395</v>
       </c>
       <c r="N42" t="n">
-        <v>179.4346084647354</v>
+        <v>192.6940171634599</v>
       </c>
       <c r="O42" t="n">
-        <v>192.9169267305757</v>
+        <v>121.6389462900647</v>
       </c>
       <c r="P42" t="n">
-        <v>164.9850586457188</v>
+        <v>195.3741655978574</v>
       </c>
       <c r="Q42" t="n">
-        <v>189.8906245365458</v>
+        <v>67.49954716328936</v>
       </c>
       <c r="R42" t="n">
-        <v>168.0734549218545</v>
+        <v>66.9413198029085</v>
       </c>
       <c r="S42" t="n">
-        <v>160.5363984549406</v>
+        <v>66.36458823774377</v>
       </c>
       <c r="T42" t="n">
-        <v>161.5939340819127</v>
+        <v>188.2815372254841</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>35.40128237965817</v>
+        <v>12.51396511843616</v>
       </c>
       <c r="B43" t="n">
-        <v>76.59272363713599</v>
+        <v>61.17379144400467</v>
       </c>
       <c r="C43" t="n">
-        <v>122.3222497043708</v>
+        <v>57.44996007525651</v>
       </c>
       <c r="D43" t="n">
-        <v>29.83505916833477</v>
+        <v>159.0346917117301</v>
       </c>
       <c r="E43" t="n">
-        <v>29.64396645463745</v>
+        <v>143.7128601396661</v>
       </c>
       <c r="F43" t="n">
-        <v>88.12450841110379</v>
+        <v>38.44724156258869</v>
       </c>
       <c r="G43" t="n">
-        <v>64.69814282053446</v>
+        <v>146.0413835134311</v>
       </c>
       <c r="H43" t="n">
-        <v>83.23220884137079</v>
+        <v>135.5633216775193</v>
       </c>
       <c r="I43" t="n">
-        <v>88.65762021092125</v>
+        <v>47.68488983250258</v>
       </c>
       <c r="J43" t="n">
-        <v>95.49170335797261</v>
+        <v>62.62617628891259</v>
       </c>
       <c r="K43" t="n">
-        <v>70.21164890211877</v>
+        <v>113.3562267458046</v>
       </c>
       <c r="L43" t="n">
-        <v>30.74838786358996</v>
+        <v>30.59426842280655</v>
       </c>
       <c r="M43" t="n">
-        <v>59.60811797512533</v>
+        <v>100.2186057147661</v>
       </c>
       <c r="N43" t="n">
-        <v>87.12389165271595</v>
+        <v>177.7030388401272</v>
       </c>
       <c r="O43" t="n">
-        <v>112.2975262460913</v>
+        <v>39.26534582476429</v>
       </c>
       <c r="P43" t="n">
-        <v>51.12595581651799</v>
+        <v>163.1216986966406</v>
       </c>
       <c r="Q43" t="n">
-        <v>107.0151534536147</v>
+        <v>19.44713416158065</v>
       </c>
       <c r="R43" t="n">
-        <v>60.35296207469791</v>
+        <v>67.75473251522227</v>
       </c>
       <c r="S43" t="n">
-        <v>34.14277391637526</v>
+        <v>44.96333483328182</v>
       </c>
       <c r="T43" t="n">
-        <v>38.81228302858305</v>
+        <v>118.6693085803654</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>74.5846510579379</v>
+        <v>54.68755773688039</v>
       </c>
       <c r="B44" t="n">
-        <v>100.8764823606808</v>
+        <v>123.8496538399867</v>
       </c>
       <c r="C44" t="n">
-        <v>138.8248974501638</v>
+        <v>108.4501598465593</v>
       </c>
       <c r="D44" t="n">
-        <v>72.10929298563465</v>
+        <v>141.6361683797559</v>
       </c>
       <c r="E44" t="n">
-        <v>72.03043888852638</v>
+        <v>77.74087113371354</v>
       </c>
       <c r="F44" t="n">
-        <v>109.8887999843877</v>
+        <v>40.12393792338329</v>
       </c>
       <c r="G44" t="n">
-        <v>92.1708688455107</v>
+        <v>122.7134712617099</v>
       </c>
       <c r="H44" t="n">
-        <v>106.005754409483</v>
+        <v>143.9610314079083</v>
       </c>
       <c r="I44" t="n">
-        <v>110.3167847644864</v>
+        <v>58.36278747289956</v>
       </c>
       <c r="J44" t="n">
-        <v>115.8804763086392</v>
+        <v>27.94496507135201</v>
       </c>
       <c r="K44" t="n">
-        <v>96.12125166093323</v>
+        <v>66.99305570245505</v>
       </c>
       <c r="L44" t="n">
-        <v>72.49194945316223</v>
+        <v>71.80736085231045</v>
       </c>
       <c r="M44" t="n">
-        <v>88.67213264519198</v>
+        <v>135.9741989878046</v>
       </c>
       <c r="N44" t="n">
-        <v>109.0880006051273</v>
+        <v>153.9173782406659</v>
       </c>
       <c r="O44" t="n">
-        <v>130.0782602140021</v>
+        <v>105.4485535105069</v>
       </c>
       <c r="P44" t="n">
-        <v>83.20746803900845</v>
+        <v>154.2276271436718</v>
       </c>
       <c r="Q44" t="n">
-        <v>125.546256208661</v>
+        <v>53.01249017964088</v>
       </c>
       <c r="R44" t="n">
-        <v>89.17454463298361</v>
+        <v>25.43325679953363</v>
       </c>
       <c r="S44" t="n">
-        <v>73.9955970988462</v>
+        <v>29.33521430302542</v>
       </c>
       <c r="T44" t="n">
-        <v>76.26278707994416</v>
+        <v>150.0297608935061</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>25.60239706855786</v>
+        <v>52.91691508572187</v>
       </c>
       <c r="B45" t="n">
-        <v>72.58565461361145</v>
+        <v>58.26722739443092</v>
       </c>
       <c r="C45" t="n">
-        <v>119.8539307418419</v>
+        <v>31.28607191322215</v>
       </c>
       <c r="D45" t="n">
-        <v>17.0986168186155</v>
+        <v>118.6218877924241</v>
       </c>
       <c r="E45" t="n">
-        <v>16.76295584601577</v>
+        <v>153.6896930672691</v>
       </c>
       <c r="F45" t="n">
-        <v>84.66499231813883</v>
+        <v>41.05109966749055</v>
       </c>
       <c r="G45" t="n">
-        <v>59.90059787646595</v>
+        <v>109.3369291755259</v>
       </c>
       <c r="H45" t="n">
-        <v>79.56024465865704</v>
+        <v>88.63846554956876</v>
       </c>
       <c r="I45" t="n">
-        <v>85.2197486677575</v>
+        <v>91.40762203754954</v>
       </c>
       <c r="J45" t="n">
-        <v>92.30870680352336</v>
+        <v>92.70738422387925</v>
       </c>
       <c r="K45" t="n">
-        <v>65.8172286190037</v>
+        <v>96.57383608327248</v>
       </c>
       <c r="L45" t="n">
-        <v>18.64658943993701</v>
+        <v>77.8817256228081</v>
       </c>
       <c r="M45" t="n">
-        <v>54.36321982800746</v>
+        <v>57.30822024690772</v>
       </c>
       <c r="N45" t="n">
-        <v>83.62298989061556</v>
+        <v>139.2070819694727</v>
       </c>
       <c r="O45" t="n">
-        <v>109.603678508175</v>
+        <v>63.48492508931984</v>
       </c>
       <c r="P45" t="n">
-        <v>44.90094987507896</v>
+        <v>119.3460945335622</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.1848118020689</v>
+        <v>61.65573502899288</v>
       </c>
       <c r="R45" t="n">
-        <v>55.17890876704366</v>
+        <v>66.19280684706803</v>
       </c>
       <c r="S45" t="n">
-        <v>23.83193135766632</v>
+        <v>51.67402482274679</v>
       </c>
       <c r="T45" t="n">
-        <v>30.14341147618564</v>
+        <v>74.16205702936719</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>28.97390398215532</v>
+        <v>108.8000191020615</v>
       </c>
       <c r="B46" t="n">
-        <v>73.84227537120962</v>
+        <v>66.77191339827834</v>
       </c>
       <c r="C46" t="n">
-        <v>120.6191074854283</v>
+        <v>44.55661172372312</v>
       </c>
       <c r="D46" t="n">
-        <v>21.82583499939686</v>
+        <v>120.6821115127969</v>
       </c>
       <c r="E46" t="n">
-        <v>21.5638833470813</v>
+        <v>207.7257516235828</v>
       </c>
       <c r="F46" t="n">
-        <v>85.74476835668497</v>
+        <v>99.85459605758807</v>
       </c>
       <c r="G46" t="n">
-        <v>61.41731028194847</v>
+        <v>121.7352940149895</v>
       </c>
       <c r="H46" t="n">
-        <v>80.70834471389202</v>
+        <v>67.78700422690865</v>
       </c>
       <c r="I46" t="n">
-        <v>86.29258333893367</v>
+        <v>147.2146354752049</v>
       </c>
       <c r="J46" t="n">
-        <v>93.30006285126444</v>
+        <v>151.8533480120585</v>
       </c>
       <c r="K46" t="n">
-        <v>67.20053541004904</v>
+        <v>137.8579357439476</v>
       </c>
       <c r="L46" t="n">
-        <v>23.05861387968987</v>
+        <v>129.1117299630824</v>
       </c>
       <c r="M46" t="n">
-        <v>56.03002807762388</v>
+        <v>7.611781135484719</v>
       </c>
       <c r="N46" t="n">
-        <v>84.71604815238402</v>
+        <v>143.1319779726539</v>
       </c>
       <c r="O46" t="n">
-        <v>110.4398964090171</v>
+        <v>94.77779955721418</v>
       </c>
       <c r="P46" t="n">
-        <v>46.9052201358805</v>
+        <v>110.6192325729275</v>
       </c>
       <c r="Q46" t="n">
-        <v>105.064167947705</v>
+        <v>117.5523819623624</v>
       </c>
       <c r="R46" t="n">
-        <v>56.82179466571593</v>
+        <v>121.0311689372574</v>
       </c>
       <c r="S46" t="n">
-        <v>27.42198622542822</v>
+        <v>110.148507863427</v>
       </c>
       <c r="T46" t="n">
-        <v>33.0549486723803</v>
+        <v>23.28607921336214</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>60.35585108635993</v>
+        <v>120.1022360887703</v>
       </c>
       <c r="B47" t="n">
-        <v>90.86266164046292</v>
+        <v>187.6510846898692</v>
       </c>
       <c r="C47" t="n">
-        <v>131.7281698763518</v>
+        <v>168.5508869555812</v>
       </c>
       <c r="D47" t="n">
-        <v>57.268741227764</v>
+        <v>150.3394947381637</v>
       </c>
       <c r="E47" t="n">
-        <v>57.16942113926141</v>
+        <v>17.14297852627309</v>
       </c>
       <c r="F47" t="n">
-        <v>100.7745352206264</v>
+        <v>101.0620014402247</v>
       </c>
       <c r="G47" t="n">
-        <v>81.08901066519947</v>
+        <v>129.2308249540642</v>
       </c>
       <c r="H47" t="n">
-        <v>96.52553317567389</v>
+        <v>175.4659562962328</v>
       </c>
       <c r="I47" t="n">
-        <v>101.241056828238</v>
+        <v>115.7324679583129</v>
       </c>
       <c r="J47" t="n">
-        <v>107.2764810032544</v>
+        <v>80.36395196850668</v>
       </c>
       <c r="K47" t="n">
-        <v>85.55263647479811</v>
+        <v>66.79977017131218</v>
       </c>
       <c r="L47" t="n">
-        <v>57.74981664424854</v>
+        <v>134.6307219602186</v>
       </c>
       <c r="M47" t="n">
-        <v>77.08894664458076</v>
+        <v>186.6047777357485</v>
       </c>
       <c r="N47" t="n">
-        <v>99.90070301528786</v>
+        <v>153.4446257934404</v>
       </c>
       <c r="O47" t="n">
-        <v>122.4757623663806</v>
+        <v>170.8627086479163</v>
       </c>
       <c r="P47" t="n">
-        <v>70.73500777116737</v>
+        <v>169.1913724498562</v>
       </c>
       <c r="Q47" t="n">
-        <v>117.6512687349153</v>
+        <v>117.8997885315057</v>
       </c>
       <c r="R47" t="n">
-        <v>77.66632473230906</v>
+        <v>72.12775684049902</v>
       </c>
       <c r="S47" t="n">
-        <v>59.62639496849759</v>
+        <v>90.65754977966239</v>
       </c>
       <c r="T47" t="n">
-        <v>62.41771607584977</v>
+        <v>196.7221173076535</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>172.0062734054737</v>
+        <v>16.018555410245</v>
       </c>
       <c r="B48" t="n">
-        <v>184.9306697410383</v>
+        <v>85.5431194617111</v>
       </c>
       <c r="C48" t="n">
-        <v>208.0760439585795</v>
+        <v>83.04086759252775</v>
       </c>
       <c r="D48" t="n">
-        <v>170.9474716171383</v>
+        <v>170.5554412479555</v>
       </c>
       <c r="E48" t="n">
-        <v>170.9142242292254</v>
+        <v>127.1661594956652</v>
       </c>
       <c r="F48" t="n">
-        <v>189.9969375527221</v>
+        <v>43.59234965974856</v>
       </c>
       <c r="G48" t="n">
-        <v>180.3295787749213</v>
+        <v>155.2218807795491</v>
       </c>
       <c r="H48" t="n">
-        <v>187.777815210764</v>
+        <v>154.3254771453764</v>
       </c>
       <c r="I48" t="n">
-        <v>190.2447920921312</v>
+        <v>22.65433289570379</v>
       </c>
       <c r="J48" t="n">
-        <v>193.5240881826377</v>
+        <v>40.69914422605809</v>
       </c>
       <c r="K48" t="n">
-        <v>182.3803249757732</v>
+        <v>112.490302896364</v>
       </c>
       <c r="L48" t="n">
-        <v>171.1092360246052</v>
+        <v>18.91555230765211</v>
       </c>
       <c r="M48" t="n">
-        <v>178.566612291466</v>
+        <v>124.4054852669103</v>
       </c>
       <c r="N48" t="n">
-        <v>189.5349038922078</v>
+        <v>187.3615224782157</v>
       </c>
       <c r="O48" t="n">
-        <v>202.3453525478306</v>
+        <v>58.52840974066726</v>
       </c>
       <c r="P48" t="n">
-        <v>175.9169424895363</v>
+        <v>177.4679524190785</v>
       </c>
       <c r="Q48" t="n">
-        <v>199.4621527142805</v>
+        <v>7.220781834492056</v>
       </c>
       <c r="R48" t="n">
-        <v>178.8166304567453</v>
+        <v>64.39199114591416</v>
       </c>
       <c r="S48" t="n">
-        <v>171.7516704647119</v>
+        <v>43.94224393990469</v>
       </c>
       <c r="T48" t="n">
-        <v>172.7405586728406</v>
+        <v>142.3624506465112</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>61.90257472410721</v>
+        <v>148.981934334997</v>
       </c>
       <c r="B49" t="n">
-        <v>91.89735185251027</v>
+        <v>190.4317120775806</v>
       </c>
       <c r="C49" t="n">
-        <v>132.4439909398982</v>
+        <v>161.5386080470198</v>
       </c>
       <c r="D49" t="n">
-        <v>58.89659344077057</v>
+        <v>71.16108347355126</v>
       </c>
       <c r="E49" t="n">
-        <v>58.80002304857585</v>
+        <v>103.7850807985542</v>
       </c>
       <c r="F49" t="n">
-        <v>101.7084408790543</v>
+        <v>117.0079551004081</v>
       </c>
       <c r="G49" t="n">
-        <v>82.24674855443013</v>
+        <v>52.80507902418113</v>
       </c>
       <c r="H49" t="n">
-        <v>97.50014642021284</v>
+        <v>116.9101591007879</v>
       </c>
       <c r="I49" t="n">
-        <v>102.1706982691874</v>
+        <v>166.9881411740021</v>
       </c>
       <c r="J49" t="n">
-        <v>108.1542573066655</v>
+        <v>137.0838696041008</v>
       </c>
       <c r="K49" t="n">
-        <v>86.65075651662701</v>
+        <v>43.46379930392677</v>
       </c>
       <c r="L49" t="n">
-        <v>59.3644786009205</v>
+        <v>174.475562353146</v>
       </c>
       <c r="M49" t="n">
-        <v>78.30584711173132</v>
+        <v>155.234044645282</v>
       </c>
       <c r="N49" t="n">
-        <v>100.8427015706321</v>
+        <v>66.86353314851046</v>
       </c>
       <c r="O49" t="n">
-        <v>123.2453340469365</v>
+        <v>189.3729382021185</v>
       </c>
       <c r="P49" t="n">
-        <v>72.0592903205543</v>
+        <v>92.89687385152313</v>
       </c>
       <c r="Q49" t="n">
-        <v>118.4521888022762</v>
+        <v>152.306576855182</v>
       </c>
       <c r="R49" t="n">
-        <v>78.87431771203669</v>
+        <v>91.54210594788225</v>
       </c>
       <c r="S49" t="n">
-        <v>61.19155966351974</v>
+        <v>112.6411589417271</v>
       </c>
       <c r="T49" t="n">
-        <v>63.91456232534349</v>
+        <v>156.5991418294844</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>65.32405135499984</v>
+        <v>44.80224214096936</v>
       </c>
       <c r="B50" t="n">
-        <v>94.23601331476756</v>
+        <v>110.2529160247907</v>
       </c>
       <c r="C50" t="n">
-        <v>134.0772675140898</v>
+        <v>111.1863819647546</v>
       </c>
       <c r="D50" t="n">
-        <v>62.48289083328649</v>
+        <v>193.5411581050404</v>
       </c>
       <c r="E50" t="n">
-        <v>62.39187157370766</v>
+        <v>122.3963867704068</v>
       </c>
       <c r="F50" t="n">
-        <v>103.8263447974793</v>
+        <v>67.90438844435948</v>
       </c>
       <c r="G50" t="n">
-        <v>84.85181539444299</v>
+        <v>176.7684087692166</v>
       </c>
       <c r="H50" t="n">
-        <v>99.7074795585563</v>
+        <v>181.6161930956472</v>
       </c>
       <c r="I50" t="n">
-        <v>104.2792141932912</v>
+        <v>6.142425418774765</v>
       </c>
       <c r="J50" t="n">
-        <v>110.1482923222752</v>
+        <v>36.16112861144288</v>
       </c>
       <c r="K50" t="n">
-        <v>89.12719300449642</v>
+        <v>127.0671516841121</v>
       </c>
       <c r="L50" t="n">
-        <v>62.92411499191805</v>
+        <v>30.20372020588114</v>
       </c>
       <c r="M50" t="n">
-        <v>81.03769875707737</v>
+        <v>153.1904933871262</v>
       </c>
       <c r="N50" t="n">
-        <v>102.9784122426664</v>
+        <v>208.8319661162387</v>
       </c>
       <c r="O50" t="n">
-        <v>124.9988611640039</v>
+        <v>79.56266984589006</v>
       </c>
       <c r="P50" t="n">
-        <v>75.01895926670076</v>
+        <v>202.227648878761</v>
       </c>
       <c r="Q50" t="n">
-        <v>120.2756166477938</v>
+        <v>35.99179226194901</v>
       </c>
       <c r="R50" t="n">
-        <v>81.58713699166238</v>
+        <v>80.31120898465092</v>
       </c>
       <c r="S50" t="n">
-        <v>64.65067595942887</v>
+        <v>64.69900745875015</v>
       </c>
       <c r="T50" t="n">
-        <v>67.23372818159942</v>
+        <v>171.1504152080739</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>32.60023779854907</v>
+        <v>85.41434368965669</v>
       </c>
       <c r="B51" t="n">
-        <v>75.33903387057961</v>
+        <v>143.7700305759377</v>
       </c>
       <c r="C51" t="n">
-        <v>121.5411760809319</v>
+        <v>121.2750022420016</v>
       </c>
       <c r="D51" t="n">
-        <v>26.45100122822742</v>
+        <v>111.3966831525831</v>
       </c>
       <c r="E51" t="n">
-        <v>26.23527125000468</v>
+        <v>67.6348492039395</v>
       </c>
       <c r="F51" t="n">
-        <v>87.03708228735816</v>
+        <v>58.07248977684002</v>
       </c>
       <c r="G51" t="n">
-        <v>63.20897400546797</v>
+        <v>90.96580752014319</v>
       </c>
       <c r="H51" t="n">
-        <v>82.07999329319669</v>
+        <v>127.0391550085702</v>
       </c>
       <c r="I51" t="n">
-        <v>87.57681389421292</v>
+        <v>96.97987380117941</v>
       </c>
       <c r="J51" t="n">
-        <v>94.48910053865836</v>
+        <v>66.17470480746907</v>
       </c>
       <c r="K51" t="n">
-        <v>68.84185029436708</v>
+        <v>29.37607549843312</v>
       </c>
       <c r="L51" t="n">
-        <v>27.4770461768986</v>
+        <v>107.6309538201867</v>
       </c>
       <c r="M51" t="n">
-        <v>57.98838193064289</v>
+        <v>135.973958961331</v>
       </c>
       <c r="N51" t="n">
-        <v>86.02381767343181</v>
+        <v>120.3258041474534</v>
       </c>
       <c r="O51" t="n">
-        <v>111.4462162273319</v>
+        <v>132.8027637431768</v>
       </c>
       <c r="P51" t="n">
-        <v>49.22791960412507</v>
+        <v>127.2916744672267</v>
       </c>
       <c r="Q51" t="n">
-        <v>106.1214765214768</v>
+        <v>86.56700867892242</v>
       </c>
       <c r="R51" t="n">
-        <v>58.75376363763921</v>
+        <v>27.09931727246067</v>
       </c>
       <c r="S51" t="n">
-        <v>31.22905251688509</v>
+        <v>49.71684167456949</v>
       </c>
       <c r="T51" t="n">
-        <v>36.27558441002002</v>
+        <v>145.9263046115535</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>96.55536951993355</v>
+        <v>63.3428216493232</v>
       </c>
       <c r="B52" t="n">
-        <v>118.0514036475692</v>
+        <v>41.27879546184405</v>
       </c>
       <c r="C52" t="n">
-        <v>151.7643613031236</v>
+        <v>11.04967703125195</v>
       </c>
       <c r="D52" t="n">
-        <v>94.656322264203</v>
+        <v>129.76693845644</v>
       </c>
       <c r="E52" t="n">
-        <v>94.59626491659321</v>
+        <v>173.8797274833856</v>
       </c>
       <c r="F52" t="n">
-        <v>125.839650236741</v>
+        <v>59.72507191622649</v>
       </c>
       <c r="G52" t="n">
-        <v>110.7047346477687</v>
+        <v>123.1550012456972</v>
       </c>
       <c r="H52" t="n">
-        <v>122.4634197530846</v>
+        <v>91.29530295799749</v>
       </c>
       <c r="I52" t="n">
-        <v>126.2135579502875</v>
+        <v>101.6031903897817</v>
       </c>
       <c r="J52" t="n">
-        <v>131.1043630060176</v>
+        <v>108.5626715169502</v>
       </c>
       <c r="K52" t="n">
-        <v>114.0147544424011</v>
+        <v>116.5214476995987</v>
       </c>
       <c r="L52" t="n">
-        <v>94.94815398530073</v>
+        <v>83.76841080961789</v>
       </c>
       <c r="M52" t="n">
-        <v>107.8091662037281</v>
+        <v>46.19836634288428</v>
       </c>
       <c r="N52" t="n">
-        <v>125.1409648585179</v>
+        <v>151.3290348535267</v>
       </c>
       <c r="O52" t="n">
-        <v>143.8068947929764</v>
+        <v>56.14535008492037</v>
       </c>
       <c r="P52" t="n">
-        <v>103.3612690864386</v>
+        <v>127.248104372761</v>
       </c>
       <c r="Q52" t="n">
-        <v>139.7209063014813</v>
+        <v>72.04086035423046</v>
       </c>
       <c r="R52" t="n">
-        <v>108.2227731126704</v>
+        <v>86.55842500446182</v>
       </c>
       <c r="S52" t="n">
-        <v>96.10108011729801</v>
+        <v>70.57254265018406</v>
       </c>
       <c r="T52" t="n">
-        <v>97.85745706330944</v>
+        <v>65.06457469568706</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>47.28965295677435</v>
+        <v>99.43802453747159</v>
       </c>
       <c r="B53" t="n">
-        <v>82.76174114168063</v>
+        <v>127.2149163398862</v>
       </c>
       <c r="C53" t="n">
-        <v>126.276653643444</v>
+        <v>97.37984863555906</v>
       </c>
       <c r="D53" t="n">
-        <v>43.28037936786019</v>
+        <v>60.5102003634259</v>
       </c>
       <c r="E53" t="n">
-        <v>43.14887286837898</v>
+        <v>123.322926980158</v>
       </c>
       <c r="F53" t="n">
-        <v>93.5360329784547</v>
+        <v>67.36872655084609</v>
       </c>
       <c r="G53" t="n">
-        <v>71.89513312508807</v>
+        <v>44.38467692302652</v>
       </c>
       <c r="H53" t="n">
-        <v>88.94189716473009</v>
+        <v>69.28833299634961</v>
       </c>
       <c r="I53" t="n">
-        <v>94.03847140458959</v>
+        <v>128.226656947573</v>
       </c>
       <c r="J53" t="n">
-        <v>100.5073424823027</v>
+        <v>108.5686688522848</v>
       </c>
       <c r="K53" t="n">
-        <v>76.89431789282129</v>
+        <v>42.03858659561212</v>
       </c>
       <c r="L53" t="n">
-        <v>43.91496144661438</v>
+        <v>127.4225503908622</v>
       </c>
       <c r="M53" t="n">
-        <v>67.35123021285001</v>
+        <v>92.20925457225626</v>
       </c>
       <c r="N53" t="n">
-        <v>92.59391437541697</v>
+        <v>76.48863769288486</v>
       </c>
       <c r="O53" t="n">
-        <v>116.5924306447011</v>
+        <v>130.7206455837645</v>
       </c>
       <c r="P53" t="n">
-        <v>59.97435986153092</v>
+        <v>71.85699751697895</v>
       </c>
       <c r="Q53" t="n">
-        <v>111.5136922146718</v>
+        <v>105.3622204959792</v>
       </c>
       <c r="R53" t="n">
-        <v>68.01132636434747</v>
+        <v>57.01693622538763</v>
       </c>
       <c r="S53" t="n">
-        <v>46.35503741075588</v>
+        <v>68.42921076672803</v>
       </c>
       <c r="T53" t="n">
-        <v>49.89442650776435</v>
+        <v>96.73511874541651</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>63.55655851720076</v>
+        <v>61.46870252068278</v>
       </c>
       <c r="B54" t="n">
-        <v>93.01951757873591</v>
+        <v>28.5357144895788</v>
       </c>
       <c r="C54" t="n">
-        <v>133.2250656189161</v>
+        <v>52.26083634975718</v>
       </c>
       <c r="D54" t="n">
-        <v>60.63263223713866</v>
+        <v>187.1460417952717</v>
       </c>
       <c r="E54" t="n">
-        <v>60.53883120435791</v>
+        <v>193.2400008623393</v>
       </c>
       <c r="F54" t="n">
-        <v>102.7234847497142</v>
+        <v>84.47707478723939</v>
       </c>
       <c r="G54" t="n">
-        <v>83.49871268979146</v>
+        <v>178.4054227302888</v>
       </c>
       <c r="H54" t="n">
-        <v>98.55854059917705</v>
+        <v>149.7601347963353</v>
       </c>
       <c r="I54" t="n">
-        <v>103.1811947880525</v>
+        <v>84.5798806312087</v>
       </c>
       <c r="J54" t="n">
-        <v>109.1093522418363</v>
+        <v>109.5915195202111</v>
       </c>
       <c r="K54" t="n">
-        <v>87.83997369068632</v>
+        <v>157.7617876192564</v>
       </c>
       <c r="L54" t="n">
-        <v>61.08722200784576</v>
+        <v>59.22197612246048</v>
       </c>
       <c r="M54" t="n">
-        <v>79.61980322107389</v>
+        <v>97.50844395241036</v>
       </c>
       <c r="N54" t="n">
-        <v>101.8663724353639</v>
+        <v>208.09837349338</v>
       </c>
       <c r="O54" t="n">
-        <v>124.0843251076365</v>
+        <v>10.60322017911743</v>
       </c>
       <c r="P54" t="n">
-        <v>73.48502360738968</v>
+        <v>185.8531645502126</v>
       </c>
       <c r="Q54" t="n">
-        <v>119.3248859422324</v>
+        <v>65.55414274272226</v>
       </c>
       <c r="R54" t="n">
-        <v>80.17895838445392</v>
+        <v>115.343631177681</v>
       </c>
       <c r="S54" t="n">
-        <v>62.86425333312076</v>
+        <v>92.98548423081587</v>
       </c>
       <c r="T54" t="n">
-        <v>65.51777354517554</v>
+        <v>116.4878813518557</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>96.88265824188434</v>
+        <v>96.28915340337494</v>
       </c>
       <c r="B55" t="n">
-        <v>118.3192460593126</v>
+        <v>169.2396798942617</v>
       </c>
       <c r="C55" t="n">
-        <v>151.9727983773014</v>
+        <v>156.580011860059</v>
       </c>
       <c r="D55" t="n">
-        <v>94.99015438174369</v>
+        <v>174.9423862236459</v>
       </c>
       <c r="E55" t="n">
-        <v>94.93030823216121</v>
+        <v>44.48597075579488</v>
       </c>
       <c r="F55" t="n">
-        <v>126.0909499392727</v>
+        <v>88.84446906797493</v>
       </c>
       <c r="G55" t="n">
-        <v>110.9903074971672</v>
+        <v>154.2944181247152</v>
       </c>
       <c r="H55" t="n">
-        <v>122.7216332294475</v>
+        <v>187.6718299519331</v>
       </c>
       <c r="I55" t="n">
-        <v>126.4641146545273</v>
+        <v>80.49171091976028</v>
       </c>
       <c r="J55" t="n">
-        <v>131.3455902727476</v>
+        <v>47.7469594412924</v>
       </c>
       <c r="K55" t="n">
-        <v>114.2920570969123</v>
+        <v>90.79604523143587</v>
       </c>
       <c r="L55" t="n">
-        <v>95.28096362914908</v>
+        <v>103.140232262475</v>
       </c>
       <c r="M55" t="n">
-        <v>108.1023885139728</v>
+        <v>184.6631602163315</v>
       </c>
       <c r="N55" t="n">
-        <v>125.3936647945328</v>
+        <v>182.5451882066223</v>
       </c>
       <c r="O55" t="n">
-        <v>144.0268484515337</v>
+        <v>146.3523360132663</v>
       </c>
       <c r="P55" t="n">
-        <v>103.6670730369196</v>
+        <v>190.9675048699345</v>
       </c>
       <c r="Q55" t="n">
-        <v>139.9472820121569</v>
+        <v>91.40194051720378</v>
       </c>
       <c r="R55" t="n">
-        <v>108.5148778052088</v>
+        <v>69.50257746233032</v>
       </c>
       <c r="S55" t="n">
-        <v>96.4299107362139</v>
+        <v>78.1515386645726</v>
       </c>
       <c r="T55" t="n">
-        <v>98.18040531480963</v>
+        <v>198.2076682521849</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>110.1103903579876</v>
+        <v>147.8083144512494</v>
       </c>
       <c r="B56" t="n">
-        <v>129.3734616713134</v>
+        <v>109.796309554956</v>
       </c>
       <c r="C56" t="n">
-        <v>160.7289023274985</v>
+        <v>87.48553517410174</v>
       </c>
       <c r="D56" t="n">
-        <v>108.4489650768606</v>
+        <v>107.5088982046495</v>
       </c>
       <c r="E56" t="n">
-        <v>108.3965498428237</v>
+        <v>229.7848873286027</v>
       </c>
       <c r="F56" t="n">
-        <v>136.5173111856618</v>
+        <v>132.8346971312565</v>
       </c>
       <c r="G56" t="n">
-        <v>122.7065481345245</v>
+        <v>116.0533126289169</v>
       </c>
       <c r="H56" t="n">
-        <v>133.4115731834299</v>
+        <v>50.15868120011901</v>
       </c>
       <c r="I56" t="n">
-        <v>136.8620505915648</v>
+        <v>186.4682217614505</v>
       </c>
       <c r="J56" t="n">
-        <v>141.3849803935027</v>
+        <v>186.2935014365416</v>
       </c>
       <c r="K56" t="n">
-        <v>125.7009264572799</v>
+        <v>151.4580006718006</v>
       </c>
       <c r="L56" t="n">
-        <v>108.7037746670918</v>
+        <v>170.3268366272684</v>
       </c>
       <c r="M56" t="n">
-        <v>120.1006869222677</v>
+        <v>40.70072653200612</v>
       </c>
       <c r="N56" t="n">
-        <v>135.8735432944114</v>
+        <v>128.3875899250248</v>
       </c>
       <c r="O56" t="n">
-        <v>153.2376640113509</v>
+        <v>138.2168577489374</v>
       </c>
       <c r="P56" t="n">
-        <v>116.1245479165222</v>
+        <v>90.94966604722381</v>
       </c>
       <c r="Q56" t="n">
-        <v>149.4098067041277</v>
+        <v>156.6147809098791</v>
       </c>
       <c r="R56" t="n">
-        <v>120.4721017574361</v>
+        <v>147.607199225403</v>
       </c>
       <c r="S56" t="n">
-        <v>109.7122430787413</v>
+        <v>141.9966937756498</v>
       </c>
       <c r="T56" t="n">
-        <v>111.2539463774429</v>
+        <v>21.64965664268538</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>31.9044365954713</v>
+        <v>130.1369172773891</v>
       </c>
       <c r="B57" t="n">
-        <v>75.04057298891608</v>
+        <v>194.5997419914911</v>
       </c>
       <c r="C57" t="n">
-        <v>121.3563968362962</v>
+        <v>173.3782842626921</v>
       </c>
       <c r="D57" t="n">
-        <v>25.58853328989743</v>
+        <v>140.6238757222113</v>
       </c>
       <c r="E57" t="n">
-        <v>25.36546919561754</v>
+        <v>27.43668535885386</v>
       </c>
       <c r="F57" t="n">
-        <v>86.77886414933566</v>
+        <v>107.8325203546057</v>
       </c>
       <c r="G57" t="n">
-        <v>62.85293918963874</v>
+        <v>119.6834167716107</v>
       </c>
       <c r="H57" t="n">
-        <v>81.80612977621979</v>
+        <v>170.6350757084698</v>
       </c>
       <c r="I57" t="n">
-        <v>87.32019183335608</v>
+        <v>129.5056512317299</v>
       </c>
       <c r="J57" t="n">
-        <v>94.25130073668579</v>
+        <v>94.16604818377911</v>
       </c>
       <c r="K57" t="n">
-        <v>68.51509265778269</v>
+        <v>60.49589060965577</v>
       </c>
       <c r="L57" t="n">
-        <v>26.64780734994754</v>
+        <v>146.9224673377263</v>
       </c>
       <c r="M57" t="n">
-        <v>57.60008688263076</v>
+        <v>187.2968842476616</v>
       </c>
       <c r="N57" t="n">
-        <v>85.76254880228514</v>
+        <v>141.7174002555867</v>
       </c>
       <c r="O57" t="n">
-        <v>111.2446703502767</v>
+        <v>180.2473016890424</v>
       </c>
       <c r="P57" t="n">
-        <v>48.76992555358991</v>
+        <v>160.430052294507</v>
       </c>
       <c r="Q57" t="n">
-        <v>105.9097981730248</v>
+        <v>128.8641908879806</v>
       </c>
       <c r="R57" t="n">
-        <v>58.37056031545419</v>
+        <v>77.35136775840141</v>
       </c>
       <c r="S57" t="n">
-        <v>30.50198831313898</v>
+        <v>98.03968187581492</v>
       </c>
       <c r="T57" t="n">
-        <v>35.65158613920267</v>
+        <v>195.9213040260189</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>35.56275258821363</v>
+        <v>56.67340355852392</v>
       </c>
       <c r="B58" t="n">
-        <v>76.66748914423172</v>
+        <v>34.86098550030874</v>
       </c>
       <c r="C58" t="n">
-        <v>122.3690784073519</v>
+        <v>55.98826397561837</v>
       </c>
       <c r="D58" t="n">
-        <v>30.02647720103435</v>
+        <v>188.334088464812</v>
       </c>
       <c r="E58" t="n">
-        <v>29.83661047588799</v>
+        <v>188.3982272763496</v>
       </c>
       <c r="F58" t="n">
-        <v>88.18949801549446</v>
+        <v>81.58528122160457</v>
       </c>
       <c r="G58" t="n">
-        <v>64.78663644573989</v>
+        <v>178.8545467340894</v>
       </c>
       <c r="H58" t="n">
-        <v>83.30101539681111</v>
+        <v>152.7564987590295</v>
       </c>
       <c r="I58" t="n">
-        <v>88.7222193083004</v>
+        <v>77.9237132403391</v>
       </c>
       <c r="J58" t="n">
-        <v>95.55168228625405</v>
+        <v>103.8517834704756</v>
       </c>
       <c r="K58" t="n">
-        <v>70.2932017984712</v>
+        <v>155.6597882445072</v>
       </c>
       <c r="L58" t="n">
-        <v>30.93415480881876</v>
+        <v>52.48686660820918</v>
       </c>
       <c r="M58" t="n">
-        <v>59.70415652249564</v>
+        <v>102.0712113959271</v>
       </c>
       <c r="N58" t="n">
-        <v>87.18962710231297</v>
+        <v>208.9824027323367</v>
       </c>
       <c r="O58" t="n">
-        <v>112.3485334951808</v>
+        <v>6.682305830521057</v>
       </c>
       <c r="P58" t="n">
-        <v>51.23789550399927</v>
+        <v>187.8572630058659</v>
       </c>
       <c r="Q58" t="n">
-        <v>107.0686772414178</v>
+        <v>60.10701996133949</v>
       </c>
       <c r="R58" t="n">
-        <v>60.4478172369865</v>
+        <v>112.1646264138329</v>
       </c>
       <c r="S58" t="n">
-        <v>34.31016741770453</v>
+        <v>89.57287030885523</v>
       </c>
       <c r="T58" t="n">
-        <v>38.95961872781913</v>
+        <v>121.191997696713</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>97.63686347220171</v>
+        <v>28.13302233335246</v>
       </c>
       <c r="B59" t="n">
-        <v>118.9375955226931</v>
+        <v>80.295928395836</v>
       </c>
       <c r="C59" t="n">
-        <v>152.4547115943076</v>
+        <v>84.95862765096562</v>
       </c>
       <c r="D59" t="n">
-        <v>95.75926623644888</v>
+        <v>186.2279469567793</v>
       </c>
       <c r="E59" t="n">
-        <v>95.69990105391297</v>
+        <v>144.147285039459</v>
       </c>
       <c r="F59" t="n">
-        <v>126.6713673142584</v>
+        <v>60.24321350099702</v>
       </c>
       <c r="G59" t="n">
-        <v>111.6492543593164</v>
+        <v>171.7960302444049</v>
       </c>
       <c r="H59" t="n">
-        <v>123.317909904355</v>
+        <v>165.6754827651494</v>
       </c>
       <c r="I59" t="n">
-        <v>127.0428271726862</v>
+        <v>25.9595971332589</v>
       </c>
       <c r="J59" t="n">
-        <v>131.9028874770075</v>
+        <v>56.14089131587411</v>
       </c>
       <c r="K59" t="n">
-        <v>114.9320754016017</v>
+        <v>131.3251525622303</v>
       </c>
       <c r="L59" t="n">
-        <v>96.04774682820428</v>
+        <v>0.4710051022115979</v>
       </c>
       <c r="M59" t="n">
-        <v>108.7788308592325</v>
+        <v>129.6446600567634</v>
       </c>
       <c r="N59" t="n">
-        <v>125.9772948244216</v>
+        <v>203.8359030132059</v>
       </c>
       <c r="O59" t="n">
-        <v>144.5352576901451</v>
+        <v>48.9176691977614</v>
       </c>
       <c r="P59" t="n">
-        <v>104.372264863409</v>
+        <v>191.763637638407</v>
       </c>
       <c r="Q59" t="n">
-        <v>140.470457332728</v>
+        <v>22.49388763725377</v>
       </c>
       <c r="R59" t="n">
-        <v>109.18876474141</v>
+        <v>83.29542625463006</v>
       </c>
       <c r="S59" t="n">
-        <v>97.18762948683221</v>
+        <v>62.1863386292021</v>
       </c>
       <c r="T59" t="n">
-        <v>98.92471697435326</v>
+        <v>148.3757588638579</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>136.7958382201455</v>
+        <v>100.4388590516266</v>
       </c>
       <c r="B60" t="n">
-        <v>152.7294859363529</v>
+        <v>124.8704230645428</v>
       </c>
       <c r="C60" t="n">
-        <v>180.0627205530516</v>
+        <v>94.63152580402247</v>
       </c>
       <c r="D60" t="n">
-        <v>135.4621028768045</v>
+        <v>58.22548883758402</v>
       </c>
       <c r="E60" t="n">
-        <v>135.4201436544489</v>
+        <v>128.7516740890003</v>
       </c>
       <c r="F60" t="n">
-        <v>158.8262558361388</v>
+        <v>68.84841505185587</v>
       </c>
       <c r="G60" t="n">
-        <v>147.1247778066434</v>
+        <v>43.59151305517014</v>
       </c>
       <c r="H60" t="n">
-        <v>156.164820458519</v>
+        <v>63.89573964314669</v>
       </c>
       <c r="I60" t="n">
-        <v>159.1226702317802</v>
+        <v>130.3916286104187</v>
       </c>
       <c r="J60" t="n">
-        <v>163.029187480141</v>
+        <v>111.9190930952455</v>
       </c>
       <c r="K60" t="n">
-        <v>149.6313008757938</v>
+        <v>47.508702132971</v>
       </c>
       <c r="L60" t="n">
-        <v>135.6661856043638</v>
+        <v>128.5495915082086</v>
       </c>
       <c r="M60" t="n">
-        <v>144.9585398959453</v>
+        <v>87.49595478455439</v>
       </c>
       <c r="N60" t="n">
-        <v>158.2732543954982</v>
+        <v>75.38542625287921</v>
       </c>
       <c r="O60" t="n">
-        <v>173.4087222754943</v>
+        <v>129.7462251571395</v>
       </c>
       <c r="P60" t="n">
-        <v>141.681734596879</v>
+        <v>68.2014769184933</v>
       </c>
       <c r="Q60" t="n">
-        <v>170.0355657764828</v>
+        <v>106.6953789761206</v>
       </c>
       <c r="R60" t="n">
-        <v>145.2664124683261</v>
+        <v>60.74518547973083</v>
       </c>
       <c r="S60" t="n">
-        <v>136.4755640066479</v>
+        <v>70.71669867318646</v>
       </c>
       <c r="T60" t="n">
-        <v>137.7179867487132</v>
+        <v>91.54414467075608</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>26.22995365900283</v>
+        <v>36.6568395666059</v>
       </c>
       <c r="B61" t="n">
-        <v>72.80937432078257</v>
+        <v>77.51864790249478</v>
       </c>
       <c r="C61" t="n">
-        <v>119.9895514099773</v>
+        <v>86.13354967401804</v>
       </c>
       <c r="D61" t="n">
-        <v>18.02471720741207</v>
+        <v>194.1635979752735</v>
       </c>
       <c r="E61" t="n">
-        <v>17.70662085189634</v>
+        <v>154.367778958651</v>
       </c>
       <c r="F61" t="n">
-        <v>84.85687159875648</v>
+        <v>69.29102550372569</v>
       </c>
       <c r="G61" t="n">
-        <v>60.17149955963715</v>
+        <v>180.305922175279</v>
       </c>
       <c r="H61" t="n">
-        <v>79.7644047394745</v>
+        <v>171.1805393771634</v>
       </c>
       <c r="I61" t="n">
-        <v>85.41038166577347</v>
+        <v>33.92996073695538</v>
       </c>
       <c r="J61" t="n">
-        <v>92.48472892881385</v>
+        <v>66.18543668364761</v>
       </c>
       <c r="K61" t="n">
-        <v>66.06387300471822</v>
+        <v>141.4164609383549</v>
       </c>
       <c r="L61" t="n">
-        <v>19.4993084759154</v>
+        <v>10.90604597549641</v>
       </c>
       <c r="M61" t="n">
-        <v>54.66157154130861</v>
+        <v>132.0084192144051</v>
       </c>
       <c r="N61" t="n">
-        <v>83.8172546170735</v>
+        <v>212.2367917123194</v>
       </c>
       <c r="O61" t="n">
-        <v>109.751966159248</v>
+        <v>44.52008785696194</v>
       </c>
       <c r="P61" t="n">
-        <v>45.26171707946673</v>
+        <v>198.8713021498948</v>
       </c>
       <c r="Q61" t="n">
-        <v>104.340800953078</v>
+        <v>32.30438710470128</v>
       </c>
       <c r="R61" t="n">
-        <v>55.47287360520513</v>
+        <v>93.4876540883653</v>
       </c>
       <c r="S61" t="n">
-        <v>24.50487064919657</v>
+        <v>72.00887378602165</v>
       </c>
       <c r="T61" t="n">
-        <v>30.67821684387761</v>
+        <v>151.020191393341</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>97.12363538598692</v>
+        <v>112.5717788917586</v>
       </c>
       <c r="B62" t="n">
-        <v>118.5166446986267</v>
+        <v>119.6152247055538</v>
       </c>
       <c r="C62" t="n">
-        <v>152.1265345993403</v>
+        <v>88.2220891251861</v>
       </c>
       <c r="D62" t="n">
-        <v>95.23592028244317</v>
+        <v>50.94327939009268</v>
       </c>
       <c r="E62" t="n">
-        <v>95.17622866887248</v>
+        <v>156.5646351088959</v>
       </c>
       <c r="F62" t="n">
-        <v>126.2762002087667</v>
+        <v>84.3495457272296</v>
       </c>
       <c r="G62" t="n">
-        <v>111.2007169081751</v>
+        <v>46.76864631587556</v>
       </c>
       <c r="H62" t="n">
-        <v>122.9119617656451</v>
+        <v>36.25020076208251</v>
       </c>
       <c r="I62" t="n">
-        <v>126.6488190940989</v>
+        <v>146.7352861141029</v>
       </c>
       <c r="J62" t="n">
-        <v>131.5234396093444</v>
+        <v>133.2084555299802</v>
       </c>
       <c r="K62" t="n">
-        <v>114.4963990613689</v>
+        <v>74.92243285727166</v>
       </c>
       <c r="L62" t="n">
-        <v>95.52598134892726</v>
+        <v>140.4753393440098</v>
       </c>
       <c r="M62" t="n">
-        <v>108.318407876973</v>
+        <v>68.07792887426909</v>
       </c>
       <c r="N62" t="n">
-        <v>125.5799436740598</v>
+        <v>72.61854030867894</v>
       </c>
       <c r="O62" t="n">
-        <v>144.1890569962138</v>
+        <v>131.6715096710881</v>
       </c>
       <c r="P62" t="n">
-        <v>103.8923149930657</v>
+        <v>51.55824288463182</v>
       </c>
       <c r="Q62" t="n">
-        <v>140.1142135015807</v>
+        <v>120.0591263397895</v>
       </c>
       <c r="R62" t="n">
-        <v>108.7300776586486</v>
+        <v>84.31794911215214</v>
       </c>
       <c r="S62" t="n">
-        <v>96.6720164637655</v>
+        <v>89.14365617391509</v>
       </c>
       <c r="T62" t="n">
-        <v>98.41820497426616</v>
+        <v>67.84976637010884</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>44.3113970352193</v>
+        <v>139.138638354546</v>
       </c>
       <c r="B63" t="n">
-        <v>81.09682131405174</v>
+        <v>135.5440526950758</v>
       </c>
       <c r="C63" t="n">
-        <v>125.1917804243833</v>
+        <v>104.7776796429492</v>
       </c>
       <c r="D63" t="n">
-        <v>40.0047480765294</v>
+        <v>42.78518485131895</v>
       </c>
       <c r="E63" t="n">
-        <v>39.86243670740934</v>
+        <v>181.8739408289167</v>
       </c>
       <c r="F63" t="n">
-        <v>92.06616151326854</v>
+        <v>112.3237128701806</v>
       </c>
       <c r="G63" t="n">
-        <v>69.97212871933237</v>
+        <v>51.18434574329656</v>
       </c>
       <c r="H63" t="n">
-        <v>87.3947921886774</v>
+        <v>15.24821264540858</v>
       </c>
       <c r="I63" t="n">
-        <v>92.57657767790133</v>
+        <v>174.4249078572056</v>
       </c>
       <c r="J63" t="n">
-        <v>99.14088219950224</v>
+        <v>161.9072792760992</v>
       </c>
       <c r="K63" t="n">
-        <v>75.09943245220261</v>
+        <v>98.59823340863279</v>
       </c>
       <c r="L63" t="n">
-        <v>40.69044690462753</v>
+        <v>166.6205619690905</v>
       </c>
       <c r="M63" t="n">
-        <v>65.29453914091901</v>
+        <v>72.08699546339031</v>
       </c>
       <c r="N63" t="n">
-        <v>91.10884484945868</v>
+        <v>64.68741558416264</v>
       </c>
       <c r="O63" t="n">
-        <v>115.4165651632387</v>
+        <v>152.5796929003469</v>
       </c>
       <c r="P63" t="n">
-        <v>57.65511660937904</v>
+        <v>31.32645461952443</v>
       </c>
       <c r="Q63" t="n">
-        <v>110.2836895546628</v>
+        <v>146.9799101594484</v>
       </c>
       <c r="R63" t="n">
-        <v>65.97521613665596</v>
+        <v>112.9521339211555</v>
       </c>
       <c r="S63" t="n">
-        <v>43.31256311733653</v>
+        <v>117.6243091308453</v>
       </c>
       <c r="T63" t="n">
-        <v>47.08123221602618</v>
+        <v>63.91457980017176</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>94.41038430785738</v>
+        <v>152.3534801670281</v>
       </c>
       <c r="B64" t="n">
-        <v>116.3035476036209</v>
+        <v>172.5788120159739</v>
       </c>
       <c r="C64" t="n">
-        <v>150.4087851283012</v>
+        <v>141.3427254713961</v>
       </c>
       <c r="D64" t="n">
-        <v>92.46729490263606</v>
+        <v>18.02052749398809</v>
       </c>
       <c r="E64" t="n">
-        <v>92.40581485056391</v>
+        <v>149.7451195332084</v>
       </c>
       <c r="F64" t="n">
-        <v>124.2014446523539</v>
+        <v>120.2528184017868</v>
       </c>
       <c r="G64" t="n">
-        <v>108.8389615691885</v>
+        <v>8.634069237345615</v>
       </c>
       <c r="H64" t="n">
-        <v>120.7794289589357</v>
+        <v>70.34324294412029</v>
       </c>
       <c r="I64" t="n">
-        <v>124.5802692744601</v>
+        <v>180.3687017382541</v>
       </c>
       <c r="J64" t="n">
-        <v>129.5327575605494</v>
+        <v>157.8359751980778</v>
       </c>
       <c r="K64" t="n">
-        <v>112.2040351885235</v>
+        <v>69.83503301364809</v>
       </c>
       <c r="L64" t="n">
-        <v>92.76601331976487</v>
+        <v>180.3478176518769</v>
       </c>
       <c r="M64" t="n">
-        <v>105.892386882011</v>
+        <v>120.8726881761181</v>
       </c>
       <c r="N64" t="n">
-        <v>123.4934911958813</v>
+        <v>23.84073738500778</v>
       </c>
       <c r="O64" t="n">
-        <v>142.3755747030529</v>
+        <v>180.9515195350243</v>
       </c>
       <c r="P64" t="n">
-        <v>101.3604125346063</v>
+        <v>39.8058433463135</v>
       </c>
       <c r="Q64" t="n">
-        <v>138.2472890863822</v>
+        <v>158.2607276724069</v>
       </c>
       <c r="R64" t="n">
-        <v>106.3134511819786</v>
+        <v>106.114786380394</v>
       </c>
       <c r="S64" t="n">
-        <v>93.94572306250957</v>
+        <v>120.6823009981854</v>
       </c>
       <c r="T64" t="n">
-        <v>95.74164812099207</v>
+        <v>116.8706874386278</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>98.42933370676342</v>
+        <v>45.10003231837821</v>
       </c>
       <c r="B65" t="n">
-        <v>119.5889972112309</v>
+        <v>118.2410767160892</v>
       </c>
       <c r="C65" t="n">
-        <v>152.9634456743556</v>
+        <v>107.7114487414736</v>
       </c>
       <c r="D65" t="n">
-        <v>96.56714604569783</v>
+        <v>158.835977662976</v>
       </c>
       <c r="E65" t="n">
-        <v>96.5082778159302</v>
+        <v>88.51844023125635</v>
       </c>
       <c r="F65" t="n">
-        <v>127.2831957586381</v>
+        <v>44.04915788802116</v>
       </c>
       <c r="G65" t="n">
-        <v>112.3429242287175</v>
+        <v>140.5598470449364</v>
       </c>
       <c r="H65" t="n">
-        <v>123.9462929193393</v>
+        <v>156.2289314142506</v>
       </c>
       <c r="I65" t="n">
-        <v>127.6528752566782</v>
+        <v>39.2149777069347</v>
       </c>
       <c r="J65" t="n">
-        <v>132.4905594751571</v>
+        <v>10.06574984774274</v>
       </c>
       <c r="K65" t="n">
-        <v>115.6060490691879</v>
+        <v>86.62143458223431</v>
       </c>
       <c r="L65" t="n">
-        <v>96.85322037001589</v>
+        <v>55.77833909897209</v>
       </c>
       <c r="M65" t="n">
-        <v>109.4906875874362</v>
+        <v>140.9573893208881</v>
       </c>
       <c r="N65" t="n">
-        <v>126.5924778039647</v>
+        <v>172.1433291334225</v>
       </c>
       <c r="O65" t="n">
-        <v>145.0717661739343</v>
+        <v>95.44894795002149</v>
       </c>
       <c r="P65" t="n">
-        <v>105.1139681392804</v>
+        <v>170.163350851142</v>
       </c>
       <c r="Q65" t="n">
-        <v>141.0224308701768</v>
+        <v>40.61397690484519</v>
       </c>
       <c r="R65" t="n">
-        <v>109.8979661823776</v>
+        <v>42.30571501806241</v>
       </c>
       <c r="S65" t="n">
-        <v>97.98373309145661</v>
+        <v>35.35613166763889</v>
       </c>
       <c r="T65" t="n">
-        <v>99.70695188262417</v>
+        <v>156.5993784246158</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>180.8106462530186</v>
+        <v>61.65785827232352</v>
       </c>
       <c r="B66" t="n">
-        <v>193.1467947403337</v>
+        <v>51.54408679563247</v>
       </c>
       <c r="C66" t="n">
-        <v>215.41116910933</v>
+        <v>21.66509225158091</v>
       </c>
       <c r="D66" t="n">
-        <v>179.8036978482032</v>
+        <v>120.5203210636866</v>
       </c>
       <c r="E66" t="n">
-        <v>179.7720883548767</v>
+        <v>165.4007212058831</v>
       </c>
       <c r="F66" t="n">
-        <v>198.0029494401753</v>
+        <v>52.8098245722305</v>
       </c>
       <c r="G66" t="n">
-        <v>188.7460958238241</v>
+        <v>113.171423551052</v>
       </c>
       <c r="H66" t="n">
-        <v>195.8745506514909</v>
+        <v>85.03586141024837</v>
       </c>
       <c r="I66" t="n">
-        <v>198.2407945549399</v>
+        <v>100.320440377982</v>
       </c>
       <c r="J66" t="n">
-        <v>201.3899312639958</v>
+        <v>103.8324838483033</v>
       </c>
       <c r="K66" t="n">
-        <v>190.7063571196942</v>
+        <v>106.1098425354049</v>
       </c>
       <c r="L66" t="n">
-        <v>179.9575015400016</v>
+        <v>84.7023386345595</v>
       </c>
       <c r="M66" t="n">
-        <v>187.0624674616648</v>
+        <v>46.93971151658422</v>
       </c>
       <c r="N66" t="n">
-        <v>197.5596403646861</v>
+        <v>141.8317042166387</v>
       </c>
       <c r="O66" t="n">
-        <v>209.8808552615066</v>
+        <v>63.0119065039292</v>
       </c>
       <c r="P66" t="n">
-        <v>184.5348269635368</v>
+        <v>119.0696241697403</v>
       </c>
       <c r="Q66" t="n">
-        <v>207.1025882817755</v>
+        <v>70.46852746567592</v>
       </c>
       <c r="R66" t="n">
-        <v>187.3011453128353</v>
+        <v>77.85030886663426</v>
       </c>
       <c r="S66" t="n">
-        <v>180.5684579737409</v>
+        <v>63.48716297975341</v>
       </c>
       <c r="T66" t="n">
-        <v>181.5093174418348</v>
+        <v>64.70145382642205</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>43.29685342647841</v>
+        <v>142.6784830011457</v>
       </c>
       <c r="B67" t="n">
-        <v>80.54695547731366</v>
+        <v>84.56694827101219</v>
       </c>
       <c r="C67" t="n">
-        <v>124.8362907781551</v>
+        <v>74.92319558800926</v>
       </c>
       <c r="D67" t="n">
-        <v>38.87798191891775</v>
+        <v>148.8997391092066</v>
       </c>
       <c r="E67" t="n">
-        <v>38.73153069107041</v>
+        <v>247.2705635103884</v>
       </c>
       <c r="F67" t="n">
-        <v>91.58218006363663</v>
+        <v>137.9095330110241</v>
       </c>
       <c r="G67" t="n">
-        <v>69.33409267406572</v>
+        <v>153.8853431339851</v>
       </c>
       <c r="H67" t="n">
-        <v>86.8847933249727</v>
+        <v>91.67316215476858</v>
       </c>
       <c r="I67" t="n">
-        <v>92.09527861933863</v>
+        <v>180.0069057695731</v>
       </c>
       <c r="J67" t="n">
-        <v>98.69160112550964</v>
+        <v>188.543093144974</v>
       </c>
       <c r="K67" t="n">
-        <v>74.50531768984047</v>
+        <v>176.6267639222162</v>
       </c>
       <c r="L67" t="n">
-        <v>39.58320450291291</v>
+        <v>159.3278413856116</v>
       </c>
       <c r="M67" t="n">
-        <v>64.61032774290902</v>
+        <v>44.92787284139636</v>
       </c>
       <c r="N67" t="n">
-        <v>90.6197507126556</v>
+        <v>170.7281462097727</v>
       </c>
       <c r="O67" t="n">
-        <v>115.0308703066322</v>
+        <v>117.5972307023886</v>
       </c>
       <c r="P67" t="n">
-        <v>56.87908298014489</v>
+        <v>134.6113181508753</v>
       </c>
       <c r="Q67" t="n">
-        <v>109.8799790280757</v>
+        <v>151.1562303521648</v>
       </c>
       <c r="R67" t="n">
-        <v>65.29813744433744</v>
+        <v>160.3876091869849</v>
       </c>
       <c r="S67" t="n">
-        <v>42.27405508363699</v>
+        <v>148.460739304736</v>
       </c>
       <c r="T67" t="n">
-        <v>46.12764936998735</v>
+        <v>42.71293478602904</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>34.72358311157788</v>
+        <v>62.4020072739285</v>
       </c>
       <c r="B68" t="n">
-        <v>76.2818572410049</v>
+        <v>78.98033986334222</v>
       </c>
       <c r="C68" t="n">
-        <v>122.1278395891813</v>
+        <v>96.61698329006572</v>
       </c>
       <c r="D68" t="n">
-        <v>29.02769686972078</v>
+        <v>216.9340451380869</v>
       </c>
       <c r="E68" t="n">
-        <v>28.83125347857825</v>
+        <v>180.5129282646892</v>
       </c>
       <c r="F68" t="n">
-        <v>87.85445584989451</v>
+        <v>94.93284467135113</v>
       </c>
       <c r="G68" t="n">
-        <v>64.32982290049176</v>
+        <v>204.2700983425094</v>
       </c>
       <c r="H68" t="n">
-        <v>82.94622968282478</v>
+        <v>189.0271893320078</v>
       </c>
       <c r="I68" t="n">
-        <v>88.38919646340447</v>
+        <v>57.86911530607038</v>
       </c>
       <c r="J68" t="n">
-        <v>95.24254217622185</v>
+        <v>92.28671729600657</v>
       </c>
       <c r="K68" t="n">
-        <v>69.87239849566319</v>
+        <v>168.2983097522393</v>
       </c>
       <c r="L68" t="n">
-        <v>29.96564343030409</v>
+        <v>38.33689192211158</v>
       </c>
       <c r="M68" t="n">
-        <v>59.20814267074098</v>
+        <v>143.5128071066984</v>
       </c>
       <c r="N68" t="n">
-        <v>86.8507278420656</v>
+        <v>235.8803051827732</v>
       </c>
       <c r="O68" t="n">
-        <v>112.0857298275473</v>
+        <v>46.28088385706156</v>
       </c>
       <c r="P68" t="n">
-        <v>50.65905435492169</v>
+        <v>219.9161615734279</v>
       </c>
       <c r="Q68" t="n">
-        <v>106.7928813108957</v>
+        <v>59.32688559584348</v>
       </c>
       <c r="R68" t="n">
-        <v>59.9579557787979</v>
+        <v>120.578001647095</v>
       </c>
       <c r="S68" t="n">
-        <v>33.43957895499098</v>
+        <v>98.68514680822074</v>
       </c>
       <c r="T68" t="n">
-        <v>38.19515340816419</v>
+        <v>162.7766465319996</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>85.65804066267496</v>
+        <v>147.3614952110507</v>
       </c>
       <c r="B69" t="n">
-        <v>109.318317084553</v>
+        <v>97.96200008825394</v>
       </c>
       <c r="C69" t="n">
-        <v>145.0750905868496</v>
+        <v>81.71524426802516</v>
       </c>
       <c r="D69" t="n">
-        <v>83.5115554376891</v>
+        <v>130.8201475064466</v>
       </c>
       <c r="E69" t="n">
-        <v>83.44347717591742</v>
+        <v>241.8734440864666</v>
       </c>
       <c r="F69" t="n">
-        <v>117.6859299948081</v>
+        <v>137.6500413248471</v>
       </c>
       <c r="G69" t="n">
-        <v>101.340509276747</v>
+        <v>137.7724155340628</v>
       </c>
       <c r="H69" t="n">
-        <v>114.0686184919312</v>
+        <v>73.19699928347157</v>
       </c>
       <c r="I69" t="n">
-        <v>118.0856585598274</v>
+        <v>185.6899043591035</v>
       </c>
       <c r="J69" t="n">
-        <v>123.2992885066707</v>
+        <v>190.1638649711828</v>
       </c>
       <c r="K69" t="n">
-        <v>104.9462947302027</v>
+        <v>167.0685499593516</v>
       </c>
       <c r="L69" t="n">
-        <v>83.84218802162756</v>
+        <v>166.9725393979413</v>
       </c>
       <c r="M69" t="n">
-        <v>98.16912378431745</v>
+        <v>40.4044089160568</v>
       </c>
       <c r="N69" t="n">
-        <v>116.9385378425708</v>
+        <v>152.1411379298841</v>
       </c>
       <c r="O69" t="n">
-        <v>136.728868703854</v>
+        <v>129.3184169391502</v>
       </c>
       <c r="P69" t="n">
-        <v>93.26259965386302</v>
+        <v>115.1378524810402</v>
       </c>
       <c r="Q69" t="n">
-        <v>132.4246661492672</v>
+        <v>156.0960059959686</v>
       </c>
       <c r="R69" t="n">
-        <v>98.62316749747042</v>
+        <v>156.710761310678</v>
       </c>
       <c r="S69" t="n">
-        <v>85.14562905251741</v>
+        <v>147.6780607765726</v>
       </c>
       <c r="T69" t="n">
-        <v>87.12314531704544</v>
+        <v>28.98230481787602</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>21.29565441625971</v>
+        <v>84.88576006706252</v>
       </c>
       <c r="B70" t="n">
-        <v>71.18075173139967</v>
+        <v>107.0211015573628</v>
       </c>
       <c r="C70" t="n">
-        <v>119.0083479241305</v>
+        <v>77.10898573959746</v>
       </c>
       <c r="D70" t="n">
-        <v>9.507095164691602</v>
+        <v>73.322444456654</v>
       </c>
       <c r="E70" t="n">
-        <v>8.889254752572667</v>
+        <v>132.1138535128821</v>
       </c>
       <c r="F70" t="n">
-        <v>83.46366326486736</v>
+        <v>54.73176478549027</v>
       </c>
       <c r="G70" t="n">
-        <v>58.19023790395378</v>
+        <v>60.84109353978412</v>
       </c>
       <c r="H70" t="n">
-        <v>78.28061504297234</v>
+        <v>65.17304055542832</v>
       </c>
       <c r="I70" t="n">
-        <v>84.02635136882012</v>
+        <v>117.1560379113177</v>
       </c>
       <c r="J70" t="n">
-        <v>91.20811100499506</v>
+        <v>102.4833513709381</v>
       </c>
       <c r="K70" t="n">
-        <v>64.26452944235149</v>
+        <v>56.66851044449643</v>
       </c>
       <c r="L70" t="n">
-        <v>12.07134868613411</v>
+        <v>113.0614449800123</v>
       </c>
       <c r="M70" t="n">
-        <v>52.47267699888128</v>
+        <v>75.10584297701391</v>
       </c>
       <c r="N70" t="n">
-        <v>82.40647183083775</v>
+        <v>92.03867224547994</v>
       </c>
       <c r="O70" t="n">
-        <v>108.678371831216</v>
+        <v>111.8260446398761</v>
       </c>
       <c r="P70" t="n">
-        <v>42.59245779530708</v>
+        <v>79.77412242678287</v>
       </c>
       <c r="Q70" t="n">
-        <v>103.2109353295142</v>
+        <v>91.73711027267245</v>
       </c>
       <c r="R70" t="n">
-        <v>53.31729676270534</v>
+        <v>54.16315135153545</v>
       </c>
       <c r="S70" t="n">
-        <v>19.13068513141076</v>
+        <v>58.66597237030594</v>
       </c>
       <c r="T70" t="n">
-        <v>26.58284064548598</v>
+        <v>82.32209367029743</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>44.60020007310005</v>
+        <v>28.67423426280811</v>
       </c>
       <c r="B71" t="n">
-        <v>81.25498364156471</v>
+        <v>46.55348399643857</v>
       </c>
       <c r="C71" t="n">
-        <v>125.2942928675313</v>
+        <v>39.94342429235488</v>
       </c>
       <c r="D71" t="n">
-        <v>40.32440710059225</v>
+        <v>151.4413892438666</v>
       </c>
       <c r="E71" t="n">
-        <v>40.18322783948457</v>
+        <v>155.1013936400429</v>
       </c>
       <c r="F71" t="n">
-        <v>92.20550978729504</v>
+        <v>42.50711227108004</v>
       </c>
       <c r="G71" t="n">
-        <v>70.15537568043186</v>
+        <v>140.3315660978607</v>
       </c>
       <c r="H71" t="n">
-        <v>87.54157664247211</v>
+        <v>122.8327941944352</v>
       </c>
       <c r="I71" t="n">
-        <v>92.71515881397286</v>
+        <v>65.18424742428336</v>
       </c>
       <c r="J71" t="n">
-        <v>99.2703000027868</v>
+        <v>78.18170298450882</v>
       </c>
       <c r="K71" t="n">
-        <v>75.27019791385335</v>
+        <v>115.418242384888</v>
       </c>
       <c r="L71" t="n">
-        <v>41.00476080464345</v>
+        <v>46.39782009748524</v>
       </c>
       <c r="M71" t="n">
-        <v>65.4908755550933</v>
+        <v>83.56419147826247</v>
       </c>
       <c r="N71" t="n">
-        <v>91.2496550631861</v>
+        <v>171.2398093244334</v>
       </c>
       <c r="O71" t="n">
-        <v>115.5277518755897</v>
+        <v>33.76333176426904</v>
       </c>
       <c r="P71" t="n">
-        <v>57.87737390888435</v>
+        <v>153.4165021179317</v>
       </c>
       <c r="Q71" t="n">
-        <v>110.4000458384731</v>
+        <v>36.64976418342168</v>
       </c>
       <c r="R71" t="n">
-        <v>66.16953289563241</v>
+        <v>73.54204992171459</v>
       </c>
       <c r="S71" t="n">
-        <v>43.60798164488896</v>
+        <v>51.7787031319258</v>
       </c>
       <c r="T71" t="n">
-        <v>47.35314526329897</v>
+        <v>102.3062723317033</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>81.72940077854562</v>
+        <v>94.22272805733878</v>
       </c>
       <c r="B72" t="n">
-        <v>106.2680077523359</v>
+        <v>40.27594613135796</v>
       </c>
       <c r="C72" t="n">
-        <v>142.7906752215784</v>
+        <v>26.41707016237617</v>
       </c>
       <c r="D72" t="n">
-        <v>79.47688288473495</v>
+        <v>142.0751003053631</v>
       </c>
       <c r="E72" t="n">
-        <v>79.40534556728223</v>
+        <v>207.1014492472489</v>
       </c>
       <c r="F72" t="n">
-        <v>114.8580564879736</v>
+        <v>93.43884712273493</v>
       </c>
       <c r="G72" t="n">
-        <v>98.04230638822258</v>
+        <v>140.1603751951528</v>
       </c>
       <c r="H72" t="n">
-        <v>111.1487505377789</v>
+        <v>92.75273177605889</v>
       </c>
       <c r="I72" t="n">
-        <v>115.2675920584784</v>
+        <v>131.1255518282116</v>
       </c>
       <c r="J72" t="n">
-        <v>120.6031076204211</v>
+        <v>141.496922998352</v>
       </c>
       <c r="K72" t="n">
-        <v>101.7650224735898</v>
+        <v>145.3050545934943</v>
       </c>
       <c r="L72" t="n">
-        <v>79.82422886383308</v>
+        <v>110.3704579184469</v>
       </c>
       <c r="M72" t="n">
-        <v>94.76060302695575</v>
+        <v>33.09003485914668</v>
       </c>
       <c r="N72" t="n">
-        <v>114.0921410711975</v>
+        <v>164.4904852997536</v>
       </c>
       <c r="O72" t="n">
-        <v>134.3025634844228</v>
+        <v>70.67531589577591</v>
       </c>
       <c r="P72" t="n">
-        <v>89.66776185256542</v>
+        <v>134.3882531491178</v>
       </c>
       <c r="Q72" t="n">
-        <v>129.9180019327442</v>
+        <v>102.5537676367839</v>
       </c>
       <c r="R72" t="n">
-        <v>95.23089933779771</v>
+        <v>119.5687619827851</v>
       </c>
       <c r="S72" t="n">
-        <v>81.19219893684708</v>
+        <v>104.2798326287625</v>
       </c>
       <c r="T72" t="n">
-        <v>83.26366237072853</v>
+        <v>50.35903990177049</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>124.7546033209018</v>
+        <v>17.14912012660832</v>
       </c>
       <c r="B73" t="n">
-        <v>142.0454348783725</v>
+        <v>57.44511607368881</v>
       </c>
       <c r="C73" t="n">
-        <v>171.0941057674686</v>
+        <v>56.36441692889583</v>
       </c>
       <c r="D73" t="n">
-        <v>123.290676903038</v>
+        <v>163.0044858169103</v>
       </c>
       <c r="E73" t="n">
-        <v>123.2445739284085</v>
+        <v>148.8316365607603</v>
       </c>
       <c r="F73" t="n">
-        <v>148.5812546666974</v>
+        <v>43.78636363209117</v>
       </c>
       <c r="G73" t="n">
-        <v>136.0011394807321</v>
+        <v>150.4016417926707</v>
       </c>
       <c r="H73" t="n">
-        <v>145.7328406511204</v>
+        <v>137.9647297254091</v>
       </c>
       <c r="I73" t="n">
-        <v>148.8980653907069</v>
+        <v>49.18875323044824</v>
       </c>
       <c r="J73" t="n">
-        <v>153.0657560195562</v>
+        <v>66.7478818751952</v>
       </c>
       <c r="K73" t="n">
-        <v>138.7088169410498</v>
+        <v>118.7136274509143</v>
       </c>
       <c r="L73" t="n">
-        <v>123.5148720269792</v>
+        <v>29.55750077047859</v>
       </c>
       <c r="M73" t="n">
-        <v>133.6547342377656</v>
+        <v>100.4173004913056</v>
       </c>
       <c r="N73" t="n">
-        <v>147.9899751751634</v>
+        <v>181.9381420156512</v>
       </c>
       <c r="O73" t="n">
-        <v>164.0767949974123</v>
+        <v>33.97957645014376</v>
       </c>
       <c r="P73" t="n">
-        <v>130.0935187232009</v>
+        <v>166.5518359007609</v>
       </c>
       <c r="Q73" t="n">
-        <v>160.507642572969</v>
+        <v>22.77731138286456</v>
       </c>
       <c r="R73" t="n">
-        <v>133.9885826733801</v>
+        <v>73.24941955625705</v>
       </c>
       <c r="S73" t="n">
-        <v>124.403333019401</v>
+        <v>50.46083611108985</v>
       </c>
       <c r="T73" t="n">
-        <v>125.765072931725</v>
+        <v>119.1232772620998</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>102.5053735780034</v>
+        <v>71.48693250431786</v>
       </c>
       <c r="B74" t="n">
-        <v>122.9656298824856</v>
+        <v>142.4853156509851</v>
       </c>
       <c r="C74" t="n">
-        <v>155.6175876659839</v>
+        <v>127.7797194486804</v>
       </c>
       <c r="D74" t="n">
-        <v>100.7185761109626</v>
+        <v>151.4906236602429</v>
       </c>
       <c r="E74" t="n">
-        <v>100.6621357085444</v>
+        <v>60.41191361145908</v>
       </c>
       <c r="F74" t="n">
-        <v>130.4608362725781</v>
+        <v>59.47344034166434</v>
       </c>
       <c r="G74" t="n">
-        <v>115.9308004917934</v>
+        <v>131.5522670372922</v>
       </c>
       <c r="H74" t="n">
-        <v>127.207316640417</v>
+        <v>159.3833076111942</v>
       </c>
       <c r="I74" t="n">
-        <v>130.8215366050472</v>
+        <v>66.26728970171482</v>
       </c>
       <c r="J74" t="n">
-        <v>135.5461774763448</v>
+        <v>31.0409377458458</v>
       </c>
       <c r="K74" t="n">
-        <v>119.0956609612463</v>
+        <v>70.77994741611899</v>
       </c>
       <c r="L74" t="n">
-        <v>100.9928917025921</v>
+        <v>84.39654853941268</v>
       </c>
       <c r="M74" t="n">
-        <v>113.1690264461889</v>
+        <v>154.775893661755</v>
       </c>
       <c r="N74" t="n">
-        <v>129.7870306115211</v>
+        <v>161.5589194316539</v>
       </c>
       <c r="O74" t="n">
-        <v>147.8676273537697</v>
+        <v>122.4339514788875</v>
       </c>
       <c r="P74" t="n">
-        <v>108.9401862326033</v>
+        <v>165.8979352904907</v>
       </c>
       <c r="Q74" t="n">
-        <v>143.8969905416456</v>
+        <v>68.32712487790562</v>
       </c>
       <c r="R74" t="n">
-        <v>113.5631139474066</v>
+        <v>40.24492043618838</v>
       </c>
       <c r="S74" t="n">
-        <v>102.0775677068495</v>
+        <v>48.66299398771365</v>
       </c>
       <c r="T74" t="n">
-        <v>103.7328016209558</v>
+        <v>168.3515242350568</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>19.64067748498107</v>
+        <v>92.12058153465772</v>
       </c>
       <c r="B75" t="n">
-        <v>70.70325828488696</v>
+        <v>123.0407250622506</v>
       </c>
       <c r="C75" t="n">
-        <v>118.723368342897</v>
+        <v>93.88218935869287</v>
       </c>
       <c r="D75" t="n">
-        <v>4.757748787271466</v>
+        <v>68.40073996955358</v>
       </c>
       <c r="E75" t="n">
-        <v>3.357106657289344</v>
+        <v>118.4350835614582</v>
       </c>
       <c r="F75" t="n">
-        <v>83.05681429385218</v>
+        <v>59.85049558251786</v>
       </c>
       <c r="G75" t="n">
-        <v>57.60516558756706</v>
+        <v>51.94233221784844</v>
       </c>
       <c r="H75" t="n">
-        <v>77.84668269462937</v>
+        <v>74.72233637257266</v>
       </c>
       <c r="I75" t="n">
-        <v>83.62224010039851</v>
+        <v>120.4101393247313</v>
       </c>
       <c r="J75" t="n">
-        <v>90.83595559111922</v>
+        <v>100.7156721533329</v>
       </c>
       <c r="K75" t="n">
-        <v>63.73524189566665</v>
+        <v>39.50597272578668</v>
       </c>
       <c r="L75" t="n">
-        <v>8.829992873978577</v>
+        <v>120.0083779681681</v>
       </c>
       <c r="M75" t="n">
-        <v>51.82309472118783</v>
+        <v>92.56133763652008</v>
       </c>
       <c r="N75" t="n">
-        <v>81.99437733563768</v>
+        <v>84.09042232239402</v>
       </c>
       <c r="O75" t="n">
-        <v>108.3662300670108</v>
+        <v>124.9242027508458</v>
       </c>
       <c r="P75" t="n">
-        <v>41.78957736203246</v>
+        <v>79.57412317781798</v>
       </c>
       <c r="Q75" t="n">
-        <v>102.8822068515516</v>
+        <v>97.86149815770385</v>
       </c>
       <c r="R75" t="n">
-        <v>52.67813065338092</v>
+        <v>49.26658978787284</v>
       </c>
       <c r="S75" t="n">
-        <v>17.26946521029129</v>
+        <v>60.60831031758302</v>
       </c>
       <c r="T75" t="n">
-        <v>25.27644618682742</v>
+        <v>98.61253054477059</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>24.58594682741205</v>
+        <v>155.6605204630726</v>
       </c>
       <c r="B76" t="n">
-        <v>72.23339464147263</v>
+        <v>152.0773797378257</v>
       </c>
       <c r="C76" t="n">
-        <v>119.6409242693088</v>
+        <v>121.5149714006904</v>
       </c>
       <c r="D76" t="n">
-        <v>15.53540288676394</v>
+        <v>36.05705083349817</v>
       </c>
       <c r="E76" t="n">
-        <v>15.16518164875405</v>
+        <v>190.5578851890579</v>
       </c>
       <c r="F76" t="n">
-        <v>84.36318492076232</v>
+        <v>128.0999607693758</v>
       </c>
       <c r="G76" t="n">
-        <v>59.47325173304642</v>
+        <v>50.96894359948644</v>
       </c>
       <c r="H76" t="n">
-        <v>79.23899656034015</v>
+        <v>26.29964924679406</v>
       </c>
       <c r="I76" t="n">
-        <v>84.91991291057704</v>
+        <v>190.4309541404031</v>
       </c>
       <c r="J76" t="n">
-        <v>92.03196943173101</v>
+        <v>176.5212926871659</v>
       </c>
       <c r="K76" t="n">
-        <v>65.42853833634396</v>
+        <v>106.9083180941859</v>
       </c>
       <c r="L76" t="n">
-        <v>17.22444029528399</v>
+        <v>183.2907227072911</v>
       </c>
       <c r="M76" t="n">
-        <v>53.89198192507394</v>
+        <v>86.67017814987642</v>
       </c>
       <c r="N76" t="n">
-        <v>83.31740804891992</v>
+        <v>55.3537314325349</v>
       </c>
       <c r="O76" t="n">
-        <v>109.3707108336945</v>
+        <v>169.6287057822989</v>
       </c>
       <c r="P76" t="n">
-        <v>44.32923804249951</v>
+        <v>17.67527874128545</v>
       </c>
       <c r="Q76" t="n">
-        <v>103.9396991335685</v>
+        <v>163.3766528485119</v>
       </c>
       <c r="R76" t="n">
-        <v>54.71469654915359</v>
+        <v>126.5141585023508</v>
       </c>
       <c r="S76" t="n">
-        <v>22.73646845886035</v>
+        <v>132.8365340445813</v>
       </c>
       <c r="T76" t="n">
-        <v>29.28500130044171</v>
+        <v>76.12009726686374</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>22.37639204741329</v>
+        <v>46.29322485692058</v>
       </c>
       <c r="B77" t="n">
-        <v>71.51151963907587</v>
+        <v>103.868956243809</v>
       </c>
       <c r="C77" t="n">
-        <v>119.2064801077261</v>
+        <v>84.14118672852905</v>
       </c>
       <c r="D77" t="n">
-        <v>11.72957298938377</v>
+        <v>121.12552605069</v>
       </c>
       <c r="E77" t="n">
-        <v>11.23462834716461</v>
+        <v>99.3625237480114</v>
       </c>
       <c r="F77" t="n">
-        <v>83.74593189901195</v>
+        <v>17.2392498181326</v>
       </c>
       <c r="G77" t="n">
-        <v>58.59438378685724</v>
+        <v>104.0293235036566</v>
       </c>
       <c r="H77" t="n">
-        <v>78.58150364779746</v>
+        <v>117.0712513271717</v>
       </c>
       <c r="I77" t="n">
-        <v>84.30673607962294</v>
+        <v>68.14961128541131</v>
       </c>
       <c r="J77" t="n">
-        <v>91.46648313531182</v>
+        <v>49.52718013664774</v>
       </c>
       <c r="K77" t="n">
-        <v>64.63070298619411</v>
+        <v>59.93902649024109</v>
       </c>
       <c r="L77" t="n">
-        <v>13.88940182819299</v>
+        <v>71.6835729623496</v>
       </c>
       <c r="M77" t="n">
-        <v>52.92050505684639</v>
+        <v>108.1126282686789</v>
       </c>
       <c r="N77" t="n">
-        <v>82.69234924495393</v>
+        <v>136.093930225865</v>
       </c>
       <c r="O77" t="n">
-        <v>108.8953007614508</v>
+        <v>91.92049177640298</v>
       </c>
       <c r="P77" t="n">
-        <v>43.14296565012417</v>
+        <v>131.2436215144248</v>
       </c>
       <c r="Q77" t="n">
-        <v>103.4393309898896</v>
+        <v>49.39475406637128</v>
       </c>
       <c r="R77" t="n">
-        <v>53.75808923432052</v>
+        <v>13.84039671530617</v>
       </c>
       <c r="S77" t="n">
-        <v>20.32685754463684</v>
+        <v>9.705353591981027</v>
       </c>
       <c r="T77" t="n">
-        <v>27.45624593468817</v>
+        <v>121.8240424725551</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>158.71035952579</v>
+        <v>142.4482812465491</v>
       </c>
       <c r="B78" t="n">
-        <v>172.6330580764759</v>
+        <v>140.9538878061115</v>
       </c>
       <c r="C78" t="n">
-        <v>197.2269256451047</v>
+        <v>110.052780844333</v>
       </c>
       <c r="D78" t="n">
-        <v>157.5622359014343</v>
+        <v>36.95960118863622</v>
       </c>
       <c r="E78" t="n">
-        <v>157.5261634581535</v>
+        <v>180.5277037058486</v>
       </c>
       <c r="F78" t="n">
-        <v>178.0495897478562</v>
+        <v>114.8794757073379</v>
       </c>
       <c r="G78" t="n">
-        <v>167.694892918978</v>
+        <v>46.55432466963327</v>
       </c>
       <c r="H78" t="n">
-        <v>175.6796175294527</v>
+        <v>20.71719481110259</v>
       </c>
       <c r="I78" t="n">
-        <v>178.3140517405882</v>
+        <v>177.1930159358126</v>
       </c>
       <c r="J78" t="n">
-        <v>181.8086709617785</v>
+        <v>163.587476401969</v>
       </c>
       <c r="K78" t="n">
-        <v>169.8982138465134</v>
+        <v>96.98292767926787</v>
       </c>
       <c r="L78" t="n">
-        <v>157.7377278360855</v>
+        <v>170.1170831850849</v>
       </c>
       <c r="M78" t="n">
-        <v>165.7976331411811</v>
+        <v>78.06499154344712</v>
       </c>
       <c r="N78" t="n">
-        <v>177.5564696748485</v>
+        <v>58.73140621471048</v>
       </c>
       <c r="O78" t="n">
-        <v>191.1712892347404</v>
+        <v>157.3525177603054</v>
       </c>
       <c r="P78" t="n">
-        <v>162.940451652847</v>
+        <v>25.58852517780748</v>
       </c>
       <c r="Q78" t="n">
-        <v>188.1169064581435</v>
+        <v>150.1436059530315</v>
       </c>
       <c r="R78" t="n">
-        <v>166.0668764620782</v>
+        <v>113.9348995900275</v>
       </c>
       <c r="S78" t="n">
-        <v>158.4343915865047</v>
+        <v>119.7203826395248</v>
       </c>
       <c r="T78" t="n">
-        <v>159.5058642827029</v>
+        <v>69.89193590577955</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>154.1561167535605</v>
+        <v>129.8670962255408</v>
       </c>
       <c r="B79" t="n">
-        <v>168.455640607751</v>
+        <v>200.2378048695664</v>
       </c>
       <c r="C79" t="n">
-        <v>193.5809657769883</v>
+        <v>183.2710039237531</v>
       </c>
       <c r="D79" t="n">
-        <v>152.9738157136414</v>
+        <v>170.8288947532685</v>
       </c>
       <c r="E79" t="n">
-        <v>152.9366610253302</v>
+        <v>6.218238799457739</v>
       </c>
       <c r="F79" t="n">
-        <v>174.002260103459</v>
+        <v>114.8586783356521</v>
       </c>
       <c r="G79" t="n">
-        <v>163.3912703385323</v>
+        <v>149.7266195215916</v>
       </c>
       <c r="H79" t="n">
-        <v>171.5763915200068</v>
+        <v>195.4917928242084</v>
       </c>
       <c r="I79" t="n">
-        <v>174.2728640950077</v>
+        <v>119.4265032635452</v>
       </c>
       <c r="J79" t="n">
-        <v>177.8469087406923</v>
+        <v>85.07936295138133</v>
       </c>
       <c r="K79" t="n">
-        <v>165.6518432736789</v>
+        <v>87.30787453908603</v>
       </c>
       <c r="L79" t="n">
-        <v>153.154565373099</v>
+        <v>140.7666537847922</v>
       </c>
       <c r="M79" t="n">
-        <v>161.4434429357524</v>
+        <v>204.2144593219186</v>
       </c>
       <c r="N79" t="n">
-        <v>173.4976369727475</v>
+        <v>173.5233736376267</v>
       </c>
       <c r="O79" t="n">
-        <v>187.4075557158907</v>
+        <v>180.8003679880924</v>
       </c>
       <c r="P79" t="n">
-        <v>158.5077944347395</v>
+        <v>189.7398173449176</v>
       </c>
       <c r="Q79" t="n">
-        <v>184.2908044562012</v>
+        <v>126.4213582841058</v>
       </c>
       <c r="R79" t="n">
-        <v>161.7199355973252</v>
+        <v>87.9801103310302</v>
       </c>
       <c r="S79" t="n">
-        <v>153.871981039817</v>
+        <v>104.1032109039571</v>
       </c>
       <c r="T79" t="n">
-        <v>154.9750007333567</v>
+        <v>215.1270359350545</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>65.89860227100495</v>
+        <v>117.7921049280114</v>
       </c>
       <c r="B80" t="n">
-        <v>94.63519589086553</v>
+        <v>144.9910212336917</v>
       </c>
       <c r="C80" t="n">
-        <v>134.3581324665026</v>
+        <v>114.6394966306171</v>
       </c>
       <c r="D80" t="n">
-        <v>63.08332380848237</v>
+        <v>45.73014003373797</v>
       </c>
       <c r="E80" t="n">
-        <v>62.99317212453642</v>
+        <v>126.0266908678023</v>
       </c>
       <c r="F80" t="n">
-        <v>104.1887900392672</v>
+        <v>85.42870758625713</v>
       </c>
       <c r="G80" t="n">
-        <v>85.29492758408365</v>
+        <v>26.97595714196216</v>
       </c>
       <c r="H80" t="n">
-        <v>100.084841888077</v>
+        <v>70.08177760301081</v>
       </c>
       <c r="I80" t="n">
-        <v>104.6400908285718</v>
+        <v>145.2047402949441</v>
       </c>
       <c r="J80" t="n">
-        <v>110.4900013456188</v>
+        <v>123.2494287671144</v>
       </c>
       <c r="K80" t="n">
-        <v>89.54915202670652</v>
+        <v>42.39116563992833</v>
       </c>
       <c r="L80" t="n">
-        <v>63.52037738676911</v>
+        <v>145.630687175934</v>
       </c>
       <c r="M80" t="n">
-        <v>81.50155038822427</v>
+        <v>104.3267808343359</v>
       </c>
       <c r="N80" t="n">
-        <v>103.3438313778911</v>
+        <v>58.99498161174035</v>
       </c>
       <c r="O80" t="n">
-        <v>125.3000773668531</v>
+        <v>149.4892694018021</v>
       </c>
       <c r="P80" t="n">
-        <v>75.51978777314163</v>
+        <v>61.11274737682932</v>
       </c>
       <c r="Q80" t="n">
-        <v>120.5886315365114</v>
+        <v>123.4249612067818</v>
       </c>
       <c r="R80" t="n">
-        <v>82.04788247321028</v>
+        <v>71.38035647308516</v>
       </c>
       <c r="S80" t="n">
-        <v>65.23115818267001</v>
+        <v>85.53635921688345</v>
       </c>
       <c r="T80" t="n">
-        <v>67.79209615463029</v>
+        <v>105.8864835160194</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>94.50869700028755</v>
+        <v>150.4884196713398</v>
       </c>
       <c r="B81" t="n">
-        <v>116.3833679213768</v>
+        <v>125.4208362295939</v>
       </c>
       <c r="C81" t="n">
-        <v>150.4705146774819</v>
+        <v>98.66530486762585</v>
       </c>
       <c r="D81" t="n">
-        <v>92.56767130130206</v>
+        <v>81.4074281601943</v>
       </c>
       <c r="E81" t="n">
-        <v>92.50625795983498</v>
+        <v>216.4045891725898</v>
       </c>
       <c r="F81" t="n">
-        <v>124.2761923992949</v>
+        <v>130.1320238120509</v>
       </c>
       <c r="G81" t="n">
-        <v>108.9242521158357</v>
+        <v>92.05255601355763</v>
       </c>
       <c r="H81" t="n">
-        <v>120.8562931881556</v>
+        <v>26.1154915785932</v>
       </c>
       <c r="I81" t="n">
-        <v>124.6547898639752</v>
+        <v>188.5246047260245</v>
       </c>
       <c r="J81" t="n">
-        <v>129.6044305754047</v>
+        <v>183.1442169210501</v>
       </c>
       <c r="K81" t="n">
-        <v>112.286769728772</v>
+        <v>134.9493874525431</v>
       </c>
       <c r="L81" t="n">
-        <v>92.86606684240283</v>
+        <v>175.5411724119428</v>
       </c>
       <c r="M81" t="n">
-        <v>105.9800487974238</v>
+        <v>53.92610662058718</v>
       </c>
       <c r="N81" t="n">
-        <v>123.5686671906841</v>
+        <v>101.6397056442869</v>
       </c>
       <c r="O81" t="n">
-        <v>142.4407856463851</v>
+        <v>150.0494036217948</v>
       </c>
       <c r="P81" t="n">
-        <v>101.4519904818058</v>
+        <v>63.80882441870356</v>
       </c>
       <c r="Q81" t="n">
-        <v>138.3144464011933</v>
+        <v>159.106681076956</v>
       </c>
       <c r="R81" t="n">
-        <v>106.4007661897121</v>
+        <v>139.2991611397907</v>
       </c>
       <c r="S81" t="n">
-        <v>94.04452150589411</v>
+        <v>137.9423073936131</v>
       </c>
       <c r="T81" t="n">
-        <v>95.83859519243121</v>
+        <v>37.07581260275112</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>52.47678343476121</v>
+        <v>113.3621213875397</v>
       </c>
       <c r="B82" t="n">
-        <v>85.83127238768643</v>
+        <v>83.8886796444241</v>
       </c>
       <c r="C82" t="n">
-        <v>128.3093713579526</v>
+        <v>56.91416176318712</v>
       </c>
       <c r="D82" t="n">
-        <v>48.89471097278896</v>
+        <v>99.81520627163569</v>
       </c>
       <c r="E82" t="n">
-        <v>48.77834307044677</v>
+        <v>199.0807985028352</v>
       </c>
       <c r="F82" t="n">
-        <v>96.26261469663721</v>
+        <v>98.27527618209903</v>
       </c>
       <c r="G82" t="n">
-        <v>75.40829987448865</v>
+        <v>102.019164256307</v>
       </c>
       <c r="H82" t="n">
-        <v>91.80502488506876</v>
+        <v>46.61981350849341</v>
       </c>
       <c r="I82" t="n">
-        <v>96.75089470903349</v>
+        <v>151.9845186224975</v>
       </c>
       <c r="J82" t="n">
-        <v>103.049635689514</v>
+        <v>151.667183587816</v>
       </c>
       <c r="K82" t="n">
-        <v>80.18876259856445</v>
+        <v>124.5376453687123</v>
       </c>
       <c r="L82" t="n">
-        <v>49.45730847654671</v>
+        <v>136.6536806522691</v>
       </c>
       <c r="M82" t="n">
-        <v>71.08930815580491</v>
+        <v>13.89382906025288</v>
       </c>
       <c r="N82" t="n">
-        <v>95.34744098426931</v>
+        <v>122.218988325247</v>
       </c>
       <c r="O82" t="n">
-        <v>118.7909777993519</v>
+        <v>108.3521476741796</v>
       </c>
       <c r="P82" t="n">
-        <v>64.14378663352423</v>
+        <v>89.35815899289061</v>
       </c>
       <c r="Q82" t="n">
-        <v>113.8103908886848</v>
+        <v>122.1541578989667</v>
       </c>
       <c r="R82" t="n">
-        <v>71.71500565937687</v>
+        <v>114.6892804094052</v>
       </c>
       <c r="S82" t="n">
-        <v>51.63614060170693</v>
+        <v>107.6516515788163</v>
       </c>
       <c r="T82" t="n">
-        <v>54.83571208095476</v>
+        <v>14.64738201885096</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>171.097307612258</v>
+        <v>95.64856233337591</v>
       </c>
       <c r="B83" t="n">
-        <v>184.0855322728922</v>
+        <v>139.8909257013495</v>
       </c>
       <c r="C83" t="n">
-        <v>207.3252774043189</v>
+        <v>112.9286733850964</v>
       </c>
       <c r="D83" t="n">
-        <v>170.0328457493356</v>
+        <v>80.93020465156603</v>
       </c>
       <c r="E83" t="n">
-        <v>169.9994194849</v>
+        <v>93.66283428230855</v>
       </c>
       <c r="F83" t="n">
-        <v>189.1744350083754</v>
+        <v>63.46502568821808</v>
       </c>
       <c r="G83" t="n">
-        <v>179.4627748656127</v>
+        <v>60.84715991483247</v>
       </c>
       <c r="H83" t="n">
-        <v>186.9455494700339</v>
+        <v>98.93594174531714</v>
       </c>
       <c r="I83" t="n">
-        <v>189.4233657696518</v>
+        <v>116.7268124475718</v>
       </c>
       <c r="J83" t="n">
-        <v>192.7166398841739</v>
+        <v>90.7719686374749</v>
       </c>
       <c r="K83" t="n">
-        <v>181.523313983614</v>
+        <v>14.82779522882649</v>
       </c>
       <c r="L83" t="n">
-        <v>170.1954794765392</v>
+        <v>121.7691152211788</v>
       </c>
       <c r="M83" t="n">
-        <v>177.6912085798726</v>
+        <v>117.2620201216528</v>
       </c>
       <c r="N83" t="n">
-        <v>188.7103875645257</v>
+        <v>91.27183373494412</v>
       </c>
       <c r="O83" t="n">
-        <v>201.5732429640177</v>
+        <v>136.2504505887181</v>
       </c>
       <c r="P83" t="n">
-        <v>175.0282869601136</v>
+        <v>96.58957815398784</v>
       </c>
       <c r="Q83" t="n">
-        <v>198.6788386988912</v>
+        <v>99.42657315499757</v>
       </c>
       <c r="R83" t="n">
-        <v>177.9424567359607</v>
+        <v>40.36071982356221</v>
       </c>
       <c r="S83" t="n">
-        <v>170.8413500553775</v>
+        <v>59.69142452484794</v>
       </c>
       <c r="T83" t="n">
-        <v>171.8354771050791</v>
+        <v>124.1531455780311</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>57.55967361507008</v>
+        <v>134.1065960007155</v>
       </c>
       <c r="B84" t="n">
-        <v>89.02982953316146</v>
+        <v>151.7987541332691</v>
       </c>
       <c r="C84" t="n">
-        <v>130.4706787185824</v>
+        <v>120.5551781815537</v>
       </c>
       <c r="D84" t="n">
-        <v>54.31386552370523</v>
+        <v>24.69999904504402</v>
       </c>
       <c r="E84" t="n">
-        <v>54.2091318848842</v>
+        <v>146.9879981009761</v>
       </c>
       <c r="F84" t="n">
-        <v>99.12514421299876</v>
+        <v>102.6312512385265</v>
       </c>
       <c r="G84" t="n">
-        <v>79.02983561273155</v>
+        <v>13.00603041088351</v>
       </c>
       <c r="H84" t="n">
-        <v>94.80224586560522</v>
+        <v>55.76413207030183</v>
       </c>
       <c r="I84" t="n">
-        <v>99.59939183555817</v>
+        <v>163.9865895555787</v>
       </c>
       <c r="J84" t="n">
-        <v>105.7285706077413</v>
+        <v>143.9441644958762</v>
       </c>
       <c r="K84" t="n">
-        <v>83.60347405522987</v>
+        <v>63.71581456959563</v>
       </c>
       <c r="L84" t="n">
-        <v>54.82087730745345</v>
+        <v>162.2509908234959</v>
       </c>
       <c r="M84" t="n">
-        <v>74.91991031151571</v>
+        <v>101.3415636418654</v>
       </c>
       <c r="N84" t="n">
-        <v>98.23664147996554</v>
+        <v>42.19045417549018</v>
       </c>
       <c r="O84" t="n">
-        <v>121.1222507780493</v>
+        <v>160.6844115392785</v>
       </c>
       <c r="P84" t="n">
-        <v>68.36467355807126</v>
+        <v>39.16183343634353</v>
       </c>
       <c r="Q84" t="n">
-        <v>116.2415945402066</v>
+        <v>140.4622568928566</v>
       </c>
       <c r="R84" t="n">
-        <v>75.51387464392899</v>
+        <v>92.11288810081751</v>
       </c>
       <c r="S84" t="n">
-        <v>56.79431523712398</v>
+        <v>104.2109715619455</v>
       </c>
       <c r="T84" t="n">
-        <v>59.71815926868422</v>
+        <v>98.87026965089464</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>133.1279909533924</v>
+        <v>109.971555336444</v>
       </c>
       <c r="B85" t="n">
-        <v>149.4531916531625</v>
+        <v>152.2452835264378</v>
       </c>
       <c r="C85" t="n">
-        <v>177.2922557640369</v>
+        <v>124.3576279486883</v>
       </c>
       <c r="D85" t="n">
-        <v>131.7571323941906</v>
+        <v>72.68905534637554</v>
       </c>
       <c r="E85" t="n">
-        <v>131.7139929101153</v>
+        <v>95.79199290949488</v>
       </c>
       <c r="F85" t="n">
-        <v>155.6783227166227</v>
+        <v>77.72026626194908</v>
       </c>
       <c r="G85" t="n">
-        <v>143.7207739527884</v>
+        <v>51.77954381597452</v>
       </c>
       <c r="H85" t="n">
-        <v>152.962125278697</v>
+        <v>99.03903725200375</v>
       </c>
       <c r="I85" t="n">
-        <v>155.9807193297498</v>
+        <v>130.6147312295941</v>
       </c>
       <c r="J85" t="n">
-        <v>159.9639852947196</v>
+        <v>103.5835271289535</v>
       </c>
       <c r="K85" t="n">
-        <v>146.2856343689175</v>
+        <v>12.35943586469693</v>
       </c>
       <c r="L85" t="n">
-        <v>131.966944866402</v>
+        <v>136.0841495836166</v>
       </c>
       <c r="M85" t="n">
-        <v>141.5024342889502</v>
+        <v>124.4932786122879</v>
       </c>
       <c r="N85" t="n">
-        <v>155.1140989010232</v>
+        <v>80.34134510279713</v>
       </c>
       <c r="O85" t="n">
-        <v>170.5301896502605</v>
+        <v>149.9512396648477</v>
       </c>
       <c r="P85" t="n">
-        <v>138.1436735406829</v>
+        <v>90.42287585179518</v>
       </c>
       <c r="Q85" t="n">
-        <v>167.0989355138533</v>
+        <v>113.7516795972217</v>
       </c>
       <c r="R85" t="n">
-        <v>141.8178099265115</v>
+        <v>54.23309409252919</v>
       </c>
       <c r="S85" t="n">
-        <v>132.7988711995209</v>
+        <v>74.01189775413779</v>
       </c>
       <c r="T85" t="n">
-        <v>134.0753687112329</v>
+        <v>129.477835524502</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>62.90322622438705</v>
+        <v>159.8251955230708</v>
       </c>
       <c r="B86" t="n">
-        <v>92.57435060245797</v>
+        <v>154.3820071643079</v>
       </c>
       <c r="C86" t="n">
-        <v>132.9146261630019</v>
+        <v>124.0744543977599</v>
       </c>
       <c r="D86" t="n">
-        <v>59.9474422380985</v>
+        <v>39.52946047956231</v>
       </c>
       <c r="E86" t="n">
-        <v>59.85256738416314</v>
+        <v>195.6785227022871</v>
       </c>
       <c r="F86" t="n">
-        <v>102.3205456299507</v>
+        <v>132.6096005506664</v>
       </c>
       <c r="G86" t="n">
-        <v>83.00249851503503</v>
+        <v>55.47082422127048</v>
       </c>
       <c r="H86" t="n">
-        <v>98.13850245406071</v>
+        <v>27.33515921527048</v>
       </c>
       <c r="I86" t="n">
-        <v>102.7800500913289</v>
+        <v>194.8660708189157</v>
       </c>
       <c r="J86" t="n">
-        <v>108.7300808678038</v>
+        <v>181.3477303199318</v>
       </c>
       <c r="K86" t="n">
-        <v>87.36841944814221</v>
+        <v>112.0334959645545</v>
       </c>
       <c r="L86" t="n">
-        <v>60.40718857488639</v>
+        <v>187.3501662918299</v>
       </c>
       <c r="M86" t="n">
-        <v>79.09925918647139</v>
+        <v>87.81065709866502</v>
       </c>
       <c r="N86" t="n">
-        <v>101.4600294304427</v>
+        <v>57.68837963872313</v>
       </c>
       <c r="O86" t="n">
-        <v>123.7509574763108</v>
+        <v>172.7085532857321</v>
       </c>
       <c r="P86" t="n">
-        <v>72.9206996227043</v>
+        <v>19.40680381878671</v>
       </c>
       <c r="Q86" t="n">
-        <v>118.9781834792111</v>
+        <v>167.6185337552861</v>
       </c>
       <c r="R86" t="n">
-        <v>79.66206817866356</v>
+        <v>131.4875545331727</v>
       </c>
       <c r="S86" t="n">
-        <v>62.20365010203849</v>
+        <v>137.517002937436</v>
       </c>
       <c r="T86" t="n">
-        <v>64.88419213647462</v>
+        <v>76.27089544221552</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>19.65989259857049</v>
+        <v>73.94471442256852</v>
       </c>
       <c r="B87" t="n">
-        <v>70.70859846594134</v>
+        <v>29.27710609133133</v>
       </c>
       <c r="C87" t="n">
-        <v>118.7265486553091</v>
+        <v>6.733095094673838</v>
       </c>
       <c r="D87" t="n">
-        <v>4.836459287647082</v>
+        <v>141.8460789363342</v>
       </c>
       <c r="E87" t="n">
-        <v>3.467755762261961</v>
+        <v>190.1932201772865</v>
       </c>
       <c r="F87" t="n">
-        <v>83.06136024386872</v>
+        <v>75.32097479065375</v>
       </c>
       <c r="G87" t="n">
-        <v>57.61171987789728</v>
+        <v>136.9204326502678</v>
       </c>
       <c r="H87" t="n">
-        <v>77.85153287814308</v>
+        <v>98.39989835779062</v>
       </c>
       <c r="I87" t="n">
-        <v>83.62675531387657</v>
+        <v>110.7987699310392</v>
       </c>
       <c r="J87" t="n">
-        <v>90.84011224712388</v>
+        <v>121.7011165382853</v>
       </c>
       <c r="K87" t="n">
-        <v>63.74116585392384</v>
+        <v>133.4084086233938</v>
       </c>
       <c r="L87" t="n">
-        <v>8.872651186246255</v>
+        <v>90.3369459441985</v>
       </c>
       <c r="M87" t="n">
-        <v>51.83038019732722</v>
+        <v>44.53199581286591</v>
       </c>
       <c r="N87" t="n">
-        <v>81.99898218622728</v>
+        <v>163.8474918586257</v>
       </c>
       <c r="O87" t="n">
-        <v>108.3697143294869</v>
+        <v>53.60896435811141</v>
       </c>
       <c r="P87" t="n">
-        <v>41.79861171158176</v>
+        <v>137.2383089556941</v>
       </c>
       <c r="Q87" t="n">
-        <v>102.8858768323609</v>
+        <v>82.23366740153988</v>
       </c>
       <c r="R87" t="n">
-        <v>52.68529789279885</v>
+        <v>103.1378955283257</v>
       </c>
       <c r="S87" t="n">
-        <v>17.29131555341426</v>
+        <v>86.17630878356333</v>
       </c>
       <c r="T87" t="n">
-        <v>25.29137989026828</v>
+        <v>63.67712355827886</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>21.16338735365355</v>
+        <v>132.9062315946057</v>
       </c>
       <c r="B88" t="n">
-        <v>71.14129239978128</v>
+        <v>189.9957803859743</v>
       </c>
       <c r="C88" t="n">
-        <v>118.984750883863</v>
+        <v>165.474336090657</v>
       </c>
       <c r="D88" t="n">
-        <v>9.207004167182921</v>
+        <v>113.8840125475777</v>
       </c>
       <c r="E88" t="n">
-        <v>8.567550251977341</v>
+        <v>55.89518077024519</v>
       </c>
       <c r="F88" t="n">
-        <v>83.43001350146834</v>
+        <v>105.5423196795223</v>
       </c>
       <c r="G88" t="n">
-        <v>58.14196294057125</v>
+        <v>93.26464471597788</v>
       </c>
       <c r="H88" t="n">
-        <v>78.24473630072536</v>
+        <v>148.6424757197742</v>
       </c>
       <c r="I88" t="n">
-        <v>83.99292703329513</v>
+        <v>140.2724221878668</v>
       </c>
       <c r="J88" t="n">
-        <v>91.17731944054685</v>
+        <v>106.2718684610101</v>
       </c>
       <c r="K88" t="n">
-        <v>64.22082070256408</v>
+        <v>40.8696163089835</v>
       </c>
       <c r="L88" t="n">
-        <v>11.83644906068763</v>
+        <v>153.8522635343724</v>
       </c>
       <c r="M88" t="n">
-        <v>52.41913676028008</v>
+        <v>172.5595528911596</v>
       </c>
       <c r="N88" t="n">
-        <v>82.37239019763038</v>
+        <v>113.6665021863235</v>
       </c>
       <c r="O88" t="n">
-        <v>108.6525313609769</v>
+        <v>180.4567369171869</v>
       </c>
       <c r="P88" t="n">
-        <v>42.52648031884412</v>
+        <v>134.3675599504679</v>
       </c>
       <c r="Q88" t="n">
-        <v>103.1837256492379</v>
+        <v>133.5263143093459</v>
       </c>
       <c r="R88" t="n">
-        <v>53.26460552136297</v>
+        <v>74.74884083562824</v>
       </c>
       <c r="S88" t="n">
-        <v>18.98333956028817</v>
+        <v>97.42678488537118</v>
       </c>
       <c r="T88" t="n">
-        <v>26.47699915109948</v>
+        <v>178.8983171192081</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>172.609945858372</v>
+        <v>74.53953825680594</v>
       </c>
       <c r="B89" t="n">
-        <v>185.4922853631937</v>
+        <v>83.75778963891206</v>
       </c>
       <c r="C89" t="n">
-        <v>208.5753470279847</v>
+        <v>104.3023324965673</v>
       </c>
       <c r="D89" t="n">
-        <v>171.5548698541777</v>
+        <v>228.0203317556176</v>
       </c>
       <c r="E89" t="n">
-        <v>171.5217402030118</v>
+        <v>191.9388415285567</v>
       </c>
       <c r="F89" t="n">
-        <v>190.5436212466965</v>
+        <v>106.9754957316344</v>
       </c>
       <c r="G89" t="n">
-        <v>180.9054789096563</v>
+        <v>215.7389338745778</v>
       </c>
       <c r="H89" t="n">
-        <v>188.330940643643</v>
+        <v>198.5274015674158</v>
       </c>
       <c r="I89" t="n">
-        <v>190.7907655956382</v>
+        <v>68.99587971703021</v>
       </c>
       <c r="J89" t="n">
-        <v>194.0608358873909</v>
+        <v>103.8449892710372</v>
       </c>
       <c r="K89" t="n">
-        <v>182.9497697638896</v>
+        <v>180.5360678248908</v>
       </c>
       <c r="L89" t="n">
-        <v>171.7160620655959</v>
+        <v>50.54180196569544</v>
       </c>
       <c r="M89" t="n">
-        <v>179.1481798502074</v>
+        <v>150.9916285010647</v>
       </c>
       <c r="N89" t="n">
-        <v>190.0829164123383</v>
+        <v>247.2233093991976</v>
       </c>
       <c r="O89" t="n">
-        <v>202.8587612505247</v>
+        <v>52.97065858427136</v>
       </c>
       <c r="P89" t="n">
-        <v>176.5072405689307</v>
+        <v>230.4353522579252</v>
       </c>
       <c r="Q89" t="n">
-        <v>199.9829634839091</v>
+        <v>71.60607531996347</v>
       </c>
       <c r="R89" t="n">
-        <v>179.39738751246</v>
+        <v>132.8503198499639</v>
       </c>
       <c r="S89" t="n">
-        <v>172.3562346589485</v>
+        <v>110.9088340636186</v>
       </c>
       <c r="T89" t="n">
-        <v>173.341673953486</v>
+        <v>170.2089245786982</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>27.47235398668222</v>
+        <v>110.188374783146</v>
       </c>
       <c r="B90" t="n">
-        <v>73.2661228235804</v>
+        <v>111.6113973081266</v>
       </c>
       <c r="C90" t="n">
-        <v>120.2672532827774</v>
+        <v>80.25650828369984</v>
       </c>
       <c r="D90" t="n">
-        <v>19.7891433625439</v>
+        <v>58.97216277178882</v>
       </c>
       <c r="E90" t="n">
-        <v>19.49985093812126</v>
+        <v>163.3285675340425</v>
       </c>
       <c r="F90" t="n">
-        <v>85.24909631277028</v>
+        <v>83.85164737098185</v>
       </c>
       <c r="G90" t="n">
-        <v>60.72338201937991</v>
+        <v>56.64219794233223</v>
       </c>
       <c r="H90" t="n">
-        <v>80.18154418604595</v>
+        <v>31.87180841426561</v>
       </c>
       <c r="I90" t="n">
-        <v>85.8000761124909</v>
+        <v>145.6793753602519</v>
       </c>
       <c r="J90" t="n">
-        <v>92.84473517465767</v>
+        <v>134.5870318479697</v>
       </c>
       <c r="K90" t="n">
-        <v>66.56692182307722</v>
+        <v>82.99463362917719</v>
       </c>
       <c r="L90" t="n">
-        <v>21.14102163224485</v>
+        <v>137.6889299513705</v>
       </c>
       <c r="M90" t="n">
-        <v>55.26850068512568</v>
+        <v>57.86238760072194</v>
       </c>
       <c r="N90" t="n">
-        <v>84.2143214433238</v>
+        <v>81.10868955707812</v>
       </c>
       <c r="O90" t="n">
-        <v>110.0555034536522</v>
+        <v>125.5591760309546</v>
       </c>
       <c r="P90" t="n">
-        <v>45.99285594087225</v>
+        <v>56.40752054168622</v>
       </c>
       <c r="Q90" t="n">
-        <v>104.6600330027942</v>
+        <v>118.0514076400515</v>
       </c>
       <c r="R90" t="n">
-        <v>56.07102166569825</v>
+        <v>87.5284559331391</v>
       </c>
       <c r="S90" t="n">
-        <v>25.83037843605845</v>
+        <v>89.76398869735853</v>
       </c>
       <c r="T90" t="n">
-        <v>31.74701172293409</v>
+        <v>57.80764106382628</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>122.4261795231264</v>
+        <v>118.5806471866925</v>
       </c>
       <c r="B91" t="n">
-        <v>140.0048711747529</v>
+        <v>190.5188083461959</v>
       </c>
       <c r="C91" t="n">
-        <v>169.4038116786128</v>
+        <v>175.6259844794568</v>
       </c>
       <c r="D91" t="n">
-        <v>120.934070443703</v>
+        <v>176.3654180293293</v>
       </c>
       <c r="E91" t="n">
-        <v>120.8870687280825</v>
+        <v>22.45550008737866</v>
       </c>
       <c r="F91" t="n">
-        <v>146.6316733219777</v>
+        <v>107.0764533426517</v>
       </c>
       <c r="G91" t="n">
-        <v>133.86847396953</v>
+        <v>155.2919440697391</v>
       </c>
       <c r="H91" t="n">
-        <v>143.7446319940958</v>
+        <v>196.2801440156362</v>
       </c>
       <c r="I91" t="n">
-        <v>146.9526871478314</v>
+        <v>104.8628740390868</v>
       </c>
       <c r="J91" t="n">
-        <v>151.1740190929364</v>
+        <v>71.51506663764283</v>
       </c>
       <c r="K91" t="n">
-        <v>136.6184258438768</v>
+        <v>91.53828172046646</v>
       </c>
       <c r="L91" t="n">
-        <v>121.1626262290243</v>
+        <v>127.1817875628242</v>
       </c>
       <c r="M91" t="n">
-        <v>131.4840156332355</v>
+        <v>199.9518670659943</v>
       </c>
       <c r="N91" t="n">
-        <v>146.0325002703804</v>
+        <v>181.014912422875</v>
       </c>
       <c r="O91" t="n">
-        <v>162.3134407234843</v>
+        <v>169.1967851018033</v>
       </c>
       <c r="P91" t="n">
-        <v>127.8623556667756</v>
+        <v>194.2271846467518</v>
       </c>
       <c r="Q91" t="n">
-        <v>158.704636690946</v>
+        <v>114.3524929510968</v>
       </c>
       <c r="R91" t="n">
-        <v>131.8233616234027</v>
+        <v>83.00657281431369</v>
       </c>
       <c r="S91" t="n">
-        <v>122.0682090030373</v>
+        <v>96.21276396983201</v>
       </c>
       <c r="T91" t="n">
-        <v>123.4557084641909</v>
+        <v>212.0814897943991</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>156.5214676339945</v>
+        <v>27.41723891757506</v>
       </c>
       <c r="B92" t="n">
-        <v>170.6228717093051</v>
+        <v>92.00479560897709</v>
       </c>
       <c r="C92" t="n">
-        <v>195.4698232692549</v>
+        <v>77.22903436822902</v>
       </c>
       <c r="D92" t="n">
-        <v>155.3571684594996</v>
+        <v>137.5230700800911</v>
       </c>
       <c r="E92" t="n">
-        <v>155.3205839009723</v>
+        <v>109.3417382764251</v>
       </c>
       <c r="F92" t="n">
-        <v>176.1012436607817</v>
+        <v>12.58871791581879</v>
       </c>
       <c r="G92" t="n">
-        <v>165.6247829299757</v>
+        <v>121.4284082812626</v>
       </c>
       <c r="H92" t="n">
-        <v>173.7046908543027</v>
+        <v>127.2634526906319</v>
       </c>
       <c r="I92" t="n">
-        <v>176.3686271921377</v>
+        <v>51.12021050052226</v>
       </c>
       <c r="J92" t="n">
-        <v>179.9010407040002</v>
+        <v>41.23698960575672</v>
       </c>
       <c r="K92" t="n">
-        <v>167.8552789689073</v>
+        <v>79.13536389522287</v>
       </c>
       <c r="L92" t="n">
-        <v>155.5351484147074</v>
+        <v>52.43572475439247</v>
       </c>
       <c r="M92" t="n">
-        <v>163.7035331466971</v>
+        <v>108.8629956861694</v>
       </c>
       <c r="N92" t="n">
-        <v>175.6026524084687</v>
+        <v>153.5813341737137</v>
       </c>
       <c r="O92" t="n">
-        <v>189.3580033617985</v>
+        <v>75.65456984311413</v>
       </c>
       <c r="P92" t="n">
-        <v>160.8091489758212</v>
+        <v>145.9531166104463</v>
       </c>
       <c r="Q92" t="n">
-        <v>186.2738900245442</v>
+        <v>30.11135626252525</v>
       </c>
       <c r="R92" t="n">
-        <v>163.9762149440132</v>
+        <v>31.71467199491124</v>
       </c>
       <c r="S92" t="n">
-        <v>156.2416335260228</v>
+        <v>9.644145069755321</v>
       </c>
       <c r="T92" t="n">
-        <v>157.3280405714955</v>
+        <v>124.6252123331381</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>19.68190193954345</v>
+        <v>110.8448645524009</v>
       </c>
       <c r="B93" t="n">
-        <v>70.71472112642599</v>
+        <v>120.8183364705543</v>
       </c>
       <c r="C93" t="n">
-        <v>118.7301951593273</v>
+        <v>89.47400886455274</v>
       </c>
       <c r="D93" t="n">
-        <v>4.925162475649419</v>
+        <v>50.41677180084788</v>
       </c>
       <c r="E93" t="n">
-        <v>3.590434095924673</v>
+        <v>152.0062560059528</v>
       </c>
       <c r="F93" t="n">
-        <v>83.06657241352993</v>
+        <v>81.93673093789444</v>
       </c>
       <c r="G93" t="n">
-        <v>57.61923423874862</v>
+        <v>44.36495975875464</v>
       </c>
       <c r="H93" t="n">
-        <v>77.85709382225276</v>
+        <v>40.69303973443063</v>
       </c>
       <c r="I93" t="n">
-        <v>83.63193224658545</v>
+        <v>144.3963822144661</v>
       </c>
       <c r="J93" t="n">
-        <v>90.84487811671357</v>
+        <v>129.995818356752</v>
       </c>
       <c r="K93" t="n">
-        <v>63.74795770366219</v>
+        <v>70.27307009503731</v>
       </c>
       <c r="L93" t="n">
-        <v>8.921313022379298</v>
+        <v>138.8684363111906</v>
       </c>
       <c r="M93" t="n">
-        <v>51.83873260767442</v>
+        <v>71.4905403133257</v>
       </c>
       <c r="N93" t="n">
-        <v>82.00426188039067</v>
+        <v>71.57965401601146</v>
       </c>
       <c r="O93" t="n">
-        <v>108.3737093156135</v>
+        <v>131.7114026792484</v>
       </c>
       <c r="P93" t="n">
-        <v>41.80896827220277</v>
+        <v>52.99957909624205</v>
       </c>
       <c r="Q93" t="n">
-        <v>102.8900847435466</v>
+        <v>118.1546663541509</v>
       </c>
       <c r="R93" t="n">
-        <v>52.69351479094398</v>
+        <v>80.6104055914678</v>
       </c>
       <c r="S93" t="n">
-        <v>17.31633565562366</v>
+        <v>86.28876962309525</v>
       </c>
       <c r="T93" t="n">
-        <v>25.30849232420502</v>
+        <v>71.99613107657451</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>125.9503056836409</v>
+        <v>56.37232437603189</v>
       </c>
       <c r="B94" t="n">
-        <v>143.0967295986634</v>
+        <v>44.74438774089388</v>
       </c>
       <c r="C94" t="n">
-        <v>171.9679082864496</v>
+        <v>17.42450105960775</v>
       </c>
       <c r="D94" t="n">
-        <v>124.5004396106951</v>
+        <v>128.6004125020854</v>
       </c>
       <c r="E94" t="n">
-        <v>124.454784780827</v>
+        <v>166.3694598806248</v>
       </c>
       <c r="F94" t="n">
-        <v>149.5866226986123</v>
+        <v>51.9787597208995</v>
       </c>
       <c r="G94" t="n">
-        <v>137.0987906296207</v>
+        <v>120.7890808156499</v>
       </c>
       <c r="H94" t="n">
-        <v>146.7577231231524</v>
+        <v>93.28112710680048</v>
       </c>
       <c r="I94" t="n">
-        <v>149.9013086305195</v>
+        <v>94.85713473095623</v>
       </c>
       <c r="J94" t="n">
-        <v>154.0418583304075</v>
+        <v>100.8961311161737</v>
       </c>
       <c r="K94" t="n">
-        <v>139.7852079056746</v>
+        <v>110.6466297731726</v>
       </c>
       <c r="L94" t="n">
-        <v>124.7224601420613</v>
+        <v>77.98253786409201</v>
       </c>
       <c r="M94" t="n">
-        <v>134.7714971209222</v>
+        <v>52.29781427202957</v>
       </c>
       <c r="N94" t="n">
-        <v>148.9993328991525</v>
+        <v>149.7814733418754</v>
       </c>
       <c r="O94" t="n">
-        <v>164.9877665424618</v>
+        <v>54.64368762313448</v>
       </c>
       <c r="P94" t="n">
-        <v>131.240588484778</v>
+        <v>127.4071288467898</v>
       </c>
       <c r="Q94" t="n">
-        <v>161.4387554968725</v>
+        <v>65.13477119221797</v>
       </c>
       <c r="R94" t="n">
-        <v>135.1025859814246</v>
+        <v>79.19362578783057</v>
       </c>
       <c r="S94" t="n">
-        <v>125.6023794296231</v>
+        <v>62.8335615924125</v>
       </c>
       <c r="T94" t="n">
-        <v>126.9512584481506</v>
+        <v>70.74740722019426</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>38.94096184661896</v>
+        <v>60.1502632444504</v>
       </c>
       <c r="B95" t="n">
-        <v>78.29171750300428</v>
+        <v>16.86177776360325</v>
       </c>
       <c r="C95" t="n">
-        <v>123.3931946590005</v>
+        <v>19.87115745113842</v>
       </c>
       <c r="D95" t="n">
-        <v>33.95995393096955</v>
+        <v>156.9172354577161</v>
       </c>
       <c r="E95" t="n">
-        <v>33.79219529091307</v>
+        <v>185.2895923114708</v>
       </c>
       <c r="F95" t="n">
-        <v>89.60511535684914</v>
+        <v>70.36559324993988</v>
       </c>
       <c r="G95" t="n">
-        <v>66.70080509140659</v>
+        <v>149.7406804825712</v>
       </c>
       <c r="H95" t="n">
-        <v>84.79828007706936</v>
+        <v>117.4761452947686</v>
       </c>
       <c r="I95" t="n">
-        <v>90.12946985797426</v>
+        <v>94.25669240258179</v>
       </c>
       <c r="J95" t="n">
-        <v>96.85976009480187</v>
+        <v>109.978889039322</v>
       </c>
       <c r="K95" t="n">
-        <v>72.06124726210291</v>
+        <v>137.2631771117205</v>
       </c>
       <c r="L95" t="n">
-        <v>34.76508408770651</v>
+        <v>71.92015037766869</v>
       </c>
       <c r="M95" t="n">
-        <v>61.77601026249588</v>
+        <v>65.90269030338722</v>
       </c>
       <c r="N95" t="n">
-        <v>88.62121761818513</v>
+        <v>178.3697637867098</v>
       </c>
       <c r="O95" t="n">
-        <v>113.4631310885043</v>
+        <v>32.16248416929383</v>
       </c>
       <c r="P95" t="n">
-        <v>53.63777655317274</v>
+        <v>154.3827491895586</v>
       </c>
       <c r="Q95" t="n">
-        <v>108.237658807442</v>
+        <v>67.54997602012295</v>
       </c>
       <c r="R95" t="n">
-        <v>62.49502177458186</v>
+        <v>100.6989718924986</v>
       </c>
       <c r="S95" t="n">
-        <v>37.80048579211982</v>
+        <v>80.72121597685644</v>
       </c>
       <c r="T95" t="n">
-        <v>42.06591291421563</v>
+        <v>85.09278721490051</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>44.19229806038319</v>
+        <v>86.30456095711409</v>
       </c>
       <c r="B96" t="n">
-        <v>81.03180689018444</v>
+        <v>32.56032499757797</v>
       </c>
       <c r="C96" t="n">
-        <v>125.1496751353031</v>
+        <v>19.03751542449107</v>
       </c>
       <c r="D96" t="n">
-        <v>39.87278732809494</v>
+        <v>144.5268263971052</v>
       </c>
       <c r="E96" t="n">
-        <v>39.73000328337668</v>
+        <v>201.8107820903328</v>
       </c>
       <c r="F96" t="n">
-        <v>92.00889846331253</v>
+        <v>87.32820882475008</v>
       </c>
       <c r="G96" t="n">
-        <v>69.89676743712634</v>
+        <v>141.3559902766851</v>
       </c>
       <c r="H96" t="n">
-        <v>87.33446629107556</v>
+        <v>97.34647371312893</v>
       </c>
       <c r="I96" t="n">
-        <v>92.51963053967198</v>
+        <v>122.8500315484774</v>
       </c>
       <c r="J96" t="n">
-        <v>99.08770773380768</v>
+        <v>134.1723931838978</v>
       </c>
       <c r="K96" t="n">
-        <v>75.0292213426732</v>
+        <v>142.6085709472505</v>
       </c>
       <c r="L96" t="n">
-        <v>40.56071707876006</v>
+        <v>101.8212583378689</v>
       </c>
       <c r="M96" t="n">
-        <v>65.2137726425171</v>
+        <v>39.26259407587138</v>
       </c>
       <c r="N96" t="n">
-        <v>91.05097973359563</v>
+        <v>166.8212550561307</v>
       </c>
       <c r="O96" t="n">
-        <v>115.3708924067289</v>
+        <v>62.08526355035744</v>
       </c>
       <c r="P96" t="n">
-        <v>57.56363237223656</v>
+        <v>138.0512605133164</v>
       </c>
       <c r="Q96" t="n">
-        <v>110.2358901739091</v>
+        <v>94.5237325993123</v>
       </c>
       <c r="R96" t="n">
-        <v>65.8952839353726</v>
+        <v>114.4872691783055</v>
       </c>
       <c r="S96" t="n">
-        <v>43.19070993209265</v>
+        <v>98.19189797816375</v>
       </c>
       <c r="T96" t="n">
-        <v>46.96915719516678</v>
+        <v>57.47505173500301</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>21.02854562879693</v>
+        <v>74.0122882982058</v>
       </c>
       <c r="B97" t="n">
-        <v>71.10129570755225</v>
+        <v>58.86858583173133</v>
       </c>
       <c r="C97" t="n">
-        <v>118.9608410775434</v>
+        <v>27.4728617502314</v>
       </c>
       <c r="D97" t="n">
-        <v>8.892676352827385</v>
+        <v>111.5769188474205</v>
       </c>
       <c r="E97" t="n">
-        <v>8.228832499314144</v>
+        <v>170.9344528941308</v>
       </c>
       <c r="F97" t="n">
-        <v>83.39591069013397</v>
+        <v>61.74741560328549</v>
       </c>
       <c r="G97" t="n">
-        <v>58.09301697764002</v>
+        <v>106.0359884329505</v>
       </c>
       <c r="H97" t="n">
-        <v>78.20837247860142</v>
+        <v>72.83675711714399</v>
       </c>
       <c r="I97" t="n">
-        <v>83.95905286865765</v>
+        <v>112.6548722874144</v>
       </c>
       <c r="J97" t="n">
-        <v>91.14611537166647</v>
+        <v>114.218900254685</v>
       </c>
       <c r="K97" t="n">
-        <v>64.17651111343226</v>
+        <v>106.3424835931805</v>
       </c>
       <c r="L97" t="n">
-        <v>11.5936315858261</v>
+        <v>97.58928688896943</v>
       </c>
       <c r="M97" t="n">
-        <v>52.36484188531994</v>
+        <v>35.68753555154964</v>
       </c>
       <c r="N97" t="n">
-        <v>82.33784933948837</v>
+        <v>133.3684436973333</v>
       </c>
       <c r="O97" t="n">
-        <v>108.626347347822</v>
+        <v>74.61154440152428</v>
       </c>
       <c r="P97" t="n">
-        <v>42.45953715351415</v>
+        <v>108.5134587702126</v>
       </c>
       <c r="Q97" t="n">
-        <v>103.1561535044749</v>
+        <v>82.81092797699836</v>
       </c>
       <c r="R97" t="n">
-        <v>53.21117334101948</v>
+        <v>83.62477776650157</v>
       </c>
       <c r="S97" t="n">
-        <v>18.83289536536572</v>
+        <v>71.98979427223742</v>
       </c>
       <c r="T97" t="n">
-        <v>26.36934301473843</v>
+        <v>52.5118804875904</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>62.34782146408545</v>
+        <v>85.27718715662006</v>
       </c>
       <c r="B98" t="n">
-        <v>92.19785985231907</v>
+        <v>143.1369589143442</v>
       </c>
       <c r="C98" t="n">
-        <v>132.6526773945088</v>
+        <v>120.4677218669037</v>
       </c>
       <c r="D98" t="n">
-        <v>59.36439002273346</v>
+        <v>110.2208724443406</v>
       </c>
       <c r="E98" t="n">
-        <v>59.26858184870673</v>
+        <v>68.82106833757774</v>
       </c>
       <c r="F98" t="n">
-        <v>101.9800423116792</v>
+        <v>57.6230907763851</v>
       </c>
       <c r="G98" t="n">
-        <v>82.58238148430603</v>
+        <v>89.81836424162155</v>
       </c>
       <c r="H98" t="n">
-        <v>97.78343743092049</v>
+        <v>125.7666117110514</v>
       </c>
       <c r="I98" t="n">
-        <v>102.4410741287748</v>
+        <v>97.35619893501742</v>
       </c>
       <c r="J98" t="n">
-        <v>108.4097110843868</v>
+        <v>66.80818721017167</v>
       </c>
       <c r="K98" t="n">
-        <v>86.96939512695012</v>
+        <v>28.48882673383631</v>
       </c>
       <c r="L98" t="n">
-        <v>59.82861692704374</v>
+        <v>107.7225490499185</v>
       </c>
       <c r="M98" t="n">
-        <v>78.65829756439963</v>
+        <v>134.8765780182729</v>
       </c>
       <c r="N98" t="n">
-        <v>101.1166284243465</v>
+        <v>119.2570774957693</v>
       </c>
       <c r="O98" t="n">
-        <v>123.4695689155217</v>
+        <v>132.4418632313534</v>
       </c>
       <c r="P98" t="n">
-        <v>72.44213832670684</v>
+        <v>126.0621851010914</v>
       </c>
       <c r="Q98" t="n">
-        <v>118.6854798022651</v>
+        <v>86.5591913638674</v>
       </c>
       <c r="R98" t="n">
-        <v>79.22423920987252</v>
+        <v>26.72711042352882</v>
       </c>
       <c r="S98" t="n">
-        <v>61.64194235987291</v>
+        <v>49.42794066279657</v>
       </c>
       <c r="T98" t="n">
-        <v>64.34588845516095</v>
+        <v>144.7600033402079</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>57.27527528746933</v>
+        <v>157.2327651568061</v>
       </c>
       <c r="B99" t="n">
-        <v>88.84622490171313</v>
+        <v>192.3844219235029</v>
       </c>
       <c r="C99" t="n">
-        <v>130.3454607490017</v>
+        <v>162.3950835210107</v>
       </c>
       <c r="D99" t="n">
-        <v>54.01237932834598</v>
+        <v>56.4615413909907</v>
       </c>
       <c r="E99" t="n">
-        <v>53.90705994853336</v>
+        <v>121.6261971544108</v>
       </c>
       <c r="F99" t="n">
-        <v>98.96027156303585</v>
+        <v>124.6801435744106</v>
       </c>
       <c r="G99" t="n">
-        <v>78.82294113744661</v>
+        <v>40.81470082628864</v>
       </c>
       <c r="H99" t="n">
-        <v>94.62984177174059</v>
+        <v>106.9956303730374</v>
       </c>
       <c r="I99" t="n">
-        <v>99.43530553377433</v>
+        <v>178.3130428161355</v>
       </c>
       <c r="J99" t="n">
-        <v>105.5740108896983</v>
+        <v>150.0928117496406</v>
       </c>
       <c r="K99" t="n">
-        <v>83.40792532299011</v>
+        <v>55.30139759855538</v>
       </c>
       <c r="L99" t="n">
-        <v>54.52219475902328</v>
+        <v>183.7454026793908</v>
       </c>
       <c r="M99" t="n">
-        <v>74.70163380855574</v>
+        <v>150.8749058892461</v>
       </c>
       <c r="N99" t="n">
-        <v>98.0702751186377</v>
+        <v>49.48452366961494</v>
       </c>
       <c r="O99" t="n">
-        <v>120.9873578772703</v>
+        <v>194.4216560001741</v>
       </c>
       <c r="P99" t="n">
-        <v>68.12539705046606</v>
+        <v>78.40726113691821</v>
       </c>
       <c r="Q99" t="n">
-        <v>116.1010311488739</v>
+        <v>161.365865745308</v>
       </c>
       <c r="R99" t="n">
-        <v>75.29731998099948</v>
+        <v>102.0038238037129</v>
       </c>
       <c r="S99" t="n">
-        <v>56.50606494736485</v>
+        <v>121.6752887763851</v>
       </c>
       <c r="T99" t="n">
-        <v>59.44408868022064</v>
+        <v>150.0927408607651</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>116.5370767826527</v>
+        <v>113.4479270788019</v>
       </c>
       <c r="B100" t="n">
-        <v>134.885450605602</v>
+        <v>80.25720359331577</v>
       </c>
       <c r="C100" t="n">
-        <v>165.1979789333394</v>
+        <v>54.49666238549258</v>
       </c>
       <c r="D100" t="n">
-        <v>114.9685619049818</v>
+        <v>105.5001642160613</v>
       </c>
       <c r="E100" t="n">
-        <v>114.91912033289</v>
+        <v>202.6695912094697</v>
       </c>
       <c r="F100" t="n">
-        <v>141.7517846576201</v>
+        <v>99.92400599080344</v>
       </c>
       <c r="G100" t="n">
-        <v>128.5048215256839</v>
+        <v>107.683993268739</v>
       </c>
       <c r="H100" t="n">
-        <v>138.7632518339606</v>
+        <v>51.89670397210707</v>
       </c>
       <c r="I100" t="n">
-        <v>142.08382417568</v>
+        <v>152.1130618137319</v>
       </c>
       <c r="J100" t="n">
-        <v>146.44556968761</v>
+        <v>153.109503939424</v>
       </c>
       <c r="K100" t="n">
-        <v>131.3671005711704</v>
+        <v>129.0925712769498</v>
       </c>
       <c r="L100" t="n">
-        <v>115.2089528948656</v>
+        <v>135.9883267864378</v>
       </c>
       <c r="M100" t="n">
-        <v>126.0189160382601</v>
+        <v>8.955488103669518</v>
       </c>
       <c r="N100" t="n">
-        <v>141.1318956424655</v>
+        <v>127.8955044890151</v>
       </c>
       <c r="O100" t="n">
-        <v>157.9188838356995</v>
+        <v>105.8812835203845</v>
       </c>
       <c r="P100" t="n">
-        <v>122.2354401516767</v>
+        <v>94.83747770545493</v>
       </c>
       <c r="Q100" t="n">
-        <v>154.2072713578134</v>
+        <v>122.2574017271436</v>
       </c>
       <c r="R100" t="n">
-        <v>126.3729381715544</v>
+        <v>117.6006956640088</v>
       </c>
       <c r="S100" t="n">
-        <v>116.1609593694297</v>
+        <v>109.5740500736413</v>
       </c>
       <c r="T100" t="n">
-        <v>117.618165199141</v>
+        <v>12.92265495451798</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>144.286747208372</v>
+        <v>103.3749675817327</v>
       </c>
       <c r="B101" t="n">
-        <v>159.4736967026319</v>
+        <v>129.486671767912</v>
       </c>
       <c r="C101" t="n">
-        <v>185.8175110117095</v>
+        <v>99.3448555233314</v>
       </c>
       <c r="D101" t="n">
-        <v>143.0228841179844</v>
+        <v>56.25534044518365</v>
       </c>
       <c r="E101" t="n">
-        <v>142.9831436673988</v>
+        <v>126.2125107086624</v>
       </c>
       <c r="F101" t="n">
-        <v>165.3219392837716</v>
+        <v>71.42496873601984</v>
       </c>
       <c r="G101" t="n">
-        <v>154.1144519838248</v>
+        <v>40.40877362901614</v>
       </c>
       <c r="H101" t="n">
-        <v>162.7667509489021</v>
+        <v>66.43229104559281</v>
       </c>
       <c r="I101" t="n">
-        <v>165.606727663197</v>
+        <v>132.4353675918509</v>
       </c>
       <c r="J101" t="n">
-        <v>169.3637506553731</v>
+        <v>112.8339399287508</v>
       </c>
       <c r="K101" t="n">
-        <v>156.5090740736867</v>
+        <v>44.08101764734028</v>
       </c>
       <c r="L101" t="n">
-        <v>143.2161931558653</v>
+        <v>131.4033965758176</v>
       </c>
       <c r="M101" t="n">
-        <v>152.0478291669592</v>
+        <v>92.14212098064205</v>
       </c>
       <c r="N101" t="n">
-        <v>164.7907373688295</v>
+        <v>72.45342200216612</v>
       </c>
       <c r="O101" t="n">
-        <v>179.3771139996402</v>
+        <v>133.8416343409732</v>
       </c>
       <c r="P101" t="n">
-        <v>148.927089490129</v>
+        <v>67.66437269120777</v>
       </c>
       <c r="Q101" t="n">
-        <v>176.1183059609337</v>
+        <v>109.3950431652086</v>
       </c>
       <c r="R101" t="n">
-        <v>152.3413753943369</v>
+        <v>61.25051207340043</v>
       </c>
       <c r="S101" t="n">
-        <v>143.9831366395144</v>
+        <v>72.64519573880065</v>
       </c>
       <c r="T101" t="n">
-        <v>145.1613169537229</v>
+        <v>95.81944714797419</v>
       </c>
     </row>
   </sheetData>
